--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1907D0-34FE-416A-B7DC-5E44C14B3233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED6115-B628-4E9B-A1A2-18531D66883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="8" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="CON" sheetId="10" r:id="rId7"/>
     <sheet name="Logic" sheetId="12" r:id="rId8"/>
     <sheet name="Module" sheetId="14" r:id="rId9"/>
+    <sheet name="Integrated" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1328">
   <si>
     <t>Part Number</t>
   </si>
@@ -2203,15 +2204,6 @@
     <t>RES SM 1206 0R</t>
   </si>
   <si>
-    <t>1N/0603</t>
-  </si>
-  <si>
-    <t>CAP SM 0603 1nF</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
     <t>R0603-0.40-WW</t>
   </si>
   <si>
@@ -2240,6 +2232,1803 @@
   </si>
   <si>
     <t>Modules</t>
+  </si>
+  <si>
+    <t>Integrated</t>
+  </si>
+  <si>
+    <t>Integrated Circuits of any kind</t>
+  </si>
+  <si>
+    <t>1.0P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.0pF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.0pF</t>
+  </si>
+  <si>
+    <t>CAP0603_C0G</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GP_NP0_16V-to-50V_18.pdf</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN1R0</t>
+  </si>
+  <si>
+    <t>311-1049-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN1R0</t>
+  </si>
+  <si>
+    <t>311-3346-1-ND</t>
+  </si>
+  <si>
+    <t>1.2P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.2pF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.2pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN1R2</t>
+  </si>
+  <si>
+    <t>311-3851-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN1R2</t>
+  </si>
+  <si>
+    <t>311-3825-1-ND</t>
+  </si>
+  <si>
+    <t>1.5P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.5pF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.5pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN1R5</t>
+  </si>
+  <si>
+    <t>311-1050-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN1R5</t>
+  </si>
+  <si>
+    <t>311-1737-1-ND</t>
+  </si>
+  <si>
+    <t>1.8P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.8pF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.8pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN1R8</t>
+  </si>
+  <si>
+    <t>311-3852-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN1R8</t>
+  </si>
+  <si>
+    <t>311-3826-1-ND</t>
+  </si>
+  <si>
+    <t>2.2P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.2pF 50V C0G </t>
+  </si>
+  <si>
+    <t>2.2pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN2R2</t>
+  </si>
+  <si>
+    <t>311-1739-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603DRNPO9BN2R2</t>
+  </si>
+  <si>
+    <t>311-3870-1-ND</t>
+  </si>
+  <si>
+    <t>2.7P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.7pF 50V C0G </t>
+  </si>
+  <si>
+    <t>2.7pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN2R7</t>
+  </si>
+  <si>
+    <t>311-3854-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN2R7</t>
+  </si>
+  <si>
+    <t>311-3830-1-ND</t>
+  </si>
+  <si>
+    <t>3.3P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.3pF 50V C0G </t>
+  </si>
+  <si>
+    <t>3.3pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN3R3</t>
+  </si>
+  <si>
+    <t>311-3855-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN3R3</t>
+  </si>
+  <si>
+    <t>311-3832-1-ND</t>
+  </si>
+  <si>
+    <t>3.9P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.9pF 50V C0G </t>
+  </si>
+  <si>
+    <t>3.9pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN3R9</t>
+  </si>
+  <si>
+    <t>311-3857-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603BRNPO9BN3R9</t>
+  </si>
+  <si>
+    <t>311-3834-1-ND</t>
+  </si>
+  <si>
+    <t>4.7P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 4.7pF 50V C0G </t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN4R7</t>
+  </si>
+  <si>
+    <t>311-1740-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603DRNPO9BN4R7</t>
+  </si>
+  <si>
+    <t>13-CC0603DRNPO9BN4R7CT-ND</t>
+  </si>
+  <si>
+    <t>5.6P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 5.6pF 50V C0G </t>
+  </si>
+  <si>
+    <t>5.6pF</t>
+  </si>
+  <si>
+    <t>CC0603DRNPO9BN5R6</t>
+  </si>
+  <si>
+    <t>311-3872-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN5R6</t>
+  </si>
+  <si>
+    <t>311-1741-1-ND</t>
+  </si>
+  <si>
+    <t>6.8P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 6.8pF 50V C0G </t>
+  </si>
+  <si>
+    <t>6.8pF</t>
+  </si>
+  <si>
+    <t>CC0603DRNPO9BN6R8</t>
+  </si>
+  <si>
+    <t>311-3874-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603CRNPO9BN6R8</t>
+  </si>
+  <si>
+    <t>311-3861-1-ND</t>
+  </si>
+  <si>
+    <t>8.2P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 8.2pF 50V C0G </t>
+  </si>
+  <si>
+    <t>8.2pF</t>
+  </si>
+  <si>
+    <t>CC0603DRNPO9BN8R2</t>
+  </si>
+  <si>
+    <t>311-1742-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN8R2</t>
+  </si>
+  <si>
+    <t>311-3977-1-ND</t>
+  </si>
+  <si>
+    <t>10P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 10pF 50V C0G </t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN100</t>
+  </si>
+  <si>
+    <t>311-1058-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN100</t>
+  </si>
+  <si>
+    <t>311-4025-1-ND</t>
+  </si>
+  <si>
+    <t>12P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 12pF 50V C0G </t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN120</t>
+  </si>
+  <si>
+    <t>311-1059-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN120</t>
+  </si>
+  <si>
+    <t>311-4027-1-ND</t>
+  </si>
+  <si>
+    <t>15P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 15pF 50V C0G </t>
+  </si>
+  <si>
+    <t>15pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN150</t>
+  </si>
+  <si>
+    <t>311-1060-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN150</t>
+  </si>
+  <si>
+    <t>311-4028-1-ND</t>
+  </si>
+  <si>
+    <t>18P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 18pF 50V C0G </t>
+  </si>
+  <si>
+    <t>18pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN180</t>
+  </si>
+  <si>
+    <t>311-1061-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN180</t>
+  </si>
+  <si>
+    <t>13-CC0603KRNPO9BN180CT-ND</t>
+  </si>
+  <si>
+    <t>22P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 22pF 50V C0G </t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN220</t>
+  </si>
+  <si>
+    <t>311-1062-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN220</t>
+  </si>
+  <si>
+    <t>311-4030-1-ND</t>
+  </si>
+  <si>
+    <t>27P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 27pF 50V C0G </t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN270</t>
+  </si>
+  <si>
+    <t>311-1063-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN270</t>
+  </si>
+  <si>
+    <t>311-4032-1-ND</t>
+  </si>
+  <si>
+    <t>33P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 33pF 50V C0G </t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN330</t>
+  </si>
+  <si>
+    <t>311-1064-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN330</t>
+  </si>
+  <si>
+    <t>311-4034-1-ND</t>
+  </si>
+  <si>
+    <t>39P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 39pF 50V C0G </t>
+  </si>
+  <si>
+    <t>39pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN390</t>
+  </si>
+  <si>
+    <t>311-1774-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN390</t>
+  </si>
+  <si>
+    <t>13-CC0603KRNPO9BN390CT-ND</t>
+  </si>
+  <si>
+    <t>47P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 47pF 50V C0G </t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN470</t>
+  </si>
+  <si>
+    <t>311-1065-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN470</t>
+  </si>
+  <si>
+    <t>311-4037-1-ND</t>
+  </si>
+  <si>
+    <t>56P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 56pF 50V C0G </t>
+  </si>
+  <si>
+    <t>56pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN560</t>
+  </si>
+  <si>
+    <t>311-1066-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN560</t>
+  </si>
+  <si>
+    <t>311-3936-1-ND</t>
+  </si>
+  <si>
+    <t>68P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 68pF 50V C0G </t>
+  </si>
+  <si>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN680</t>
+  </si>
+  <si>
+    <t>311-1067-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN680</t>
+  </si>
+  <si>
+    <t>311-4039-1-ND</t>
+  </si>
+  <si>
+    <t>82P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 82pF 50V C0G </t>
+  </si>
+  <si>
+    <t>82pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN820</t>
+  </si>
+  <si>
+    <t>311-1068-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN820</t>
+  </si>
+  <si>
+    <t>311-3940-1-ND</t>
+  </si>
+  <si>
+    <t>100P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 100pF 50V C0G </t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN101</t>
+  </si>
+  <si>
+    <t>311-1069-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN101</t>
+  </si>
+  <si>
+    <t>311-3600-1-ND</t>
+  </si>
+  <si>
+    <t>120P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 120pF 50V C0G </t>
+  </si>
+  <si>
+    <t>120pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN121</t>
+  </si>
+  <si>
+    <t>311-1070-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN121</t>
+  </si>
+  <si>
+    <t>311-3918-1-ND</t>
+  </si>
+  <si>
+    <t>150P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 150pF 50V C0G </t>
+  </si>
+  <si>
+    <t>150pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN151</t>
+  </si>
+  <si>
+    <t>311-1071-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN151</t>
+  </si>
+  <si>
+    <t>311-4029-1-ND</t>
+  </si>
+  <si>
+    <t>180P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 180pF 50V C0G </t>
+  </si>
+  <si>
+    <t>180pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN181</t>
+  </si>
+  <si>
+    <t>311-1072-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN181</t>
+  </si>
+  <si>
+    <t>311-3923-1-ND</t>
+  </si>
+  <si>
+    <t>220P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 220pF 50V C0G </t>
+  </si>
+  <si>
+    <t>220pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN221</t>
+  </si>
+  <si>
+    <t>311-1073-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN221</t>
+  </si>
+  <si>
+    <t>311-4031-1-ND</t>
+  </si>
+  <si>
+    <t>270P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 270pF 50V C0G </t>
+  </si>
+  <si>
+    <t>270pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN271</t>
+  </si>
+  <si>
+    <t>311-1074-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN271</t>
+  </si>
+  <si>
+    <t>311-4033-1-ND</t>
+  </si>
+  <si>
+    <t>330P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 330pF 50V C0G </t>
+  </si>
+  <si>
+    <t>330pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN331</t>
+  </si>
+  <si>
+    <t>311-1075-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN331</t>
+  </si>
+  <si>
+    <t>311-4035-1-ND</t>
+  </si>
+  <si>
+    <t>390P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 390pF 50V C0G </t>
+  </si>
+  <si>
+    <t>390pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN391</t>
+  </si>
+  <si>
+    <t>311-1076-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN391</t>
+  </si>
+  <si>
+    <t>311-4036-1-ND</t>
+  </si>
+  <si>
+    <t>470P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 470pF 50V C0G </t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN471</t>
+  </si>
+  <si>
+    <t>311-1520-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN471</t>
+  </si>
+  <si>
+    <t>311-4038-1-ND</t>
+  </si>
+  <si>
+    <t>560P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 560pF 50V C0G </t>
+  </si>
+  <si>
+    <t>560pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN561</t>
+  </si>
+  <si>
+    <t>311-3359-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN561</t>
+  </si>
+  <si>
+    <t>311-3937-1-ND</t>
+  </si>
+  <si>
+    <t>680P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 680pF 50V C0G </t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN681</t>
+  </si>
+  <si>
+    <t>311-1425-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN681</t>
+  </si>
+  <si>
+    <t>311-3939-1-ND</t>
+  </si>
+  <si>
+    <t>820P/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 820pF 50V C0G </t>
+  </si>
+  <si>
+    <t>820pF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN821</t>
+  </si>
+  <si>
+    <t>311-1775-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN821</t>
+  </si>
+  <si>
+    <t>311-3941-1-ND</t>
+  </si>
+  <si>
+    <t>1.0N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.0nF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.0nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN102</t>
+  </si>
+  <si>
+    <t>311-1423-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRNPO9BN102</t>
+  </si>
+  <si>
+    <t>311-4026-1-ND</t>
+  </si>
+  <si>
+    <t>1.2N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.2nF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.2nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN122</t>
+  </si>
+  <si>
+    <t>311-3962-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN122</t>
+  </si>
+  <si>
+    <t>13-CC0603GRNPO9BN122CT-ND</t>
+  </si>
+  <si>
+    <t>1.5N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.5nF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.5nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN152</t>
+  </si>
+  <si>
+    <t>311-1768-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN152</t>
+  </si>
+  <si>
+    <t>13-CC0603GRNPO9BN152CT-ND</t>
+  </si>
+  <si>
+    <t>1.8N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.8nF 50V C0G </t>
+  </si>
+  <si>
+    <t>1.8nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN182</t>
+  </si>
+  <si>
+    <t>311-1769-1-ND</t>
+  </si>
+  <si>
+    <t>2.2N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.2nF 50V C0G </t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN222</t>
+  </si>
+  <si>
+    <t>311-1771-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603FRNPO9BN222</t>
+  </si>
+  <si>
+    <t>13-CC0603FRNPO9BN222CT-ND</t>
+  </si>
+  <si>
+    <t>2.7N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.7nF 50V C0G </t>
+  </si>
+  <si>
+    <t>2.7nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN272</t>
+  </si>
+  <si>
+    <t>311-1773-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603GRNPO9BN272</t>
+  </si>
+  <si>
+    <t>13-CC0603GRNPO9BN272CT-ND</t>
+  </si>
+  <si>
+    <t>3.3N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.3nF 50V C0G </t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN332</t>
+  </si>
+  <si>
+    <t>311-3968-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603FRNPO9BN332</t>
+  </si>
+  <si>
+    <t>13-CC0603FRNPO9BN332CT-ND</t>
+  </si>
+  <si>
+    <t>3.9N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.9nF 50V C0G </t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN392</t>
+  </si>
+  <si>
+    <t>13-CC0603JRNPO9BN392CT-ND</t>
+  </si>
+  <si>
+    <t>4.7N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 4.7nF 50V C0G </t>
+  </si>
+  <si>
+    <t>4.7nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN472</t>
+  </si>
+  <si>
+    <t>13-CC0603JRNPO9BN472CT-ND</t>
+  </si>
+  <si>
+    <t>6.8N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 6.8nF 50V C0G </t>
+  </si>
+  <si>
+    <t>6.8nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN682</t>
+  </si>
+  <si>
+    <t>13-CC0603JRNPO9BN682CT-ND</t>
+  </si>
+  <si>
+    <t>10N/0603/50V/C0G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 10nF 50V C0G </t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>CC0603JRNPO9BN103</t>
+  </si>
+  <si>
+    <t>311-3960-1-ND</t>
+  </si>
+  <si>
+    <t>100P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 100pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CAP0603_X7R</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/app/datasheet/mlcc/upy-gphc_x7r_6_3v-to-250v.pdf</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB101</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB101CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB101</t>
+  </si>
+  <si>
+    <t>311-3601-1-ND</t>
+  </si>
+  <si>
+    <t>120P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 120pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB121</t>
+  </si>
+  <si>
+    <t>311-4094-1-ND</t>
+  </si>
+  <si>
+    <t>150P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 150pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB151</t>
+  </si>
+  <si>
+    <t>311-4095-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB151</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB151CT-ND</t>
+  </si>
+  <si>
+    <t>180P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 180pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB181</t>
+  </si>
+  <si>
+    <t>311-4096-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB181</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB181CT-ND</t>
+  </si>
+  <si>
+    <t>220P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 220pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB221</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB221CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB221</t>
+  </si>
+  <si>
+    <t>311-1077-1-ND</t>
+  </si>
+  <si>
+    <t>270P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 270pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB271</t>
+  </si>
+  <si>
+    <t>311-1185-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB271</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB271CT-ND</t>
+  </si>
+  <si>
+    <t>330P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 330pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB331</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB331CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB331</t>
+  </si>
+  <si>
+    <t>311-1186-1-ND</t>
+  </si>
+  <si>
+    <t>390P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 390pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB391</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB391CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB391</t>
+  </si>
+  <si>
+    <t>311-1187-1-ND</t>
+  </si>
+  <si>
+    <t>470P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 470pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB471</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB471CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB471</t>
+  </si>
+  <si>
+    <t>311-1078-1-ND</t>
+  </si>
+  <si>
+    <t>560P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 560pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB561</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB561CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB561</t>
+  </si>
+  <si>
+    <t>311-1079-1-ND</t>
+  </si>
+  <si>
+    <t>680P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 680pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB681</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB681CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB681</t>
+  </si>
+  <si>
+    <t>311-1188-1-ND</t>
+  </si>
+  <si>
+    <t>820P/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 820pF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB821</t>
+  </si>
+  <si>
+    <t>311-1189-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB821</t>
+  </si>
+  <si>
+    <t>311-4023-1-ND</t>
+  </si>
+  <si>
+    <t>1.0N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.0nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB102</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB102CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>311-1080-1-ND</t>
+  </si>
+  <si>
+    <t>1.2N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.2nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB122</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB122CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB122</t>
+  </si>
+  <si>
+    <t>311-1806-1-ND</t>
+  </si>
+  <si>
+    <t>1.5N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.5nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB152</t>
+  </si>
+  <si>
+    <t>311-1184-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB152</t>
+  </si>
+  <si>
+    <t>311-4006-1-ND</t>
+  </si>
+  <si>
+    <t>1.8N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.8nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB182</t>
+  </si>
+  <si>
+    <t>311-3373-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB182</t>
+  </si>
+  <si>
+    <t>311-4007-1-ND</t>
+  </si>
+  <si>
+    <t>2.2N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.2nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB222</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB222CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB222</t>
+  </si>
+  <si>
+    <t>311-1081-1-ND</t>
+  </si>
+  <si>
+    <t>2.7N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 2.7nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB272</t>
+  </si>
+  <si>
+    <t>311-1809-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB272</t>
+  </si>
+  <si>
+    <t>311-4011-1-ND</t>
+  </si>
+  <si>
+    <t>3.3N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.3nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB332</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB332CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB332</t>
+  </si>
+  <si>
+    <t>311-1082-1-ND</t>
+  </si>
+  <si>
+    <t>3.9N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 3.9nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB392</t>
+  </si>
+  <si>
+    <t>311-3630-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB392</t>
+  </si>
+  <si>
+    <t>311-4017-1-ND</t>
+  </si>
+  <si>
+    <t>4.7N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 4.7nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB472</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB472CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB472</t>
+  </si>
+  <si>
+    <t>311-1083-1-ND</t>
+  </si>
+  <si>
+    <t>5.6N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 5.6nF 50V X7R </t>
+  </si>
+  <si>
+    <t>5.6nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB562</t>
+  </si>
+  <si>
+    <t>311-1810-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB562</t>
+  </si>
+  <si>
+    <t>311-4021-1-ND</t>
+  </si>
+  <si>
+    <t>6.8N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 6.8nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB682</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB682CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB682</t>
+  </si>
+  <si>
+    <t>311-1084-1-ND</t>
+  </si>
+  <si>
+    <t>8.2N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 8.2nF 50V X7R </t>
+  </si>
+  <si>
+    <t>8.2nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB822</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB822CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB822</t>
+  </si>
+  <si>
+    <t>311-1811-1-ND</t>
+  </si>
+  <si>
+    <t>10N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 10nF 50V X7R </t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB103</t>
+  </si>
+  <si>
+    <t>311-1572-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB103</t>
+  </si>
+  <si>
+    <t>311-1085-1-ND</t>
+  </si>
+  <si>
+    <t>12N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 12nF 50V X7R </t>
+  </si>
+  <si>
+    <t>12nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB123</t>
+  </si>
+  <si>
+    <t>311-1807-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB123</t>
+  </si>
+  <si>
+    <t>311-4005-1-ND</t>
+  </si>
+  <si>
+    <t>15N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 15nF 50V X7R </t>
+  </si>
+  <si>
+    <t>15nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB153</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB153CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB153</t>
+  </si>
+  <si>
+    <t>311-1430-1-ND</t>
+  </si>
+  <si>
+    <t>18N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 18nF 50V X7R </t>
+  </si>
+  <si>
+    <t>18nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB183</t>
+  </si>
+  <si>
+    <t>311-1808-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB183</t>
+  </si>
+  <si>
+    <t>311-4008-1-ND</t>
+  </si>
+  <si>
+    <t>22N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 22nF 50V X7R </t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB223</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB223CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB223</t>
+  </si>
+  <si>
+    <t>311-1370-1-ND</t>
+  </si>
+  <si>
+    <t>27N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 27nF 50V X7R </t>
+  </si>
+  <si>
+    <t>27nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB273</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB273CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB273</t>
+  </si>
+  <si>
+    <t>311-3375-1-ND</t>
+  </si>
+  <si>
+    <t>33N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 33nF 50V X7R </t>
+  </si>
+  <si>
+    <t>33nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB333</t>
+  </si>
+  <si>
+    <t>311-1429-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB333</t>
+  </si>
+  <si>
+    <t>311-4015-1-ND</t>
+  </si>
+  <si>
+    <t>39N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 39nF 50V X7R </t>
+  </si>
+  <si>
+    <t>39nF</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB393</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB393CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB393</t>
+  </si>
+  <si>
+    <t>311-3551-1-ND</t>
+  </si>
+  <si>
+    <t>47N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 47nF 50V X7R </t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB473</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB473CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB473</t>
+  </si>
+  <si>
+    <t>311-1427-1-ND</t>
+  </si>
+  <si>
+    <t>56N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 56nF 50V X7R </t>
+  </si>
+  <si>
+    <t>56nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB563</t>
+  </si>
+  <si>
+    <t>311-4100-1-ND</t>
+  </si>
+  <si>
+    <t>68N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 68nF 50V X7R </t>
+  </si>
+  <si>
+    <t>68nF</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/mlcc/UPY-GPHC_X7R_6.3V-to-250V_23.pdf</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB683</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB683CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB683</t>
+  </si>
+  <si>
+    <t>311-3376-1-ND</t>
+  </si>
+  <si>
+    <t>82N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 82nF 50V X7R </t>
+  </si>
+  <si>
+    <t>82nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB823</t>
+  </si>
+  <si>
+    <t>13-CC0603KPX7R9BB823CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB823</t>
+  </si>
+  <si>
+    <t>311-4102-1-ND</t>
+  </si>
+  <si>
+    <t>100N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 100nF 50V X7R </t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>CC0603KPX7R9BB104</t>
+  </si>
+  <si>
+    <t>311-3567-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603MRX7R9BB104</t>
+  </si>
+  <si>
+    <t>311-4110-1-ND</t>
+  </si>
+  <si>
+    <t>120N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 120nF 50V X7R </t>
+  </si>
+  <si>
+    <t>120nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB124</t>
+  </si>
+  <si>
+    <t>13-CC0603KRX7R9BB124CT-ND</t>
+  </si>
+  <si>
+    <t>150N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 150nF 50V X7R </t>
+  </si>
+  <si>
+    <t>150nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB154</t>
+  </si>
+  <si>
+    <t>13-CC0603KRX7R9BB154CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB154</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB154CT-ND</t>
+  </si>
+  <si>
+    <t>220N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 220nF 50V X7R </t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R9BB224</t>
+  </si>
+  <si>
+    <t>13-CC0603JRX7R9BB224CT-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB224</t>
+  </si>
+  <si>
+    <t>311-3374-1-ND</t>
+  </si>
+  <si>
+    <t>470N/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 470nF 50V X7R </t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB474</t>
+  </si>
+  <si>
+    <t>13-CC0603KRX7R9BB474CT-ND</t>
+  </si>
+  <si>
+    <t>1.0U/0603/50V/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SM 0603 1.0uF 50V X7R </t>
+  </si>
+  <si>
+    <t>1.0uF</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB105</t>
+  </si>
+  <si>
+    <t>311-2082-1-ND</t>
+  </si>
+  <si>
+    <t>10U/0805/16V/X7R</t>
+  </si>
+  <si>
+    <t>CAP SM 0805 10uF 16V X7R</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CAP0805_X7R</t>
+  </si>
+  <si>
+    <t>https://88ce57.p3cdn1.secureserver.net/wp-content/uploads/2023/01/gmc_series-2.pdf</t>
+  </si>
+  <si>
+    <t>Cal-Chip Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>GMC21X7R106K16NT</t>
+  </si>
+  <si>
+    <t>4713-GMC21X7R106K16NTCT-ND</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL21B106KOQNNNE</t>
+  </si>
+  <si>
+    <t>1276-2872-1-ND</t>
   </si>
 </sst>
 </file>
@@ -2283,15 +4072,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{EF57721B-36C4-46B1-A33C-AE929CF977C4}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2308,7 +4098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2607,10 +4397,10 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -2684,23 +4474,31 @@
         <v>674</v>
       </c>
       <c r="B12" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B13" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" t="s">
         <v>730</v>
-      </c>
-      <c r="B14" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,6 +4662,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2872,10 +4684,10 @@
   <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2891,7 +4703,7 @@
         <v>697</v>
       </c>
       <c r="B3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,12 +4735,12 @@
         <v>700</v>
       </c>
       <c r="B100" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,15 +4789,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B140" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +4827,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -3027,9 +4839,9 @@
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3124,7 +4936,7 @@
         <v>715</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -3187,7 +4999,7 @@
         <v>715</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K3" s="3">
         <v>0.5</v>
@@ -3232,7 +5044,7 @@
         <v>715</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K4" s="3">
         <v>0.56999999999999995</v>
@@ -3277,7 +5089,7 @@
         <v>715</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -3322,7 +5134,7 @@
         <v>715</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K6" s="3">
         <v>1.2</v>
@@ -3367,7 +5179,7 @@
         <v>715</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K7" s="3">
         <v>1.5</v>
@@ -3412,7 +5224,7 @@
         <v>715</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K8" s="3">
         <v>1.8</v>
@@ -3457,7 +5269,7 @@
         <v>715</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K9" s="3">
         <v>2.2000000000000002</v>
@@ -3502,7 +5314,7 @@
         <v>715</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K10" s="3">
         <v>2.7</v>
@@ -3547,7 +5359,7 @@
         <v>715</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K11" s="3">
         <v>3.3</v>
@@ -3592,7 +5404,7 @@
         <v>715</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K12" s="3">
         <v>3.9</v>
@@ -3637,7 +5449,7 @@
         <v>715</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K13" s="3">
         <v>4.7</v>
@@ -3682,7 +5494,7 @@
         <v>715</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K14" s="3">
         <v>5.6</v>
@@ -3727,7 +5539,7 @@
         <v>715</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K15" s="3">
         <v>6.8</v>
@@ -3772,7 +5584,7 @@
         <v>715</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K16" s="3">
         <v>8.1999999999999993</v>
@@ -3817,7 +5629,7 @@
         <v>715</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K17" s="3">
         <v>10</v>
@@ -3880,7 +5692,7 @@
         <v>715</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K18" s="3">
         <v>11</v>
@@ -3925,7 +5737,7 @@
         <v>715</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K19" s="3">
         <v>12</v>
@@ -3970,7 +5782,7 @@
         <v>715</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K20" s="3">
         <v>13</v>
@@ -4015,7 +5827,7 @@
         <v>715</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K21" s="3">
         <v>15</v>
@@ -4060,7 +5872,7 @@
         <v>715</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K22" s="3">
         <v>16</v>
@@ -4105,7 +5917,7 @@
         <v>715</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K23" s="3">
         <v>18</v>
@@ -4150,7 +5962,7 @@
         <v>715</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K24" s="3">
         <v>20</v>
@@ -4195,7 +6007,7 @@
         <v>715</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K25" s="3">
         <v>22</v>
@@ -4258,7 +6070,7 @@
         <v>715</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K26" s="3">
         <v>24</v>
@@ -4303,7 +6115,7 @@
         <v>715</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K27" s="3">
         <v>27</v>
@@ -4348,7 +6160,7 @@
         <v>715</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K28" s="3">
         <v>30</v>
@@ -4393,7 +6205,7 @@
         <v>715</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K29" s="3">
         <v>33</v>
@@ -4438,7 +6250,7 @@
         <v>715</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K30" s="3">
         <v>36</v>
@@ -4483,7 +6295,7 @@
         <v>715</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K31" s="3">
         <v>39</v>
@@ -4528,7 +6340,7 @@
         <v>715</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K32" s="3">
         <v>43</v>
@@ -4573,7 +6385,7 @@
         <v>715</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K33" s="3">
         <v>47</v>
@@ -4618,7 +6430,7 @@
         <v>715</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K34" s="3">
         <v>51</v>
@@ -4663,7 +6475,7 @@
         <v>715</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K35" s="3">
         <v>56</v>
@@ -4708,7 +6520,7 @@
         <v>715</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K36" s="3">
         <v>62</v>
@@ -4753,7 +6565,7 @@
         <v>715</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K37" s="3">
         <v>68</v>
@@ -4798,7 +6610,7 @@
         <v>715</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K38" s="3">
         <v>75</v>
@@ -4843,7 +6655,7 @@
         <v>715</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K39" s="3">
         <v>82</v>
@@ -4888,7 +6700,7 @@
         <v>715</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K40" s="3">
         <v>91</v>
@@ -4933,7 +6745,7 @@
         <v>715</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -4996,7 +6808,7 @@
         <v>715</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K42" s="3">
         <v>110</v>
@@ -5041,7 +6853,7 @@
         <v>715</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K43" s="3">
         <v>120</v>
@@ -5086,7 +6898,7 @@
         <v>715</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K44" s="3">
         <v>130</v>
@@ -5131,7 +6943,7 @@
         <v>715</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K45" s="3">
         <v>150</v>
@@ -5176,7 +6988,7 @@
         <v>715</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K46" s="3">
         <v>160</v>
@@ -5221,7 +7033,7 @@
         <v>715</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K47" s="3">
         <v>180</v>
@@ -5284,7 +7096,7 @@
         <v>715</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -5329,7 +7141,7 @@
         <v>715</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K49" s="3">
         <v>220</v>
@@ -5392,7 +7204,7 @@
         <v>715</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K50" s="3">
         <v>240</v>
@@ -5437,7 +7249,7 @@
         <v>715</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K51" s="3">
         <v>270</v>
@@ -5482,7 +7294,7 @@
         <v>715</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -5545,7 +7357,7 @@
         <v>715</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K53" s="3">
         <v>330</v>
@@ -5590,7 +7402,7 @@
         <v>715</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K54" s="3">
         <v>360</v>
@@ -5635,7 +7447,7 @@
         <v>715</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K55" s="3">
         <v>390</v>
@@ -5680,7 +7492,7 @@
         <v>715</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K56" s="3">
         <v>430</v>
@@ -5725,7 +7537,7 @@
         <v>715</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K57" s="3">
         <v>470</v>
@@ -5788,7 +7600,7 @@
         <v>715</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K58" s="3">
         <v>510</v>
@@ -5833,7 +7645,7 @@
         <v>715</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K59" s="3">
         <v>560</v>
@@ -5878,7 +7690,7 @@
         <v>715</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K60" s="3">
         <v>620</v>
@@ -5923,7 +7735,7 @@
         <v>715</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K61" s="3">
         <v>680</v>
@@ -5968,7 +7780,7 @@
         <v>715</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K62" s="3">
         <v>750</v>
@@ -6013,7 +7825,7 @@
         <v>715</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K63" s="3">
         <v>820</v>
@@ -6058,7 +7870,7 @@
         <v>715</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K64" s="3">
         <v>910</v>
@@ -6103,7 +7915,7 @@
         <v>715</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K65" s="3">
         <v>1000</v>
@@ -6148,7 +7960,7 @@
         <v>715</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
@@ -6193,7 +8005,7 @@
         <v>715</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K67" s="3">
         <v>1200</v>
@@ -6238,7 +8050,7 @@
         <v>715</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K68" s="3">
         <v>1300</v>
@@ -6283,7 +8095,7 @@
         <v>715</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K69" s="3">
         <v>1500</v>
@@ -6346,7 +8158,7 @@
         <v>715</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K70" s="3">
         <v>1600</v>
@@ -6409,7 +8221,7 @@
         <v>715</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K71" s="3">
         <v>1800</v>
@@ -6454,7 +8266,7 @@
         <v>715</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K72" s="3">
         <v>2000</v>
@@ -6517,7 +8329,7 @@
         <v>715</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K73" s="3">
         <v>2200</v>
@@ -6580,7 +8392,7 @@
         <v>715</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K74" s="3">
         <v>2400</v>
@@ -6625,7 +8437,7 @@
         <v>715</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K75" s="3">
         <v>2700</v>
@@ -6688,7 +8500,7 @@
         <v>715</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K76" s="3">
         <v>3000</v>
@@ -6751,7 +8563,7 @@
         <v>715</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K77" s="3">
         <v>3300</v>
@@ -6796,7 +8608,7 @@
         <v>715</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K78" s="3">
         <v>3600</v>
@@ -6841,7 +8653,7 @@
         <v>715</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K79" s="3">
         <v>3900</v>
@@ -6886,7 +8698,7 @@
         <v>715</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K80" s="3">
         <v>4300</v>
@@ -6931,7 +8743,7 @@
         <v>715</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K81" s="3">
         <v>4700</v>
@@ -6994,7 +8806,7 @@
         <v>715</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K82" s="3">
         <v>5100</v>
@@ -7039,7 +8851,7 @@
         <v>715</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K83" s="3">
         <v>5600</v>
@@ -7084,7 +8896,7 @@
         <v>715</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K84" s="3">
         <v>6200</v>
@@ -7129,7 +8941,7 @@
         <v>715</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K85" s="3">
         <v>6800</v>
@@ -7174,7 +8986,7 @@
         <v>715</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K86" s="3">
         <v>7500</v>
@@ -7219,7 +9031,7 @@
         <v>715</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K87" s="3">
         <v>8200</v>
@@ -7264,7 +9076,7 @@
         <v>715</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K88" s="3">
         <v>9100</v>
@@ -7327,7 +9139,7 @@
         <v>715</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K89" s="3">
         <v>10000</v>
@@ -7390,7 +9202,7 @@
         <v>715</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K90" s="3">
         <v>11000</v>
@@ -7435,7 +9247,7 @@
         <v>715</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K91" s="3">
         <v>12000</v>
@@ -7498,7 +9310,7 @@
         <v>715</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K92" s="3">
         <v>13000</v>
@@ -7561,7 +9373,7 @@
         <v>715</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K93" s="3">
         <v>15000</v>
@@ -7624,7 +9436,7 @@
         <v>715</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K94" s="3">
         <v>16000</v>
@@ -7687,7 +9499,7 @@
         <v>715</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K95" s="3">
         <v>18000</v>
@@ -7750,7 +9562,7 @@
         <v>715</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K96" s="3">
         <v>20000</v>
@@ -7795,7 +9607,7 @@
         <v>715</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K97" s="3">
         <v>22000</v>
@@ -7840,7 +9652,7 @@
         <v>715</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K98" s="3">
         <v>24000</v>
@@ -7903,7 +9715,7 @@
         <v>715</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K99" s="3">
         <v>27000</v>
@@ -7948,7 +9760,7 @@
         <v>715</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K100" s="3">
         <v>30000</v>
@@ -7993,7 +9805,7 @@
         <v>715</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K101" s="3">
         <v>33000</v>
@@ -8038,7 +9850,7 @@
         <v>715</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K102" s="3">
         <v>36000</v>
@@ -8101,7 +9913,7 @@
         <v>715</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K103" s="3">
         <v>39000</v>
@@ -8164,7 +9976,7 @@
         <v>715</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K104" s="3">
         <v>43000</v>
@@ -8209,7 +10021,7 @@
         <v>715</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K105" s="3">
         <v>47000</v>
@@ -8272,7 +10084,7 @@
         <v>715</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K106" s="3">
         <v>51000</v>
@@ -8335,7 +10147,7 @@
         <v>715</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K107" s="3">
         <v>56000</v>
@@ -8398,7 +10210,7 @@
         <v>715</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K108" s="3">
         <v>62000</v>
@@ -8461,7 +10273,7 @@
         <v>715</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K109" s="3">
         <v>68000</v>
@@ -8524,7 +10336,7 @@
         <v>715</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K110" s="3">
         <v>75000</v>
@@ -8569,7 +10381,7 @@
         <v>715</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K111" s="3">
         <v>82000</v>
@@ -8614,7 +10426,7 @@
         <v>715</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K112" s="3">
         <v>91000</v>
@@ -8659,7 +10471,7 @@
         <v>715</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K113" s="3">
         <v>100000</v>
@@ -8722,7 +10534,7 @@
         <v>715</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K114" s="3">
         <v>110000</v>
@@ -8777,7 +10589,7 @@
         <v>715</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K115" s="3">
         <v>120000</v>
@@ -8840,7 +10652,7 @@
         <v>715</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K116" s="3">
         <v>130000</v>
@@ -8895,7 +10707,7 @@
         <v>715</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K117" s="3">
         <v>150000</v>
@@ -8940,7 +10752,7 @@
         <v>715</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K118" s="3">
         <v>160000</v>
@@ -8995,7 +10807,7 @@
         <v>715</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K119" s="3">
         <v>180000</v>
@@ -9058,7 +10870,7 @@
         <v>715</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K120" s="3">
         <v>200000</v>
@@ -9103,7 +10915,7 @@
         <v>715</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K121" s="3">
         <v>220000</v>
@@ -9148,7 +10960,7 @@
         <v>715</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K122" s="3">
         <v>240000</v>
@@ -9193,7 +11005,7 @@
         <v>715</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K123" s="3">
         <v>270000</v>
@@ -9238,7 +11050,7 @@
         <v>715</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K124" s="3">
         <v>300000</v>
@@ -9283,7 +11095,7 @@
         <v>715</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K125" s="3">
         <v>330000</v>
@@ -9346,7 +11158,7 @@
         <v>715</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K126" s="3">
         <v>360000</v>
@@ -9401,7 +11213,7 @@
         <v>715</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K127" s="3">
         <v>390000</v>
@@ -9446,7 +11258,7 @@
         <v>715</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K128" s="3">
         <v>430000</v>
@@ -9491,7 +11303,7 @@
         <v>715</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K129" s="3">
         <v>470000</v>
@@ -9536,7 +11348,7 @@
         <v>715</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K130" s="3">
         <v>510000</v>
@@ -9581,7 +11393,7 @@
         <v>715</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K131" s="3">
         <v>560000</v>
@@ -9626,7 +11438,7 @@
         <v>715</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K132" s="3">
         <v>620000</v>
@@ -9671,7 +11483,7 @@
         <v>715</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K133" s="3">
         <v>680000</v>
@@ -9716,7 +11528,7 @@
         <v>715</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K134" s="3">
         <v>750000</v>
@@ -9761,7 +11573,7 @@
         <v>715</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K135" s="3">
         <v>820000</v>
@@ -9806,7 +11618,7 @@
         <v>715</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K136" s="3">
         <v>910000</v>
@@ -9851,7 +11663,7 @@
         <v>715</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K137" s="3">
         <v>1000000</v>
@@ -9896,7 +11708,7 @@
         <v>715</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K138" s="3">
         <v>1100000</v>
@@ -9941,7 +11753,7 @@
         <v>715</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K139" s="3">
         <v>1200000</v>
@@ -9986,7 +11798,7 @@
         <v>715</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K140" s="3">
         <v>1300000</v>
@@ -10031,7 +11843,7 @@
         <v>715</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K141" s="3">
         <v>1500000</v>
@@ -10076,7 +11888,7 @@
         <v>715</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K142" s="3">
         <v>1600000</v>
@@ -10121,7 +11933,7 @@
         <v>715</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K143" s="3">
         <v>1800000</v>
@@ -10166,7 +11978,7 @@
         <v>715</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K144" s="3">
         <v>2000000</v>
@@ -10211,7 +12023,7 @@
         <v>715</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K145" s="3">
         <v>2200000</v>
@@ -10256,7 +12068,7 @@
         <v>715</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K146" s="3">
         <v>2400000</v>
@@ -10301,7 +12113,7 @@
         <v>715</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K147" s="3">
         <v>2700000</v>
@@ -10346,7 +12158,7 @@
         <v>715</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K148" s="3">
         <v>3000000</v>
@@ -10391,7 +12203,7 @@
         <v>715</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K149" s="3">
         <v>3300000</v>
@@ -10436,7 +12248,7 @@
         <v>715</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K150" s="3">
         <v>3600000</v>
@@ -10481,7 +12293,7 @@
         <v>715</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K151" s="3">
         <v>3900000</v>
@@ -10526,7 +12338,7 @@
         <v>715</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K152" s="3">
         <v>4300000</v>
@@ -10571,7 +12383,7 @@
         <v>715</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K153" s="3">
         <v>4700000</v>
@@ -10616,7 +12428,7 @@
         <v>715</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K154" s="3">
         <v>5100000</v>
@@ -10661,7 +12473,7 @@
         <v>715</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K155" s="3">
         <v>5600000</v>
@@ -10706,7 +12518,7 @@
         <v>715</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K156" s="3">
         <v>6200000</v>
@@ -10751,7 +12563,7 @@
         <v>715</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K157" s="3">
         <v>6800000</v>
@@ -10796,7 +12608,7 @@
         <v>715</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K158" s="3">
         <v>7500000</v>
@@ -10841,7 +12653,7 @@
         <v>715</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K159" s="3">
         <v>8200000</v>
@@ -10886,7 +12698,7 @@
         <v>715</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K160" s="3">
         <v>9100000</v>
@@ -10931,7 +12743,7 @@
         <v>715</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K161" s="3">
         <v>10000000</v>
@@ -11213,40 +13025,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8A1AAB-C407-4ADB-8694-9A4B002D9EDF}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:T1"/>
+      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11308,15 +13120,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="B2" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="C2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -11325,7 +13137,7 @@
         <v>603</v>
       </c>
       <c r="F2" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$4</f>
@@ -11334,14 +13146,5622 @@
       <c r="H2" t="s">
         <v>672</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>734</v>
+      </c>
       <c r="K2" s="4">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>735</v>
+      </c>
+      <c r="M2" t="s">
+        <v>736</v>
+      </c>
+      <c r="N2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>736</v>
+      </c>
+      <c r="R2" t="s">
+        <v>739</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>740</v>
+      </c>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>603</v>
+      </c>
+      <c r="F3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I3" t="s">
+        <v>715</v>
+      </c>
+      <c r="J3" t="s">
+        <v>734</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.2000000000000001E-12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>735</v>
+      </c>
+      <c r="M3" t="s">
+        <v>736</v>
+      </c>
+      <c r="N3" t="s">
+        <v>744</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>736</v>
+      </c>
+      <c r="R3" t="s">
+        <v>746</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>747</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>603</v>
+      </c>
+      <c r="F4" t="s">
+        <v>750</v>
+      </c>
+      <c r="G4" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H4" t="s">
+        <v>672</v>
+      </c>
+      <c r="I4" t="s">
+        <v>715</v>
+      </c>
+      <c r="J4" t="s">
+        <v>734</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>735</v>
+      </c>
+      <c r="M4" t="s">
+        <v>736</v>
+      </c>
+      <c r="N4" t="s">
+        <v>751</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>736</v>
+      </c>
+      <c r="R4" t="s">
+        <v>753</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>754</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>603</v>
+      </c>
+      <c r="F5" t="s">
+        <v>757</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H5" t="s">
+        <v>672</v>
+      </c>
+      <c r="I5" t="s">
+        <v>715</v>
+      </c>
+      <c r="J5" t="s">
+        <v>734</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.8E-12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>735</v>
+      </c>
+      <c r="M5" t="s">
+        <v>736</v>
+      </c>
+      <c r="N5" t="s">
+        <v>758</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>736</v>
+      </c>
+      <c r="R5" t="s">
+        <v>760</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>761</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C6" t="s">
+        <v>763</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>603</v>
+      </c>
+      <c r="F6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G6" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H6" t="s">
+        <v>672</v>
+      </c>
+      <c r="I6" t="s">
+        <v>715</v>
+      </c>
+      <c r="J6" t="s">
+        <v>734</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.2000000000000003E-12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>735</v>
+      </c>
+      <c r="M6" t="s">
+        <v>736</v>
+      </c>
+      <c r="N6" t="s">
+        <v>765</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>736</v>
+      </c>
+      <c r="R6" t="s">
+        <v>767</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" t="s">
+        <v>768</v>
+      </c>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>603</v>
+      </c>
+      <c r="F7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G7" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H7" t="s">
+        <v>672</v>
+      </c>
+      <c r="I7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J7" t="s">
+        <v>734</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2.7000000000000002E-12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>735</v>
+      </c>
+      <c r="M7" t="s">
+        <v>736</v>
+      </c>
+      <c r="N7" t="s">
+        <v>772</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>736</v>
+      </c>
+      <c r="R7" t="s">
+        <v>774</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" t="s">
+        <v>775</v>
+      </c>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>603</v>
+      </c>
+      <c r="F8" t="s">
+        <v>778</v>
+      </c>
+      <c r="G8" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H8" t="s">
+        <v>672</v>
+      </c>
+      <c r="I8" t="s">
+        <v>715</v>
+      </c>
+      <c r="J8" t="s">
+        <v>734</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3.3000000000000001E-12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>735</v>
+      </c>
+      <c r="M8" t="s">
+        <v>736</v>
+      </c>
+      <c r="N8" t="s">
+        <v>779</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>736</v>
+      </c>
+      <c r="R8" t="s">
+        <v>781</v>
+      </c>
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" t="s">
+        <v>782</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C9" t="s">
+        <v>784</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>603</v>
+      </c>
+      <c r="F9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G9" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H9" t="s">
+        <v>672</v>
+      </c>
+      <c r="I9" t="s">
+        <v>715</v>
+      </c>
+      <c r="J9" t="s">
+        <v>734</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.8999999999999999E-12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>735</v>
+      </c>
+      <c r="M9" t="s">
+        <v>736</v>
+      </c>
+      <c r="N9" t="s">
+        <v>786</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>736</v>
+      </c>
+      <c r="R9" t="s">
+        <v>788</v>
+      </c>
+      <c r="S9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" t="s">
+        <v>789</v>
+      </c>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" t="s">
+        <v>791</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>603</v>
+      </c>
+      <c r="F10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G10" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H10" t="s">
+        <v>672</v>
+      </c>
+      <c r="I10" t="s">
+        <v>715</v>
+      </c>
+      <c r="J10" t="s">
+        <v>734</v>
+      </c>
+      <c r="K10" s="4">
+        <v>4.6999999999999998E-12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>735</v>
+      </c>
+      <c r="M10" t="s">
+        <v>736</v>
+      </c>
+      <c r="N10" t="s">
+        <v>793</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>736</v>
+      </c>
+      <c r="R10" t="s">
+        <v>795</v>
+      </c>
+      <c r="S10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
+        <v>796</v>
+      </c>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C11" t="s">
+        <v>798</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>603</v>
+      </c>
+      <c r="F11" t="s">
+        <v>799</v>
+      </c>
+      <c r="G11" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H11" t="s">
+        <v>672</v>
+      </c>
+      <c r="I11" t="s">
+        <v>715</v>
+      </c>
+      <c r="J11" t="s">
+        <v>734</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5.6000000000000004E-12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>735</v>
+      </c>
+      <c r="M11" t="s">
+        <v>736</v>
+      </c>
+      <c r="N11" t="s">
+        <v>800</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>736</v>
+      </c>
+      <c r="R11" t="s">
+        <v>802</v>
+      </c>
+      <c r="S11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" t="s">
+        <v>803</v>
+      </c>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>804</v>
+      </c>
+      <c r="B12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C12" t="s">
+        <v>805</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>603</v>
+      </c>
+      <c r="F12" t="s">
+        <v>806</v>
+      </c>
+      <c r="G12" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I12" t="s">
+        <v>715</v>
+      </c>
+      <c r="J12" t="s">
+        <v>734</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6.8000000000000001E-12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>735</v>
+      </c>
+      <c r="M12" t="s">
+        <v>736</v>
+      </c>
+      <c r="N12" t="s">
+        <v>807</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>736</v>
+      </c>
+      <c r="R12" t="s">
+        <v>809</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" t="s">
+        <v>810</v>
+      </c>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>811</v>
+      </c>
+      <c r="C13" t="s">
+        <v>812</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>603</v>
+      </c>
+      <c r="F13" t="s">
+        <v>813</v>
+      </c>
+      <c r="G13" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H13" t="s">
+        <v>672</v>
+      </c>
+      <c r="I13" t="s">
+        <v>715</v>
+      </c>
+      <c r="J13" t="s">
+        <v>734</v>
+      </c>
+      <c r="K13" s="4">
+        <v>8.1999999999999998E-12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>735</v>
+      </c>
+      <c r="M13" t="s">
+        <v>736</v>
+      </c>
+      <c r="N13" t="s">
+        <v>814</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>736</v>
+      </c>
+      <c r="R13" t="s">
+        <v>816</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>817</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B14" t="s">
+        <v>818</v>
+      </c>
+      <c r="C14" t="s">
+        <v>819</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>603</v>
+      </c>
+      <c r="F14" t="s">
+        <v>820</v>
+      </c>
+      <c r="G14" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H14" t="s">
+        <v>672</v>
+      </c>
+      <c r="I14" t="s">
+        <v>715</v>
+      </c>
+      <c r="J14" t="s">
+        <v>734</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.0000000000000001E-11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>735</v>
+      </c>
+      <c r="M14" t="s">
+        <v>736</v>
+      </c>
+      <c r="N14" t="s">
+        <v>821</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>736</v>
+      </c>
+      <c r="R14" t="s">
+        <v>823</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>824</v>
+      </c>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>825</v>
+      </c>
+      <c r="B15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C15" t="s">
+        <v>826</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>603</v>
+      </c>
+      <c r="F15" t="s">
+        <v>827</v>
+      </c>
+      <c r="G15" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H15" t="s">
+        <v>672</v>
+      </c>
+      <c r="I15" t="s">
+        <v>715</v>
+      </c>
+      <c r="J15" t="s">
+        <v>734</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.2000000000000001E-11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>735</v>
+      </c>
+      <c r="M15" t="s">
+        <v>736</v>
+      </c>
+      <c r="N15" t="s">
+        <v>828</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>736</v>
+      </c>
+      <c r="R15" t="s">
+        <v>830</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>831</v>
+      </c>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>832</v>
+      </c>
+      <c r="B16" t="s">
+        <v>832</v>
+      </c>
+      <c r="C16" t="s">
+        <v>833</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>603</v>
+      </c>
+      <c r="F16" t="s">
+        <v>834</v>
+      </c>
+      <c r="G16" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H16" t="s">
+        <v>672</v>
+      </c>
+      <c r="I16" t="s">
+        <v>715</v>
+      </c>
+      <c r="J16" t="s">
+        <v>734</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.5E-11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>735</v>
+      </c>
+      <c r="M16" t="s">
+        <v>736</v>
+      </c>
+      <c r="N16" t="s">
+        <v>835</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>736</v>
+      </c>
+      <c r="R16" t="s">
+        <v>837</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" t="s">
+        <v>838</v>
+      </c>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>839</v>
+      </c>
+      <c r="B17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17" t="s">
+        <v>840</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>603</v>
+      </c>
+      <c r="F17" t="s">
+        <v>841</v>
+      </c>
+      <c r="G17" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H17" t="s">
+        <v>672</v>
+      </c>
+      <c r="I17" t="s">
+        <v>715</v>
+      </c>
+      <c r="J17" t="s">
+        <v>734</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.7999999999999999E-11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>735</v>
+      </c>
+      <c r="M17" t="s">
+        <v>736</v>
+      </c>
+      <c r="N17" t="s">
+        <v>842</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>736</v>
+      </c>
+      <c r="R17" t="s">
+        <v>844</v>
+      </c>
+      <c r="S17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" t="s">
+        <v>845</v>
+      </c>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>846</v>
+      </c>
+      <c r="B18" t="s">
+        <v>846</v>
+      </c>
+      <c r="C18" t="s">
+        <v>847</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>603</v>
+      </c>
+      <c r="F18" t="s">
+        <v>848</v>
+      </c>
+      <c r="G18" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H18" t="s">
+        <v>672</v>
+      </c>
+      <c r="I18" t="s">
+        <v>715</v>
+      </c>
+      <c r="J18" t="s">
+        <v>734</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.1999999999999998E-11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>735</v>
+      </c>
+      <c r="M18" t="s">
+        <v>736</v>
+      </c>
+      <c r="N18" t="s">
+        <v>849</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>736</v>
+      </c>
+      <c r="R18" t="s">
+        <v>851</v>
+      </c>
+      <c r="S18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" t="s">
+        <v>852</v>
+      </c>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" t="s">
+        <v>853</v>
+      </c>
+      <c r="C19" t="s">
+        <v>854</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>603</v>
+      </c>
+      <c r="F19" t="s">
+        <v>855</v>
+      </c>
+      <c r="G19" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H19" t="s">
+        <v>672</v>
+      </c>
+      <c r="I19" t="s">
+        <v>715</v>
+      </c>
+      <c r="J19" t="s">
+        <v>734</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2.7E-11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>735</v>
+      </c>
+      <c r="M19" t="s">
+        <v>736</v>
+      </c>
+      <c r="N19" t="s">
+        <v>856</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>736</v>
+      </c>
+      <c r="R19" t="s">
+        <v>858</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" t="s">
+        <v>859</v>
+      </c>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>860</v>
+      </c>
+      <c r="B20" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" t="s">
+        <v>861</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>603</v>
+      </c>
+      <c r="F20" t="s">
+        <v>862</v>
+      </c>
+      <c r="G20" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H20" t="s">
+        <v>672</v>
+      </c>
+      <c r="I20" t="s">
+        <v>715</v>
+      </c>
+      <c r="J20" t="s">
+        <v>734</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3.3000000000000002E-11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>735</v>
+      </c>
+      <c r="M20" t="s">
+        <v>736</v>
+      </c>
+      <c r="N20" t="s">
+        <v>863</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>736</v>
+      </c>
+      <c r="R20" t="s">
+        <v>865</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
+        <v>866</v>
+      </c>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21" t="s">
+        <v>867</v>
+      </c>
+      <c r="C21" t="s">
+        <v>868</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>603</v>
+      </c>
+      <c r="F21" t="s">
+        <v>869</v>
+      </c>
+      <c r="G21" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H21" t="s">
+        <v>672</v>
+      </c>
+      <c r="I21" t="s">
+        <v>715</v>
+      </c>
+      <c r="J21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.9000000000000001E-11</v>
+      </c>
+      <c r="L21" t="s">
+        <v>735</v>
+      </c>
+      <c r="M21" t="s">
+        <v>736</v>
+      </c>
+      <c r="N21" t="s">
+        <v>870</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>736</v>
+      </c>
+      <c r="R21" t="s">
+        <v>872</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>873</v>
+      </c>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>874</v>
+      </c>
+      <c r="B22" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" t="s">
+        <v>875</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>603</v>
+      </c>
+      <c r="F22" t="s">
+        <v>876</v>
+      </c>
+      <c r="G22" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H22" t="s">
+        <v>672</v>
+      </c>
+      <c r="I22" t="s">
+        <v>715</v>
+      </c>
+      <c r="J22" t="s">
+        <v>734</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4.7000000000000006E-11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>735</v>
+      </c>
+      <c r="M22" t="s">
+        <v>736</v>
+      </c>
+      <c r="N22" t="s">
+        <v>877</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>736</v>
+      </c>
+      <c r="R22" t="s">
+        <v>879</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>880</v>
+      </c>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>881</v>
+      </c>
+      <c r="B23" t="s">
+        <v>881</v>
+      </c>
+      <c r="C23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>603</v>
+      </c>
+      <c r="F23" t="s">
+        <v>883</v>
+      </c>
+      <c r="G23" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H23" t="s">
+        <v>672</v>
+      </c>
+      <c r="I23" t="s">
+        <v>715</v>
+      </c>
+      <c r="J23" t="s">
+        <v>734</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5.6E-11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>735</v>
+      </c>
+      <c r="M23" t="s">
+        <v>736</v>
+      </c>
+      <c r="N23" t="s">
+        <v>884</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>736</v>
+      </c>
+      <c r="R23" t="s">
+        <v>886</v>
+      </c>
+      <c r="S23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" t="s">
+        <v>887</v>
+      </c>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B24" t="s">
+        <v>888</v>
+      </c>
+      <c r="C24" t="s">
+        <v>889</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>603</v>
+      </c>
+      <c r="F24" t="s">
+        <v>890</v>
+      </c>
+      <c r="G24" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H24" t="s">
+        <v>672</v>
+      </c>
+      <c r="I24" t="s">
+        <v>715</v>
+      </c>
+      <c r="J24" t="s">
+        <v>734</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6.7999999999999998E-11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>735</v>
+      </c>
+      <c r="M24" t="s">
+        <v>736</v>
+      </c>
+      <c r="N24" t="s">
+        <v>891</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>736</v>
+      </c>
+      <c r="R24" t="s">
+        <v>893</v>
+      </c>
+      <c r="S24" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" t="s">
+        <v>894</v>
+      </c>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>895</v>
+      </c>
+      <c r="B25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C25" t="s">
+        <v>896</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>603</v>
+      </c>
+      <c r="F25" t="s">
+        <v>897</v>
+      </c>
+      <c r="G25" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H25" t="s">
+        <v>672</v>
+      </c>
+      <c r="I25" t="s">
+        <v>715</v>
+      </c>
+      <c r="J25" t="s">
+        <v>734</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8.2000000000000001E-11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>735</v>
+      </c>
+      <c r="M25" t="s">
+        <v>736</v>
+      </c>
+      <c r="N25" t="s">
+        <v>898</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>736</v>
+      </c>
+      <c r="R25" t="s">
+        <v>900</v>
+      </c>
+      <c r="S25" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" t="s">
+        <v>901</v>
+      </c>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>902</v>
+      </c>
+      <c r="B26" t="s">
+        <v>902</v>
+      </c>
+      <c r="C26" t="s">
+        <v>903</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>603</v>
+      </c>
+      <c r="F26" t="s">
+        <v>904</v>
+      </c>
+      <c r="G26" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H26" t="s">
+        <v>672</v>
+      </c>
+      <c r="I26" t="s">
+        <v>715</v>
+      </c>
+      <c r="J26" t="s">
+        <v>734</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1E-10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>735</v>
+      </c>
+      <c r="M26" t="s">
+        <v>736</v>
+      </c>
+      <c r="N26" t="s">
+        <v>905</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>736</v>
+      </c>
+      <c r="R26" t="s">
+        <v>907</v>
+      </c>
+      <c r="S26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26" t="s">
+        <v>908</v>
+      </c>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>909</v>
+      </c>
+      <c r="B27" t="s">
+        <v>909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>910</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>603</v>
+      </c>
+      <c r="F27" t="s">
+        <v>911</v>
+      </c>
+      <c r="G27" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H27" t="s">
+        <v>672</v>
+      </c>
+      <c r="I27" t="s">
+        <v>715</v>
+      </c>
+      <c r="J27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.2E-10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>735</v>
+      </c>
+      <c r="M27" t="s">
+        <v>736</v>
+      </c>
+      <c r="N27" t="s">
+        <v>912</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>736</v>
+      </c>
+      <c r="R27" t="s">
+        <v>914</v>
+      </c>
+      <c r="S27" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" t="s">
+        <v>915</v>
+      </c>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>916</v>
+      </c>
+      <c r="B28" t="s">
+        <v>916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>917</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>603</v>
+      </c>
+      <c r="F28" t="s">
+        <v>918</v>
+      </c>
+      <c r="G28" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H28" t="s">
+        <v>672</v>
+      </c>
+      <c r="I28" t="s">
+        <v>715</v>
+      </c>
+      <c r="J28" t="s">
+        <v>734</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.5E-10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>735</v>
+      </c>
+      <c r="M28" t="s">
+        <v>736</v>
+      </c>
+      <c r="N28" t="s">
+        <v>919</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>736</v>
+      </c>
+      <c r="R28" t="s">
+        <v>921</v>
+      </c>
+      <c r="S28" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" t="s">
+        <v>922</v>
+      </c>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>923</v>
+      </c>
+      <c r="B29" t="s">
+        <v>923</v>
+      </c>
+      <c r="C29" t="s">
+        <v>924</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>603</v>
+      </c>
+      <c r="F29" t="s">
+        <v>925</v>
+      </c>
+      <c r="G29" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H29" t="s">
+        <v>672</v>
+      </c>
+      <c r="I29" t="s">
+        <v>715</v>
+      </c>
+      <c r="J29" t="s">
+        <v>734</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.8E-10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>735</v>
+      </c>
+      <c r="M29" t="s">
+        <v>736</v>
+      </c>
+      <c r="N29" t="s">
+        <v>926</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>736</v>
+      </c>
+      <c r="R29" t="s">
+        <v>928</v>
+      </c>
+      <c r="S29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" t="s">
+        <v>929</v>
+      </c>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>930</v>
+      </c>
+      <c r="B30" t="s">
+        <v>930</v>
+      </c>
+      <c r="C30" t="s">
+        <v>931</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>603</v>
+      </c>
+      <c r="F30" t="s">
+        <v>932</v>
+      </c>
+      <c r="G30" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H30" t="s">
+        <v>672</v>
+      </c>
+      <c r="I30" t="s">
+        <v>715</v>
+      </c>
+      <c r="J30" t="s">
+        <v>734</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2.1999999999999999E-10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>735</v>
+      </c>
+      <c r="M30" t="s">
+        <v>736</v>
+      </c>
+      <c r="N30" t="s">
+        <v>933</v>
+      </c>
+      <c r="O30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>736</v>
+      </c>
+      <c r="R30" t="s">
+        <v>935</v>
+      </c>
+      <c r="S30" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" t="s">
+        <v>936</v>
+      </c>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>937</v>
+      </c>
+      <c r="B31" t="s">
+        <v>937</v>
+      </c>
+      <c r="C31" t="s">
+        <v>938</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>603</v>
+      </c>
+      <c r="F31" t="s">
+        <v>939</v>
+      </c>
+      <c r="G31" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H31" t="s">
+        <v>672</v>
+      </c>
+      <c r="I31" t="s">
+        <v>715</v>
+      </c>
+      <c r="J31" t="s">
+        <v>734</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2.7E-10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>735</v>
+      </c>
+      <c r="M31" t="s">
+        <v>736</v>
+      </c>
+      <c r="N31" t="s">
+        <v>940</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>736</v>
+      </c>
+      <c r="R31" t="s">
+        <v>942</v>
+      </c>
+      <c r="S31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" t="s">
+        <v>943</v>
+      </c>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>944</v>
+      </c>
+      <c r="B32" t="s">
+        <v>944</v>
+      </c>
+      <c r="C32" t="s">
+        <v>945</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>603</v>
+      </c>
+      <c r="F32" t="s">
+        <v>946</v>
+      </c>
+      <c r="G32" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H32" t="s">
+        <v>672</v>
+      </c>
+      <c r="I32" t="s">
+        <v>715</v>
+      </c>
+      <c r="J32" t="s">
+        <v>734</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3.3E-10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>735</v>
+      </c>
+      <c r="M32" t="s">
+        <v>736</v>
+      </c>
+      <c r="N32" t="s">
+        <v>947</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>736</v>
+      </c>
+      <c r="R32" t="s">
+        <v>949</v>
+      </c>
+      <c r="S32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" t="s">
+        <v>950</v>
+      </c>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>951</v>
+      </c>
+      <c r="B33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C33" t="s">
+        <v>952</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>603</v>
+      </c>
+      <c r="F33" t="s">
+        <v>953</v>
+      </c>
+      <c r="G33" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H33" t="s">
+        <v>672</v>
+      </c>
+      <c r="I33" t="s">
+        <v>715</v>
+      </c>
+      <c r="J33" t="s">
+        <v>734</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3.9E-10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>735</v>
+      </c>
+      <c r="M33" t="s">
+        <v>736</v>
+      </c>
+      <c r="N33" t="s">
+        <v>954</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>736</v>
+      </c>
+      <c r="R33" t="s">
+        <v>956</v>
+      </c>
+      <c r="S33" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" t="s">
+        <v>957</v>
+      </c>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>958</v>
+      </c>
+      <c r="B34" t="s">
+        <v>958</v>
+      </c>
+      <c r="C34" t="s">
+        <v>959</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>603</v>
+      </c>
+      <c r="F34" t="s">
+        <v>960</v>
+      </c>
+      <c r="G34" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H34" t="s">
+        <v>672</v>
+      </c>
+      <c r="I34" t="s">
+        <v>715</v>
+      </c>
+      <c r="J34" t="s">
+        <v>734</v>
+      </c>
+      <c r="K34" s="4">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>735</v>
+      </c>
+      <c r="M34" t="s">
+        <v>736</v>
+      </c>
+      <c r="N34" t="s">
+        <v>961</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>736</v>
+      </c>
+      <c r="R34" t="s">
+        <v>963</v>
+      </c>
+      <c r="S34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" t="s">
+        <v>964</v>
+      </c>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>965</v>
+      </c>
+      <c r="B35" t="s">
+        <v>965</v>
+      </c>
+      <c r="C35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>603</v>
+      </c>
+      <c r="F35" t="s">
+        <v>967</v>
+      </c>
+      <c r="G35" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H35" t="s">
+        <v>672</v>
+      </c>
+      <c r="I35" t="s">
+        <v>715</v>
+      </c>
+      <c r="J35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5.5999999999999993E-10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>735</v>
+      </c>
+      <c r="M35" t="s">
+        <v>736</v>
+      </c>
+      <c r="N35" t="s">
+        <v>968</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>736</v>
+      </c>
+      <c r="R35" t="s">
+        <v>970</v>
+      </c>
+      <c r="S35" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" t="s">
+        <v>971</v>
+      </c>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>972</v>
+      </c>
+      <c r="B36" t="s">
+        <v>972</v>
+      </c>
+      <c r="C36" t="s">
+        <v>973</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>603</v>
+      </c>
+      <c r="F36" t="s">
+        <v>974</v>
+      </c>
+      <c r="G36" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H36" t="s">
+        <v>672</v>
+      </c>
+      <c r="I36" t="s">
+        <v>715</v>
+      </c>
+      <c r="J36" t="s">
+        <v>734</v>
+      </c>
+      <c r="K36" s="4">
+        <v>6.7999999999999993E-10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>735</v>
+      </c>
+      <c r="M36" t="s">
+        <v>736</v>
+      </c>
+      <c r="N36" t="s">
+        <v>975</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>736</v>
+      </c>
+      <c r="R36" t="s">
+        <v>977</v>
+      </c>
+      <c r="S36" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" t="s">
+        <v>978</v>
+      </c>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>979</v>
+      </c>
+      <c r="B37" t="s">
+        <v>979</v>
+      </c>
+      <c r="C37" t="s">
+        <v>980</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>603</v>
+      </c>
+      <c r="F37" t="s">
+        <v>981</v>
+      </c>
+      <c r="G37" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H37" t="s">
+        <v>672</v>
+      </c>
+      <c r="I37" t="s">
+        <v>715</v>
+      </c>
+      <c r="J37" t="s">
+        <v>734</v>
+      </c>
+      <c r="K37" s="4">
+        <v>8.2000000000000006E-10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>735</v>
+      </c>
+      <c r="M37" t="s">
+        <v>736</v>
+      </c>
+      <c r="N37" t="s">
+        <v>982</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>736</v>
+      </c>
+      <c r="R37" t="s">
+        <v>984</v>
+      </c>
+      <c r="S37" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" t="s">
+        <v>985</v>
+      </c>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>986</v>
+      </c>
+      <c r="B38" t="s">
+        <v>986</v>
+      </c>
+      <c r="C38" t="s">
+        <v>987</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>603</v>
+      </c>
+      <c r="F38" t="s">
+        <v>988</v>
+      </c>
+      <c r="G38" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H38" t="s">
+        <v>672</v>
+      </c>
+      <c r="I38" t="s">
+        <v>715</v>
+      </c>
+      <c r="J38" t="s">
+        <v>734</v>
+      </c>
+      <c r="K38" s="4">
         <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="L38" t="s">
+        <v>735</v>
+      </c>
+      <c r="M38" t="s">
+        <v>736</v>
+      </c>
+      <c r="N38" t="s">
+        <v>989</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>736</v>
+      </c>
+      <c r="R38" t="s">
+        <v>991</v>
+      </c>
+      <c r="S38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" t="s">
+        <v>992</v>
+      </c>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>993</v>
+      </c>
+      <c r="B39" t="s">
+        <v>993</v>
+      </c>
+      <c r="C39" t="s">
+        <v>994</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>603</v>
+      </c>
+      <c r="F39" t="s">
+        <v>995</v>
+      </c>
+      <c r="G39" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H39" t="s">
+        <v>672</v>
+      </c>
+      <c r="I39" t="s">
+        <v>715</v>
+      </c>
+      <c r="J39" t="s">
+        <v>734</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.2E-9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>735</v>
+      </c>
+      <c r="M39" t="s">
+        <v>736</v>
+      </c>
+      <c r="N39" t="s">
+        <v>996</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" t="s">
+        <v>997</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>736</v>
+      </c>
+      <c r="R39" t="s">
+        <v>998</v>
+      </c>
+      <c r="S39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" t="s">
+        <v>999</v>
+      </c>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
+        <v>603</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G40" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H40" t="s">
+        <v>672</v>
+      </c>
+      <c r="I40" t="s">
+        <v>715</v>
+      </c>
+      <c r="J40" t="s">
+        <v>734</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.4999999999999998E-9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>735</v>
+      </c>
+      <c r="M40" t="s">
+        <v>736</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>736</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1006</v>
+      </c>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>603</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G41" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H41" t="s">
+        <v>672</v>
+      </c>
+      <c r="I41" t="s">
+        <v>715</v>
+      </c>
+      <c r="J41" t="s">
+        <v>734</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1.8E-9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>735</v>
+      </c>
+      <c r="M41" t="s">
+        <v>736</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>603</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G42" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H42" t="s">
+        <v>672</v>
+      </c>
+      <c r="I42" t="s">
+        <v>715</v>
+      </c>
+      <c r="J42" t="s">
+        <v>734</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2.1999999999999998E-9</v>
+      </c>
+      <c r="L42" t="s">
+        <v>735</v>
+      </c>
+      <c r="M42" t="s">
+        <v>736</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>736</v>
+      </c>
+      <c r="R42" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>603</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G43" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H43" t="s">
+        <v>672</v>
+      </c>
+      <c r="I43" t="s">
+        <v>715</v>
+      </c>
+      <c r="J43" t="s">
+        <v>734</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>735</v>
+      </c>
+      <c r="M43" t="s">
+        <v>736</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>736</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S43" t="s">
+        <v>28</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>603</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G44" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H44" t="s">
+        <v>672</v>
+      </c>
+      <c r="I44" t="s">
+        <v>715</v>
+      </c>
+      <c r="J44" t="s">
+        <v>734</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3.2999999999999998E-9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>735</v>
+      </c>
+      <c r="M44" t="s">
+        <v>736</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>736</v>
+      </c>
+      <c r="R44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S44" t="s">
+        <v>28</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>603</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G45" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H45" t="s">
+        <v>672</v>
+      </c>
+      <c r="I45" t="s">
+        <v>715</v>
+      </c>
+      <c r="J45" t="s">
+        <v>734</v>
+      </c>
+      <c r="K45" s="4">
+        <v>3.9000000000000002E-9</v>
+      </c>
+      <c r="L45" t="s">
+        <v>735</v>
+      </c>
+      <c r="M45" t="s">
+        <v>736</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>603</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G46" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H46" t="s">
+        <v>672</v>
+      </c>
+      <c r="I46" t="s">
+        <v>715</v>
+      </c>
+      <c r="J46" t="s">
+        <v>734</v>
+      </c>
+      <c r="K46" s="4">
+        <v>4.6999999999999999E-9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>735</v>
+      </c>
+      <c r="M46" t="s">
+        <v>736</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1042</v>
+      </c>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>603</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G47" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H47" t="s">
+        <v>672</v>
+      </c>
+      <c r="I47" t="s">
+        <v>715</v>
+      </c>
+      <c r="J47" t="s">
+        <v>734</v>
+      </c>
+      <c r="K47" s="4">
+        <v>6.7999999999999997E-9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>735</v>
+      </c>
+      <c r="M47" t="s">
+        <v>736</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1046</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>603</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G48" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H48" t="s">
+        <v>672</v>
+      </c>
+      <c r="I48" t="s">
+        <v>715</v>
+      </c>
+      <c r="J48" t="s">
+        <v>734</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="L48" t="s">
+        <v>735</v>
+      </c>
+      <c r="M48" t="s">
+        <v>736</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O48" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>603</v>
+      </c>
+      <c r="F49" t="s">
+        <v>904</v>
+      </c>
+      <c r="G49" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H49" t="s">
+        <v>672</v>
+      </c>
+      <c r="I49" t="s">
+        <v>715</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1E-10</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M49" t="s">
+        <v>736</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O49" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>736</v>
+      </c>
+      <c r="R49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S49" t="s">
+        <v>28</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>603</v>
+      </c>
+      <c r="F50" t="s">
+        <v>911</v>
+      </c>
+      <c r="G50" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H50" t="s">
+        <v>672</v>
+      </c>
+      <c r="I50" t="s">
+        <v>715</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1.2E-10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M50" t="s">
+        <v>736</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1064</v>
+      </c>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>603</v>
+      </c>
+      <c r="F51" t="s">
+        <v>918</v>
+      </c>
+      <c r="G51" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H51" t="s">
+        <v>672</v>
+      </c>
+      <c r="I51" t="s">
+        <v>715</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.5E-10</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M51" t="s">
+        <v>736</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>736</v>
+      </c>
+      <c r="R51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>603</v>
+      </c>
+      <c r="F52" t="s">
+        <v>925</v>
+      </c>
+      <c r="G52" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H52" t="s">
+        <v>672</v>
+      </c>
+      <c r="I52" t="s">
+        <v>715</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1.8E-10</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M52" t="s">
+        <v>736</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O52" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>736</v>
+      </c>
+      <c r="R52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>603</v>
+      </c>
+      <c r="F53" t="s">
+        <v>932</v>
+      </c>
+      <c r="G53" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H53" t="s">
+        <v>672</v>
+      </c>
+      <c r="I53" t="s">
+        <v>715</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2.1999999999999999E-10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M53" t="s">
+        <v>736</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>736</v>
+      </c>
+      <c r="R53" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S53" t="s">
+        <v>28</v>
+      </c>
+      <c r="T53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>603</v>
+      </c>
+      <c r="F54" t="s">
+        <v>939</v>
+      </c>
+      <c r="G54" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H54" t="s">
+        <v>672</v>
+      </c>
+      <c r="I54" t="s">
+        <v>715</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2.7E-10</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M54" t="s">
+        <v>736</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>736</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S54" t="s">
+        <v>28</v>
+      </c>
+      <c r="T54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>603</v>
+      </c>
+      <c r="F55" t="s">
+        <v>946</v>
+      </c>
+      <c r="G55" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H55" t="s">
+        <v>672</v>
+      </c>
+      <c r="I55" t="s">
+        <v>715</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K55" s="4">
+        <v>3.3E-10</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M55" t="s">
+        <v>736</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>736</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>603</v>
+      </c>
+      <c r="F56" t="s">
+        <v>953</v>
+      </c>
+      <c r="G56" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H56" t="s">
+        <v>672</v>
+      </c>
+      <c r="I56" t="s">
+        <v>715</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K56" s="4">
+        <v>3.9E-10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M56" t="s">
+        <v>736</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O56" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>736</v>
+      </c>
+      <c r="R56" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S56" t="s">
+        <v>28</v>
+      </c>
+      <c r="T56" t="s">
+        <v>1100</v>
+      </c>
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>603</v>
+      </c>
+      <c r="F57" t="s">
+        <v>960</v>
+      </c>
+      <c r="G57" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H57" t="s">
+        <v>672</v>
+      </c>
+      <c r="I57" t="s">
+        <v>715</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K57" s="4">
+        <v>4.7000000000000003E-10</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M57" t="s">
+        <v>736</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O57" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>736</v>
+      </c>
+      <c r="R57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S57" t="s">
+        <v>28</v>
+      </c>
+      <c r="T57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U57" s="4"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>603</v>
+      </c>
+      <c r="F58" t="s">
+        <v>967</v>
+      </c>
+      <c r="G58" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H58" t="s">
+        <v>672</v>
+      </c>
+      <c r="I58" t="s">
+        <v>715</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K58" s="4">
+        <v>5.5999999999999993E-10</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M58" t="s">
+        <v>736</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>736</v>
+      </c>
+      <c r="R58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S58" t="s">
+        <v>28</v>
+      </c>
+      <c r="T58" t="s">
+        <v>1112</v>
+      </c>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>603</v>
+      </c>
+      <c r="F59" t="s">
+        <v>974</v>
+      </c>
+      <c r="G59" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H59" t="s">
+        <v>672</v>
+      </c>
+      <c r="I59" t="s">
+        <v>715</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K59" s="4">
+        <v>6.7999999999999993E-10</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M59" t="s">
+        <v>736</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="O59" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>736</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S59" t="s">
+        <v>28</v>
+      </c>
+      <c r="T59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>603</v>
+      </c>
+      <c r="F60" t="s">
+        <v>981</v>
+      </c>
+      <c r="G60" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H60" t="s">
+        <v>672</v>
+      </c>
+      <c r="I60" t="s">
+        <v>715</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K60" s="4">
+        <v>8.2000000000000006E-10</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M60" t="s">
+        <v>736</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O60" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>736</v>
+      </c>
+      <c r="R60" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S60" t="s">
+        <v>28</v>
+      </c>
+      <c r="T60" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>603</v>
+      </c>
+      <c r="F61" t="s">
+        <v>988</v>
+      </c>
+      <c r="G61" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H61" t="s">
+        <v>672</v>
+      </c>
+      <c r="I61" t="s">
+        <v>715</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M61" t="s">
+        <v>736</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1127</v>
+      </c>
+      <c r="O61" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>736</v>
+      </c>
+      <c r="R61" t="s">
+        <v>1129</v>
+      </c>
+      <c r="S61" t="s">
+        <v>28</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1130</v>
+      </c>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>603</v>
+      </c>
+      <c r="F62" t="s">
+        <v>995</v>
+      </c>
+      <c r="G62" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H62" t="s">
+        <v>672</v>
+      </c>
+      <c r="I62" t="s">
+        <v>715</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1.2E-9</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M62" t="s">
+        <v>736</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O62" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>736</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S62" t="s">
+        <v>28</v>
+      </c>
+      <c r="T62" t="s">
+        <v>1136</v>
+      </c>
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>603</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G63" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H63" t="s">
+        <v>672</v>
+      </c>
+      <c r="I63" t="s">
+        <v>715</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.4999999999999998E-9</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M63" t="s">
+        <v>736</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>736</v>
+      </c>
+      <c r="R63" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S63" t="s">
+        <v>28</v>
+      </c>
+      <c r="T63" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>603</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G64" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H64" t="s">
+        <v>672</v>
+      </c>
+      <c r="I64" t="s">
+        <v>715</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.8E-9</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M64" t="s">
+        <v>736</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O64" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>736</v>
+      </c>
+      <c r="R64" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S64" t="s">
+        <v>28</v>
+      </c>
+      <c r="T64" t="s">
+        <v>1148</v>
+      </c>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>603</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G65" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H65" t="s">
+        <v>672</v>
+      </c>
+      <c r="I65" t="s">
+        <v>715</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2.1999999999999998E-9</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M65" t="s">
+        <v>736</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O65" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>736</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S65" t="s">
+        <v>28</v>
+      </c>
+      <c r="T65" t="s">
+        <v>1154</v>
+      </c>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66">
+        <v>603</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G66" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H66" t="s">
+        <v>672</v>
+      </c>
+      <c r="I66" t="s">
+        <v>715</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K66" s="4">
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M66" t="s">
+        <v>736</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>736</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1159</v>
+      </c>
+      <c r="S66" t="s">
+        <v>28</v>
+      </c>
+      <c r="T66" t="s">
+        <v>1160</v>
+      </c>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>603</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G67" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H67" t="s">
+        <v>672</v>
+      </c>
+      <c r="I67" t="s">
+        <v>715</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K67" s="4">
+        <v>3.2999999999999998E-9</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M67" t="s">
+        <v>736</v>
+      </c>
+      <c r="N67" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>736</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1165</v>
+      </c>
+      <c r="S67" t="s">
+        <v>28</v>
+      </c>
+      <c r="T67" t="s">
+        <v>1166</v>
+      </c>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>603</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G68" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H68" t="s">
+        <v>672</v>
+      </c>
+      <c r="I68" t="s">
+        <v>715</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K68" s="4">
+        <v>3.9000000000000002E-9</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M68" t="s">
+        <v>736</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O68" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>736</v>
+      </c>
+      <c r="R68" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S68" t="s">
+        <v>28</v>
+      </c>
+      <c r="T68" t="s">
+        <v>1172</v>
+      </c>
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69">
+        <v>603</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G69" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H69" t="s">
+        <v>672</v>
+      </c>
+      <c r="I69" t="s">
+        <v>715</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K69" s="4">
+        <v>4.6999999999999999E-9</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M69" t="s">
+        <v>736</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O69" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>736</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S69" t="s">
+        <v>28</v>
+      </c>
+      <c r="T69" t="s">
+        <v>1178</v>
+      </c>
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>603</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G70" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H70" t="s">
+        <v>672</v>
+      </c>
+      <c r="I70" t="s">
+        <v>715</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K70" s="4">
+        <v>5.5999999999999997E-9</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M70" t="s">
+        <v>736</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>736</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T70" t="s">
+        <v>1185</v>
+      </c>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>603</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G71" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H71" t="s">
+        <v>672</v>
+      </c>
+      <c r="I71" t="s">
+        <v>715</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K71" s="4">
+        <v>6.7999999999999997E-9</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>736</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1190</v>
+      </c>
+      <c r="S71" t="s">
+        <v>28</v>
+      </c>
+      <c r="T71" t="s">
+        <v>1191</v>
+      </c>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72">
+        <v>603</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G72" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H72" t="s">
+        <v>672</v>
+      </c>
+      <c r="I72" t="s">
+        <v>715</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K72" s="4">
+        <v>8.2000000000000006E-9</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M72" t="s">
+        <v>736</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O72" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>736</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1197</v>
+      </c>
+      <c r="S72" t="s">
+        <v>28</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73">
+        <v>603</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G73" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H73" t="s">
+        <v>672</v>
+      </c>
+      <c r="I73" t="s">
+        <v>715</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1E-8</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M73" t="s">
+        <v>736</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O73" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>736</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1203</v>
+      </c>
+      <c r="S73" t="s">
+        <v>28</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1204</v>
+      </c>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74">
+        <v>603</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G74" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H74" t="s">
+        <v>672</v>
+      </c>
+      <c r="I74" t="s">
+        <v>715</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1.1999999999999998E-8</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M74" t="s">
+        <v>736</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O74" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>736</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1210</v>
+      </c>
+      <c r="S74" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1211</v>
+      </c>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75">
+        <v>603</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G75" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H75" t="s">
+        <v>672</v>
+      </c>
+      <c r="I75" t="s">
+        <v>715</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1.4999999999999999E-8</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M75" t="s">
+        <v>736</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O75" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>736</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S75" t="s">
+        <v>28</v>
+      </c>
+      <c r="T75" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76">
+        <v>603</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G76" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H76" t="s">
+        <v>672</v>
+      </c>
+      <c r="I76" t="s">
+        <v>715</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.7999999999999999E-8</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M76" t="s">
+        <v>736</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>736</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S76" t="s">
+        <v>28</v>
+      </c>
+      <c r="T76" t="s">
+        <v>1225</v>
+      </c>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>603</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G77" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H77" t="s">
+        <v>672</v>
+      </c>
+      <c r="I77" t="s">
+        <v>715</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K77" s="4">
+        <v>2.2000000000000002E-8</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M77" t="s">
+        <v>736</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O77" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>736</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1231</v>
+      </c>
+      <c r="S77" t="s">
+        <v>28</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1232</v>
+      </c>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>603</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G78" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H78" t="s">
+        <v>672</v>
+      </c>
+      <c r="I78" t="s">
+        <v>715</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K78" s="4">
+        <v>2.7E-8</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M78" t="s">
+        <v>736</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O78" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1237</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>736</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1238</v>
+      </c>
+      <c r="S78" t="s">
+        <v>28</v>
+      </c>
+      <c r="T78" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>603</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G79" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H79" t="s">
+        <v>672</v>
+      </c>
+      <c r="I79" t="s">
+        <v>715</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K79" s="4">
+        <v>3.3000000000000004E-8</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M79" t="s">
+        <v>736</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O79" t="s">
+        <v>28</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>736</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T79" t="s">
+        <v>1246</v>
+      </c>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>603</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G80" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H80" t="s">
+        <v>672</v>
+      </c>
+      <c r="I80" t="s">
+        <v>715</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K80" s="4">
+        <v>3.9000000000000005E-8</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M80" t="s">
+        <v>736</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O80" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>736</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1252</v>
+      </c>
+      <c r="S80" t="s">
+        <v>28</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1253</v>
+      </c>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>603</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G81" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H81" t="s">
+        <v>672</v>
+      </c>
+      <c r="I81" t="s">
+        <v>715</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K81" s="4">
+        <v>4.6999999999999997E-8</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M81" t="s">
+        <v>736</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>736</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1259</v>
+      </c>
+      <c r="S81" t="s">
+        <v>28</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>603</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G82" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H82" t="s">
+        <v>672</v>
+      </c>
+      <c r="I82" t="s">
+        <v>715</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K82" s="4">
+        <v>5.6000000000000005E-8</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M82" t="s">
+        <v>736</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O82" t="s">
+        <v>28</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83">
+        <v>603</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G83" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H83" t="s">
+        <v>672</v>
+      </c>
+      <c r="I83" t="s">
+        <v>715</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K83" s="4">
+        <v>6.8E-8</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M83" t="s">
+        <v>736</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>736</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1272</v>
+      </c>
+      <c r="S83" t="s">
+        <v>28</v>
+      </c>
+      <c r="T83" t="s">
+        <v>1273</v>
+      </c>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>603</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G84" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H84" t="s">
+        <v>672</v>
+      </c>
+      <c r="I84" t="s">
+        <v>715</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K84" s="4">
+        <v>8.1999999999999993E-8</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M84" t="s">
+        <v>736</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O84" t="s">
+        <v>28</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1278</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>736</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1279</v>
+      </c>
+      <c r="S84" t="s">
+        <v>28</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1280</v>
+      </c>
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85">
+        <v>603</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G85" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H85" t="s">
+        <v>672</v>
+      </c>
+      <c r="I85" t="s">
+        <v>715</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K85" s="4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M85" t="s">
+        <v>736</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1284</v>
+      </c>
+      <c r="O85" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>736</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1286</v>
+      </c>
+      <c r="S85" t="s">
+        <v>28</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86">
+        <v>603</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G86" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H86" t="s">
+        <v>672</v>
+      </c>
+      <c r="I86" t="s">
+        <v>715</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M86" t="s">
+        <v>736</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O86" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1292</v>
+      </c>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87">
+        <v>603</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G87" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H87" t="s">
+        <v>672</v>
+      </c>
+      <c r="I87" t="s">
+        <v>715</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M87" t="s">
+        <v>736</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1296</v>
+      </c>
+      <c r="O87" t="s">
+        <v>28</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>736</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S87" t="s">
+        <v>28</v>
+      </c>
+      <c r="T87" t="s">
+        <v>1299</v>
+      </c>
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88">
+        <v>603</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G88" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H88" t="s">
+        <v>672</v>
+      </c>
+      <c r="I88" t="s">
+        <v>715</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K88" s="4">
+        <v>2.2000000000000001E-7</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M88" t="s">
+        <v>736</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>736</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S88" t="s">
+        <v>28</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1306</v>
+      </c>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89">
+        <v>603</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G89" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H89" t="s">
+        <v>672</v>
+      </c>
+      <c r="I89" t="s">
+        <v>715</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K89" s="4">
+        <v>4.7E-7</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M89" t="s">
+        <v>736</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1310</v>
+      </c>
+      <c r="O89" t="s">
+        <v>28</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1311</v>
+      </c>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90">
+        <v>603</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G90" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H90" t="s">
+        <v>672</v>
+      </c>
+      <c r="I90" t="s">
+        <v>715</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M90" t="s">
+        <v>736</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O90" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1316</v>
+      </c>
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91">
+        <v>805</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G91" t="str">
+        <f>Config!$B$4</f>
+        <v>SCH/C_EU.SchLib</v>
+      </c>
+      <c r="H91" t="s">
+        <v>672</v>
+      </c>
+      <c r="I91" t="s">
+        <v>715</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1323</v>
+      </c>
+      <c r="O91" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1326</v>
+      </c>
+      <c r="S91" t="s">
+        <v>28</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11356,7 +18776,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -11436,7 +18856,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -11516,7 +18936,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -11596,7 +19016,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -11669,14 +19089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A8F6A-F5E5-42B9-9631-24C8A730FB17}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EDC26A-C3AD-4B90-B60F-AC338F906A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DCC2C-B585-4F15-9A12-ECEA01C17233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15806" uniqueCount="4304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15828" uniqueCount="4316">
   <si>
     <t>Part Number</t>
   </si>
@@ -11849,18 +11849,6 @@
     <t>PCB/LED.PcbLib</t>
   </si>
   <si>
-    <t>LEDM5050X16-6</t>
-  </si>
-  <si>
-    <t>LEDM3535X19-6</t>
-  </si>
-  <si>
-    <t>LEDM5050X16-4</t>
-  </si>
-  <si>
-    <t>LEDM3535X19-4</t>
-  </si>
-  <si>
     <t>5.0SMDJ6.0A</t>
   </si>
   <si>
@@ -12957,6 +12945,54 @@
   </si>
   <si>
     <t>5.0SMDJ170CA-T7CT-ND</t>
+  </si>
+  <si>
+    <t>PCB/DIOM.PcbLib</t>
+  </si>
+  <si>
+    <t>LEDM5050X165-6</t>
+  </si>
+  <si>
+    <t>LEDM5050X157-4</t>
+  </si>
+  <si>
+    <t>LEDM3535X195-4</t>
+  </si>
+  <si>
+    <t>LEDM3535X095-6</t>
+  </si>
+  <si>
+    <t>C160214</t>
+  </si>
+  <si>
+    <t>WS2813B-B</t>
+  </si>
+  <si>
+    <t>WS2813B-MINI-V1</t>
+  </si>
+  <si>
+    <t>C114592</t>
+  </si>
+  <si>
+    <t>C965558</t>
+  </si>
+  <si>
+    <t>C2832664</t>
+  </si>
+  <si>
+    <t>WS2812B-V5/W</t>
+  </si>
+  <si>
+    <t>C2874885</t>
+  </si>
+  <si>
+    <t>C2920042</t>
+  </si>
+  <si>
+    <t>C527089</t>
+  </si>
+  <si>
+    <t>WS2812B-Mini</t>
   </si>
 </sst>
 </file>
@@ -13614,11 +13650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13854,13 +13890,22 @@
         <v>3933</v>
       </c>
       <c r="I5" t="s">
-        <v>3934</v>
+        <v>4301</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3915</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>3922</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3596</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4305</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -13889,13 +13934,34 @@
         <v>3933</v>
       </c>
       <c r="I6" t="s">
-        <v>3934</v>
+        <v>4301</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>3917</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>3922</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4306</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4308</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>3922</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3927</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2700</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4309</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -13924,13 +13990,22 @@
         <v>3933</v>
       </c>
       <c r="I7" t="s">
-        <v>3935</v>
+        <v>4304</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>3916</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>3922</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4307</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4310</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -13959,13 +14034,22 @@
         <v>3933</v>
       </c>
       <c r="I8" t="s">
-        <v>3936</v>
+        <v>4302</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>3930</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>3922</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4311</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4312</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -13994,13 +14078,22 @@
         <v>3933</v>
       </c>
       <c r="I9" t="s">
-        <v>3936</v>
+        <v>4302</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>3925</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>3922</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3926</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4313</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -14029,7 +14122,7 @@
         <v>3933</v>
       </c>
       <c r="I10" t="s">
-        <v>3937</v>
+        <v>4303</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>3929</v>
@@ -14037,10 +14130,22 @@
       <c r="K10" s="5" t="s">
         <v>3922</v>
       </c>
+      <c r="L10" t="s">
+        <v>4315</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4314</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N10" r:id="rId1" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Worldsemi-WS2812B-Mini_C527089.html" xr:uid="{7B3563B0-676F-492C-A346-E0B4B21DFE92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -40305,11 +40410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6596218-16F3-44AE-9E9B-CCA683897864}">
   <dimension ref="A1:T487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C476" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J496" sqref="J496"/>
+      <selection pane="bottomRight" activeCell="J297" sqref="J297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44121,7 +44226,7 @@
         <v>2727</v>
       </c>
       <c r="I71" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J71" t="s">
         <v>3025</v>
@@ -44171,7 +44276,7 @@
         <v>2727</v>
       </c>
       <c r="I72" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J72" t="s">
         <v>3025</v>
@@ -44221,7 +44326,7 @@
         <v>2727</v>
       </c>
       <c r="I73" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J73" t="s">
         <v>3025</v>
@@ -44271,7 +44376,7 @@
         <v>2727</v>
       </c>
       <c r="I74" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J74" t="s">
         <v>3025</v>
@@ -44321,7 +44426,7 @@
         <v>2727</v>
       </c>
       <c r="I75" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J75" t="s">
         <v>3025</v>
@@ -44371,7 +44476,7 @@
         <v>2727</v>
       </c>
       <c r="I76" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J76" t="s">
         <v>3025</v>
@@ -44421,7 +44526,7 @@
         <v>2727</v>
       </c>
       <c r="I77" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J77" t="s">
         <v>3025</v>
@@ -44471,7 +44576,7 @@
         <v>2727</v>
       </c>
       <c r="I78" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J78" t="s">
         <v>3025</v>
@@ -44521,7 +44626,7 @@
         <v>2727</v>
       </c>
       <c r="I79" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J79" t="s">
         <v>3025</v>
@@ -44571,7 +44676,7 @@
         <v>2727</v>
       </c>
       <c r="I80" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J80" t="s">
         <v>3025</v>
@@ -44621,7 +44726,7 @@
         <v>2727</v>
       </c>
       <c r="I81" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J81" t="s">
         <v>3025</v>
@@ -44671,7 +44776,7 @@
         <v>2727</v>
       </c>
       <c r="I82" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J82" t="s">
         <v>3025</v>
@@ -44721,7 +44826,7 @@
         <v>2727</v>
       </c>
       <c r="I83" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J83" t="s">
         <v>3025</v>
@@ -44771,7 +44876,7 @@
         <v>2727</v>
       </c>
       <c r="I84" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J84" t="s">
         <v>3025</v>
@@ -44821,7 +44926,7 @@
         <v>2727</v>
       </c>
       <c r="I85" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J85" t="s">
         <v>3025</v>
@@ -44871,7 +44976,7 @@
         <v>2727</v>
       </c>
       <c r="I86" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J86" t="s">
         <v>3025</v>
@@ -44921,7 +45026,7 @@
         <v>2727</v>
       </c>
       <c r="I87" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J87" t="s">
         <v>3025</v>
@@ -44971,7 +45076,7 @@
         <v>2727</v>
       </c>
       <c r="I88" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J88" t="s">
         <v>3025</v>
@@ -45021,7 +45126,7 @@
         <v>2727</v>
       </c>
       <c r="I89" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J89" t="s">
         <v>3025</v>
@@ -45071,7 +45176,7 @@
         <v>2727</v>
       </c>
       <c r="I90" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J90" t="s">
         <v>3025</v>
@@ -45121,7 +45226,7 @@
         <v>2727</v>
       </c>
       <c r="I91" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J91" t="s">
         <v>3025</v>
@@ -45171,7 +45276,7 @@
         <v>2727</v>
       </c>
       <c r="I92" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J92" t="s">
         <v>3025</v>
@@ -45221,7 +45326,7 @@
         <v>2727</v>
       </c>
       <c r="I93" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J93" t="s">
         <v>3025</v>
@@ -45271,7 +45376,7 @@
         <v>2727</v>
       </c>
       <c r="I94" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J94" t="s">
         <v>3025</v>
@@ -45321,7 +45426,7 @@
         <v>2727</v>
       </c>
       <c r="I95" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J95" t="s">
         <v>3025</v>
@@ -45371,7 +45476,7 @@
         <v>2727</v>
       </c>
       <c r="I96" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J96" t="s">
         <v>3025</v>
@@ -45421,7 +45526,7 @@
         <v>2727</v>
       </c>
       <c r="I97" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J97" t="s">
         <v>3025</v>
@@ -45471,7 +45576,7 @@
         <v>2727</v>
       </c>
       <c r="I98" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J98" t="s">
         <v>3025</v>
@@ -45521,7 +45626,7 @@
         <v>2727</v>
       </c>
       <c r="I99" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J99" t="s">
         <v>3025</v>
@@ -45571,7 +45676,7 @@
         <v>2727</v>
       </c>
       <c r="I100" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J100" t="s">
         <v>3025</v>
@@ -45621,7 +45726,7 @@
         <v>2727</v>
       </c>
       <c r="I101" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J101" t="s">
         <v>3025</v>
@@ -45671,7 +45776,7 @@
         <v>2727</v>
       </c>
       <c r="I102" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J102" t="s">
         <v>3025</v>
@@ -45721,7 +45826,7 @@
         <v>2727</v>
       </c>
       <c r="I103" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J103" t="s">
         <v>3025</v>
@@ -45771,7 +45876,7 @@
         <v>2727</v>
       </c>
       <c r="I104" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J104" t="s">
         <v>3025</v>
@@ -45821,7 +45926,7 @@
         <v>2727</v>
       </c>
       <c r="I105" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J105" t="s">
         <v>3025</v>
@@ -45871,7 +45976,7 @@
         <v>2727</v>
       </c>
       <c r="I106" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J106" t="s">
         <v>3025</v>
@@ -45921,7 +46026,7 @@
         <v>2727</v>
       </c>
       <c r="I107" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J107" t="s">
         <v>3025</v>
@@ -45971,7 +46076,7 @@
         <v>2727</v>
       </c>
       <c r="I108" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J108" t="s">
         <v>3025</v>
@@ -46021,7 +46126,7 @@
         <v>2727</v>
       </c>
       <c r="I109" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J109" t="s">
         <v>3025</v>
@@ -46071,7 +46176,7 @@
         <v>2727</v>
       </c>
       <c r="I110" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J110" t="s">
         <v>3025</v>
@@ -46121,7 +46226,7 @@
         <v>2727</v>
       </c>
       <c r="I111" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J111" t="s">
         <v>3025</v>
@@ -46171,7 +46276,7 @@
         <v>2727</v>
       </c>
       <c r="I112" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J112" t="s">
         <v>3025</v>
@@ -46221,7 +46326,7 @@
         <v>2727</v>
       </c>
       <c r="I113" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J113" t="s">
         <v>3025</v>
@@ -46271,7 +46376,7 @@
         <v>2727</v>
       </c>
       <c r="I114" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J114" t="s">
         <v>3025</v>
@@ -46321,7 +46426,7 @@
         <v>2727</v>
       </c>
       <c r="I115" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J115" t="s">
         <v>3025</v>
@@ -46371,7 +46476,7 @@
         <v>2727</v>
       </c>
       <c r="I116" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J116" t="s">
         <v>3025</v>
@@ -46421,7 +46526,7 @@
         <v>2727</v>
       </c>
       <c r="I117" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J117" t="s">
         <v>3025</v>
@@ -46471,7 +46576,7 @@
         <v>2727</v>
       </c>
       <c r="I118" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J118" t="s">
         <v>3025</v>
@@ -46521,7 +46626,7 @@
         <v>2727</v>
       </c>
       <c r="I119" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J119" t="s">
         <v>3025</v>
@@ -46571,7 +46676,7 @@
         <v>2727</v>
       </c>
       <c r="I120" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J120" t="s">
         <v>3025</v>
@@ -46621,7 +46726,7 @@
         <v>2727</v>
       </c>
       <c r="I121" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J121" t="s">
         <v>3025</v>
@@ -46671,7 +46776,7 @@
         <v>2727</v>
       </c>
       <c r="I122" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J122" t="s">
         <v>3025</v>
@@ -46721,7 +46826,7 @@
         <v>2727</v>
       </c>
       <c r="I123" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J123" t="s">
         <v>3025</v>
@@ -46771,7 +46876,7 @@
         <v>2727</v>
       </c>
       <c r="I124" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J124" t="s">
         <v>3025</v>
@@ -46821,7 +46926,7 @@
         <v>2727</v>
       </c>
       <c r="I125" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J125" t="s">
         <v>3025</v>
@@ -46871,7 +46976,7 @@
         <v>2727</v>
       </c>
       <c r="I126" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J126" t="s">
         <v>3025</v>
@@ -46921,7 +47026,7 @@
         <v>2727</v>
       </c>
       <c r="I127" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J127" t="s">
         <v>3025</v>
@@ -46971,7 +47076,7 @@
         <v>2727</v>
       </c>
       <c r="I128" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J128" t="s">
         <v>3025</v>
@@ -47021,7 +47126,7 @@
         <v>2727</v>
       </c>
       <c r="I129" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J129" t="s">
         <v>3025</v>
@@ -47071,7 +47176,7 @@
         <v>2727</v>
       </c>
       <c r="I130" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J130" t="s">
         <v>3025</v>
@@ -47121,7 +47226,7 @@
         <v>2727</v>
       </c>
       <c r="I131" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J131" t="s">
         <v>3025</v>
@@ -47171,7 +47276,7 @@
         <v>2727</v>
       </c>
       <c r="I132" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J132" t="s">
         <v>3025</v>
@@ -47221,7 +47326,7 @@
         <v>2727</v>
       </c>
       <c r="I133" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J133" t="s">
         <v>3025</v>
@@ -47271,7 +47376,7 @@
         <v>2727</v>
       </c>
       <c r="I134" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J134" t="s">
         <v>3025</v>
@@ -47321,7 +47426,7 @@
         <v>2727</v>
       </c>
       <c r="I135" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J135" t="s">
         <v>3025</v>
@@ -47371,7 +47476,7 @@
         <v>2727</v>
       </c>
       <c r="I136" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J136" t="s">
         <v>3025</v>
@@ -47421,7 +47526,7 @@
         <v>2727</v>
       </c>
       <c r="I137" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J137" t="s">
         <v>3025</v>
@@ -47471,7 +47576,7 @@
         <v>2727</v>
       </c>
       <c r="I138" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J138" t="s">
         <v>3025</v>
@@ -47521,7 +47626,7 @@
         <v>2727</v>
       </c>
       <c r="I139" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J139" t="s">
         <v>3025</v>
@@ -47571,7 +47676,7 @@
         <v>2727</v>
       </c>
       <c r="I140" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J140" t="s">
         <v>3025</v>
@@ -47621,7 +47726,7 @@
         <v>2727</v>
       </c>
       <c r="I141" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J141" t="s">
         <v>3025</v>
@@ -47671,7 +47776,7 @@
         <v>2727</v>
       </c>
       <c r="I142" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J142" t="s">
         <v>3025</v>
@@ -47721,7 +47826,7 @@
         <v>2727</v>
       </c>
       <c r="I143" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J143" t="s">
         <v>3025</v>
@@ -47771,7 +47876,7 @@
         <v>2727</v>
       </c>
       <c r="I144" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J144" t="s">
         <v>3025</v>
@@ -47821,7 +47926,7 @@
         <v>2727</v>
       </c>
       <c r="I145" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J145" t="s">
         <v>3025</v>
@@ -47871,7 +47976,7 @@
         <v>2727</v>
       </c>
       <c r="I146" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J146" t="s">
         <v>3025</v>
@@ -47921,7 +48026,7 @@
         <v>2727</v>
       </c>
       <c r="I147" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J147" t="s">
         <v>3025</v>
@@ -47971,7 +48076,7 @@
         <v>2727</v>
       </c>
       <c r="I148" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J148" t="s">
         <v>3025</v>
@@ -48021,7 +48126,7 @@
         <v>2727</v>
       </c>
       <c r="I149" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J149" t="s">
         <v>3025</v>
@@ -48071,7 +48176,7 @@
         <v>2727</v>
       </c>
       <c r="I150" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J150" t="s">
         <v>3025</v>
@@ -48121,7 +48226,7 @@
         <v>2727</v>
       </c>
       <c r="I151" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J151" t="s">
         <v>3025</v>
@@ -48171,7 +48276,7 @@
         <v>2727</v>
       </c>
       <c r="I152" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J152" t="s">
         <v>3025</v>
@@ -48221,7 +48326,7 @@
         <v>2727</v>
       </c>
       <c r="I153" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J153" t="s">
         <v>3025</v>
@@ -48271,7 +48376,7 @@
         <v>2727</v>
       </c>
       <c r="I154" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J154" t="s">
         <v>3025</v>
@@ -48321,7 +48426,7 @@
         <v>2727</v>
       </c>
       <c r="I155" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J155" t="s">
         <v>3025</v>
@@ -48371,7 +48476,7 @@
         <v>2727</v>
       </c>
       <c r="I156" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J156" t="s">
         <v>3025</v>
@@ -48421,7 +48526,7 @@
         <v>2727</v>
       </c>
       <c r="I157" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J157" t="s">
         <v>3025</v>
@@ -48471,7 +48576,7 @@
         <v>2727</v>
       </c>
       <c r="I158" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J158" t="s">
         <v>3025</v>
@@ -48521,7 +48626,7 @@
         <v>2727</v>
       </c>
       <c r="I159" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J159" t="s">
         <v>3025</v>
@@ -48571,7 +48676,7 @@
         <v>2727</v>
       </c>
       <c r="I160" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J160" t="s">
         <v>3025</v>
@@ -48621,7 +48726,7 @@
         <v>2727</v>
       </c>
       <c r="I161" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J161" t="s">
         <v>3025</v>
@@ -48671,7 +48776,7 @@
         <v>2727</v>
       </c>
       <c r="I162" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J162" t="s">
         <v>3025</v>
@@ -48721,7 +48826,7 @@
         <v>2727</v>
       </c>
       <c r="I163" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J163" t="s">
         <v>3025</v>
@@ -48771,7 +48876,7 @@
         <v>2727</v>
       </c>
       <c r="I164" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J164" t="s">
         <v>3025</v>
@@ -48821,7 +48926,7 @@
         <v>2727</v>
       </c>
       <c r="I165" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J165" t="s">
         <v>3025</v>
@@ -48871,7 +48976,7 @@
         <v>2727</v>
       </c>
       <c r="I166" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J166" t="s">
         <v>3025</v>
@@ -48921,7 +49026,7 @@
         <v>2727</v>
       </c>
       <c r="I167" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J167" t="s">
         <v>3025</v>
@@ -48971,7 +49076,7 @@
         <v>2727</v>
       </c>
       <c r="I168" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J168" t="s">
         <v>3025</v>
@@ -49021,7 +49126,7 @@
         <v>2727</v>
       </c>
       <c r="I169" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J169" t="s">
         <v>3025</v>
@@ -49071,7 +49176,7 @@
         <v>2727</v>
       </c>
       <c r="I170" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J170" t="s">
         <v>3025</v>
@@ -49121,7 +49226,7 @@
         <v>2727</v>
       </c>
       <c r="I171" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J171" t="s">
         <v>3025</v>
@@ -49171,7 +49276,7 @@
         <v>2727</v>
       </c>
       <c r="I172" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J172" t="s">
         <v>3025</v>
@@ -49221,7 +49326,7 @@
         <v>2727</v>
       </c>
       <c r="I173" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J173" t="s">
         <v>3025</v>
@@ -49271,7 +49376,7 @@
         <v>2727</v>
       </c>
       <c r="I174" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J174" t="s">
         <v>3025</v>
@@ -49321,7 +49426,7 @@
         <v>2727</v>
       </c>
       <c r="I175" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J175" t="s">
         <v>3025</v>
@@ -49371,7 +49476,7 @@
         <v>2727</v>
       </c>
       <c r="I176" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J176" t="s">
         <v>3025</v>
@@ -49421,7 +49526,7 @@
         <v>2727</v>
       </c>
       <c r="I177" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J177" t="s">
         <v>3025</v>
@@ -49471,7 +49576,7 @@
         <v>2727</v>
       </c>
       <c r="I178" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J178" t="s">
         <v>3025</v>
@@ -49521,7 +49626,7 @@
         <v>2727</v>
       </c>
       <c r="I179" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J179" t="s">
         <v>3025</v>
@@ -49571,7 +49676,7 @@
         <v>2727</v>
       </c>
       <c r="I180" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J180" t="s">
         <v>3315</v>
@@ -49621,7 +49726,7 @@
         <v>2727</v>
       </c>
       <c r="I181" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J181" t="s">
         <v>3315</v>
@@ -49683,7 +49788,7 @@
         <v>2727</v>
       </c>
       <c r="I182" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J182" t="s">
         <v>3315</v>
@@ -49733,7 +49838,7 @@
         <v>2727</v>
       </c>
       <c r="I183" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J183" t="s">
         <v>3315</v>
@@ -49783,7 +49888,7 @@
         <v>2727</v>
       </c>
       <c r="I184" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J184" t="s">
         <v>3315</v>
@@ -49833,7 +49938,7 @@
         <v>2727</v>
       </c>
       <c r="I185" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J185" t="s">
         <v>3315</v>
@@ -49883,7 +49988,7 @@
         <v>2727</v>
       </c>
       <c r="I186" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J186" t="s">
         <v>3315</v>
@@ -49933,7 +50038,7 @@
         <v>2727</v>
       </c>
       <c r="I187" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J187" t="s">
         <v>3315</v>
@@ -49983,7 +50088,7 @@
         <v>2727</v>
       </c>
       <c r="I188" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J188" t="s">
         <v>3315</v>
@@ -50033,7 +50138,7 @@
         <v>2727</v>
       </c>
       <c r="I189" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J189" t="s">
         <v>3315</v>
@@ -50083,7 +50188,7 @@
         <v>2727</v>
       </c>
       <c r="I190" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J190" t="s">
         <v>3315</v>
@@ -50133,7 +50238,7 @@
         <v>2727</v>
       </c>
       <c r="I191" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J191" t="s">
         <v>3315</v>
@@ -50183,7 +50288,7 @@
         <v>2727</v>
       </c>
       <c r="I192" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J192" t="s">
         <v>3315</v>
@@ -50233,7 +50338,7 @@
         <v>2727</v>
       </c>
       <c r="I193" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J193" t="s">
         <v>3315</v>
@@ -50283,7 +50388,7 @@
         <v>2727</v>
       </c>
       <c r="I194" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J194" t="s">
         <v>3315</v>
@@ -50333,7 +50438,7 @@
         <v>2727</v>
       </c>
       <c r="I195" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J195" t="s">
         <v>3315</v>
@@ -50383,7 +50488,7 @@
         <v>2727</v>
       </c>
       <c r="I196" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J196" t="s">
         <v>3315</v>
@@ -50433,7 +50538,7 @@
         <v>2727</v>
       </c>
       <c r="I197" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J197" t="s">
         <v>3315</v>
@@ -50483,7 +50588,7 @@
         <v>2727</v>
       </c>
       <c r="I198" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J198" t="s">
         <v>3315</v>
@@ -50533,7 +50638,7 @@
         <v>2727</v>
       </c>
       <c r="I199" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J199" t="s">
         <v>3315</v>
@@ -50583,7 +50688,7 @@
         <v>2727</v>
       </c>
       <c r="I200" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J200" t="s">
         <v>3315</v>
@@ -50633,7 +50738,7 @@
         <v>2727</v>
       </c>
       <c r="I201" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J201" t="s">
         <v>3315</v>
@@ -50683,7 +50788,7 @@
         <v>2727</v>
       </c>
       <c r="I202" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J202" t="s">
         <v>3315</v>
@@ -50733,7 +50838,7 @@
         <v>2727</v>
       </c>
       <c r="I203" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J203" t="s">
         <v>3315</v>
@@ -50783,7 +50888,7 @@
         <v>2727</v>
       </c>
       <c r="I204" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J204" t="s">
         <v>3315</v>
@@ -50833,7 +50938,7 @@
         <v>2727</v>
       </c>
       <c r="I205" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J205" t="s">
         <v>3315</v>
@@ -50883,7 +50988,7 @@
         <v>2727</v>
       </c>
       <c r="I206" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J206" t="s">
         <v>3315</v>
@@ -50933,7 +51038,7 @@
         <v>2727</v>
       </c>
       <c r="I207" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J207" t="s">
         <v>3315</v>
@@ -50983,7 +51088,7 @@
         <v>2727</v>
       </c>
       <c r="I208" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J208" t="s">
         <v>3315</v>
@@ -51033,7 +51138,7 @@
         <v>2727</v>
       </c>
       <c r="I209" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J209" t="s">
         <v>3315</v>
@@ -51083,7 +51188,7 @@
         <v>2727</v>
       </c>
       <c r="I210" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J210" t="s">
         <v>3315</v>
@@ -51133,7 +51238,7 @@
         <v>2727</v>
       </c>
       <c r="I211" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J211" t="s">
         <v>3315</v>
@@ -51183,7 +51288,7 @@
         <v>2727</v>
       </c>
       <c r="I212" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J212" t="s">
         <v>3315</v>
@@ -51233,7 +51338,7 @@
         <v>2727</v>
       </c>
       <c r="I213" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J213" t="s">
         <v>3315</v>
@@ -51283,7 +51388,7 @@
         <v>2727</v>
       </c>
       <c r="I214" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J214" t="s">
         <v>3315</v>
@@ -51333,7 +51438,7 @@
         <v>2727</v>
       </c>
       <c r="I215" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J215" t="s">
         <v>3315</v>
@@ -51383,7 +51488,7 @@
         <v>2727</v>
       </c>
       <c r="I216" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J216" t="s">
         <v>3315</v>
@@ -51433,7 +51538,7 @@
         <v>2727</v>
       </c>
       <c r="I217" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J217" t="s">
         <v>3315</v>
@@ -51483,7 +51588,7 @@
         <v>2727</v>
       </c>
       <c r="I218" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J218" t="s">
         <v>3315</v>
@@ -51533,7 +51638,7 @@
         <v>2727</v>
       </c>
       <c r="I219" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J219" t="s">
         <v>3315</v>
@@ -51583,7 +51688,7 @@
         <v>2727</v>
       </c>
       <c r="I220" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J220" t="s">
         <v>3315</v>
@@ -51633,7 +51738,7 @@
         <v>2727</v>
       </c>
       <c r="I221" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J221" t="s">
         <v>3315</v>
@@ -51683,7 +51788,7 @@
         <v>2727</v>
       </c>
       <c r="I222" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J222" t="s">
         <v>3315</v>
@@ -51733,7 +51838,7 @@
         <v>2727</v>
       </c>
       <c r="I223" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J223" t="s">
         <v>3315</v>
@@ -51783,7 +51888,7 @@
         <v>2727</v>
       </c>
       <c r="I224" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J224" t="s">
         <v>3315</v>
@@ -51833,7 +51938,7 @@
         <v>2727</v>
       </c>
       <c r="I225" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J225" t="s">
         <v>3315</v>
@@ -51883,7 +51988,7 @@
         <v>2727</v>
       </c>
       <c r="I226" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J226" t="s">
         <v>3315</v>
@@ -51933,7 +52038,7 @@
         <v>2727</v>
       </c>
       <c r="I227" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J227" t="s">
         <v>3315</v>
@@ -51983,7 +52088,7 @@
         <v>2727</v>
       </c>
       <c r="I228" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J228" t="s">
         <v>3315</v>
@@ -52033,7 +52138,7 @@
         <v>2727</v>
       </c>
       <c r="I229" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J229" t="s">
         <v>3315</v>
@@ -52083,7 +52188,7 @@
         <v>2727</v>
       </c>
       <c r="I230" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J230" t="s">
         <v>3315</v>
@@ -52133,7 +52238,7 @@
         <v>2727</v>
       </c>
       <c r="I231" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J231" t="s">
         <v>3315</v>
@@ -52183,7 +52288,7 @@
         <v>2727</v>
       </c>
       <c r="I232" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J232" t="s">
         <v>3315</v>
@@ -52233,7 +52338,7 @@
         <v>2727</v>
       </c>
       <c r="I233" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J233" t="s">
         <v>3315</v>
@@ -52283,7 +52388,7 @@
         <v>2727</v>
       </c>
       <c r="I234" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J234" t="s">
         <v>3315</v>
@@ -52333,7 +52438,7 @@
         <v>2727</v>
       </c>
       <c r="I235" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J235" t="s">
         <v>3315</v>
@@ -52383,7 +52488,7 @@
         <v>2727</v>
       </c>
       <c r="I236" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J236" t="s">
         <v>3315</v>
@@ -52433,7 +52538,7 @@
         <v>2727</v>
       </c>
       <c r="I237" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J237" t="s">
         <v>3315</v>
@@ -52483,7 +52588,7 @@
         <v>2727</v>
       </c>
       <c r="I238" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J238" t="s">
         <v>3315</v>
@@ -52533,7 +52638,7 @@
         <v>2727</v>
       </c>
       <c r="I239" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J239" t="s">
         <v>3315</v>
@@ -52583,7 +52688,7 @@
         <v>2727</v>
       </c>
       <c r="I240" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J240" t="s">
         <v>3315</v>
@@ -52633,7 +52738,7 @@
         <v>2727</v>
       </c>
       <c r="I241" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J241" t="s">
         <v>3315</v>
@@ -52683,7 +52788,7 @@
         <v>2727</v>
       </c>
       <c r="I242" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J242" t="s">
         <v>3315</v>
@@ -52733,7 +52838,7 @@
         <v>2727</v>
       </c>
       <c r="I243" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J243" t="s">
         <v>3315</v>
@@ -52783,7 +52888,7 @@
         <v>2727</v>
       </c>
       <c r="I244" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J244" t="s">
         <v>3315</v>
@@ -52833,7 +52938,7 @@
         <v>2727</v>
       </c>
       <c r="I245" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J245" t="s">
         <v>3315</v>
@@ -52883,7 +52988,7 @@
         <v>2727</v>
       </c>
       <c r="I246" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J246" t="s">
         <v>3315</v>
@@ -52933,7 +53038,7 @@
         <v>2727</v>
       </c>
       <c r="I247" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J247" t="s">
         <v>3315</v>
@@ -52983,7 +53088,7 @@
         <v>2727</v>
       </c>
       <c r="I248" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J248" t="s">
         <v>3315</v>
@@ -53033,7 +53138,7 @@
         <v>2727</v>
       </c>
       <c r="I249" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J249" t="s">
         <v>3315</v>
@@ -53083,7 +53188,7 @@
         <v>2727</v>
       </c>
       <c r="I250" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J250" t="s">
         <v>3315</v>
@@ -53133,7 +53238,7 @@
         <v>2727</v>
       </c>
       <c r="I251" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J251" t="s">
         <v>3315</v>
@@ -53183,7 +53288,7 @@
         <v>2727</v>
       </c>
       <c r="I252" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J252" t="s">
         <v>3315</v>
@@ -53233,7 +53338,7 @@
         <v>2727</v>
       </c>
       <c r="I253" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J253" t="s">
         <v>3315</v>
@@ -53283,7 +53388,7 @@
         <v>2727</v>
       </c>
       <c r="I254" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J254" t="s">
         <v>3315</v>
@@ -53345,7 +53450,7 @@
         <v>2727</v>
       </c>
       <c r="I255" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J255" t="s">
         <v>3315</v>
@@ -53395,7 +53500,7 @@
         <v>2727</v>
       </c>
       <c r="I256" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J256" t="s">
         <v>3315</v>
@@ -53445,7 +53550,7 @@
         <v>2727</v>
       </c>
       <c r="I257" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J257" t="s">
         <v>3315</v>
@@ -53495,7 +53600,7 @@
         <v>2727</v>
       </c>
       <c r="I258" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J258" t="s">
         <v>3315</v>
@@ -53545,7 +53650,7 @@
         <v>2727</v>
       </c>
       <c r="I259" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J259" t="s">
         <v>3315</v>
@@ -53595,7 +53700,7 @@
         <v>2727</v>
       </c>
       <c r="I260" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J260" t="s">
         <v>3315</v>
@@ -53645,7 +53750,7 @@
         <v>2727</v>
       </c>
       <c r="I261" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J261" t="s">
         <v>3315</v>
@@ -53695,7 +53800,7 @@
         <v>2727</v>
       </c>
       <c r="I262" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J262" t="s">
         <v>3315</v>
@@ -53745,7 +53850,7 @@
         <v>2727</v>
       </c>
       <c r="I263" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J263" t="s">
         <v>3315</v>
@@ -53795,7 +53900,7 @@
         <v>2727</v>
       </c>
       <c r="I264" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J264" t="s">
         <v>3315</v>
@@ -53845,7 +53950,7 @@
         <v>2727</v>
       </c>
       <c r="I265" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J265" t="s">
         <v>3315</v>
@@ -53895,7 +54000,7 @@
         <v>2727</v>
       </c>
       <c r="I266" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J266" t="s">
         <v>3315</v>
@@ -53945,7 +54050,7 @@
         <v>2727</v>
       </c>
       <c r="I267" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J267" t="s">
         <v>3315</v>
@@ -53995,7 +54100,7 @@
         <v>2727</v>
       </c>
       <c r="I268" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J268" t="s">
         <v>3315</v>
@@ -54045,7 +54150,7 @@
         <v>2727</v>
       </c>
       <c r="I269" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J269" t="s">
         <v>3315</v>
@@ -54095,7 +54200,7 @@
         <v>2727</v>
       </c>
       <c r="I270" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J270" t="s">
         <v>3315</v>
@@ -54145,7 +54250,7 @@
         <v>2727</v>
       </c>
       <c r="I271" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J271" t="s">
         <v>3315</v>
@@ -54207,7 +54312,7 @@
         <v>2727</v>
       </c>
       <c r="I272" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J272" t="s">
         <v>3315</v>
@@ -54257,7 +54362,7 @@
         <v>2727</v>
       </c>
       <c r="I273" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J273" t="s">
         <v>3315</v>
@@ -54307,7 +54412,7 @@
         <v>2727</v>
       </c>
       <c r="I274" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J274" t="s">
         <v>3315</v>
@@ -54357,7 +54462,7 @@
         <v>2727</v>
       </c>
       <c r="I275" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J275" t="s">
         <v>3315</v>
@@ -54407,7 +54512,7 @@
         <v>2727</v>
       </c>
       <c r="I276" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J276" t="s">
         <v>3315</v>
@@ -54457,7 +54562,7 @@
         <v>2727</v>
       </c>
       <c r="I277" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J277" t="s">
         <v>3315</v>
@@ -54507,7 +54612,7 @@
         <v>2727</v>
       </c>
       <c r="I278" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J278" t="s">
         <v>3315</v>
@@ -54557,7 +54662,7 @@
         <v>2727</v>
       </c>
       <c r="I279" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J279" t="s">
         <v>3315</v>
@@ -54607,7 +54712,7 @@
         <v>2727</v>
       </c>
       <c r="I280" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J280" t="s">
         <v>3315</v>
@@ -54657,7 +54762,7 @@
         <v>2727</v>
       </c>
       <c r="I281" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J281" t="s">
         <v>3315</v>
@@ -54707,7 +54812,7 @@
         <v>2727</v>
       </c>
       <c r="I282" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J282" t="s">
         <v>3315</v>
@@ -54757,7 +54862,7 @@
         <v>2727</v>
       </c>
       <c r="I283" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J283" t="s">
         <v>3315</v>
@@ -54807,7 +54912,7 @@
         <v>2727</v>
       </c>
       <c r="I284" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J284" t="s">
         <v>3315</v>
@@ -54857,7 +54962,7 @@
         <v>2727</v>
       </c>
       <c r="I285" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J285" t="s">
         <v>3315</v>
@@ -54907,7 +55012,7 @@
         <v>2727</v>
       </c>
       <c r="I286" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J286" t="s">
         <v>3315</v>
@@ -54957,7 +55062,7 @@
         <v>2727</v>
       </c>
       <c r="I287" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J287" t="s">
         <v>3315</v>
@@ -55007,7 +55112,7 @@
         <v>2727</v>
       </c>
       <c r="I288" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J288" t="s">
         <v>3315</v>
@@ -55057,7 +55162,7 @@
         <v>2727</v>
       </c>
       <c r="I289" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J289" t="s">
         <v>3315</v>
@@ -55107,7 +55212,7 @@
         <v>2727</v>
       </c>
       <c r="I290" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J290" t="s">
         <v>3600</v>
@@ -55157,7 +55262,7 @@
         <v>2727</v>
       </c>
       <c r="I291" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J291" t="s">
         <v>3600</v>
@@ -55219,7 +55324,7 @@
         <v>2727</v>
       </c>
       <c r="I292" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J292" t="s">
         <v>3600</v>
@@ -55269,7 +55374,7 @@
         <v>2727</v>
       </c>
       <c r="I293" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J293" t="s">
         <v>3600</v>
@@ -55319,7 +55424,7 @@
         <v>2727</v>
       </c>
       <c r="I294" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J294" t="s">
         <v>3600</v>
@@ -55369,7 +55474,7 @@
         <v>2727</v>
       </c>
       <c r="I295" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J295" t="s">
         <v>3600</v>
@@ -55419,7 +55524,7 @@
         <v>2727</v>
       </c>
       <c r="I296" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J296" t="s">
         <v>3600</v>
@@ -55469,7 +55574,7 @@
         <v>2727</v>
       </c>
       <c r="I297" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J297" t="s">
         <v>3600</v>
@@ -55519,7 +55624,7 @@
         <v>2727</v>
       </c>
       <c r="I298" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J298" t="s">
         <v>3600</v>
@@ -55569,7 +55674,7 @@
         <v>2727</v>
       </c>
       <c r="I299" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J299" t="s">
         <v>3600</v>
@@ -55619,7 +55724,7 @@
         <v>2727</v>
       </c>
       <c r="I300" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J300" t="s">
         <v>3600</v>
@@ -55669,7 +55774,7 @@
         <v>2727</v>
       </c>
       <c r="I301" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J301" t="s">
         <v>3600</v>
@@ -55719,7 +55824,7 @@
         <v>2727</v>
       </c>
       <c r="I302" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J302" t="s">
         <v>3600</v>
@@ -55769,7 +55874,7 @@
         <v>2727</v>
       </c>
       <c r="I303" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J303" t="s">
         <v>3600</v>
@@ -55819,7 +55924,7 @@
         <v>2727</v>
       </c>
       <c r="I304" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J304" t="s">
         <v>3600</v>
@@ -55869,7 +55974,7 @@
         <v>2727</v>
       </c>
       <c r="I305" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J305" t="s">
         <v>3600</v>
@@ -55919,7 +56024,7 @@
         <v>2727</v>
       </c>
       <c r="I306" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J306" t="s">
         <v>3600</v>
@@ -55969,7 +56074,7 @@
         <v>2727</v>
       </c>
       <c r="I307" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J307" t="s">
         <v>3600</v>
@@ -56019,7 +56124,7 @@
         <v>2727</v>
       </c>
       <c r="I308" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J308" t="s">
         <v>3600</v>
@@ -56069,7 +56174,7 @@
         <v>2727</v>
       </c>
       <c r="I309" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J309" t="s">
         <v>3600</v>
@@ -56119,7 +56224,7 @@
         <v>2727</v>
       </c>
       <c r="I310" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J310" t="s">
         <v>3600</v>
@@ -56181,7 +56286,7 @@
         <v>2727</v>
       </c>
       <c r="I311" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J311" t="s">
         <v>3600</v>
@@ -56243,7 +56348,7 @@
         <v>2727</v>
       </c>
       <c r="I312" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J312" t="s">
         <v>3600</v>
@@ -56305,7 +56410,7 @@
         <v>2727</v>
       </c>
       <c r="I313" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J313" t="s">
         <v>3600</v>
@@ -56355,7 +56460,7 @@
         <v>2727</v>
       </c>
       <c r="I314" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J314" t="s">
         <v>3600</v>
@@ -56405,7 +56510,7 @@
         <v>2727</v>
       </c>
       <c r="I315" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J315" t="s">
         <v>3600</v>
@@ -56467,7 +56572,7 @@
         <v>2727</v>
       </c>
       <c r="I316" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J316" t="s">
         <v>3600</v>
@@ -56529,7 +56634,7 @@
         <v>2727</v>
       </c>
       <c r="I317" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J317" t="s">
         <v>3600</v>
@@ -56579,7 +56684,7 @@
         <v>2727</v>
       </c>
       <c r="I318" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J318" t="s">
         <v>3600</v>
@@ -56641,7 +56746,7 @@
         <v>2727</v>
       </c>
       <c r="I319" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J319" t="s">
         <v>3600</v>
@@ -56691,7 +56796,7 @@
         <v>2727</v>
       </c>
       <c r="I320" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J320" t="s">
         <v>3600</v>
@@ -56741,7 +56846,7 @@
         <v>2727</v>
       </c>
       <c r="I321" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J321" t="s">
         <v>3600</v>
@@ -56791,7 +56896,7 @@
         <v>2727</v>
       </c>
       <c r="I322" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J322" t="s">
         <v>3600</v>
@@ -56841,7 +56946,7 @@
         <v>2727</v>
       </c>
       <c r="I323" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J323" t="s">
         <v>3600</v>
@@ -56891,7 +56996,7 @@
         <v>2727</v>
       </c>
       <c r="I324" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J324" t="s">
         <v>3600</v>
@@ -56953,7 +57058,7 @@
         <v>2727</v>
       </c>
       <c r="I325" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J325" t="s">
         <v>3600</v>
@@ -57003,7 +57108,7 @@
         <v>2727</v>
       </c>
       <c r="I326" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J326" t="s">
         <v>3600</v>
@@ -57053,7 +57158,7 @@
         <v>2727</v>
       </c>
       <c r="I327" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J327" t="s">
         <v>3600</v>
@@ -57103,7 +57208,7 @@
         <v>2727</v>
       </c>
       <c r="I328" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J328" t="s">
         <v>3600</v>
@@ -57153,7 +57258,7 @@
         <v>2727</v>
       </c>
       <c r="I329" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J329" t="s">
         <v>3600</v>
@@ -57215,7 +57320,7 @@
         <v>2727</v>
       </c>
       <c r="I330" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J330" t="s">
         <v>3600</v>
@@ -57265,7 +57370,7 @@
         <v>2727</v>
       </c>
       <c r="I331" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J331" t="s">
         <v>3600</v>
@@ -57315,7 +57420,7 @@
         <v>2727</v>
       </c>
       <c r="I332" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J332" t="s">
         <v>3600</v>
@@ -57377,7 +57482,7 @@
         <v>2727</v>
       </c>
       <c r="I333" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J333" t="s">
         <v>3600</v>
@@ -57439,7 +57544,7 @@
         <v>2727</v>
       </c>
       <c r="I334" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J334" t="s">
         <v>3600</v>
@@ -57501,7 +57606,7 @@
         <v>2727</v>
       </c>
       <c r="I335" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J335" t="s">
         <v>3600</v>
@@ -57563,7 +57668,7 @@
         <v>2727</v>
       </c>
       <c r="I336" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J336" t="s">
         <v>3600</v>
@@ -57613,7 +57718,7 @@
         <v>2727</v>
       </c>
       <c r="I337" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J337" t="s">
         <v>3600</v>
@@ -57675,7 +57780,7 @@
         <v>2727</v>
       </c>
       <c r="I338" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J338" t="s">
         <v>3600</v>
@@ -57737,7 +57842,7 @@
         <v>2727</v>
       </c>
       <c r="I339" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J339" t="s">
         <v>3600</v>
@@ -57799,7 +57904,7 @@
         <v>2727</v>
       </c>
       <c r="I340" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J340" t="s">
         <v>3600</v>
@@ -57861,7 +57966,7 @@
         <v>2727</v>
       </c>
       <c r="I341" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J341" t="s">
         <v>3600</v>
@@ -57923,7 +58028,7 @@
         <v>2727</v>
       </c>
       <c r="I342" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J342" t="s">
         <v>3600</v>
@@ -57973,7 +58078,7 @@
         <v>2727</v>
       </c>
       <c r="I343" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J343" t="s">
         <v>3600</v>
@@ -58023,7 +58128,7 @@
         <v>2727</v>
       </c>
       <c r="I344" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J344" t="s">
         <v>3600</v>
@@ -58073,7 +58178,7 @@
         <v>2727</v>
       </c>
       <c r="I345" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J345" t="s">
         <v>3600</v>
@@ -58123,7 +58228,7 @@
         <v>2727</v>
       </c>
       <c r="I346" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J346" t="s">
         <v>3600</v>
@@ -58173,7 +58278,7 @@
         <v>2727</v>
       </c>
       <c r="I347" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J347" t="s">
         <v>3600</v>
@@ -58235,7 +58340,7 @@
         <v>2727</v>
       </c>
       <c r="I348" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J348" t="s">
         <v>3600</v>
@@ -58285,7 +58390,7 @@
         <v>2727</v>
       </c>
       <c r="I349" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J349" t="s">
         <v>3600</v>
@@ -58347,7 +58452,7 @@
         <v>2727</v>
       </c>
       <c r="I350" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J350" t="s">
         <v>3600</v>
@@ -58397,7 +58502,7 @@
         <v>2727</v>
       </c>
       <c r="I351" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J351" t="s">
         <v>3600</v>
@@ -58447,7 +58552,7 @@
         <v>2727</v>
       </c>
       <c r="I352" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J352" t="s">
         <v>3600</v>
@@ -58497,7 +58602,7 @@
         <v>2727</v>
       </c>
       <c r="I353" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J353" t="s">
         <v>3600</v>
@@ -58559,7 +58664,7 @@
         <v>2727</v>
       </c>
       <c r="I354" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J354" t="s">
         <v>3600</v>
@@ -58609,7 +58714,7 @@
         <v>2727</v>
       </c>
       <c r="I355" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J355" t="s">
         <v>3600</v>
@@ -58659,7 +58764,7 @@
         <v>2727</v>
       </c>
       <c r="I356" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J356" t="s">
         <v>3600</v>
@@ -58709,7 +58814,7 @@
         <v>2727</v>
       </c>
       <c r="I357" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J357" t="s">
         <v>3600</v>
@@ -58759,7 +58864,7 @@
         <v>2727</v>
       </c>
       <c r="I358" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J358" t="s">
         <v>3600</v>
@@ -58809,7 +58914,7 @@
         <v>2727</v>
       </c>
       <c r="I359" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J359" t="s">
         <v>3600</v>
@@ -58859,7 +58964,7 @@
         <v>2727</v>
       </c>
       <c r="I360" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J360" t="s">
         <v>3600</v>
@@ -58909,7 +59014,7 @@
         <v>2727</v>
       </c>
       <c r="I361" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J361" t="s">
         <v>3600</v>
@@ -58959,7 +59064,7 @@
         <v>2727</v>
       </c>
       <c r="I362" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J362" t="s">
         <v>3600</v>
@@ -59009,7 +59114,7 @@
         <v>2727</v>
       </c>
       <c r="I363" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J363" t="s">
         <v>3600</v>
@@ -59059,7 +59164,7 @@
         <v>2727</v>
       </c>
       <c r="I364" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J364" t="s">
         <v>3600</v>
@@ -59109,7 +59214,7 @@
         <v>2727</v>
       </c>
       <c r="I365" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J365" t="s">
         <v>3600</v>
@@ -59159,7 +59264,7 @@
         <v>2727</v>
       </c>
       <c r="I366" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J366" t="s">
         <v>3600</v>
@@ -59209,7 +59314,7 @@
         <v>2727</v>
       </c>
       <c r="I367" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J367" t="s">
         <v>3600</v>
@@ -59259,7 +59364,7 @@
         <v>2727</v>
       </c>
       <c r="I368" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J368" t="s">
         <v>3600</v>
@@ -59309,7 +59414,7 @@
         <v>2727</v>
       </c>
       <c r="I369" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J369" t="s">
         <v>3600</v>
@@ -59359,7 +59464,7 @@
         <v>2727</v>
       </c>
       <c r="I370" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J370" t="s">
         <v>3600</v>
@@ -59409,7 +59514,7 @@
         <v>2727</v>
       </c>
       <c r="I371" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J371" t="s">
         <v>3600</v>
@@ -59459,7 +59564,7 @@
         <v>2727</v>
       </c>
       <c r="I372" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J372" t="s">
         <v>3600</v>
@@ -59509,7 +59614,7 @@
         <v>2727</v>
       </c>
       <c r="I373" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J373" t="s">
         <v>3600</v>
@@ -59559,7 +59664,7 @@
         <v>2727</v>
       </c>
       <c r="I374" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J374" t="s">
         <v>3600</v>
@@ -59609,7 +59714,7 @@
         <v>2727</v>
       </c>
       <c r="I375" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J375" t="s">
         <v>3600</v>
@@ -59659,7 +59764,7 @@
         <v>2727</v>
       </c>
       <c r="I376" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J376" t="s">
         <v>3600</v>
@@ -59709,7 +59814,7 @@
         <v>2727</v>
       </c>
       <c r="I377" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J377" t="s">
         <v>3600</v>
@@ -59759,7 +59864,7 @@
         <v>2727</v>
       </c>
       <c r="I378" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J378" t="s">
         <v>3600</v>
@@ -59809,7 +59914,7 @@
         <v>2727</v>
       </c>
       <c r="I379" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J379" t="s">
         <v>3600</v>
@@ -59859,7 +59964,7 @@
         <v>2727</v>
       </c>
       <c r="I380" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J380" t="s">
         <v>3600</v>
@@ -59909,7 +60014,7 @@
         <v>2727</v>
       </c>
       <c r="I381" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J381" t="s">
         <v>3600</v>
@@ -59959,7 +60064,7 @@
         <v>2727</v>
       </c>
       <c r="I382" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J382" t="s">
         <v>3600</v>
@@ -60009,7 +60114,7 @@
         <v>2727</v>
       </c>
       <c r="I383" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J383" t="s">
         <v>3600</v>
@@ -60059,7 +60164,7 @@
         <v>2727</v>
       </c>
       <c r="I384" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J384" t="s">
         <v>3600</v>
@@ -60109,7 +60214,7 @@
         <v>2727</v>
       </c>
       <c r="I385" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J385" t="s">
         <v>3600</v>
@@ -60159,7 +60264,7 @@
         <v>2727</v>
       </c>
       <c r="I386" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J386" t="s">
         <v>3600</v>
@@ -60209,7 +60314,7 @@
         <v>2727</v>
       </c>
       <c r="I387" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J387" t="s">
         <v>3600</v>
@@ -60259,7 +60364,7 @@
         <v>2727</v>
       </c>
       <c r="I388" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J388" t="s">
         <v>3600</v>
@@ -60309,7 +60414,7 @@
         <v>2727</v>
       </c>
       <c r="I389" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J389" t="s">
         <v>3600</v>
@@ -60359,7 +60464,7 @@
         <v>2727</v>
       </c>
       <c r="I390" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J390" t="s">
         <v>3600</v>
@@ -60409,7 +60514,7 @@
         <v>2727</v>
       </c>
       <c r="I391" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J391" t="s">
         <v>3600</v>
@@ -60459,7 +60564,7 @@
         <v>2727</v>
       </c>
       <c r="I392" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J392" t="s">
         <v>3600</v>
@@ -60509,7 +60614,7 @@
         <v>2727</v>
       </c>
       <c r="I393" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J393" t="s">
         <v>3600</v>
@@ -60559,7 +60664,7 @@
         <v>2727</v>
       </c>
       <c r="I394" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J394" t="s">
         <v>3600</v>
@@ -60609,7 +60714,7 @@
         <v>2727</v>
       </c>
       <c r="I395" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J395" t="s">
         <v>3600</v>
@@ -60659,7 +60764,7 @@
         <v>2727</v>
       </c>
       <c r="I396" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J396" t="s">
         <v>3600</v>
@@ -60709,7 +60814,7 @@
         <v>2727</v>
       </c>
       <c r="I397" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J397" t="s">
         <v>3600</v>
@@ -60735,13 +60840,13 @@
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="B398" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="C398" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="D398" t="s">
         <v>2724</v>
@@ -60750,7 +60855,7 @@
         <v>3599</v>
       </c>
       <c r="F398" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="G398" t="s">
         <v>2726</v>
@@ -60759,7 +60864,7 @@
         <v>2727</v>
       </c>
       <c r="I398" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J398" t="s">
         <v>3600</v>
@@ -60768,30 +60873,30 @@
         <v>2740</v>
       </c>
       <c r="L398" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M398" t="s">
         <v>2724</v>
       </c>
       <c r="N398" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="O398" t="s">
         <v>26</v>
       </c>
       <c r="P398" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="B399" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="C399" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="D399" t="s">
         <v>2724</v>
@@ -60800,7 +60905,7 @@
         <v>3599</v>
       </c>
       <c r="F399" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="G399" t="s">
         <v>2726</v>
@@ -60809,7 +60914,7 @@
         <v>2727</v>
       </c>
       <c r="I399" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J399" t="s">
         <v>3600</v>
@@ -60818,30 +60923,30 @@
         <v>2740</v>
       </c>
       <c r="L399" t="s">
+        <v>3936</v>
+      </c>
+      <c r="M399" t="s">
+        <v>2724</v>
+      </c>
+      <c r="N399" t="s">
         <v>3940</v>
       </c>
-      <c r="M399" t="s">
-        <v>2724</v>
-      </c>
-      <c r="N399" t="s">
-        <v>3944</v>
-      </c>
       <c r="O399" t="s">
         <v>26</v>
       </c>
       <c r="P399" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="B400" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="C400" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="D400" t="s">
         <v>2724</v>
@@ -60850,7 +60955,7 @@
         <v>3599</v>
       </c>
       <c r="F400" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
       <c r="G400" t="s">
         <v>2726</v>
@@ -60859,7 +60964,7 @@
         <v>2727</v>
       </c>
       <c r="I400" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J400" t="s">
         <v>3600</v>
@@ -60868,30 +60973,30 @@
         <v>2749</v>
       </c>
       <c r="L400" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M400" t="s">
         <v>2724</v>
       </c>
       <c r="N400" t="s">
-        <v>3948</v>
+        <v>3944</v>
       </c>
       <c r="O400" t="s">
         <v>26</v>
       </c>
       <c r="P400" t="s">
-        <v>3949</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="B401" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="C401" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="D401" t="s">
         <v>2724</v>
@@ -60900,7 +61005,7 @@
         <v>3599</v>
       </c>
       <c r="F401" t="s">
-        <v>3950</v>
+        <v>3946</v>
       </c>
       <c r="G401" t="s">
         <v>2726</v>
@@ -60909,7 +61014,7 @@
         <v>2727</v>
       </c>
       <c r="I401" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J401" t="s">
         <v>3600</v>
@@ -60918,30 +61023,30 @@
         <v>2749</v>
       </c>
       <c r="L401" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M401" t="s">
         <v>2724</v>
       </c>
       <c r="N401" t="s">
-        <v>3951</v>
+        <v>3947</v>
       </c>
       <c r="O401" t="s">
         <v>26</v>
       </c>
       <c r="P401" t="s">
-        <v>3952</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="B402" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="C402" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="D402" t="s">
         <v>2724</v>
@@ -60950,7 +61055,7 @@
         <v>3599</v>
       </c>
       <c r="F402" t="s">
-        <v>3953</v>
+        <v>3949</v>
       </c>
       <c r="G402" t="s">
         <v>2726</v>
@@ -60959,7 +61064,7 @@
         <v>2727</v>
       </c>
       <c r="I402" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J402" t="s">
         <v>3600</v>
@@ -60968,30 +61073,30 @@
         <v>2755</v>
       </c>
       <c r="L402" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M402" t="s">
         <v>2724</v>
       </c>
       <c r="N402" t="s">
-        <v>3955</v>
+        <v>3951</v>
       </c>
       <c r="O402" t="s">
         <v>26</v>
       </c>
       <c r="P402" t="s">
-        <v>3956</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="B403" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="C403" t="s">
-        <v>3954</v>
+        <v>3950</v>
       </c>
       <c r="D403" t="s">
         <v>2724</v>
@@ -61000,7 +61105,7 @@
         <v>3599</v>
       </c>
       <c r="F403" t="s">
-        <v>3957</v>
+        <v>3953</v>
       </c>
       <c r="G403" t="s">
         <v>2726</v>
@@ -61009,7 +61114,7 @@
         <v>2727</v>
       </c>
       <c r="I403" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J403" t="s">
         <v>3600</v>
@@ -61018,30 +61123,30 @@
         <v>2755</v>
       </c>
       <c r="L403" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M403" t="s">
         <v>2724</v>
       </c>
       <c r="N403" t="s">
-        <v>3958</v>
+        <v>3954</v>
       </c>
       <c r="O403" t="s">
         <v>26</v>
       </c>
       <c r="P403" t="s">
-        <v>3959</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="B404" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="C404" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="D404" t="s">
         <v>2724</v>
@@ -61050,7 +61155,7 @@
         <v>3599</v>
       </c>
       <c r="F404" t="s">
-        <v>3960</v>
+        <v>3956</v>
       </c>
       <c r="G404" t="s">
         <v>2726</v>
@@ -61059,7 +61164,7 @@
         <v>2727</v>
       </c>
       <c r="I404" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J404" t="s">
         <v>3600</v>
@@ -61068,30 +61173,30 @@
         <v>2759</v>
       </c>
       <c r="L404" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M404" t="s">
         <v>2724</v>
       </c>
       <c r="N404" t="s">
-        <v>3962</v>
+        <v>3958</v>
       </c>
       <c r="O404" t="s">
         <v>26</v>
       </c>
       <c r="P404" t="s">
-        <v>3963</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="B405" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="C405" t="s">
-        <v>3961</v>
+        <v>3957</v>
       </c>
       <c r="D405" t="s">
         <v>2724</v>
@@ -61100,7 +61205,7 @@
         <v>3599</v>
       </c>
       <c r="F405" t="s">
-        <v>3964</v>
+        <v>3960</v>
       </c>
       <c r="G405" t="s">
         <v>2726</v>
@@ -61109,7 +61214,7 @@
         <v>2727</v>
       </c>
       <c r="I405" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J405" t="s">
         <v>3600</v>
@@ -61118,30 +61223,30 @@
         <v>2759</v>
       </c>
       <c r="L405" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M405" t="s">
         <v>2724</v>
       </c>
       <c r="N405" t="s">
-        <v>3965</v>
+        <v>3961</v>
       </c>
       <c r="O405" t="s">
         <v>26</v>
       </c>
       <c r="P405" t="s">
-        <v>3966</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="B406" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="C406" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="D406" t="s">
         <v>2724</v>
@@ -61150,7 +61255,7 @@
         <v>3599</v>
       </c>
       <c r="F406" t="s">
-        <v>3967</v>
+        <v>3963</v>
       </c>
       <c r="G406" t="s">
         <v>2726</v>
@@ -61159,7 +61264,7 @@
         <v>2727</v>
       </c>
       <c r="I406" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J406" t="s">
         <v>3600</v>
@@ -61168,30 +61273,30 @@
         <v>2763</v>
       </c>
       <c r="L406" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M406" t="s">
         <v>2724</v>
       </c>
       <c r="N406" t="s">
-        <v>3969</v>
+        <v>3965</v>
       </c>
       <c r="O406" t="s">
         <v>26</v>
       </c>
       <c r="P406" t="s">
-        <v>3970</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="B407" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="C407" t="s">
-        <v>3968</v>
+        <v>3964</v>
       </c>
       <c r="D407" t="s">
         <v>2724</v>
@@ -61200,7 +61305,7 @@
         <v>3599</v>
       </c>
       <c r="F407" t="s">
-        <v>3971</v>
+        <v>3967</v>
       </c>
       <c r="G407" t="s">
         <v>2726</v>
@@ -61209,7 +61314,7 @@
         <v>2727</v>
       </c>
       <c r="I407" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J407" t="s">
         <v>3600</v>
@@ -61218,30 +61323,30 @@
         <v>2763</v>
       </c>
       <c r="L407" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M407" t="s">
         <v>2724</v>
       </c>
       <c r="N407" t="s">
-        <v>3972</v>
+        <v>3968</v>
       </c>
       <c r="O407" t="s">
         <v>26</v>
       </c>
       <c r="P407" t="s">
-        <v>3973</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="B408" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="C408" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="D408" t="s">
         <v>2724</v>
@@ -61250,7 +61355,7 @@
         <v>3599</v>
       </c>
       <c r="F408" t="s">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="G408" t="s">
         <v>2726</v>
@@ -61259,7 +61364,7 @@
         <v>2727</v>
       </c>
       <c r="I408" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J408" t="s">
         <v>3600</v>
@@ -61268,30 +61373,30 @@
         <v>2769</v>
       </c>
       <c r="L408" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M408" t="s">
         <v>2724</v>
       </c>
       <c r="N408" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
       <c r="O408" t="s">
         <v>26</v>
       </c>
       <c r="P408" t="s">
-        <v>3977</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="B409" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="C409" t="s">
-        <v>3975</v>
+        <v>3971</v>
       </c>
       <c r="D409" t="s">
         <v>2724</v>
@@ -61300,7 +61405,7 @@
         <v>3599</v>
       </c>
       <c r="F409" t="s">
-        <v>3978</v>
+        <v>3974</v>
       </c>
       <c r="G409" t="s">
         <v>2726</v>
@@ -61309,7 +61414,7 @@
         <v>2727</v>
       </c>
       <c r="I409" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J409" t="s">
         <v>3600</v>
@@ -61318,30 +61423,30 @@
         <v>2769</v>
       </c>
       <c r="L409" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M409" t="s">
         <v>2724</v>
       </c>
       <c r="N409" t="s">
-        <v>3979</v>
+        <v>3975</v>
       </c>
       <c r="O409" t="s">
         <v>26</v>
       </c>
       <c r="P409" t="s">
-        <v>3980</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="B410" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="C410" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
       <c r="D410" t="s">
         <v>2724</v>
@@ -61350,7 +61455,7 @@
         <v>3599</v>
       </c>
       <c r="F410" t="s">
-        <v>3981</v>
+        <v>3977</v>
       </c>
       <c r="G410" t="s">
         <v>2726</v>
@@ -61359,7 +61464,7 @@
         <v>2727</v>
       </c>
       <c r="I410" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J410" t="s">
         <v>3600</v>
@@ -61368,30 +61473,30 @@
         <v>2776</v>
       </c>
       <c r="L410" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M410" t="s">
         <v>2724</v>
       </c>
       <c r="N410" t="s">
-        <v>3983</v>
+        <v>3979</v>
       </c>
       <c r="O410" t="s">
         <v>26</v>
       </c>
       <c r="P410" t="s">
-        <v>3984</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="B411" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="C411" t="s">
-        <v>3982</v>
+        <v>3978</v>
       </c>
       <c r="D411" t="s">
         <v>2724</v>
@@ -61400,7 +61505,7 @@
         <v>3599</v>
       </c>
       <c r="F411" t="s">
-        <v>3985</v>
+        <v>3981</v>
       </c>
       <c r="G411" t="s">
         <v>2726</v>
@@ -61409,7 +61514,7 @@
         <v>2727</v>
       </c>
       <c r="I411" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J411" t="s">
         <v>3600</v>
@@ -61418,30 +61523,30 @@
         <v>2776</v>
       </c>
       <c r="L411" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M411" t="s">
         <v>2724</v>
       </c>
       <c r="N411" t="s">
-        <v>3986</v>
+        <v>3982</v>
       </c>
       <c r="O411" t="s">
         <v>26</v>
       </c>
       <c r="P411" t="s">
-        <v>3987</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
       <c r="B412" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
       <c r="C412" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="D412" t="s">
         <v>2724</v>
@@ -61450,7 +61555,7 @@
         <v>3599</v>
       </c>
       <c r="F412" t="s">
-        <v>3988</v>
+        <v>3984</v>
       </c>
       <c r="G412" t="s">
         <v>2726</v>
@@ -61459,7 +61564,7 @@
         <v>2727</v>
       </c>
       <c r="I412" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J412" t="s">
         <v>3600</v>
@@ -61468,30 +61573,30 @@
         <v>2785</v>
       </c>
       <c r="L412" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M412" t="s">
         <v>2724</v>
       </c>
       <c r="N412" t="s">
-        <v>3990</v>
+        <v>3986</v>
       </c>
       <c r="O412" t="s">
         <v>26</v>
       </c>
       <c r="P412" t="s">
-        <v>3991</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
       <c r="B413" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
       <c r="C413" t="s">
-        <v>3989</v>
+        <v>3985</v>
       </c>
       <c r="D413" t="s">
         <v>2724</v>
@@ -61500,7 +61605,7 @@
         <v>3599</v>
       </c>
       <c r="F413" t="s">
-        <v>3992</v>
+        <v>3988</v>
       </c>
       <c r="G413" t="s">
         <v>2726</v>
@@ -61509,7 +61614,7 @@
         <v>2727</v>
       </c>
       <c r="I413" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J413" t="s">
         <v>3600</v>
@@ -61518,30 +61623,30 @@
         <v>2785</v>
       </c>
       <c r="L413" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M413" t="s">
         <v>2724</v>
       </c>
       <c r="N413" t="s">
-        <v>3993</v>
+        <v>3989</v>
       </c>
       <c r="O413" t="s">
         <v>26</v>
       </c>
       <c r="P413" t="s">
-        <v>3994</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="B414" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="C414" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="D414" t="s">
         <v>2724</v>
@@ -61550,7 +61655,7 @@
         <v>3599</v>
       </c>
       <c r="F414" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="G414" t="s">
         <v>2726</v>
@@ -61559,7 +61664,7 @@
         <v>2727</v>
       </c>
       <c r="I414" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J414" t="s">
         <v>3600</v>
@@ -61568,30 +61673,30 @@
         <v>2794</v>
       </c>
       <c r="L414" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M414" t="s">
         <v>2724</v>
       </c>
       <c r="N414" t="s">
-        <v>3997</v>
+        <v>3993</v>
       </c>
       <c r="O414" t="s">
         <v>26</v>
       </c>
       <c r="P414" t="s">
-        <v>3998</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="B415" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="C415" t="s">
-        <v>3996</v>
+        <v>3992</v>
       </c>
       <c r="D415" t="s">
         <v>2724</v>
@@ -61600,7 +61705,7 @@
         <v>3599</v>
       </c>
       <c r="F415" t="s">
-        <v>3999</v>
+        <v>3995</v>
       </c>
       <c r="G415" t="s">
         <v>2726</v>
@@ -61609,7 +61714,7 @@
         <v>2727</v>
       </c>
       <c r="I415" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J415" t="s">
         <v>3600</v>
@@ -61618,30 +61723,30 @@
         <v>2794</v>
       </c>
       <c r="L415" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M415" t="s">
         <v>2724</v>
       </c>
       <c r="N415" t="s">
-        <v>4000</v>
+        <v>3996</v>
       </c>
       <c r="O415" t="s">
         <v>26</v>
       </c>
       <c r="P415" t="s">
-        <v>4001</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="B416" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="C416" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="D416" t="s">
         <v>2724</v>
@@ -61650,7 +61755,7 @@
         <v>3599</v>
       </c>
       <c r="F416" t="s">
-        <v>4002</v>
+        <v>3998</v>
       </c>
       <c r="G416" t="s">
         <v>2726</v>
@@ -61659,7 +61764,7 @@
         <v>2727</v>
       </c>
       <c r="I416" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J416" t="s">
         <v>3600</v>
@@ -61668,42 +61773,42 @@
         <v>2798</v>
       </c>
       <c r="L416" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M416" t="s">
         <v>2724</v>
       </c>
       <c r="N416" t="s">
-        <v>4004</v>
+        <v>4000</v>
       </c>
       <c r="O416" t="s">
         <v>26</v>
       </c>
       <c r="P416" t="s">
-        <v>4005</v>
+        <v>4001</v>
       </c>
       <c r="Q416" t="s">
         <v>2724</v>
       </c>
       <c r="R416" t="s">
+        <v>3998</v>
+      </c>
+      <c r="S416" t="s">
+        <v>26</v>
+      </c>
+      <c r="T416" t="s">
         <v>4002</v>
-      </c>
-      <c r="S416" t="s">
-        <v>26</v>
-      </c>
-      <c r="T416" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="B417" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="C417" t="s">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="D417" t="s">
         <v>2724</v>
@@ -61712,7 +61817,7 @@
         <v>3599</v>
       </c>
       <c r="F417" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="G417" t="s">
         <v>2726</v>
@@ -61721,7 +61826,7 @@
         <v>2727</v>
       </c>
       <c r="I417" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J417" t="s">
         <v>3600</v>
@@ -61730,42 +61835,42 @@
         <v>2798</v>
       </c>
       <c r="L417" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M417" t="s">
         <v>2724</v>
       </c>
       <c r="N417" t="s">
-        <v>4008</v>
+        <v>4004</v>
       </c>
       <c r="O417" t="s">
         <v>26</v>
       </c>
       <c r="P417" t="s">
-        <v>4009</v>
+        <v>4005</v>
       </c>
       <c r="Q417" t="s">
         <v>2724</v>
       </c>
       <c r="R417" t="s">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="S417" t="s">
         <v>26</v>
       </c>
       <c r="T417" t="s">
-        <v>4010</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="B418" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="C418" t="s">
-        <v>4012</v>
+        <v>4008</v>
       </c>
       <c r="D418" t="s">
         <v>2724</v>
@@ -61774,7 +61879,7 @@
         <v>3599</v>
       </c>
       <c r="F418" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="G418" t="s">
         <v>2726</v>
@@ -61783,7 +61888,7 @@
         <v>2727</v>
       </c>
       <c r="I418" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J418" t="s">
         <v>3600</v>
@@ -61792,42 +61897,42 @@
         <v>2807</v>
       </c>
       <c r="L418" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M418" t="s">
         <v>2724</v>
       </c>
       <c r="N418" t="s">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="O418" t="s">
         <v>26</v>
       </c>
       <c r="P418" t="s">
-        <v>4014</v>
+        <v>4010</v>
       </c>
       <c r="Q418" t="s">
         <v>2724</v>
       </c>
       <c r="R418" t="s">
+        <v>4007</v>
+      </c>
+      <c r="S418" t="s">
+        <v>26</v>
+      </c>
+      <c r="T418" t="s">
         <v>4011</v>
-      </c>
-      <c r="S418" t="s">
-        <v>26</v>
-      </c>
-      <c r="T418" t="s">
-        <v>4015</v>
       </c>
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
       <c r="B419" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
       <c r="C419" t="s">
-        <v>4012</v>
+        <v>4008</v>
       </c>
       <c r="D419" t="s">
         <v>2724</v>
@@ -61836,7 +61941,7 @@
         <v>3599</v>
       </c>
       <c r="F419" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
       <c r="G419" t="s">
         <v>2726</v>
@@ -61845,7 +61950,7 @@
         <v>2727</v>
       </c>
       <c r="I419" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J419" t="s">
         <v>3600</v>
@@ -61854,42 +61959,42 @@
         <v>2807</v>
       </c>
       <c r="L419" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M419" t="s">
         <v>2724</v>
       </c>
       <c r="N419" t="s">
-        <v>4017</v>
+        <v>4013</v>
       </c>
       <c r="O419" t="s">
         <v>26</v>
       </c>
       <c r="P419" t="s">
-        <v>4018</v>
+        <v>4014</v>
       </c>
       <c r="Q419" t="s">
         <v>2724</v>
       </c>
       <c r="R419" t="s">
-        <v>4016</v>
+        <v>4012</v>
       </c>
       <c r="S419" t="s">
         <v>26</v>
       </c>
       <c r="T419" t="s">
-        <v>4019</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>4020</v>
+        <v>4016</v>
       </c>
       <c r="B420" t="s">
-        <v>4020</v>
+        <v>4016</v>
       </c>
       <c r="C420" t="s">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="D420" t="s">
         <v>2724</v>
@@ -61898,7 +62003,7 @@
         <v>3599</v>
       </c>
       <c r="F420" t="s">
-        <v>4020</v>
+        <v>4016</v>
       </c>
       <c r="G420" t="s">
         <v>2726</v>
@@ -61907,7 +62012,7 @@
         <v>2727</v>
       </c>
       <c r="I420" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J420" t="s">
         <v>3600</v>
@@ -61916,42 +62021,42 @@
         <v>2816</v>
       </c>
       <c r="L420" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M420" t="s">
         <v>2724</v>
       </c>
       <c r="N420" t="s">
-        <v>4022</v>
+        <v>4018</v>
       </c>
       <c r="O420" t="s">
         <v>26</v>
       </c>
       <c r="P420" t="s">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="Q420" t="s">
         <v>2724</v>
       </c>
       <c r="R420" t="s">
+        <v>4016</v>
+      </c>
+      <c r="S420" t="s">
+        <v>26</v>
+      </c>
+      <c r="T420" t="s">
         <v>4020</v>
-      </c>
-      <c r="S420" t="s">
-        <v>26</v>
-      </c>
-      <c r="T420" t="s">
-        <v>4024</v>
       </c>
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="B421" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="C421" t="s">
-        <v>4021</v>
+        <v>4017</v>
       </c>
       <c r="D421" t="s">
         <v>2724</v>
@@ -61960,7 +62065,7 @@
         <v>3599</v>
       </c>
       <c r="F421" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="G421" t="s">
         <v>2726</v>
@@ -61969,7 +62074,7 @@
         <v>2727</v>
       </c>
       <c r="I421" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J421" t="s">
         <v>3600</v>
@@ -61978,42 +62083,42 @@
         <v>2816</v>
       </c>
       <c r="L421" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M421" t="s">
         <v>2724</v>
       </c>
       <c r="N421" t="s">
-        <v>4026</v>
+        <v>4022</v>
       </c>
       <c r="O421" t="s">
         <v>26</v>
       </c>
       <c r="P421" t="s">
-        <v>4027</v>
+        <v>4023</v>
       </c>
       <c r="Q421" t="s">
         <v>2724</v>
       </c>
       <c r="R421" t="s">
-        <v>4025</v>
+        <v>4021</v>
       </c>
       <c r="S421" t="s">
         <v>26</v>
       </c>
       <c r="T421" t="s">
-        <v>4028</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="B422" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="C422" t="s">
-        <v>4030</v>
+        <v>4026</v>
       </c>
       <c r="D422" t="s">
         <v>2724</v>
@@ -62022,7 +62127,7 @@
         <v>3599</v>
       </c>
       <c r="F422" t="s">
-        <v>4029</v>
+        <v>4025</v>
       </c>
       <c r="G422" t="s">
         <v>2726</v>
@@ -62031,7 +62136,7 @@
         <v>2727</v>
       </c>
       <c r="I422" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J422" t="s">
         <v>3600</v>
@@ -62040,42 +62145,42 @@
         <v>2825</v>
       </c>
       <c r="L422" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M422" t="s">
         <v>2724</v>
       </c>
       <c r="N422" t="s">
-        <v>4031</v>
+        <v>4027</v>
       </c>
       <c r="O422" t="s">
         <v>26</v>
       </c>
       <c r="P422" t="s">
-        <v>4032</v>
+        <v>4028</v>
       </c>
       <c r="Q422" t="s">
         <v>2724</v>
       </c>
       <c r="R422" t="s">
+        <v>4025</v>
+      </c>
+      <c r="S422" t="s">
+        <v>26</v>
+      </c>
+      <c r="T422" t="s">
         <v>4029</v>
-      </c>
-      <c r="S422" t="s">
-        <v>26</v>
-      </c>
-      <c r="T422" t="s">
-        <v>4033</v>
       </c>
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
       <c r="B423" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
       <c r="C423" t="s">
-        <v>4030</v>
+        <v>4026</v>
       </c>
       <c r="D423" t="s">
         <v>2724</v>
@@ -62084,7 +62189,7 @@
         <v>3599</v>
       </c>
       <c r="F423" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
       <c r="G423" t="s">
         <v>2726</v>
@@ -62093,7 +62198,7 @@
         <v>2727</v>
       </c>
       <c r="I423" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J423" t="s">
         <v>3600</v>
@@ -62102,39 +62207,39 @@
         <v>2825</v>
       </c>
       <c r="L423" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M423" t="s">
         <v>2724</v>
       </c>
       <c r="N423" t="s">
-        <v>4035</v>
+        <v>4031</v>
       </c>
       <c r="O423" t="s">
         <v>26</v>
       </c>
       <c r="P423" t="s">
-        <v>4036</v>
+        <v>4032</v>
       </c>
       <c r="Q423" t="s">
         <v>2724</v>
       </c>
       <c r="R423" t="s">
-        <v>4034</v>
+        <v>4030</v>
       </c>
       <c r="S423" t="s">
         <v>26</v>
       </c>
       <c r="T423" t="s">
-        <v>4037</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
       <c r="B424" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
       <c r="C424" t="s">
         <v>3686</v>
@@ -62146,7 +62251,7 @@
         <v>3599</v>
       </c>
       <c r="F424" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
       <c r="G424" t="s">
         <v>2726</v>
@@ -62155,7 +62260,7 @@
         <v>2727</v>
       </c>
       <c r="I424" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J424" t="s">
         <v>3600</v>
@@ -62164,30 +62269,30 @@
         <v>2834</v>
       </c>
       <c r="L424" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M424" t="s">
         <v>2724</v>
       </c>
       <c r="N424" t="s">
-        <v>4038</v>
+        <v>4034</v>
       </c>
       <c r="O424" t="s">
         <v>26</v>
       </c>
       <c r="P424" t="s">
-        <v>4040</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>4041</v>
+        <v>4037</v>
       </c>
       <c r="B425" t="s">
-        <v>4041</v>
+        <v>4037</v>
       </c>
       <c r="C425" t="s">
-        <v>4042</v>
+        <v>4038</v>
       </c>
       <c r="D425" t="s">
         <v>2724</v>
@@ -62196,7 +62301,7 @@
         <v>3599</v>
       </c>
       <c r="F425" t="s">
-        <v>4041</v>
+        <v>4037</v>
       </c>
       <c r="G425" t="s">
         <v>2726</v>
@@ -62205,7 +62310,7 @@
         <v>2727</v>
       </c>
       <c r="I425" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J425" t="s">
         <v>3600</v>
@@ -62214,42 +62319,42 @@
         <v>2834</v>
       </c>
       <c r="L425" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M425" t="s">
         <v>2724</v>
       </c>
       <c r="N425" t="s">
-        <v>4043</v>
+        <v>4039</v>
       </c>
       <c r="O425" t="s">
         <v>26</v>
       </c>
       <c r="P425" t="s">
-        <v>4044</v>
+        <v>4040</v>
       </c>
       <c r="Q425" t="s">
         <v>2724</v>
       </c>
       <c r="R425" t="s">
+        <v>4037</v>
+      </c>
+      <c r="S425" t="s">
+        <v>26</v>
+      </c>
+      <c r="T425" t="s">
         <v>4041</v>
-      </c>
-      <c r="S425" t="s">
-        <v>26</v>
-      </c>
-      <c r="T425" t="s">
-        <v>4045</v>
       </c>
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>4046</v>
+        <v>4042</v>
       </c>
       <c r="B426" t="s">
-        <v>4046</v>
+        <v>4042</v>
       </c>
       <c r="C426" t="s">
-        <v>4047</v>
+        <v>4043</v>
       </c>
       <c r="D426" t="s">
         <v>2724</v>
@@ -62258,7 +62363,7 @@
         <v>3599</v>
       </c>
       <c r="F426" t="s">
-        <v>4046</v>
+        <v>4042</v>
       </c>
       <c r="G426" t="s">
         <v>2726</v>
@@ -62267,7 +62372,7 @@
         <v>2727</v>
       </c>
       <c r="I426" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J426" t="s">
         <v>3600</v>
@@ -62276,42 +62381,42 @@
         <v>2843</v>
       </c>
       <c r="L426" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M426" t="s">
         <v>2724</v>
       </c>
       <c r="N426" t="s">
-        <v>4048</v>
+        <v>4044</v>
       </c>
       <c r="O426" t="s">
         <v>26</v>
       </c>
       <c r="P426" t="s">
-        <v>4049</v>
+        <v>4045</v>
       </c>
       <c r="Q426" t="s">
         <v>2724</v>
       </c>
       <c r="R426" t="s">
+        <v>4042</v>
+      </c>
+      <c r="S426" t="s">
+        <v>26</v>
+      </c>
+      <c r="T426" t="s">
         <v>4046</v>
-      </c>
-      <c r="S426" t="s">
-        <v>26</v>
-      </c>
-      <c r="T426" t="s">
-        <v>4050</v>
       </c>
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="B427" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="C427" t="s">
-        <v>4047</v>
+        <v>4043</v>
       </c>
       <c r="D427" t="s">
         <v>2724</v>
@@ -62320,7 +62425,7 @@
         <v>3599</v>
       </c>
       <c r="F427" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="G427" t="s">
         <v>2726</v>
@@ -62329,7 +62434,7 @@
         <v>2727</v>
       </c>
       <c r="I427" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J427" t="s">
         <v>3600</v>
@@ -62338,42 +62443,42 @@
         <v>2843</v>
       </c>
       <c r="L427" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M427" t="s">
         <v>2724</v>
       </c>
       <c r="N427" t="s">
-        <v>4052</v>
+        <v>4048</v>
       </c>
       <c r="O427" t="s">
         <v>26</v>
       </c>
       <c r="P427" t="s">
-        <v>4053</v>
+        <v>4049</v>
       </c>
       <c r="Q427" t="s">
         <v>2724</v>
       </c>
       <c r="R427" t="s">
-        <v>4051</v>
+        <v>4047</v>
       </c>
       <c r="S427" t="s">
         <v>26</v>
       </c>
       <c r="T427" t="s">
-        <v>4054</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="B428" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="C428" t="s">
-        <v>4056</v>
+        <v>4052</v>
       </c>
       <c r="D428" t="s">
         <v>2724</v>
@@ -62382,7 +62487,7 @@
         <v>3599</v>
       </c>
       <c r="F428" t="s">
-        <v>4055</v>
+        <v>4051</v>
       </c>
       <c r="G428" t="s">
         <v>2726</v>
@@ -62391,7 +62496,7 @@
         <v>2727</v>
       </c>
       <c r="I428" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J428" t="s">
         <v>3600</v>
@@ -62400,42 +62505,42 @@
         <v>2847</v>
       </c>
       <c r="L428" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M428" t="s">
         <v>2724</v>
       </c>
       <c r="N428" t="s">
-        <v>4057</v>
+        <v>4053</v>
       </c>
       <c r="O428" t="s">
         <v>26</v>
       </c>
       <c r="P428" t="s">
-        <v>4058</v>
+        <v>4054</v>
       </c>
       <c r="Q428" t="s">
         <v>2724</v>
       </c>
       <c r="R428" t="s">
+        <v>4051</v>
+      </c>
+      <c r="S428" t="s">
+        <v>26</v>
+      </c>
+      <c r="T428" t="s">
         <v>4055</v>
-      </c>
-      <c r="S428" t="s">
-        <v>26</v>
-      </c>
-      <c r="T428" t="s">
-        <v>4059</v>
       </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>4060</v>
+        <v>4056</v>
       </c>
       <c r="B429" t="s">
-        <v>4060</v>
+        <v>4056</v>
       </c>
       <c r="C429" t="s">
-        <v>4056</v>
+        <v>4052</v>
       </c>
       <c r="D429" t="s">
         <v>2724</v>
@@ -62444,7 +62549,7 @@
         <v>3599</v>
       </c>
       <c r="F429" t="s">
-        <v>4060</v>
+        <v>4056</v>
       </c>
       <c r="G429" t="s">
         <v>2726</v>
@@ -62453,7 +62558,7 @@
         <v>2727</v>
       </c>
       <c r="I429" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J429" t="s">
         <v>3600</v>
@@ -62462,42 +62567,42 @@
         <v>2847</v>
       </c>
       <c r="L429" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M429" t="s">
         <v>2724</v>
       </c>
       <c r="N429" t="s">
-        <v>4061</v>
+        <v>4057</v>
       </c>
       <c r="O429" t="s">
         <v>26</v>
       </c>
       <c r="P429" t="s">
-        <v>4062</v>
+        <v>4058</v>
       </c>
       <c r="Q429" t="s">
         <v>2724</v>
       </c>
       <c r="R429" t="s">
-        <v>4060</v>
+        <v>4056</v>
       </c>
       <c r="S429" t="s">
         <v>26</v>
       </c>
       <c r="T429" t="s">
-        <v>4063</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
       <c r="B430" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
       <c r="C430" t="s">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="D430" t="s">
         <v>2724</v>
@@ -62506,7 +62611,7 @@
         <v>3599</v>
       </c>
       <c r="F430" t="s">
-        <v>4064</v>
+        <v>4060</v>
       </c>
       <c r="G430" t="s">
         <v>2726</v>
@@ -62515,7 +62620,7 @@
         <v>2727</v>
       </c>
       <c r="I430" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J430" t="s">
         <v>3600</v>
@@ -62524,42 +62629,42 @@
         <v>2856</v>
       </c>
       <c r="L430" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M430" t="s">
         <v>2724</v>
       </c>
       <c r="N430" t="s">
-        <v>4066</v>
+        <v>4062</v>
       </c>
       <c r="O430" t="s">
         <v>26</v>
       </c>
       <c r="P430" t="s">
-        <v>4067</v>
+        <v>4063</v>
       </c>
       <c r="Q430" t="s">
         <v>2724</v>
       </c>
       <c r="R430" t="s">
+        <v>4060</v>
+      </c>
+      <c r="S430" t="s">
+        <v>26</v>
+      </c>
+      <c r="T430" t="s">
         <v>4064</v>
-      </c>
-      <c r="S430" t="s">
-        <v>26</v>
-      </c>
-      <c r="T430" t="s">
-        <v>4068</v>
       </c>
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="B431" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="C431" t="s">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="D431" t="s">
         <v>2724</v>
@@ -62568,7 +62673,7 @@
         <v>3599</v>
       </c>
       <c r="F431" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="G431" t="s">
         <v>2726</v>
@@ -62577,7 +62682,7 @@
         <v>2727</v>
       </c>
       <c r="I431" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J431" t="s">
         <v>3600</v>
@@ -62586,42 +62691,42 @@
         <v>2856</v>
       </c>
       <c r="L431" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M431" t="s">
         <v>2724</v>
       </c>
       <c r="N431" t="s">
-        <v>4070</v>
+        <v>4066</v>
       </c>
       <c r="O431" t="s">
         <v>26</v>
       </c>
       <c r="P431" t="s">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="Q431" t="s">
         <v>2724</v>
       </c>
       <c r="R431" t="s">
-        <v>4069</v>
+        <v>4065</v>
       </c>
       <c r="S431" t="s">
         <v>26</v>
       </c>
       <c r="T431" t="s">
-        <v>4072</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="B432" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="C432" t="s">
-        <v>4074</v>
+        <v>4070</v>
       </c>
       <c r="D432" t="s">
         <v>2724</v>
@@ -62630,7 +62735,7 @@
         <v>3599</v>
       </c>
       <c r="F432" t="s">
-        <v>4073</v>
+        <v>4069</v>
       </c>
       <c r="G432" t="s">
         <v>2726</v>
@@ -62639,7 +62744,7 @@
         <v>2727</v>
       </c>
       <c r="I432" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J432" t="s">
         <v>3600</v>
@@ -62648,42 +62753,42 @@
         <v>2865</v>
       </c>
       <c r="L432" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M432" t="s">
         <v>2724</v>
       </c>
       <c r="N432" t="s">
-        <v>4075</v>
+        <v>4071</v>
       </c>
       <c r="O432" t="s">
         <v>26</v>
       </c>
       <c r="P432" t="s">
-        <v>4076</v>
+        <v>4072</v>
       </c>
       <c r="Q432" t="s">
         <v>2724</v>
       </c>
       <c r="R432" t="s">
+        <v>4069</v>
+      </c>
+      <c r="S432" t="s">
+        <v>26</v>
+      </c>
+      <c r="T432" t="s">
         <v>4073</v>
-      </c>
-      <c r="S432" t="s">
-        <v>26</v>
-      </c>
-      <c r="T432" t="s">
-        <v>4077</v>
       </c>
     </row>
     <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
       <c r="B433" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
       <c r="C433" t="s">
-        <v>4074</v>
+        <v>4070</v>
       </c>
       <c r="D433" t="s">
         <v>2724</v>
@@ -62692,7 +62797,7 @@
         <v>3599</v>
       </c>
       <c r="F433" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
       <c r="G433" t="s">
         <v>2726</v>
@@ -62701,7 +62806,7 @@
         <v>2727</v>
       </c>
       <c r="I433" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J433" t="s">
         <v>3600</v>
@@ -62710,42 +62815,42 @@
         <v>2865</v>
       </c>
       <c r="L433" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M433" t="s">
         <v>2724</v>
       </c>
       <c r="N433" t="s">
-        <v>4079</v>
+        <v>4075</v>
       </c>
       <c r="O433" t="s">
         <v>26</v>
       </c>
       <c r="P433" t="s">
-        <v>4080</v>
+        <v>4076</v>
       </c>
       <c r="Q433" t="s">
         <v>2724</v>
       </c>
       <c r="R433" t="s">
-        <v>4078</v>
+        <v>4074</v>
       </c>
       <c r="S433" t="s">
         <v>26</v>
       </c>
       <c r="T433" t="s">
-        <v>4081</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
       <c r="B434" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
       <c r="C434" t="s">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="D434" t="s">
         <v>2724</v>
@@ -62754,7 +62859,7 @@
         <v>3599</v>
       </c>
       <c r="F434" t="s">
-        <v>4082</v>
+        <v>4078</v>
       </c>
       <c r="G434" t="s">
         <v>2726</v>
@@ -62763,7 +62868,7 @@
         <v>2727</v>
       </c>
       <c r="I434" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J434" t="s">
         <v>3600</v>
@@ -62772,42 +62877,42 @@
         <v>2874</v>
       </c>
       <c r="L434" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M434" t="s">
         <v>2724</v>
       </c>
       <c r="N434" t="s">
-        <v>4084</v>
+        <v>4080</v>
       </c>
       <c r="O434" t="s">
         <v>26</v>
       </c>
       <c r="P434" t="s">
-        <v>4085</v>
+        <v>4081</v>
       </c>
       <c r="Q434" t="s">
         <v>2724</v>
       </c>
       <c r="R434" t="s">
+        <v>4078</v>
+      </c>
+      <c r="S434" t="s">
+        <v>26</v>
+      </c>
+      <c r="T434" t="s">
         <v>4082</v>
-      </c>
-      <c r="S434" t="s">
-        <v>26</v>
-      </c>
-      <c r="T434" t="s">
-        <v>4086</v>
       </c>
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="B435" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="C435" t="s">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="D435" t="s">
         <v>2724</v>
@@ -62816,7 +62921,7 @@
         <v>3599</v>
       </c>
       <c r="F435" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="G435" t="s">
         <v>2726</v>
@@ -62825,7 +62930,7 @@
         <v>2727</v>
       </c>
       <c r="I435" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J435" t="s">
         <v>3600</v>
@@ -62834,42 +62939,42 @@
         <v>2874</v>
       </c>
       <c r="L435" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M435" t="s">
         <v>2724</v>
       </c>
       <c r="N435" t="s">
-        <v>4088</v>
+        <v>4084</v>
       </c>
       <c r="O435" t="s">
         <v>26</v>
       </c>
       <c r="P435" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="Q435" t="s">
         <v>2724</v>
       </c>
       <c r="R435" t="s">
-        <v>4087</v>
+        <v>4083</v>
       </c>
       <c r="S435" t="s">
         <v>26</v>
       </c>
       <c r="T435" t="s">
-        <v>4090</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="B436" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="C436" t="s">
-        <v>4092</v>
+        <v>4088</v>
       </c>
       <c r="D436" t="s">
         <v>2724</v>
@@ -62878,7 +62983,7 @@
         <v>3599</v>
       </c>
       <c r="F436" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="G436" t="s">
         <v>2726</v>
@@ -62887,7 +62992,7 @@
         <v>2727</v>
       </c>
       <c r="I436" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J436" t="s">
         <v>3600</v>
@@ -62896,42 +63001,42 @@
         <v>2883</v>
       </c>
       <c r="L436" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M436" t="s">
         <v>2724</v>
       </c>
       <c r="N436" t="s">
-        <v>4093</v>
+        <v>4089</v>
       </c>
       <c r="O436" t="s">
         <v>26</v>
       </c>
       <c r="P436" t="s">
-        <v>4094</v>
+        <v>4090</v>
       </c>
       <c r="Q436" t="s">
         <v>2724</v>
       </c>
       <c r="R436" t="s">
+        <v>4087</v>
+      </c>
+      <c r="S436" t="s">
+        <v>26</v>
+      </c>
+      <c r="T436" t="s">
         <v>4091</v>
-      </c>
-      <c r="S436" t="s">
-        <v>26</v>
-      </c>
-      <c r="T436" t="s">
-        <v>4095</v>
       </c>
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
       <c r="B437" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
       <c r="C437" t="s">
-        <v>4092</v>
+        <v>4088</v>
       </c>
       <c r="D437" t="s">
         <v>2724</v>
@@ -62940,7 +63045,7 @@
         <v>3599</v>
       </c>
       <c r="F437" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
       <c r="G437" t="s">
         <v>2726</v>
@@ -62949,7 +63054,7 @@
         <v>2727</v>
       </c>
       <c r="I437" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J437" t="s">
         <v>3600</v>
@@ -62958,42 +63063,42 @@
         <v>2883</v>
       </c>
       <c r="L437" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M437" t="s">
         <v>2724</v>
       </c>
       <c r="N437" t="s">
-        <v>4097</v>
+        <v>4093</v>
       </c>
       <c r="O437" t="s">
         <v>26</v>
       </c>
       <c r="P437" t="s">
-        <v>4098</v>
+        <v>4094</v>
       </c>
       <c r="Q437" t="s">
         <v>2724</v>
       </c>
       <c r="R437" t="s">
-        <v>4096</v>
+        <v>4092</v>
       </c>
       <c r="S437" t="s">
         <v>26</v>
       </c>
       <c r="T437" t="s">
-        <v>4099</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
       <c r="B438" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
       <c r="C438" t="s">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="D438" t="s">
         <v>2724</v>
@@ -63002,7 +63107,7 @@
         <v>3599</v>
       </c>
       <c r="F438" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
       <c r="G438" t="s">
         <v>2726</v>
@@ -63011,7 +63116,7 @@
         <v>2727</v>
       </c>
       <c r="I438" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J438" t="s">
         <v>3600</v>
@@ -63020,42 +63125,42 @@
         <v>2892</v>
       </c>
       <c r="L438" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M438" t="s">
         <v>2724</v>
       </c>
       <c r="N438" t="s">
-        <v>4102</v>
+        <v>4098</v>
       </c>
       <c r="O438" t="s">
         <v>26</v>
       </c>
       <c r="P438" t="s">
-        <v>4103</v>
+        <v>4099</v>
       </c>
       <c r="Q438" t="s">
         <v>2724</v>
       </c>
       <c r="R438" t="s">
+        <v>4096</v>
+      </c>
+      <c r="S438" t="s">
+        <v>26</v>
+      </c>
+      <c r="T438" t="s">
         <v>4100</v>
-      </c>
-      <c r="S438" t="s">
-        <v>26</v>
-      </c>
-      <c r="T438" t="s">
-        <v>4104</v>
       </c>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="B439" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="C439" t="s">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="D439" t="s">
         <v>2724</v>
@@ -63064,7 +63169,7 @@
         <v>3599</v>
       </c>
       <c r="F439" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="G439" t="s">
         <v>2726</v>
@@ -63073,7 +63178,7 @@
         <v>2727</v>
       </c>
       <c r="I439" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J439" t="s">
         <v>3600</v>
@@ -63082,42 +63187,42 @@
         <v>2892</v>
       </c>
       <c r="L439" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M439" t="s">
         <v>2724</v>
       </c>
       <c r="N439" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
       <c r="O439" t="s">
         <v>26</v>
       </c>
       <c r="P439" t="s">
-        <v>4107</v>
+        <v>4103</v>
       </c>
       <c r="Q439" t="s">
         <v>2724</v>
       </c>
       <c r="R439" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="S439" t="s">
         <v>26</v>
       </c>
       <c r="T439" t="s">
-        <v>4108</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="B440" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="C440" t="s">
-        <v>4110</v>
+        <v>4106</v>
       </c>
       <c r="D440" t="s">
         <v>2724</v>
@@ -63126,7 +63231,7 @@
         <v>3599</v>
       </c>
       <c r="F440" t="s">
-        <v>4109</v>
+        <v>4105</v>
       </c>
       <c r="G440" t="s">
         <v>2726</v>
@@ -63135,7 +63240,7 @@
         <v>2727</v>
       </c>
       <c r="I440" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J440" t="s">
         <v>3600</v>
@@ -63144,39 +63249,39 @@
         <v>2901</v>
       </c>
       <c r="L440" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M440" t="s">
         <v>2724</v>
       </c>
       <c r="N440" t="s">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="O440" t="s">
         <v>26</v>
       </c>
       <c r="P440" t="s">
-        <v>4112</v>
+        <v>4108</v>
       </c>
       <c r="Q440" t="s">
         <v>2724</v>
       </c>
       <c r="R440" t="s">
+        <v>4105</v>
+      </c>
+      <c r="S440" t="s">
+        <v>26</v>
+      </c>
+      <c r="T440" t="s">
         <v>4109</v>
-      </c>
-      <c r="S440" t="s">
-        <v>26</v>
-      </c>
-      <c r="T440" t="s">
-        <v>4113</v>
       </c>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
       <c r="B441" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
       <c r="C441" t="s">
         <v>3736</v>
@@ -63188,7 +63293,7 @@
         <v>3599</v>
       </c>
       <c r="F441" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
       <c r="G441" t="s">
         <v>2726</v>
@@ -63197,7 +63302,7 @@
         <v>2727</v>
       </c>
       <c r="I441" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J441" t="s">
         <v>3600</v>
@@ -63206,39 +63311,39 @@
         <v>2901</v>
       </c>
       <c r="L441" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M441" t="s">
         <v>2724</v>
       </c>
       <c r="N441" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="O441" t="s">
         <v>26</v>
       </c>
       <c r="P441" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
       <c r="Q441" t="s">
         <v>2724</v>
       </c>
       <c r="R441" t="s">
-        <v>4114</v>
+        <v>4110</v>
       </c>
       <c r="S441" t="s">
         <v>26</v>
       </c>
       <c r="T441" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
       <c r="B442" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
       <c r="C442" t="s">
         <v>3745</v>
@@ -63250,7 +63355,7 @@
         <v>3599</v>
       </c>
       <c r="F442" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
       <c r="G442" t="s">
         <v>2726</v>
@@ -63259,7 +63364,7 @@
         <v>2727</v>
       </c>
       <c r="I442" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J442" t="s">
         <v>3600</v>
@@ -63268,39 +63373,39 @@
         <v>2910</v>
       </c>
       <c r="L442" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M442" t="s">
         <v>2724</v>
       </c>
       <c r="N442" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="O442" t="s">
         <v>26</v>
       </c>
       <c r="P442" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
       <c r="Q442" t="s">
         <v>2724</v>
       </c>
       <c r="R442" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
       <c r="S442" t="s">
         <v>26</v>
       </c>
       <c r="T442" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
       <c r="B443" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
       <c r="C443" t="s">
         <v>3745</v>
@@ -63312,7 +63417,7 @@
         <v>3599</v>
       </c>
       <c r="F443" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
       <c r="G443" t="s">
         <v>2726</v>
@@ -63321,7 +63426,7 @@
         <v>2727</v>
       </c>
       <c r="I443" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J443" t="s">
         <v>3600</v>
@@ -63330,39 +63435,39 @@
         <v>2910</v>
       </c>
       <c r="L443" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M443" t="s">
         <v>2724</v>
       </c>
       <c r="N443" t="s">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="O443" t="s">
         <v>26</v>
       </c>
       <c r="P443" t="s">
-        <v>4124</v>
+        <v>4120</v>
       </c>
       <c r="Q443" t="s">
         <v>2724</v>
       </c>
       <c r="R443" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
       <c r="S443" t="s">
         <v>26</v>
       </c>
       <c r="T443" t="s">
-        <v>4125</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="B444" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="C444" t="s">
         <v>3752</v>
@@ -63374,7 +63479,7 @@
         <v>3599</v>
       </c>
       <c r="F444" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="G444" t="s">
         <v>2726</v>
@@ -63383,7 +63488,7 @@
         <v>2727</v>
       </c>
       <c r="I444" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J444" t="s">
         <v>3600</v>
@@ -63392,39 +63497,39 @@
         <v>2920</v>
       </c>
       <c r="L444" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M444" t="s">
         <v>2724</v>
       </c>
       <c r="N444" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
       <c r="O444" t="s">
         <v>26</v>
       </c>
       <c r="P444" t="s">
-        <v>4128</v>
+        <v>4124</v>
       </c>
       <c r="Q444" t="s">
         <v>2724</v>
       </c>
       <c r="R444" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="S444" t="s">
         <v>26</v>
       </c>
       <c r="T444" t="s">
-        <v>4129</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="B445" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="C445" t="s">
         <v>3752</v>
@@ -63436,7 +63541,7 @@
         <v>3599</v>
       </c>
       <c r="F445" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="G445" t="s">
         <v>2726</v>
@@ -63445,7 +63550,7 @@
         <v>2727</v>
       </c>
       <c r="I445" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J445" t="s">
         <v>3600</v>
@@ -63454,39 +63559,39 @@
         <v>2920</v>
       </c>
       <c r="L445" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M445" t="s">
         <v>2724</v>
       </c>
       <c r="N445" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="O445" t="s">
         <v>26</v>
       </c>
       <c r="P445" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="Q445" t="s">
         <v>2724</v>
       </c>
       <c r="R445" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="S445" t="s">
         <v>26</v>
       </c>
       <c r="T445" t="s">
-        <v>4133</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
       <c r="B446" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
       <c r="C446" t="s">
         <v>3761</v>
@@ -63498,7 +63603,7 @@
         <v>3599</v>
       </c>
       <c r="F446" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
       <c r="G446" t="s">
         <v>2726</v>
@@ -63507,7 +63612,7 @@
         <v>2727</v>
       </c>
       <c r="I446" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J446" t="s">
         <v>3600</v>
@@ -63516,39 +63621,39 @@
         <v>2929</v>
       </c>
       <c r="L446" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M446" t="s">
         <v>2724</v>
       </c>
       <c r="N446" t="s">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="O446" t="s">
         <v>26</v>
       </c>
       <c r="P446" t="s">
-        <v>4136</v>
+        <v>4132</v>
       </c>
       <c r="Q446" t="s">
         <v>2724</v>
       </c>
       <c r="R446" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
       <c r="S446" t="s">
         <v>26</v>
       </c>
       <c r="T446" t="s">
-        <v>4137</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
       <c r="B447" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
       <c r="C447" t="s">
         <v>3761</v>
@@ -63560,7 +63665,7 @@
         <v>3599</v>
       </c>
       <c r="F447" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
       <c r="G447" t="s">
         <v>2726</v>
@@ -63569,7 +63674,7 @@
         <v>2727</v>
       </c>
       <c r="I447" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J447" t="s">
         <v>3600</v>
@@ -63578,39 +63683,39 @@
         <v>2929</v>
       </c>
       <c r="L447" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M447" t="s">
         <v>2724</v>
       </c>
       <c r="N447" t="s">
-        <v>4139</v>
+        <v>4135</v>
       </c>
       <c r="O447" t="s">
         <v>26</v>
       </c>
       <c r="P447" t="s">
-        <v>4140</v>
+        <v>4136</v>
       </c>
       <c r="Q447" t="s">
         <v>2724</v>
       </c>
       <c r="R447" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
       <c r="S447" t="s">
         <v>26</v>
       </c>
       <c r="T447" t="s">
-        <v>4141</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
       <c r="B448" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
       <c r="C448" t="s">
         <v>3770</v>
@@ -63622,7 +63727,7 @@
         <v>3599</v>
       </c>
       <c r="F448" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
       <c r="G448" t="s">
         <v>2726</v>
@@ -63631,7 +63736,7 @@
         <v>2727</v>
       </c>
       <c r="I448" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J448" t="s">
         <v>3600</v>
@@ -63640,39 +63745,39 @@
         <v>2938</v>
       </c>
       <c r="L448" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M448" t="s">
         <v>2724</v>
       </c>
       <c r="N448" t="s">
-        <v>4143</v>
+        <v>4139</v>
       </c>
       <c r="O448" t="s">
         <v>26</v>
       </c>
       <c r="P448" t="s">
-        <v>4144</v>
+        <v>4140</v>
       </c>
       <c r="Q448" t="s">
         <v>2724</v>
       </c>
       <c r="R448" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
       <c r="S448" t="s">
         <v>26</v>
       </c>
       <c r="T448" t="s">
-        <v>4145</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>4146</v>
+        <v>4142</v>
       </c>
       <c r="B449" t="s">
-        <v>4146</v>
+        <v>4142</v>
       </c>
       <c r="C449" t="s">
         <v>3770</v>
@@ -63684,7 +63789,7 @@
         <v>3599</v>
       </c>
       <c r="F449" t="s">
-        <v>4146</v>
+        <v>4142</v>
       </c>
       <c r="G449" t="s">
         <v>2726</v>
@@ -63693,7 +63798,7 @@
         <v>2727</v>
       </c>
       <c r="I449" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J449" t="s">
         <v>3600</v>
@@ -63702,39 +63807,39 @@
         <v>2938</v>
       </c>
       <c r="L449" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M449" t="s">
         <v>2724</v>
       </c>
       <c r="N449" t="s">
-        <v>4147</v>
+        <v>4143</v>
       </c>
       <c r="O449" t="s">
         <v>26</v>
       </c>
       <c r="P449" t="s">
-        <v>4148</v>
+        <v>4144</v>
       </c>
       <c r="Q449" t="s">
         <v>2724</v>
       </c>
       <c r="R449" t="s">
-        <v>4146</v>
+        <v>4142</v>
       </c>
       <c r="S449" t="s">
         <v>26</v>
       </c>
       <c r="T449" t="s">
-        <v>4149</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
       <c r="B450" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
       <c r="C450" t="s">
         <v>3775</v>
@@ -63746,7 +63851,7 @@
         <v>3599</v>
       </c>
       <c r="F450" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
       <c r="G450" t="s">
         <v>2726</v>
@@ -63755,7 +63860,7 @@
         <v>2727</v>
       </c>
       <c r="I450" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J450" t="s">
         <v>3600</v>
@@ -63764,39 +63869,39 @@
         <v>2945</v>
       </c>
       <c r="L450" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M450" t="s">
         <v>2724</v>
       </c>
       <c r="N450" t="s">
-        <v>4151</v>
+        <v>4147</v>
       </c>
       <c r="O450" t="s">
         <v>26</v>
       </c>
       <c r="P450" t="s">
-        <v>4152</v>
+        <v>4148</v>
       </c>
       <c r="Q450" t="s">
         <v>2724</v>
       </c>
       <c r="R450" t="s">
-        <v>4150</v>
+        <v>4146</v>
       </c>
       <c r="S450" t="s">
         <v>26</v>
       </c>
       <c r="T450" t="s">
-        <v>4153</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
       <c r="B451" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
       <c r="C451" t="s">
         <v>3775</v>
@@ -63808,7 +63913,7 @@
         <v>3599</v>
       </c>
       <c r="F451" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
       <c r="G451" t="s">
         <v>2726</v>
@@ -63817,7 +63922,7 @@
         <v>2727</v>
       </c>
       <c r="I451" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J451" t="s">
         <v>3600</v>
@@ -63826,39 +63931,39 @@
         <v>2945</v>
       </c>
       <c r="L451" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M451" t="s">
         <v>2724</v>
       </c>
       <c r="N451" t="s">
-        <v>4154</v>
+        <v>4150</v>
       </c>
       <c r="O451" t="s">
         <v>26</v>
       </c>
       <c r="P451" t="s">
-        <v>4155</v>
+        <v>4151</v>
       </c>
       <c r="Q451" t="s">
         <v>2724</v>
       </c>
       <c r="R451" t="s">
-        <v>4156</v>
+        <v>4152</v>
       </c>
       <c r="S451" t="s">
         <v>26</v>
       </c>
       <c r="T451" t="s">
-        <v>4157</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
       <c r="B452" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
       <c r="C452" t="s">
         <v>3780</v>
@@ -63870,7 +63975,7 @@
         <v>3599</v>
       </c>
       <c r="F452" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
       <c r="G452" t="s">
         <v>2726</v>
@@ -63879,7 +63984,7 @@
         <v>2727</v>
       </c>
       <c r="I452" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J452" t="s">
         <v>3600</v>
@@ -63888,39 +63993,39 @@
         <v>2949</v>
       </c>
       <c r="L452" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M452" t="s">
         <v>2724</v>
       </c>
       <c r="N452" t="s">
-        <v>4159</v>
+        <v>4155</v>
       </c>
       <c r="O452" t="s">
         <v>26</v>
       </c>
       <c r="P452" t="s">
-        <v>4160</v>
+        <v>4156</v>
       </c>
       <c r="Q452" t="s">
         <v>2724</v>
       </c>
       <c r="R452" t="s">
-        <v>4158</v>
+        <v>4154</v>
       </c>
       <c r="S452" t="s">
         <v>26</v>
       </c>
       <c r="T452" t="s">
-        <v>4161</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>4162</v>
+        <v>4158</v>
       </c>
       <c r="B453" t="s">
-        <v>4162</v>
+        <v>4158</v>
       </c>
       <c r="C453" t="s">
         <v>3780</v>
@@ -63932,7 +64037,7 @@
         <v>3599</v>
       </c>
       <c r="F453" t="s">
-        <v>4162</v>
+        <v>4158</v>
       </c>
       <c r="G453" t="s">
         <v>2726</v>
@@ -63941,7 +64046,7 @@
         <v>2727</v>
       </c>
       <c r="I453" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J453" t="s">
         <v>3600</v>
@@ -63950,39 +64055,39 @@
         <v>2949</v>
       </c>
       <c r="L453" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M453" t="s">
         <v>2724</v>
       </c>
       <c r="N453" t="s">
-        <v>4163</v>
+        <v>4159</v>
       </c>
       <c r="O453" t="s">
         <v>26</v>
       </c>
       <c r="P453" t="s">
-        <v>4164</v>
+        <v>4160</v>
       </c>
       <c r="Q453" t="s">
         <v>2724</v>
       </c>
       <c r="R453" t="s">
-        <v>4165</v>
+        <v>4161</v>
       </c>
       <c r="S453" t="s">
         <v>26</v>
       </c>
       <c r="T453" t="s">
-        <v>4166</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="B454" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="C454" t="s">
         <v>3787</v>
@@ -63994,7 +64099,7 @@
         <v>3599</v>
       </c>
       <c r="F454" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="G454" t="s">
         <v>2726</v>
@@ -64003,7 +64108,7 @@
         <v>2727</v>
       </c>
       <c r="I454" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J454" t="s">
         <v>3600</v>
@@ -64012,39 +64117,39 @@
         <v>2958</v>
       </c>
       <c r="L454" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M454" t="s">
         <v>2724</v>
       </c>
       <c r="N454" t="s">
-        <v>4168</v>
+        <v>4164</v>
       </c>
       <c r="O454" t="s">
         <v>26</v>
       </c>
       <c r="P454" t="s">
-        <v>4169</v>
+        <v>4165</v>
       </c>
       <c r="Q454" t="s">
         <v>2724</v>
       </c>
       <c r="R454" t="s">
-        <v>4167</v>
+        <v>4163</v>
       </c>
       <c r="S454" t="s">
         <v>26</v>
       </c>
       <c r="T454" t="s">
-        <v>4170</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="B455" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="C455" t="s">
         <v>3787</v>
@@ -64056,7 +64161,7 @@
         <v>3599</v>
       </c>
       <c r="F455" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="G455" t="s">
         <v>2726</v>
@@ -64065,7 +64170,7 @@
         <v>2727</v>
       </c>
       <c r="I455" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J455" t="s">
         <v>3600</v>
@@ -64074,39 +64179,39 @@
         <v>2958</v>
       </c>
       <c r="L455" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M455" t="s">
         <v>2724</v>
       </c>
       <c r="N455" t="s">
-        <v>4172</v>
+        <v>4168</v>
       </c>
       <c r="O455" t="s">
         <v>26</v>
       </c>
       <c r="P455" t="s">
-        <v>4173</v>
+        <v>4169</v>
       </c>
       <c r="Q455" t="s">
         <v>2724</v>
       </c>
       <c r="R455" t="s">
-        <v>4171</v>
+        <v>4167</v>
       </c>
       <c r="S455" t="s">
         <v>26</v>
       </c>
       <c r="T455" t="s">
-        <v>4174</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="B456" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="C456" t="s">
         <v>3794</v>
@@ -64118,7 +64223,7 @@
         <v>3599</v>
       </c>
       <c r="F456" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="G456" t="s">
         <v>2726</v>
@@ -64127,7 +64232,7 @@
         <v>2727</v>
       </c>
       <c r="I456" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J456" t="s">
         <v>3600</v>
@@ -64136,39 +64241,39 @@
         <v>2965</v>
       </c>
       <c r="L456" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M456" t="s">
         <v>2724</v>
       </c>
       <c r="N456" t="s">
-        <v>4176</v>
+        <v>4172</v>
       </c>
       <c r="O456" t="s">
         <v>26</v>
       </c>
       <c r="P456" t="s">
-        <v>4177</v>
+        <v>4173</v>
       </c>
       <c r="Q456" t="s">
         <v>2724</v>
       </c>
       <c r="R456" t="s">
-        <v>4175</v>
+        <v>4171</v>
       </c>
       <c r="S456" t="s">
         <v>26</v>
       </c>
       <c r="T456" t="s">
-        <v>4178</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>4179</v>
+        <v>4175</v>
       </c>
       <c r="B457" t="s">
-        <v>4179</v>
+        <v>4175</v>
       </c>
       <c r="C457" t="s">
         <v>3794</v>
@@ -64180,7 +64285,7 @@
         <v>3599</v>
       </c>
       <c r="F457" t="s">
-        <v>4179</v>
+        <v>4175</v>
       </c>
       <c r="G457" t="s">
         <v>2726</v>
@@ -64189,7 +64294,7 @@
         <v>2727</v>
       </c>
       <c r="I457" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J457" t="s">
         <v>3600</v>
@@ -64198,39 +64303,39 @@
         <v>2965</v>
       </c>
       <c r="L457" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M457" t="s">
         <v>2724</v>
       </c>
       <c r="N457" t="s">
-        <v>4180</v>
+        <v>4176</v>
       </c>
       <c r="O457" t="s">
         <v>26</v>
       </c>
       <c r="P457" t="s">
-        <v>4181</v>
+        <v>4177</v>
       </c>
       <c r="Q457" t="s">
         <v>2724</v>
       </c>
       <c r="R457" t="s">
-        <v>4179</v>
+        <v>4175</v>
       </c>
       <c r="S457" t="s">
         <v>26</v>
       </c>
       <c r="T457" t="s">
-        <v>4182</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="B458" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="C458" t="s">
         <v>3799</v>
@@ -64242,7 +64347,7 @@
         <v>3599</v>
       </c>
       <c r="F458" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="G458" t="s">
         <v>2726</v>
@@ -64251,7 +64356,7 @@
         <v>2727</v>
       </c>
       <c r="I458" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J458" t="s">
         <v>3600</v>
@@ -64260,39 +64365,39 @@
         <v>2972</v>
       </c>
       <c r="L458" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M458" t="s">
         <v>2724</v>
       </c>
       <c r="N458" t="s">
-        <v>4184</v>
+        <v>4180</v>
       </c>
       <c r="O458" t="s">
         <v>26</v>
       </c>
       <c r="P458" t="s">
-        <v>4185</v>
+        <v>4181</v>
       </c>
       <c r="Q458" t="s">
         <v>2724</v>
       </c>
       <c r="R458" t="s">
-        <v>4183</v>
+        <v>4179</v>
       </c>
       <c r="S458" t="s">
         <v>26</v>
       </c>
       <c r="T458" t="s">
-        <v>4186</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="B459" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="C459" t="s">
         <v>3799</v>
@@ -64304,7 +64409,7 @@
         <v>3599</v>
       </c>
       <c r="F459" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="G459" t="s">
         <v>2726</v>
@@ -64313,7 +64418,7 @@
         <v>2727</v>
       </c>
       <c r="I459" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J459" t="s">
         <v>3600</v>
@@ -64322,42 +64427,42 @@
         <v>2972</v>
       </c>
       <c r="L459" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M459" t="s">
         <v>2724</v>
       </c>
       <c r="N459" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="O459" t="s">
         <v>26</v>
       </c>
       <c r="P459" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
       <c r="Q459" t="s">
         <v>2724</v>
       </c>
       <c r="R459" t="s">
-        <v>4189</v>
+        <v>4185</v>
       </c>
       <c r="S459" t="s">
         <v>26</v>
       </c>
       <c r="T459" t="s">
-        <v>4190</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="B460" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="C460" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
       <c r="D460" t="s">
         <v>2724</v>
@@ -64366,7 +64471,7 @@
         <v>3599</v>
       </c>
       <c r="F460" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="G460" t="s">
         <v>2726</v>
@@ -64375,7 +64480,7 @@
         <v>2727</v>
       </c>
       <c r="I460" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J460" t="s">
         <v>3600</v>
@@ -64384,39 +64489,39 @@
         <v>2979</v>
       </c>
       <c r="L460" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="M460" t="s">
         <v>2724</v>
       </c>
       <c r="N460" t="s">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="O460" t="s">
         <v>26</v>
       </c>
       <c r="P460" t="s">
-        <v>4194</v>
+        <v>4190</v>
       </c>
       <c r="Q460" t="s">
         <v>2724</v>
       </c>
       <c r="R460" t="s">
+        <v>4187</v>
+      </c>
+      <c r="S460" t="s">
+        <v>26</v>
+      </c>
+      <c r="T460" t="s">
         <v>4191</v>
-      </c>
-      <c r="S460" t="s">
-        <v>26</v>
-      </c>
-      <c r="T460" t="s">
-        <v>4195</v>
       </c>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
       <c r="B461" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
       <c r="C461" t="s">
         <v>3806</v>
@@ -64428,7 +64533,7 @@
         <v>3599</v>
       </c>
       <c r="F461" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
       <c r="G461" t="s">
         <v>2726</v>
@@ -64437,7 +64542,7 @@
         <v>2727</v>
       </c>
       <c r="I461" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J461" t="s">
         <v>3600</v>
@@ -64446,39 +64551,39 @@
         <v>2979</v>
       </c>
       <c r="L461" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M461" t="s">
         <v>2724</v>
       </c>
       <c r="N461" t="s">
-        <v>4196</v>
+        <v>4192</v>
       </c>
       <c r="O461" t="s">
         <v>26</v>
       </c>
       <c r="P461" t="s">
-        <v>4197</v>
+        <v>4193</v>
       </c>
       <c r="Q461" t="s">
         <v>2724</v>
       </c>
       <c r="R461" t="s">
-        <v>4198</v>
+        <v>4194</v>
       </c>
       <c r="S461" t="s">
         <v>26</v>
       </c>
       <c r="T461" t="s">
-        <v>4199</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
       <c r="B462" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
       <c r="C462" t="s">
         <v>3811</v>
@@ -64490,7 +64595,7 @@
         <v>3599</v>
       </c>
       <c r="F462" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
       <c r="G462" t="s">
         <v>2726</v>
@@ -64499,7 +64604,7 @@
         <v>2727</v>
       </c>
       <c r="I462" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J462" t="s">
         <v>3600</v>
@@ -64508,39 +64613,39 @@
         <v>2986</v>
       </c>
       <c r="L462" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M462" t="s">
         <v>2724</v>
       </c>
       <c r="N462" t="s">
-        <v>4200</v>
+        <v>4196</v>
       </c>
       <c r="O462" t="s">
         <v>26</v>
       </c>
       <c r="P462" t="s">
-        <v>4201</v>
+        <v>4197</v>
       </c>
       <c r="Q462" t="s">
         <v>2724</v>
       </c>
       <c r="R462" t="s">
-        <v>4202</v>
+        <v>4198</v>
       </c>
       <c r="S462" t="s">
         <v>26</v>
       </c>
       <c r="T462" t="s">
-        <v>4203</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
       <c r="B463" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
       <c r="C463" t="s">
         <v>3811</v>
@@ -64552,7 +64657,7 @@
         <v>3599</v>
       </c>
       <c r="F463" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
       <c r="G463" t="s">
         <v>2726</v>
@@ -64561,7 +64666,7 @@
         <v>2727</v>
       </c>
       <c r="I463" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J463" t="s">
         <v>3600</v>
@@ -64570,39 +64675,39 @@
         <v>2986</v>
       </c>
       <c r="L463" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M463" t="s">
         <v>2724</v>
       </c>
       <c r="N463" t="s">
-        <v>4204</v>
+        <v>4200</v>
       </c>
       <c r="O463" t="s">
         <v>26</v>
       </c>
       <c r="P463" t="s">
-        <v>4205</v>
+        <v>4201</v>
       </c>
       <c r="Q463" t="s">
         <v>2724</v>
       </c>
       <c r="R463" t="s">
-        <v>4206</v>
+        <v>4202</v>
       </c>
       <c r="S463" t="s">
         <v>26</v>
       </c>
       <c r="T463" t="s">
-        <v>4207</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="B464" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="C464" t="s">
         <v>3816</v>
@@ -64614,7 +64719,7 @@
         <v>3599</v>
       </c>
       <c r="F464" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="G464" t="s">
         <v>2726</v>
@@ -64623,7 +64728,7 @@
         <v>2727</v>
       </c>
       <c r="I464" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J464" t="s">
         <v>3600</v>
@@ -64632,39 +64737,39 @@
         <v>2990</v>
       </c>
       <c r="L464" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M464" t="s">
         <v>2724</v>
       </c>
       <c r="N464" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="O464" t="s">
         <v>26</v>
       </c>
       <c r="P464" t="s">
-        <v>4209</v>
+        <v>4205</v>
       </c>
       <c r="Q464" t="s">
         <v>2724</v>
       </c>
       <c r="R464" t="s">
-        <v>4210</v>
+        <v>4206</v>
       </c>
       <c r="S464" t="s">
         <v>26</v>
       </c>
       <c r="T464" t="s">
-        <v>4211</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
       <c r="B465" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
       <c r="C465" t="s">
         <v>3816</v>
@@ -64676,7 +64781,7 @@
         <v>3599</v>
       </c>
       <c r="F465" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
       <c r="G465" t="s">
         <v>2726</v>
@@ -64685,7 +64790,7 @@
         <v>2727</v>
       </c>
       <c r="I465" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J465" t="s">
         <v>3600</v>
@@ -64694,39 +64799,39 @@
         <v>2990</v>
       </c>
       <c r="L465" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M465" t="s">
         <v>2724</v>
       </c>
       <c r="N465" t="s">
-        <v>4212</v>
+        <v>4208</v>
       </c>
       <c r="O465" t="s">
         <v>26</v>
       </c>
       <c r="P465" t="s">
-        <v>4213</v>
+        <v>4209</v>
       </c>
       <c r="Q465" t="s">
         <v>2724</v>
       </c>
       <c r="R465" t="s">
-        <v>4214</v>
+        <v>4210</v>
       </c>
       <c r="S465" t="s">
         <v>26</v>
       </c>
       <c r="T465" t="s">
-        <v>4215</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
       <c r="B466" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
       <c r="C466" t="s">
         <v>3821</v>
@@ -64738,7 +64843,7 @@
         <v>3599</v>
       </c>
       <c r="F466" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
       <c r="G466" t="s">
         <v>2726</v>
@@ -64747,7 +64852,7 @@
         <v>2727</v>
       </c>
       <c r="I466" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J466" t="s">
         <v>3600</v>
@@ -64756,39 +64861,39 @@
         <v>2994</v>
       </c>
       <c r="L466" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M466" t="s">
         <v>2724</v>
       </c>
       <c r="N466" t="s">
-        <v>4216</v>
+        <v>4212</v>
       </c>
       <c r="O466" t="s">
         <v>26</v>
       </c>
       <c r="P466" t="s">
-        <v>4217</v>
+        <v>4213</v>
       </c>
       <c r="Q466" t="s">
         <v>2724</v>
       </c>
       <c r="R466" t="s">
-        <v>4218</v>
+        <v>4214</v>
       </c>
       <c r="S466" t="s">
         <v>26</v>
       </c>
       <c r="T466" t="s">
-        <v>4219</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
       <c r="B467" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
       <c r="C467" t="s">
         <v>3821</v>
@@ -64800,7 +64905,7 @@
         <v>3599</v>
       </c>
       <c r="F467" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
       <c r="G467" t="s">
         <v>2726</v>
@@ -64809,7 +64914,7 @@
         <v>2727</v>
       </c>
       <c r="I467" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J467" t="s">
         <v>3600</v>
@@ -64818,39 +64923,39 @@
         <v>2994</v>
       </c>
       <c r="L467" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M467" t="s">
         <v>2724</v>
       </c>
       <c r="N467" t="s">
-        <v>4220</v>
+        <v>4216</v>
       </c>
       <c r="O467" t="s">
         <v>26</v>
       </c>
       <c r="P467" t="s">
-        <v>4221</v>
+        <v>4217</v>
       </c>
       <c r="Q467" t="s">
         <v>2724</v>
       </c>
       <c r="R467" t="s">
-        <v>4222</v>
+        <v>4218</v>
       </c>
       <c r="S467" t="s">
         <v>26</v>
       </c>
       <c r="T467" t="s">
-        <v>4223</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
       <c r="B468" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
       <c r="C468" t="s">
         <v>3826</v>
@@ -64862,7 +64967,7 @@
         <v>3599</v>
       </c>
       <c r="F468" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
       <c r="G468" t="s">
         <v>2726</v>
@@ -64871,7 +64976,7 @@
         <v>2727</v>
       </c>
       <c r="I468" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J468" t="s">
         <v>3600</v>
@@ -64880,39 +64985,39 @@
         <v>3207</v>
       </c>
       <c r="L468" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M468" t="s">
         <v>2724</v>
       </c>
       <c r="N468" t="s">
-        <v>4224</v>
+        <v>4220</v>
       </c>
       <c r="O468" t="s">
         <v>26</v>
       </c>
       <c r="P468" t="s">
-        <v>4225</v>
+        <v>4221</v>
       </c>
       <c r="Q468" t="s">
         <v>2724</v>
       </c>
       <c r="R468" t="s">
-        <v>4226</v>
+        <v>4222</v>
       </c>
       <c r="S468" t="s">
         <v>26</v>
       </c>
       <c r="T468" t="s">
-        <v>4227</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>4228</v>
+        <v>4224</v>
       </c>
       <c r="B469" t="s">
-        <v>4228</v>
+        <v>4224</v>
       </c>
       <c r="C469" t="s">
         <v>3826</v>
@@ -64924,7 +65029,7 @@
         <v>3599</v>
       </c>
       <c r="F469" t="s">
-        <v>4228</v>
+        <v>4224</v>
       </c>
       <c r="G469" t="s">
         <v>2726</v>
@@ -64933,7 +65038,7 @@
         <v>2727</v>
       </c>
       <c r="I469" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J469" t="s">
         <v>3600</v>
@@ -64942,39 +65047,39 @@
         <v>3207</v>
       </c>
       <c r="L469" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M469" t="s">
         <v>2724</v>
       </c>
       <c r="N469" t="s">
-        <v>4228</v>
+        <v>4224</v>
       </c>
       <c r="O469" t="s">
         <v>26</v>
       </c>
       <c r="P469" t="s">
-        <v>4229</v>
+        <v>4225</v>
       </c>
       <c r="Q469" t="s">
         <v>2724</v>
       </c>
       <c r="R469" t="s">
-        <v>4230</v>
+        <v>4226</v>
       </c>
       <c r="S469" t="s">
         <v>26</v>
       </c>
       <c r="T469" t="s">
-        <v>4231</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
       <c r="B470" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
       <c r="C470" t="s">
         <v>3831</v>
@@ -64986,7 +65091,7 @@
         <v>3599</v>
       </c>
       <c r="F470" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
       <c r="G470" t="s">
         <v>2726</v>
@@ -64995,7 +65100,7 @@
         <v>2727</v>
       </c>
       <c r="I470" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J470" t="s">
         <v>3600</v>
@@ -65004,39 +65109,39 @@
         <v>3001</v>
       </c>
       <c r="L470" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M470" t="s">
         <v>2724</v>
       </c>
       <c r="N470" t="s">
-        <v>4232</v>
+        <v>4228</v>
       </c>
       <c r="O470" t="s">
         <v>26</v>
       </c>
       <c r="P470" t="s">
-        <v>4233</v>
+        <v>4229</v>
       </c>
       <c r="Q470" t="s">
         <v>2724</v>
       </c>
       <c r="R470" t="s">
-        <v>4234</v>
+        <v>4230</v>
       </c>
       <c r="S470" t="s">
         <v>26</v>
       </c>
       <c r="T470" t="s">
-        <v>4235</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="B471" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="C471" t="s">
         <v>3831</v>
@@ -65048,7 +65153,7 @@
         <v>3599</v>
       </c>
       <c r="F471" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="G471" t="s">
         <v>2726</v>
@@ -65057,7 +65162,7 @@
         <v>2727</v>
       </c>
       <c r="I471" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J471" t="s">
         <v>3600</v>
@@ -65066,39 +65171,39 @@
         <v>3001</v>
       </c>
       <c r="L471" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M471" t="s">
         <v>2724</v>
       </c>
       <c r="N471" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="O471" t="s">
         <v>26</v>
       </c>
       <c r="P471" t="s">
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="Q471" t="s">
         <v>2724</v>
       </c>
       <c r="R471" t="s">
-        <v>4238</v>
+        <v>4234</v>
       </c>
       <c r="S471" t="s">
         <v>26</v>
       </c>
       <c r="T471" t="s">
-        <v>4239</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
       <c r="B472" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
       <c r="C472" t="s">
         <v>3836</v>
@@ -65110,7 +65215,7 @@
         <v>3599</v>
       </c>
       <c r="F472" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
       <c r="G472" t="s">
         <v>2726</v>
@@ -65119,7 +65224,7 @@
         <v>2727</v>
       </c>
       <c r="I472" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J472" t="s">
         <v>3600</v>
@@ -65128,39 +65233,39 @@
         <v>3218</v>
       </c>
       <c r="L472" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M472" t="s">
         <v>2724</v>
       </c>
       <c r="N472" t="s">
-        <v>4240</v>
+        <v>4236</v>
       </c>
       <c r="O472" t="s">
         <v>26</v>
       </c>
       <c r="P472" t="s">
-        <v>4241</v>
+        <v>4237</v>
       </c>
       <c r="Q472" t="s">
         <v>2724</v>
       </c>
       <c r="R472" t="s">
-        <v>4242</v>
+        <v>4238</v>
       </c>
       <c r="S472" t="s">
         <v>26</v>
       </c>
       <c r="T472" t="s">
-        <v>4243</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
       <c r="B473" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
       <c r="C473" t="s">
         <v>3836</v>
@@ -65172,7 +65277,7 @@
         <v>3599</v>
       </c>
       <c r="F473" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
       <c r="G473" t="s">
         <v>2726</v>
@@ -65181,7 +65286,7 @@
         <v>2727</v>
       </c>
       <c r="I473" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J473" t="s">
         <v>3600</v>
@@ -65190,39 +65295,39 @@
         <v>3218</v>
       </c>
       <c r="L473" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M473" t="s">
         <v>2724</v>
       </c>
       <c r="N473" t="s">
-        <v>4244</v>
+        <v>4240</v>
       </c>
       <c r="O473" t="s">
         <v>26</v>
       </c>
       <c r="P473" t="s">
-        <v>4245</v>
+        <v>4241</v>
       </c>
       <c r="Q473" t="s">
         <v>2724</v>
       </c>
       <c r="R473" t="s">
-        <v>4246</v>
+        <v>4242</v>
       </c>
       <c r="S473" t="s">
         <v>26</v>
       </c>
       <c r="T473" t="s">
-        <v>4247</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
       <c r="B474" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
       <c r="C474" t="s">
         <v>3841</v>
@@ -65234,7 +65339,7 @@
         <v>3599</v>
       </c>
       <c r="F474" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
       <c r="G474" t="s">
         <v>2726</v>
@@ -65243,7 +65348,7 @@
         <v>2727</v>
       </c>
       <c r="I474" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J474" t="s">
         <v>3600</v>
@@ -65252,39 +65357,39 @@
         <v>3224</v>
       </c>
       <c r="L474" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M474" t="s">
         <v>2724</v>
       </c>
       <c r="N474" t="s">
-        <v>4248</v>
+        <v>4244</v>
       </c>
       <c r="O474" t="s">
         <v>26</v>
       </c>
       <c r="P474" t="s">
-        <v>4249</v>
+        <v>4245</v>
       </c>
       <c r="Q474" t="s">
         <v>2724</v>
       </c>
       <c r="R474" t="s">
-        <v>4250</v>
+        <v>4246</v>
       </c>
       <c r="S474" t="s">
         <v>26</v>
       </c>
       <c r="T474" t="s">
-        <v>4251</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
       <c r="B475" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
       <c r="C475" t="s">
         <v>3841</v>
@@ -65296,7 +65401,7 @@
         <v>3599</v>
       </c>
       <c r="F475" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
       <c r="G475" t="s">
         <v>2726</v>
@@ -65305,7 +65410,7 @@
         <v>2727</v>
       </c>
       <c r="I475" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J475" t="s">
         <v>3600</v>
@@ -65314,39 +65419,39 @@
         <v>3224</v>
       </c>
       <c r="L475" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M475" t="s">
         <v>2724</v>
       </c>
       <c r="N475" t="s">
-        <v>4252</v>
+        <v>4248</v>
       </c>
       <c r="O475" t="s">
         <v>26</v>
       </c>
       <c r="P475" t="s">
-        <v>4253</v>
+        <v>4249</v>
       </c>
       <c r="Q475" t="s">
         <v>2724</v>
       </c>
       <c r="R475" t="s">
-        <v>4254</v>
+        <v>4250</v>
       </c>
       <c r="S475" t="s">
         <v>26</v>
       </c>
       <c r="T475" t="s">
-        <v>4255</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
       <c r="B476" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
       <c r="C476" t="s">
         <v>3846</v>
@@ -65358,7 +65463,7 @@
         <v>3599</v>
       </c>
       <c r="F476" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
       <c r="G476" t="s">
         <v>2726</v>
@@ -65367,7 +65472,7 @@
         <v>2727</v>
       </c>
       <c r="I476" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J476" t="s">
         <v>3600</v>
@@ -65376,39 +65481,39 @@
         <v>3230</v>
       </c>
       <c r="L476" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M476" t="s">
         <v>2724</v>
       </c>
       <c r="N476" t="s">
-        <v>4256</v>
+        <v>4252</v>
       </c>
       <c r="O476" t="s">
         <v>26</v>
       </c>
       <c r="P476" t="s">
-        <v>4257</v>
+        <v>4253</v>
       </c>
       <c r="Q476" t="s">
         <v>2724</v>
       </c>
       <c r="R476" t="s">
-        <v>4258</v>
+        <v>4254</v>
       </c>
       <c r="S476" t="s">
         <v>26</v>
       </c>
       <c r="T476" t="s">
-        <v>4259</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
       <c r="B477" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
       <c r="C477" t="s">
         <v>3846</v>
@@ -65420,7 +65525,7 @@
         <v>3599</v>
       </c>
       <c r="F477" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
       <c r="G477" t="s">
         <v>2726</v>
@@ -65429,7 +65534,7 @@
         <v>2727</v>
       </c>
       <c r="I477" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J477" t="s">
         <v>3600</v>
@@ -65438,39 +65543,39 @@
         <v>3230</v>
       </c>
       <c r="L477" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M477" t="s">
         <v>2724</v>
       </c>
       <c r="N477" t="s">
-        <v>4260</v>
+        <v>4256</v>
       </c>
       <c r="O477" t="s">
         <v>26</v>
       </c>
       <c r="P477" t="s">
-        <v>4261</v>
+        <v>4257</v>
       </c>
       <c r="Q477" t="s">
         <v>2724</v>
       </c>
       <c r="R477" t="s">
-        <v>4262</v>
+        <v>4258</v>
       </c>
       <c r="S477" t="s">
         <v>26</v>
       </c>
       <c r="T477" t="s">
-        <v>4263</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
       <c r="B478" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
       <c r="C478" t="s">
         <v>3851</v>
@@ -65482,7 +65587,7 @@
         <v>3599</v>
       </c>
       <c r="F478" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
       <c r="G478" t="s">
         <v>2726</v>
@@ -65491,7 +65596,7 @@
         <v>2727</v>
       </c>
       <c r="I478" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J478" t="s">
         <v>3600</v>
@@ -65500,39 +65605,39 @@
         <v>3236</v>
       </c>
       <c r="L478" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M478" t="s">
         <v>2724</v>
       </c>
       <c r="N478" t="s">
-        <v>4264</v>
+        <v>4260</v>
       </c>
       <c r="O478" t="s">
         <v>26</v>
       </c>
       <c r="P478" t="s">
-        <v>4265</v>
+        <v>4261</v>
       </c>
       <c r="Q478" t="s">
         <v>2724</v>
       </c>
       <c r="R478" t="s">
-        <v>4266</v>
+        <v>4262</v>
       </c>
       <c r="S478" t="s">
         <v>26</v>
       </c>
       <c r="T478" t="s">
-        <v>4267</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
       <c r="B479" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
       <c r="C479" t="s">
         <v>3851</v>
@@ -65544,7 +65649,7 @@
         <v>3599</v>
       </c>
       <c r="F479" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
       <c r="G479" t="s">
         <v>2726</v>
@@ -65553,7 +65658,7 @@
         <v>2727</v>
       </c>
       <c r="I479" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J479" t="s">
         <v>3600</v>
@@ -65562,39 +65667,39 @@
         <v>3236</v>
       </c>
       <c r="L479" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M479" t="s">
         <v>2724</v>
       </c>
       <c r="N479" t="s">
-        <v>4268</v>
+        <v>4264</v>
       </c>
       <c r="O479" t="s">
         <v>26</v>
       </c>
       <c r="P479" t="s">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="Q479" t="s">
         <v>2724</v>
       </c>
       <c r="R479" t="s">
-        <v>4270</v>
+        <v>4266</v>
       </c>
       <c r="S479" t="s">
         <v>26</v>
       </c>
       <c r="T479" t="s">
-        <v>4271</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
       <c r="B480" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
       <c r="C480" t="s">
         <v>3856</v>
@@ -65606,7 +65711,7 @@
         <v>3599</v>
       </c>
       <c r="F480" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
       <c r="G480" t="s">
         <v>2726</v>
@@ -65615,7 +65720,7 @@
         <v>2727</v>
       </c>
       <c r="I480" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J480" t="s">
         <v>3600</v>
@@ -65624,39 +65729,39 @@
         <v>3242</v>
       </c>
       <c r="L480" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M480" t="s">
         <v>2724</v>
       </c>
       <c r="N480" t="s">
-        <v>4272</v>
+        <v>4268</v>
       </c>
       <c r="O480" t="s">
         <v>26</v>
       </c>
       <c r="P480" t="s">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="Q480" t="s">
         <v>2724</v>
       </c>
       <c r="R480" t="s">
-        <v>4274</v>
+        <v>4270</v>
       </c>
       <c r="S480" t="s">
         <v>26</v>
       </c>
       <c r="T480" t="s">
-        <v>4275</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
       <c r="B481" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
       <c r="C481" t="s">
         <v>3856</v>
@@ -65668,7 +65773,7 @@
         <v>3599</v>
       </c>
       <c r="F481" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
       <c r="G481" t="s">
         <v>2726</v>
@@ -65677,7 +65782,7 @@
         <v>2727</v>
       </c>
       <c r="I481" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J481" t="s">
         <v>3600</v>
@@ -65686,39 +65791,39 @@
         <v>3242</v>
       </c>
       <c r="L481" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M481" t="s">
         <v>2724</v>
       </c>
       <c r="N481" t="s">
-        <v>4276</v>
+        <v>4272</v>
       </c>
       <c r="O481" t="s">
         <v>26</v>
       </c>
       <c r="P481" t="s">
-        <v>4277</v>
+        <v>4273</v>
       </c>
       <c r="Q481" t="s">
         <v>2724</v>
       </c>
       <c r="R481" t="s">
-        <v>4278</v>
+        <v>4274</v>
       </c>
       <c r="S481" t="s">
         <v>26</v>
       </c>
       <c r="T481" t="s">
-        <v>4279</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
       <c r="B482" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
       <c r="C482" t="s">
         <v>3861</v>
@@ -65730,7 +65835,7 @@
         <v>3599</v>
       </c>
       <c r="F482" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
       <c r="G482" t="s">
         <v>2726</v>
@@ -65739,7 +65844,7 @@
         <v>2727</v>
       </c>
       <c r="I482" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J482" t="s">
         <v>3600</v>
@@ -65748,39 +65853,39 @@
         <v>3008</v>
       </c>
       <c r="L482" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M482" t="s">
         <v>2724</v>
       </c>
       <c r="N482" t="s">
-        <v>4280</v>
+        <v>4276</v>
       </c>
       <c r="O482" t="s">
         <v>26</v>
       </c>
       <c r="P482" t="s">
-        <v>4281</v>
+        <v>4277</v>
       </c>
       <c r="Q482" t="s">
         <v>2724</v>
       </c>
       <c r="R482" t="s">
-        <v>4282</v>
+        <v>4278</v>
       </c>
       <c r="S482" t="s">
         <v>26</v>
       </c>
       <c r="T482" t="s">
-        <v>4283</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
       <c r="B483" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
       <c r="C483" t="s">
         <v>3861</v>
@@ -65792,7 +65897,7 @@
         <v>3599</v>
       </c>
       <c r="F483" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
       <c r="G483" t="s">
         <v>2726</v>
@@ -65801,7 +65906,7 @@
         <v>2727</v>
       </c>
       <c r="I483" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J483" t="s">
         <v>3600</v>
@@ -65810,39 +65915,39 @@
         <v>3008</v>
       </c>
       <c r="L483" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M483" t="s">
         <v>2724</v>
       </c>
       <c r="N483" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
       <c r="O483" t="s">
         <v>26</v>
       </c>
       <c r="P483" t="s">
-        <v>4285</v>
+        <v>4281</v>
       </c>
       <c r="Q483" t="s">
         <v>2724</v>
       </c>
       <c r="R483" t="s">
-        <v>4286</v>
+        <v>4282</v>
       </c>
       <c r="S483" t="s">
         <v>26</v>
       </c>
       <c r="T483" t="s">
-        <v>4287</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
       <c r="B484" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
       <c r="C484" t="s">
         <v>3866</v>
@@ -65854,7 +65959,7 @@
         <v>3599</v>
       </c>
       <c r="F484" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
       <c r="G484" t="s">
         <v>2726</v>
@@ -65863,7 +65968,7 @@
         <v>2727</v>
       </c>
       <c r="I484" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J484" t="s">
         <v>3600</v>
@@ -65872,39 +65977,39 @@
         <v>3253</v>
       </c>
       <c r="L484" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M484" t="s">
         <v>2724</v>
       </c>
       <c r="N484" t="s">
-        <v>4288</v>
+        <v>4284</v>
       </c>
       <c r="O484" t="s">
         <v>26</v>
       </c>
       <c r="P484" t="s">
-        <v>4289</v>
+        <v>4285</v>
       </c>
       <c r="Q484" t="s">
         <v>2724</v>
       </c>
       <c r="R484" t="s">
-        <v>4290</v>
+        <v>4286</v>
       </c>
       <c r="S484" t="s">
         <v>26</v>
       </c>
       <c r="T484" t="s">
-        <v>4291</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
       <c r="B485" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
       <c r="C485" t="s">
         <v>3866</v>
@@ -65916,7 +66021,7 @@
         <v>3599</v>
       </c>
       <c r="F485" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
       <c r="G485" t="s">
         <v>2726</v>
@@ -65925,7 +66030,7 @@
         <v>2727</v>
       </c>
       <c r="I485" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J485" t="s">
         <v>3600</v>
@@ -65934,39 +66039,39 @@
         <v>3253</v>
       </c>
       <c r="L485" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M485" t="s">
         <v>2724</v>
       </c>
       <c r="N485" t="s">
-        <v>4292</v>
+        <v>4288</v>
       </c>
       <c r="O485" t="s">
         <v>26</v>
       </c>
       <c r="P485" t="s">
-        <v>4293</v>
+        <v>4289</v>
       </c>
       <c r="Q485" t="s">
         <v>2724</v>
       </c>
       <c r="R485" t="s">
-        <v>4294</v>
+        <v>4290</v>
       </c>
       <c r="S485" t="s">
         <v>26</v>
       </c>
       <c r="T485" t="s">
-        <v>4295</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
       <c r="B486" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
       <c r="C486" t="s">
         <v>3871</v>
@@ -65978,7 +66083,7 @@
         <v>3599</v>
       </c>
       <c r="F486" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
       <c r="G486" t="s">
         <v>2726</v>
@@ -65987,7 +66092,7 @@
         <v>2727</v>
       </c>
       <c r="I486" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J486" t="s">
         <v>3600</v>
@@ -65996,39 +66101,39 @@
         <v>3259</v>
       </c>
       <c r="L486" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M486" t="s">
         <v>2724</v>
       </c>
       <c r="N486" t="s">
-        <v>4296</v>
+        <v>4292</v>
       </c>
       <c r="O486" t="s">
         <v>26</v>
       </c>
       <c r="P486" t="s">
-        <v>4297</v>
+        <v>4293</v>
       </c>
       <c r="Q486" t="s">
         <v>2724</v>
       </c>
       <c r="R486" t="s">
-        <v>4298</v>
+        <v>4294</v>
       </c>
       <c r="S486" t="s">
         <v>26</v>
       </c>
       <c r="T486" t="s">
-        <v>4299</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
       <c r="B487" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
       <c r="C487" t="s">
         <v>3871</v>
@@ -66040,7 +66145,7 @@
         <v>3599</v>
       </c>
       <c r="F487" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
       <c r="G487" t="s">
         <v>2726</v>
@@ -66049,7 +66154,7 @@
         <v>2727</v>
       </c>
       <c r="I487" t="s">
-        <v>2728</v>
+        <v>4300</v>
       </c>
       <c r="J487" t="s">
         <v>3600</v>
@@ -66058,31 +66163,31 @@
         <v>3259</v>
       </c>
       <c r="L487" t="s">
-        <v>4039</v>
+        <v>4035</v>
       </c>
       <c r="M487" t="s">
         <v>2724</v>
       </c>
       <c r="N487" t="s">
-        <v>4300</v>
+        <v>4296</v>
       </c>
       <c r="O487" t="s">
         <v>26</v>
       </c>
       <c r="P487" t="s">
-        <v>4301</v>
+        <v>4297</v>
       </c>
       <c r="Q487" t="s">
         <v>2724</v>
       </c>
       <c r="R487" t="s">
-        <v>4302</v>
+        <v>4298</v>
       </c>
       <c r="S487" t="s">
         <v>26</v>
       </c>
       <c r="T487" t="s">
-        <v>4303</v>
+        <v>4299</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E74D4-DECA-41DA-A1A0-A4D0A7E1289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF8C45-C8EF-4DC7-88E8-962F8A493519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="7164" yWindow="3444" windowWidth="23040" windowHeight="12120" firstSheet="2" activeTab="8" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16046" uniqueCount="4506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16087" uniqueCount="4526">
   <si>
     <t>Part Number</t>
   </si>
@@ -13239,9 +13239,6 @@
     <t>M3x0.5, 2mm</t>
   </si>
   <si>
-    <t>SCH/Con.SchLib</t>
-  </si>
-  <si>
     <t>CON1</t>
   </si>
   <si>
@@ -13368,9 +13365,6 @@
     <t>SCH/ESP8266.SchLib</t>
   </si>
   <si>
-    <t>PCB/ESP8266.PcbLib</t>
-  </si>
-  <si>
     <t>https://www.microchip.ua/wireless/esp01.pdf</t>
   </si>
   <si>
@@ -13564,6 +13558,72 @@
   </si>
   <si>
     <t>C6807797</t>
+  </si>
+  <si>
+    <t>BAS70-02V-G3-08</t>
+  </si>
+  <si>
+    <t>SOD1608X065</t>
+  </si>
+  <si>
+    <t>Small Signal Schottky Diode</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>SOD523</t>
+  </si>
+  <si>
+    <t>70V/100mA</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/85652/bas70-02v.pdf</t>
+  </si>
+  <si>
+    <t>Vishay General Semiconductor - Diodes Division</t>
+  </si>
+  <si>
+    <t>112-BAS70-02V-G3-08CT-ND</t>
+  </si>
+  <si>
+    <t>Vishay Intertech</t>
+  </si>
+  <si>
+    <t>C3313114</t>
+  </si>
+  <si>
+    <t>P-CH 20V Fast Switching MOSFETs</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2306211455_HL-3415_C7431444.pdf</t>
+  </si>
+  <si>
+    <t>C7431444</t>
+  </si>
+  <si>
+    <t>HL 2302</t>
+  </si>
+  <si>
+    <t>HL 3415</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>Header_2x4</t>
+  </si>
+  <si>
+    <t>Header 100 mil</t>
+  </si>
+  <si>
+    <t>CON8</t>
+  </si>
+  <si>
+    <t>SCH/Connector.SchLib</t>
+  </si>
+  <si>
+    <t>PCB/ESP8622.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -14261,13 +14321,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14278,7 +14338,7 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
@@ -14371,7 +14431,7 @@
         <v>2697</v>
       </c>
       <c r="H2" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I2" t="s">
         <v>2703</v>
@@ -14415,7 +14475,7 @@
         <v>2711</v>
       </c>
       <c r="H3" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="I3" t="s">
         <v>2712</v>
@@ -14456,7 +14516,7 @@
         <v>2714</v>
       </c>
       <c r="H4" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I4" t="s">
         <v>2703</v>
@@ -14743,302 +14803,346 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4462</v>
+      </c>
+      <c r="E11" t="s">
         <v>4459</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4459</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4460</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4464</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4461</v>
       </c>
       <c r="F11" t="s">
         <v>2704</v>
       </c>
       <c r="G11" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="H11" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I11" t="s">
         <v>2703</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="K11" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="M11" t="s">
         <v>2700</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C12" t="s">
         <v>4468</v>
       </c>
-      <c r="B12" t="s">
-        <v>4468</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4470</v>
-      </c>
       <c r="D12" t="s">
+        <v>4467</v>
+      </c>
+      <c r="E12" t="s">
         <v>4469</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4471</v>
       </c>
       <c r="F12" t="s">
         <v>2704</v>
       </c>
       <c r="G12" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="H12" t="s">
+        <v>4464</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4473</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4467</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>4466</v>
-      </c>
-      <c r="I12" t="s">
-        <v>4475</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>4473</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4469</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>4468</v>
       </c>
       <c r="M12" t="s">
         <v>2700</v>
       </c>
       <c r="N12" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="B13" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="F13" t="s">
         <v>2704</v>
       </c>
       <c r="G13" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="H13" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I13" t="s">
         <v>2703</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>4481</v>
+        <v>4479</v>
       </c>
       <c r="K13" t="s">
+        <v>4478</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4474</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4477</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>4480</v>
       </c>
-      <c r="L13" t="s">
-        <v>4476</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4479</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>4482</v>
-      </c>
       <c r="P13" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="Q13" t="s">
         <v>2700</v>
       </c>
       <c r="R13" t="s">
-        <v>4483</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="B14" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="C14" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="F14" t="s">
         <v>2704</v>
       </c>
       <c r="G14" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
       <c r="H14" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I14" t="s">
         <v>2703</v>
       </c>
       <c r="J14" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
       <c r="K14" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="L14" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="O14" t="s">
-        <v>4490</v>
+        <v>4488</v>
       </c>
       <c r="P14" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="Q14" t="s">
         <v>2700</v>
       </c>
       <c r="R14" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="B15" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="C15" t="s">
-        <v>4493</v>
+        <v>4491</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="F15" t="s">
         <v>2704</v>
       </c>
       <c r="G15" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="H15" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I15" t="s">
         <v>2703</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>4492</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>4493</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4495</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
         <v>4494</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>4495</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4497</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>4496</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2302</v>
       </c>
-      <c r="B16">
-        <v>2302</v>
+      <c r="B16" t="s">
+        <v>4518</v>
       </c>
       <c r="C16" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="F16" t="s">
         <v>2704</v>
       </c>
       <c r="G16" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="H16" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="I16" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="L16" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="M16" t="s">
         <v>2700</v>
       </c>
       <c r="N16" t="s">
+        <v>4500</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>4502</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>4504</v>
-      </c>
       <c r="P16" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="Q16" t="s">
         <v>2700</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>4505</v>
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4459</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4486</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4463</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2703</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>4516</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4520</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4519</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2700</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>4517</v>
       </c>
     </row>
   </sheetData>
@@ -15056,7 +15160,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15151,13 +15255,13 @@
         <v>4391</v>
       </c>
       <c r="F2" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G2" t="s">
         <v>4392</v>
       </c>
       <c r="H2" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I2" t="s">
         <v>4389</v>
@@ -15165,210 +15269,210 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C3" t="s">
         <v>4408</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4410</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4409</v>
       </c>
       <c r="D3" t="s">
         <v>4391</v>
       </c>
       <c r="F3" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G3" t="s">
         <v>4392</v>
       </c>
       <c r="H3" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I3" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C4" t="s">
         <v>4413</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4415</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4414</v>
       </c>
       <c r="D4" t="s">
         <v>4391</v>
       </c>
       <c r="F4" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G4" t="s">
         <v>4392</v>
       </c>
       <c r="H4" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I4" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="B5" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="C5" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="D5" t="s">
         <v>4391</v>
       </c>
       <c r="F5" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G5" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="H5" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I5" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="B6" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="C6" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="D6" t="s">
         <v>4391</v>
       </c>
       <c r="F6" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="H6" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I6" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="B7" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="C7" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="D7" t="s">
         <v>4391</v>
       </c>
       <c r="F7" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G7" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="H7" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I7" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="B8" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C8" t="s">
         <v>4423</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4424</v>
       </c>
       <c r="D8" t="s">
         <v>4391</v>
       </c>
       <c r="F8" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G8" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="H8" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="I8" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C9" t="s">
         <v>4403</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4403</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4404</v>
       </c>
       <c r="D9" t="s">
         <v>4391</v>
       </c>
       <c r="F9" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G9" t="s">
+        <v>4405</v>
+      </c>
+      <c r="H9" t="s">
         <v>4406</v>
       </c>
-      <c r="H9" t="s">
-        <v>4407</v>
-      </c>
       <c r="I9" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B10" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="C10" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="D10" t="s">
         <v>4391</v>
       </c>
       <c r="F10" t="s">
-        <v>4397</v>
+        <v>4524</v>
       </c>
       <c r="G10" t="s">
+        <v>4405</v>
+      </c>
+      <c r="H10" t="s">
         <v>4406</v>
       </c>
-      <c r="H10" t="s">
-        <v>4407</v>
-      </c>
       <c r="I10" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -15385,66 +15489,66 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
+        <v>4524</v>
+      </c>
+      <c r="G11" t="s">
         <v>4397</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>4398</v>
       </c>
-      <c r="H11" t="s">
-        <v>4399</v>
-      </c>
       <c r="I11" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="K11" t="s">
+        <v>4427</v>
+      </c>
+      <c r="L11" t="s">
         <v>4428</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4429</v>
       </c>
       <c r="M11" t="s">
         <v>2700</v>
       </c>
       <c r="N11" t="s">
+        <v>4429</v>
+      </c>
+      <c r="O11" t="s">
         <v>4430</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>4431</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>4433</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>4432</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>4434</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>4433</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="B12" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="C12" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="D12" t="s">
         <v>4391</v>
       </c>
       <c r="F12" t="s">
+        <v>4444</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4445</v>
+      </c>
+      <c r="H12" t="s">
         <v>4446</v>
       </c>
-      <c r="G12" t="s">
-        <v>4447</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4448</v>
-      </c>
       <c r="I12" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
     </row>
   </sheetData>
@@ -36118,13 +36222,13 @@
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="B343" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="C343" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
       <c r="D343" t="s">
         <v>21</v>
@@ -36133,50 +36237,50 @@
         <v>1206</v>
       </c>
       <c r="F343" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="G343" t="str">
         <f>Config!$B$3</f>
         <v>SCH/R_IEC.SchLib</v>
       </c>
       <c r="H343" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="I343" t="s">
         <v>469</v>
       </c>
       <c r="J343" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="K343" s="4">
         <v>1.5</v>
       </c>
       <c r="L343" s="5" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="M343" s="5" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="N343" t="s">
+        <v>4453</v>
+      </c>
+      <c r="O343" t="s">
+        <v>26</v>
+      </c>
+      <c r="P343" t="s">
+        <v>4452</v>
+      </c>
+      <c r="Q343" s="5" t="s">
         <v>4455</v>
       </c>
-      <c r="O343" t="s">
-        <v>26</v>
-      </c>
-      <c r="P343" t="s">
-        <v>4454</v>
-      </c>
-      <c r="Q343" s="5" t="s">
-        <v>4457</v>
-      </c>
       <c r="R343" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="S343" t="s">
         <v>2700</v>
       </c>
       <c r="T343" s="10" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
     </row>
   </sheetData>
@@ -42009,13 +42113,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6596218-16F3-44AE-9E9B-CCA683897864}">
-  <dimension ref="A1:T494"/>
+  <dimension ref="A1:T495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C470" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="A496" sqref="A496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68222,6 +68326,68 @@
         <v>4372</v>
       </c>
     </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C495" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D495" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E495" t="s">
+        <v>4508</v>
+      </c>
+      <c r="F495" t="s">
+        <v>4509</v>
+      </c>
+      <c r="G495" t="s">
+        <v>2725</v>
+      </c>
+      <c r="H495" t="s">
+        <v>4311</v>
+      </c>
+      <c r="I495" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J495" t="s">
+        <v>4505</v>
+      </c>
+      <c r="K495" t="s">
+        <v>2988</v>
+      </c>
+      <c r="L495" t="s">
+        <v>4510</v>
+      </c>
+      <c r="M495" t="s">
+        <v>4511</v>
+      </c>
+      <c r="N495" t="s">
+        <v>4504</v>
+      </c>
+      <c r="O495" t="s">
+        <v>26</v>
+      </c>
+      <c r="P495" t="s">
+        <v>4512</v>
+      </c>
+      <c r="Q495" t="s">
+        <v>4513</v>
+      </c>
+      <c r="R495" t="s">
+        <v>4504</v>
+      </c>
+      <c r="S495" t="s">
+        <v>2700</v>
+      </c>
+      <c r="T495" t="s">
+        <v>4514</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R489" r:id="rId1" display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Slkor-SLKORMICRO-Elec-SS26_C513477.html" xr:uid="{091CD993-3645-4E44-9CF4-879C490DFAC3}"/>
@@ -68233,13 +68399,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05348336-C131-49E6-98A6-4A6B8B6DDA7F}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68304,6 +68470,26 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4524</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4523</v>
       </c>
     </row>
   </sheetData>
@@ -68395,11 +68581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A8F6A-F5E5-42B9-9631-24C8A730FB17}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68468,46 +68654,46 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C2" t="s">
         <v>4435</v>
       </c>
-      <c r="B2" t="s">
-        <v>4435</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4436</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4437</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4438</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4525</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>4439</v>
       </c>
-      <c r="H2" t="s">
-        <v>4435</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4440</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4435</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>4441</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>4443</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="O2" t="s">
         <v>2700</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70C479-F33A-4EC9-A91C-FFD8737FBDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495C225-204F-4E2B-87B5-6A0432B8245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16442" uniqueCount="4682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16460" uniqueCount="4688">
   <si>
     <t>Part Number</t>
   </si>
@@ -14092,6 +14092,24 @@
   </si>
   <si>
     <t>SOT2395P280X125-6</t>
+  </si>
+  <si>
+    <t>AS2302</t>
+  </si>
+  <si>
+    <t>N-Channel 20V(D-S) MOSFET</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809211431_AnBon-AS2302_C232266.pdf</t>
+  </si>
+  <si>
+    <t>4530-AS2302CT-ND</t>
+  </si>
+  <si>
+    <t>AnBon</t>
+  </si>
+  <si>
+    <t>C232266</t>
   </si>
 </sst>
 </file>
@@ -14789,13 +14807,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15755,6 +15773,62 @@
       </c>
       <c r="N20" s="8" t="s">
         <v>4676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4683</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>4453</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2699</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4470</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4457</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>4684</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4472</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4682</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4685</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4686</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4682</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2695</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4687</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E998BB-C6C8-4F4F-B78E-2C3EA678F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A5C5A-CECD-47D0-BB40-69868DF4DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="17325" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16495" uniqueCount="4707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16495" uniqueCount="4706">
   <si>
     <t>Part Number</t>
   </si>
@@ -13179,15 +13179,9 @@
     <t>D_Zener</t>
   </si>
   <si>
-    <t>SMTSO3020CTJ</t>
-  </si>
-  <si>
     <t>Solder Nut M3x0.5, 2mm</t>
   </si>
   <si>
-    <t>M3x0.5, 2mm</t>
-  </si>
-  <si>
     <t>CON1</t>
   </si>
   <si>
@@ -13956,57 +13950,6 @@
     <t>LCSC</t>
   </si>
   <si>
-    <t>https://datasheet.LCSC/lcsc/2202131930_MSKSEMI-SS24-MS_C2836395.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/1912111437_PUOLOP-DW01A_C351410.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2308080947_MSKSEMI-TP4056-MS_C7473158.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2401050929_JSMSEMI-8205S_C2762930.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/1810231212_Worldsemi-WS2813E_C160214.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2012110135_Worldsemi-WS2813B-V5_C965558.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2310251544_Worldsemi-WS2813B-MINI-V1_C2832664.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2206131216_Worldsemi-WS2812B-V5-W_C2874885.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2111171930_Worldsemi-WS2812E-V5_C2920042.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2005251033_Worldsemi-WS2812B-Mini_C527089.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/1811061532_UTC-Unisonic-Tech-UHE4913G-AE3-R_C86815.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2212101330_XINLUDA-XL555_C521186.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2009171007_HUASHUO-HSS2302B_C518782.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2306211455_HL-3415_C7431444.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2203221830_Zetta-ZD8028IB5TR_C2928932.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/2307141446_JSMSEMI-2N7002_C916396.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheet.LCSC/lcsc/1809211431_AnBon-AS2302_C232266.pdf</t>
-  </si>
-  <si>
     <t>470NH/2520</t>
   </si>
   <si>
@@ -14167,6 +14110,60 @@
   </si>
   <si>
     <t>MMBT4403L</t>
+  </si>
+  <si>
+    <t>PEM M3, 2mm</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2202131930_MSKSEMI-SS24-MS_C2836395.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1912111437_PUOLOP-DW01A_C351410.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2308080947_MSKSEMI-TP4056-MS_C7473158.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2401050929_JSMSEMI-8205S_C2762930.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1810231212_Worldsemi-WS2813E_C160214.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2012110135_Worldsemi-WS2813B-V5_C965558.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2310251544_Worldsemi-WS2813B-MINI-V1_C2832664.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2206131216_Worldsemi-WS2812B-V5-W_C2874885.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2111171930_Worldsemi-WS2812E-V5_C2920042.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2005251033_Worldsemi-WS2812B-Mini_C527089.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1811061532_UTC-Unisonic-Tech-UHE4913G-AE3-R_C86815.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2212101330_XINLUDA-XL555_C521186.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2009171007_HUASHUO-HSS2302B_C518782.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2306211455_HL-3415_C7431444.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2203221830_Zetta-ZD8028IB5TR_C2928932.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2307141446_JSMSEMI-2N7002_C916396.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809211431_AnBon-AS2302_C232266.pdf</t>
   </si>
 </sst>
 </file>
@@ -14871,7 +14868,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14975,13 +14972,13 @@
         <v>2692</v>
       </c>
       <c r="H2" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I2" t="s">
         <v>2696</v>
       </c>
       <c r="J2" t="s">
-        <v>4637</v>
+        <v>4690</v>
       </c>
       <c r="K2" t="s">
         <v>2694</v>
@@ -14990,7 +14987,7 @@
         <v>2692</v>
       </c>
       <c r="M2" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N2" t="s">
         <v>2695</v>
@@ -15019,13 +15016,13 @@
         <v>2703</v>
       </c>
       <c r="H3" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="I3" t="s">
         <v>2704</v>
       </c>
       <c r="J3" t="s">
-        <v>4638</v>
+        <v>4691</v>
       </c>
       <c r="K3" t="s">
         <v>2701</v>
@@ -15034,7 +15031,7 @@
         <v>2699</v>
       </c>
       <c r="M3" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N3" t="s">
         <v>2705</v>
@@ -15060,13 +15057,13 @@
         <v>2706</v>
       </c>
       <c r="H4" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I4" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="J4" t="s">
-        <v>4639</v>
+        <v>4692</v>
       </c>
       <c r="K4" t="s">
         <v>2709</v>
@@ -15075,7 +15072,7 @@
         <v>2707</v>
       </c>
       <c r="M4" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N4" t="s">
         <v>2710</v>
@@ -15110,7 +15107,7 @@
         <v>4282</v>
       </c>
       <c r="J5" t="s">
-        <v>4640</v>
+        <v>4693</v>
       </c>
       <c r="K5" t="s">
         <v>3907</v>
@@ -15119,7 +15116,7 @@
         <v>3584</v>
       </c>
       <c r="M5" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N5" t="s">
         <v>4286</v>
@@ -15154,7 +15151,7 @@
         <v>4282</v>
       </c>
       <c r="J6" t="s">
-        <v>4641</v>
+        <v>4694</v>
       </c>
       <c r="K6" t="s">
         <v>3907</v>
@@ -15163,7 +15160,7 @@
         <v>3911</v>
       </c>
       <c r="M6" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N6" t="s">
         <v>4288</v>
@@ -15198,7 +15195,7 @@
         <v>4285</v>
       </c>
       <c r="J7" t="s">
-        <v>4642</v>
+        <v>4695</v>
       </c>
       <c r="K7" t="s">
         <v>3907</v>
@@ -15207,7 +15204,7 @@
         <v>4287</v>
       </c>
       <c r="M7" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N7" t="s">
         <v>4289</v>
@@ -15242,7 +15239,7 @@
         <v>4283</v>
       </c>
       <c r="J8" t="s">
-        <v>4643</v>
+        <v>4696</v>
       </c>
       <c r="K8" t="s">
         <v>3907</v>
@@ -15251,7 +15248,7 @@
         <v>4290</v>
       </c>
       <c r="M8" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N8" t="s">
         <v>4291</v>
@@ -15286,7 +15283,7 @@
         <v>4283</v>
       </c>
       <c r="J9" t="s">
-        <v>4644</v>
+        <v>4697</v>
       </c>
       <c r="K9" t="s">
         <v>3907</v>
@@ -15295,7 +15292,7 @@
         <v>3910</v>
       </c>
       <c r="M9" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N9" t="s">
         <v>4292</v>
@@ -15330,7 +15327,7 @@
         <v>4284</v>
       </c>
       <c r="J10" t="s">
-        <v>4645</v>
+        <v>4698</v>
       </c>
       <c r="K10" t="s">
         <v>3907</v>
@@ -15339,7 +15336,7 @@
         <v>4294</v>
       </c>
       <c r="M10" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N10" t="s">
         <v>4293</v>
@@ -15347,246 +15344,246 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4443</v>
+      </c>
+      <c r="E11" t="s">
         <v>4440</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4440</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4441</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4445</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4442</v>
       </c>
       <c r="F11" t="s">
         <v>2697</v>
       </c>
       <c r="G11" t="s">
-        <v>4440</v>
+        <v>4438</v>
       </c>
       <c r="H11" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I11" t="s">
         <v>2696</v>
       </c>
       <c r="J11" t="s">
-        <v>4646</v>
+        <v>4699</v>
       </c>
       <c r="K11" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="L11" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="M11" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C12" t="s">
         <v>4448</v>
       </c>
-      <c r="B12" t="s">
-        <v>4448</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4450</v>
-      </c>
       <c r="D12" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E12" t="s">
         <v>4449</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4451</v>
       </c>
       <c r="F12" t="s">
         <v>2697</v>
       </c>
       <c r="G12" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="H12" t="s">
+        <v>4445</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4452</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4700</v>
+      </c>
+      <c r="K12" t="s">
         <v>4447</v>
       </c>
-      <c r="I12" t="s">
-        <v>4454</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4647</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4449</v>
-      </c>
       <c r="L12" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="M12" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N12" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="B13" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F13" t="s">
         <v>2697</v>
       </c>
       <c r="G13" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="H13" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I13" t="s">
         <v>2696</v>
       </c>
       <c r="J13" t="s">
+        <v>4458</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4457</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4453</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4456</v>
+      </c>
+      <c r="O13" t="s">
+        <v>4459</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4453</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R13" t="s">
         <v>4460</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4459</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4455</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4458</v>
-      </c>
-      <c r="O13" t="s">
-        <v>4461</v>
-      </c>
-      <c r="P13" t="s">
-        <v>4455</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>4635</v>
-      </c>
-      <c r="R13" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="B14" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="C14" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F14" t="s">
         <v>2697</v>
       </c>
       <c r="G14" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="H14" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I14" t="s">
         <v>2696</v>
       </c>
       <c r="J14" t="s">
-        <v>4466</v>
+        <v>4464</v>
       </c>
       <c r="K14" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="L14" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>4464</v>
+        <v>4462</v>
       </c>
       <c r="O14" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="P14" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="Q14" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="R14" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="B15" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="C15" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F15" t="s">
         <v>2697</v>
       </c>
       <c r="G15" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="H15" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I15" t="s">
         <v>2696</v>
       </c>
       <c r="J15" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4472</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4474</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
         <v>4473</v>
-      </c>
-      <c r="K15" t="s">
-        <v>4474</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4476</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>4475</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -15594,231 +15591,231 @@
         <v>2302</v>
       </c>
       <c r="B16" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="C16" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F16" t="s">
         <v>2697</v>
       </c>
       <c r="G16" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="H16" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I16" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="J16" t="s">
-        <v>4648</v>
+        <v>4701</v>
       </c>
       <c r="K16" t="s">
+        <v>4477</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4475</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4633</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4478</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4480</v>
+      </c>
+      <c r="P16" t="s">
         <v>4479</v>
       </c>
-      <c r="L16" t="s">
-        <v>4477</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4635</v>
-      </c>
-      <c r="N16" t="s">
-        <v>4480</v>
-      </c>
-      <c r="O16" t="s">
-        <v>4482</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R16" t="s">
         <v>4481</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>4635</v>
-      </c>
-      <c r="R16" t="s">
-        <v>4483</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="B17" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="C17" t="s">
-        <v>4495</v>
+        <v>4493</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F17" t="s">
         <v>2697</v>
       </c>
       <c r="G17" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="H17" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I17" t="s">
         <v>2696</v>
       </c>
       <c r="J17" t="s">
-        <v>4649</v>
+        <v>4702</v>
       </c>
       <c r="K17" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="L17" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="M17" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="B18" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="C18" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="D18" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="E18" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="F18" t="s">
         <v>2697</v>
       </c>
       <c r="G18" t="s">
+        <v>4591</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4444</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="J18" t="s">
         <v>4593</v>
       </c>
-      <c r="H18" t="s">
-        <v>4446</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4597</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4595</v>
-      </c>
       <c r="K18" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="L18" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="M18" t="s">
         <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="O18" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="P18" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="Q18" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="8" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="C19" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="D19" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="E19" t="s">
-        <v>4628</v>
+        <v>4626</v>
       </c>
       <c r="F19" t="s">
         <v>2697</v>
       </c>
       <c r="G19" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="H19" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I19" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="J19" t="s">
-        <v>4650</v>
+        <v>4703</v>
       </c>
       <c r="K19" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="M19" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F20" t="s">
         <v>2697</v>
       </c>
       <c r="G20" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="H20" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I20" t="s">
         <v>2696</v>
       </c>
       <c r="J20" t="s">
-        <v>4651</v>
+        <v>4704</v>
       </c>
       <c r="K20" t="s">
         <v>2709</v>
@@ -15827,110 +15824,110 @@
         <v>2709</v>
       </c>
       <c r="M20" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="B21" t="s">
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="C21" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F21" t="s">
         <v>2697</v>
       </c>
       <c r="G21" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="H21" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I21" t="s">
         <v>2696</v>
       </c>
       <c r="J21" t="s">
-        <v>4652</v>
+        <v>4705</v>
       </c>
       <c r="K21" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="L21" t="s">
+        <v>4628</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
         <v>4630</v>
       </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
+        <v>4631</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4628</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R21" t="s">
         <v>4632</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4633</v>
-      </c>
-      <c r="P21" t="s">
-        <v>4630</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>4635</v>
-      </c>
-      <c r="R21" t="s">
-        <v>4634</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>4706</v>
+        <v>4687</v>
       </c>
       <c r="B22" t="s">
-        <v>4706</v>
+        <v>4687</v>
       </c>
       <c r="C22" t="s">
-        <v>4701</v>
+        <v>4682</v>
       </c>
       <c r="D22" t="s">
-        <v>4705</v>
+        <v>4686</v>
       </c>
       <c r="E22" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="F22" t="s">
         <v>2697</v>
       </c>
       <c r="G22" t="s">
-        <v>4699</v>
+        <v>4680</v>
       </c>
       <c r="H22" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="I22" t="s">
         <v>2696</v>
       </c>
       <c r="J22" t="s">
-        <v>4702</v>
+        <v>4683</v>
       </c>
       <c r="K22" t="s">
-        <v>4703</v>
+        <v>4684</v>
       </c>
       <c r="L22" t="s">
-        <v>4700</v>
+        <v>4681</v>
       </c>
       <c r="M22" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>4704</v>
+        <v>4685</v>
       </c>
     </row>
   </sheetData>
@@ -15947,8 +15944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16043,13 +16040,13 @@
         <v>4374</v>
       </c>
       <c r="F2" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G2" t="s">
         <v>4375</v>
       </c>
       <c r="H2" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I2" t="s">
         <v>4372</v>
@@ -16057,286 +16054,286 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B3" t="s">
         <v>4390</v>
       </c>
-      <c r="B3" t="s">
-        <v>4392</v>
-      </c>
       <c r="C3" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="D3" t="s">
         <v>4374</v>
       </c>
       <c r="F3" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G3" t="s">
         <v>4375</v>
       </c>
       <c r="H3" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I3" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4" t="s">
         <v>4395</v>
       </c>
-      <c r="B4" t="s">
-        <v>4397</v>
-      </c>
       <c r="C4" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="D4" t="s">
         <v>4374</v>
       </c>
       <c r="F4" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G4" t="s">
         <v>4375</v>
       </c>
       <c r="H4" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I4" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="B5" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="C5" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="D5" t="s">
         <v>4374</v>
       </c>
       <c r="F5" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G5" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="H5" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I5" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="B6" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="C6" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="D6" t="s">
         <v>4374</v>
       </c>
       <c r="F6" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G6" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="H6" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I6" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="B7" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="C7" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="D7" t="s">
         <v>4374</v>
       </c>
       <c r="F7" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G7" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="H7" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I7" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="B8" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="C8" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="D8" t="s">
         <v>4374</v>
       </c>
       <c r="F8" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G8" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="H8" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="I8" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B9" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="C9" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="D9" t="s">
         <v>4374</v>
       </c>
       <c r="F9" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G9" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="H9" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="I9" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="B10" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="C10" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="D10" t="s">
         <v>4374</v>
       </c>
       <c r="F10" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G10" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="H10" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="I10" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C11" t="s">
         <v>4377</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4379</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4378</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="G11" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="H11" t="s">
+        <v>4379</v>
+      </c>
+      <c r="I11" t="s">
         <v>4381</v>
       </c>
-      <c r="I11" t="s">
-        <v>4383</v>
-      </c>
       <c r="K11" t="s">
+        <v>4408</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4409</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4633</v>
+      </c>
+      <c r="N11" t="s">
         <v>4410</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>4411</v>
       </c>
-      <c r="M11" t="s">
-        <v>4635</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>4412</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>4414</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>4413</v>
-      </c>
-      <c r="P11" t="s">
-        <v>4414</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>4416</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>4415</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="B12" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="C12" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="D12" t="s">
         <v>4374</v>
       </c>
       <c r="F12" t="s">
+        <v>4425</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4426</v>
+      </c>
+      <c r="H12" t="s">
         <v>4427</v>
       </c>
-      <c r="G12" t="s">
-        <v>4428</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4429</v>
-      </c>
       <c r="I12" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
     </row>
   </sheetData>
@@ -16386,7 +16383,7 @@
         <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -16394,7 +16391,7 @@
         <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -16428,12 +16425,12 @@
         <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="B121" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -16441,17 +16438,17 @@
         <v>459</v>
       </c>
       <c r="B130" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="B131" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="B132" t="s">
-        <v>4524</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -37002,7 +36999,7 @@
         <v>4366</v>
       </c>
       <c r="S342" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T342" t="s">
         <v>4368</v>
@@ -37010,13 +37007,13 @@
     </row>
     <row r="343" spans="1:20">
       <c r="A343" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="B343" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="C343" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="D343" t="s">
         <v>21</v>
@@ -37025,61 +37022,61 @@
         <v>1206</v>
       </c>
       <c r="F343" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="G343" t="str">
         <f>Config!$B$3</f>
         <v>SCH/R_IEC.SchLib</v>
       </c>
       <c r="H343" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="I343" t="s">
         <v>464</v>
       </c>
       <c r="J343" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="K343" s="4">
         <v>1.5</v>
       </c>
       <c r="L343" t="s">
+        <v>4435</v>
+      </c>
+      <c r="M343" t="s">
+        <v>4436</v>
+      </c>
+      <c r="N343" t="s">
+        <v>4434</v>
+      </c>
+      <c r="O343" t="s">
+        <v>26</v>
+      </c>
+      <c r="P343" t="s">
+        <v>4433</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>4436</v>
+      </c>
+      <c r="R343" t="s">
+        <v>4434</v>
+      </c>
+      <c r="S343" t="s">
+        <v>4633</v>
+      </c>
+      <c r="T343" s="8" t="s">
         <v>4437</v>
-      </c>
-      <c r="M343" t="s">
-        <v>4438</v>
-      </c>
-      <c r="N343" t="s">
-        <v>4436</v>
-      </c>
-      <c r="O343" t="s">
-        <v>26</v>
-      </c>
-      <c r="P343" t="s">
-        <v>4435</v>
-      </c>
-      <c r="Q343" t="s">
-        <v>4438</v>
-      </c>
-      <c r="R343" t="s">
-        <v>4436</v>
-      </c>
-      <c r="S343" t="s">
-        <v>4635</v>
-      </c>
-      <c r="T343" s="8" t="s">
-        <v>4439</v>
       </c>
     </row>
     <row r="344" spans="1:20" ht="15.75">
       <c r="A344" s="1" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>21</v>
@@ -37088,7 +37085,7 @@
         <v>22</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="G344" t="str">
         <f>Config!$B$3</f>
@@ -37113,13 +37110,13 @@
         <v>482</v>
       </c>
       <c r="N344" s="1" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="O344" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P344" s="1" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
@@ -37128,13 +37125,13 @@
     </row>
     <row r="345" spans="1:20" ht="15.75">
       <c r="A345" s="1" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>21</v>
@@ -37143,7 +37140,7 @@
         <v>22</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="G345" t="str">
         <f>Config!$B$3</f>
@@ -37162,19 +37159,19 @@
         <v>499000</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="N345" s="1" t="s">
-        <v>4620</v>
+        <v>4618</v>
       </c>
       <c r="O345" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P345" s="1" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
@@ -42925,13 +42922,13 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="B92" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="C92" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -42940,7 +42937,7 @@
         <v>805</v>
       </c>
       <c r="F92" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="G92" t="str">
         <f>Config!$B$4</f>
@@ -42959,42 +42956,42 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="L92" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="M92" t="s">
         <v>4362</v>
       </c>
       <c r="N92" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
       </c>
       <c r="P92" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="Q92" t="s">
         <v>4362</v>
       </c>
       <c r="R92" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="S92" t="s">
         <v>26</v>
       </c>
       <c r="T92" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>4687</v>
+        <v>4668</v>
       </c>
       <c r="B93" t="s">
-        <v>4687</v>
+        <v>4668</v>
       </c>
       <c r="C93" t="s">
-        <v>4688</v>
+        <v>4669</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
@@ -43022,19 +43019,19 @@
         <v>1.0000000000000002E-6</v>
       </c>
       <c r="L93" t="s">
-        <v>4690</v>
+        <v>4671</v>
       </c>
       <c r="M93" t="s">
-        <v>4692</v>
+        <v>4673</v>
       </c>
       <c r="N93" t="s">
-        <v>4689</v>
+        <v>4670</v>
       </c>
       <c r="O93" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="P93" t="s">
-        <v>4691</v>
+        <v>4672</v>
       </c>
       <c r="U93" s="4"/>
     </row>
@@ -43128,22 +43125,22 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>4653</v>
+        <v>4634</v>
       </c>
       <c r="B2" t="s">
-        <v>4653</v>
+        <v>4634</v>
       </c>
       <c r="C2" t="s">
-        <v>4666</v>
+        <v>4647</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F2" t="s">
-        <v>4679</v>
+        <v>4660</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$5</f>
@@ -43156,57 +43153,57 @@
         <v>464</v>
       </c>
       <c r="J2" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K2" s="4">
         <v>4.7E-7</v>
       </c>
       <c r="L2" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M2" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N2" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="Q2" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R2" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="S2" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T2" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>4654</v>
+        <v>4635</v>
       </c>
       <c r="B3" t="s">
-        <v>4654</v>
+        <v>4635</v>
       </c>
       <c r="C3" t="s">
-        <v>4667</v>
+        <v>4648</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F3" t="s">
-        <v>4680</v>
+        <v>4661</v>
       </c>
       <c r="G3" t="str">
         <f>Config!$B$5</f>
@@ -43219,57 +43216,57 @@
         <v>464</v>
       </c>
       <c r="J3" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K3" s="4">
         <v>6.7999999999999995E-7</v>
       </c>
       <c r="L3" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M3" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N3" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="Q3" t="s">
+        <v>4550</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4633</v>
+      </c>
+      <c r="T3" t="s">
         <v>4552</v>
-      </c>
-      <c r="R3" t="s">
-        <v>4553</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4635</v>
-      </c>
-      <c r="T3" t="s">
-        <v>4554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>4655</v>
+        <v>4636</v>
       </c>
       <c r="B4" t="s">
-        <v>4655</v>
+        <v>4636</v>
       </c>
       <c r="C4" t="s">
-        <v>4668</v>
+        <v>4649</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F4" t="s">
-        <v>4681</v>
+        <v>4662</v>
       </c>
       <c r="G4" t="str">
         <f>Config!$B$5</f>
@@ -43282,57 +43279,57 @@
         <v>464</v>
       </c>
       <c r="J4" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K4" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L4" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M4" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N4" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="Q4" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R4" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="S4" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T4" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>4656</v>
+        <v>4637</v>
       </c>
       <c r="B5" t="s">
-        <v>4656</v>
+        <v>4637</v>
       </c>
       <c r="C5" t="s">
-        <v>4669</v>
+        <v>4650</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F5" t="s">
-        <v>4682</v>
+        <v>4663</v>
       </c>
       <c r="G5" t="str">
         <f>Config!$B$5</f>
@@ -43345,57 +43342,57 @@
         <v>464</v>
       </c>
       <c r="J5" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K5" s="4">
         <v>1.5E-6</v>
       </c>
       <c r="L5" t="s">
+        <v>4529</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4542</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4530</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
         <v>4531</v>
       </c>
-      <c r="M5" t="s">
-        <v>4544</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4532</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>4533</v>
-      </c>
       <c r="Q5" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R5" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="S5" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T5" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>4657</v>
+        <v>4638</v>
       </c>
       <c r="B6" t="s">
-        <v>4657</v>
+        <v>4638</v>
       </c>
       <c r="C6" t="s">
-        <v>4670</v>
+        <v>4651</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F6" t="s">
-        <v>4683</v>
+        <v>4664</v>
       </c>
       <c r="G6" t="str">
         <f>Config!$B$5</f>
@@ -43408,57 +43405,57 @@
         <v>464</v>
       </c>
       <c r="J6" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K6" s="4">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="L6" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M6" t="s">
+        <v>4542</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4538</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4539</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4546</v>
+      </c>
+      <c r="R6" t="s">
         <v>4544</v>
       </c>
-      <c r="N6" t="s">
-        <v>4540</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4541</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>4548</v>
-      </c>
-      <c r="R6" t="s">
-        <v>4546</v>
-      </c>
       <c r="S6" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T6" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>4658</v>
+        <v>4639</v>
       </c>
       <c r="B7" t="s">
-        <v>4658</v>
+        <v>4639</v>
       </c>
       <c r="C7" t="s">
-        <v>4671</v>
+        <v>4652</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="F7" t="s">
-        <v>4686</v>
+        <v>4667</v>
       </c>
       <c r="G7" t="str">
         <f>Config!$B$5</f>
@@ -43471,57 +43468,57 @@
         <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="K7" s="4">
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="L7" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="M7" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N7" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="O7" t="s">
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="Q7" t="s">
+        <v>4546</v>
+      </c>
+      <c r="R7" t="s">
+        <v>4545</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4633</v>
+      </c>
+      <c r="T7" t="s">
         <v>4548</v>
-      </c>
-      <c r="R7" t="s">
-        <v>4547</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4635</v>
-      </c>
-      <c r="T7" t="s">
-        <v>4550</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>4659</v>
+        <v>4640</v>
       </c>
       <c r="B8" t="s">
-        <v>4659</v>
+        <v>4640</v>
       </c>
       <c r="C8" t="s">
-        <v>4672</v>
+        <v>4653</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F8" t="s">
-        <v>4685</v>
+        <v>4666</v>
       </c>
       <c r="G8" t="str">
         <f>Config!$B$5</f>
@@ -43534,57 +43531,57 @@
         <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K8" s="4">
         <v>2.3999999999999998E-7</v>
       </c>
       <c r="L8" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M8" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N8" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="Q8" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R8" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="S8" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T8" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>4660</v>
+        <v>4641</v>
       </c>
       <c r="B9" t="s">
-        <v>4660</v>
+        <v>4641</v>
       </c>
       <c r="C9" t="s">
-        <v>4673</v>
+        <v>4654</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F9" t="s">
-        <v>4684</v>
+        <v>4665</v>
       </c>
       <c r="G9" t="str">
         <f>Config!$B$5</f>
@@ -43597,57 +43594,57 @@
         <v>464</v>
       </c>
       <c r="J9" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K9" s="4">
         <v>3.3000000000000002E-7</v>
       </c>
       <c r="L9" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M9" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N9" t="s">
-        <v>4569</v>
+        <v>4567</v>
       </c>
       <c r="O9" t="s">
         <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="Q9" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R9" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="S9" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T9" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>4661</v>
+        <v>4642</v>
       </c>
       <c r="B10" t="s">
-        <v>4661</v>
+        <v>4642</v>
       </c>
       <c r="C10" t="s">
-        <v>4674</v>
+        <v>4655</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F10" t="s">
-        <v>4679</v>
+        <v>4660</v>
       </c>
       <c r="G10" t="str">
         <f>Config!$B$5</f>
@@ -43660,57 +43657,57 @@
         <v>464</v>
       </c>
       <c r="J10" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K10" s="4">
         <v>4.7E-7</v>
       </c>
       <c r="L10" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M10" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N10" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="Q10" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R10" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="S10" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T10" t="s">
-        <v>4586</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>4662</v>
+        <v>4643</v>
       </c>
       <c r="B11" t="s">
-        <v>4662</v>
+        <v>4643</v>
       </c>
       <c r="C11" t="s">
-        <v>4675</v>
+        <v>4656</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F11" t="s">
-        <v>4680</v>
+        <v>4661</v>
       </c>
       <c r="G11" t="str">
         <f>Config!$B$5</f>
@@ -43723,57 +43720,57 @@
         <v>464</v>
       </c>
       <c r="J11" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K11" s="4">
         <v>6.7999999999999995E-7</v>
       </c>
       <c r="L11" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M11" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N11" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="O11" t="s">
         <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="Q11" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R11" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="S11" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T11" t="s">
-        <v>4587</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>4663</v>
+        <v>4644</v>
       </c>
       <c r="B12" t="s">
-        <v>4663</v>
+        <v>4644</v>
       </c>
       <c r="C12" t="s">
-        <v>4676</v>
+        <v>4657</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F12" t="s">
-        <v>4681</v>
+        <v>4662</v>
       </c>
       <c r="G12" t="str">
         <f>Config!$B$5</f>
@@ -43786,57 +43783,57 @@
         <v>464</v>
       </c>
       <c r="J12" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K12" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L12" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M12" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N12" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="O12" t="s">
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="Q12" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R12" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="S12" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T12" t="s">
-        <v>4588</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>4664</v>
+        <v>4645</v>
       </c>
       <c r="B13" t="s">
-        <v>4664</v>
+        <v>4645</v>
       </c>
       <c r="C13" t="s">
-        <v>4677</v>
+        <v>4658</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F13" t="s">
-        <v>4682</v>
+        <v>4663</v>
       </c>
       <c r="G13" t="str">
         <f>Config!$B$5</f>
@@ -43849,57 +43846,57 @@
         <v>464</v>
       </c>
       <c r="J13" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K13" s="4">
         <v>1.5E-6</v>
       </c>
       <c r="L13" t="s">
+        <v>4579</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4542</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4571</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4577</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4546</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4562</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4633</v>
+      </c>
+      <c r="T13" t="s">
         <v>4581</v>
-      </c>
-      <c r="M13" t="s">
-        <v>4544</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4573</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>4579</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>4548</v>
-      </c>
-      <c r="R13" t="s">
-        <v>4564</v>
-      </c>
-      <c r="S13" t="s">
-        <v>4635</v>
-      </c>
-      <c r="T13" t="s">
-        <v>4583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>4665</v>
+        <v>4646</v>
       </c>
       <c r="B14" t="s">
-        <v>4665</v>
+        <v>4646</v>
       </c>
       <c r="C14" t="s">
-        <v>4678</v>
+        <v>4659</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="F14" t="s">
-        <v>4683</v>
+        <v>4664</v>
       </c>
       <c r="G14" t="str">
         <f>Config!$B$5</f>
@@ -43912,37 +43909,37 @@
         <v>464</v>
       </c>
       <c r="J14" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="K14" s="4">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="L14" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="M14" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="N14" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="O14" t="s">
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="Q14" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="R14" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="S14" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T14" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
     </row>
   </sheetData>
@@ -44032,16 +44029,16 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>4693</v>
+        <v>4674</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>4694</v>
+        <v>4675</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>4695</v>
+        <v>4676</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>4696</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -44106,16 +44103,16 @@
         <v>2722</v>
       </c>
       <c r="U2" t="s">
-        <v>4697</v>
+        <v>4678</v>
       </c>
       <c r="V2" t="s">
         <v>2711</v>
       </c>
       <c r="W2" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="X2" t="s">
-        <v>4698</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -69795,7 +69792,7 @@
         <v>2917</v>
       </c>
       <c r="L488" t="s">
-        <v>4636</v>
+        <v>4689</v>
       </c>
       <c r="M488" t="s">
         <v>2701</v>
@@ -69804,7 +69801,7 @@
         <v>4296</v>
       </c>
       <c r="O488" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="P488" t="s">
         <v>4298</v>
@@ -69816,7 +69813,7 @@
         <v>4301</v>
       </c>
       <c r="S488" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T488" t="s">
         <v>4299</v>
@@ -69857,13 +69854,13 @@
         <v>2967</v>
       </c>
       <c r="L489" t="s">
-        <v>4636</v>
+        <v>4689</v>
       </c>
       <c r="M489" t="s">
         <v>4300</v>
       </c>
       <c r="O489" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="P489" t="s">
         <v>4303</v>
@@ -69875,7 +69872,7 @@
         <v>4302</v>
       </c>
       <c r="S489" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T489" t="s">
         <v>4304</v>
@@ -69937,7 +69934,7 @@
         <v>4353</v>
       </c>
       <c r="S490" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T490" t="s">
         <v>4354</v>
@@ -69999,7 +69996,7 @@
         <v>4348</v>
       </c>
       <c r="S491" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T491" t="s">
         <v>4350</v>
@@ -70061,7 +70058,7 @@
         <v>4352</v>
       </c>
       <c r="S492" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T492" t="s">
         <v>4351</v>
@@ -70123,7 +70120,7 @@
         <v>4357</v>
       </c>
       <c r="S493" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T493" t="s">
         <v>4358</v>
@@ -70185,7 +70182,7 @@
         <v>4356</v>
       </c>
       <c r="S494" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="T494" t="s">
         <v>4355</v>
@@ -70193,22 +70190,22 @@
     </row>
     <row r="495" spans="1:20">
       <c r="A495" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B495" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C495" t="s">
         <v>4484</v>
       </c>
-      <c r="B495" t="s">
-        <v>4484</v>
-      </c>
-      <c r="C495" t="s">
+      <c r="D495" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E495" t="s">
         <v>4486</v>
       </c>
-      <c r="D495" t="s">
+      <c r="F495" t="s">
         <v>4487</v>
-      </c>
-      <c r="E495" t="s">
-        <v>4488</v>
-      </c>
-      <c r="F495" t="s">
-        <v>4489</v>
       </c>
       <c r="G495" t="s">
         <v>2715</v>
@@ -70220,37 +70217,37 @@
         <v>2716</v>
       </c>
       <c r="J495" t="s">
-        <v>4485</v>
+        <v>4483</v>
       </c>
       <c r="K495" t="s">
         <v>2978</v>
       </c>
       <c r="L495" t="s">
+        <v>4488</v>
+      </c>
+      <c r="M495" t="s">
+        <v>4489</v>
+      </c>
+      <c r="N495" t="s">
+        <v>4482</v>
+      </c>
+      <c r="O495" t="s">
+        <v>26</v>
+      </c>
+      <c r="P495" t="s">
         <v>4490</v>
       </c>
-      <c r="M495" t="s">
+      <c r="Q495" t="s">
         <v>4491</v>
       </c>
-      <c r="N495" t="s">
-        <v>4484</v>
-      </c>
-      <c r="O495" t="s">
-        <v>26</v>
-      </c>
-      <c r="P495" t="s">
+      <c r="R495" t="s">
+        <v>4482</v>
+      </c>
+      <c r="S495" t="s">
+        <v>4633</v>
+      </c>
+      <c r="T495" t="s">
         <v>4492</v>
-      </c>
-      <c r="Q495" t="s">
-        <v>4493</v>
-      </c>
-      <c r="R495" t="s">
-        <v>4484</v>
-      </c>
-      <c r="S495" t="s">
-        <v>4635</v>
-      </c>
-      <c r="T495" t="s">
-        <v>4494</v>
       </c>
     </row>
   </sheetData>
@@ -70339,22 +70336,22 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="B2" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="C2" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="H2" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -70439,110 +70436,110 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D2" t="s">
         <v>4505</v>
       </c>
-      <c r="B2" t="s">
-        <v>4505</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4506</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4507</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4508</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H2" t="s">
-        <v>4527</v>
+        <v>4525</v>
       </c>
       <c r="M2" t="s">
+        <v>4505</v>
+      </c>
+      <c r="N2" t="s">
         <v>4507</v>
       </c>
-      <c r="N2" t="s">
-        <v>4509</v>
-      </c>
       <c r="O2" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="P2" t="s">
-        <v>4510</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4472</v>
+      </c>
+      <c r="E3" t="s">
         <v>4511</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4511</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4512</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4474</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4513</v>
       </c>
       <c r="G3" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H3" t="s">
+        <v>4512</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4472</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4513</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4633</v>
+      </c>
+      <c r="P3" t="s">
         <v>4514</v>
-      </c>
-      <c r="M3" t="s">
-        <v>4474</v>
-      </c>
-      <c r="N3" t="s">
-        <v>4515</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4635</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D4" t="s">
         <v>4518</v>
       </c>
-      <c r="B4" t="s">
-        <v>4518</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>4519</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4520</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4521</v>
       </c>
       <c r="G4" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H4" t="s">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="M4" t="s">
-        <v>4520</v>
+        <v>4518</v>
       </c>
       <c r="N4" t="s">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="O4" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="P4" t="s">
-        <v>4526</v>
+        <v>4524</v>
       </c>
     </row>
   </sheetData>
@@ -70627,46 +70624,46 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D2" t="s">
         <v>4417</v>
       </c>
-      <c r="B2" t="s">
-        <v>4417</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4418</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>4419</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4502</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="L2" t="s">
         <v>4420</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4415</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4633</v>
+      </c>
+      <c r="P2" t="s">
         <v>4421</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4417</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4504</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4417</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4422</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4424</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4417</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4635</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4423</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A5C5A-CECD-47D0-BB40-69868DF4DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1F135-194B-4AAA-81DA-C6C5F0B0AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="17325" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="6" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16495" uniqueCount="4706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16503" uniqueCount="4711">
   <si>
     <t>Part Number</t>
   </si>
@@ -14164,6 +14164,21 @@
   </si>
   <si>
     <t>https://datasheet.lcsc.com/lcsc/1809211431_AnBon-AS2302_C232266.pdf</t>
+  </si>
+  <si>
+    <t>SOP127P600X155-16</t>
+  </si>
+  <si>
+    <t>SOP127P600X155-14</t>
+  </si>
+  <si>
+    <t>SOT65P210X95-6</t>
+  </si>
+  <si>
+    <t>PCB/Header_254.PcbLib</t>
+  </si>
+  <si>
+    <t>HEAD_254_2X4</t>
   </si>
 </sst>
 </file>
@@ -14568,7 +14583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41C041-8921-4AFD-BA29-DDEA3EB18923}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -14864,11 +14879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -70263,11 +70278,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05348336-C131-49E6-98A6-4A6B8B6DDA7F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -70352,6 +70367,12 @@
       </c>
       <c r="H2" t="s">
         <v>4500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4709</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4710</v>
       </c>
     </row>
   </sheetData>
@@ -70367,7 +70388,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -70457,6 +70478,12 @@
       <c r="H2" t="s">
         <v>4525</v>
       </c>
+      <c r="I2" t="s">
+        <v>4445</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4706</v>
+      </c>
       <c r="M2" t="s">
         <v>4505</v>
       </c>
@@ -70493,6 +70520,12 @@
       <c r="H3" t="s">
         <v>4512</v>
       </c>
+      <c r="I3" t="s">
+        <v>4444</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4708</v>
+      </c>
       <c r="M3" t="s">
         <v>4472</v>
       </c>
@@ -70528,6 +70561,12 @@
       </c>
       <c r="H4" t="s">
         <v>4523</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4445</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4707</v>
       </c>
       <c r="M4" t="s">
         <v>4518</v>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1F135-194B-4AAA-81DA-C6C5F0B0AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA44B61-DF9B-48B2-B506-0F15B60DDDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="6" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16503" uniqueCount="4711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16517" uniqueCount="4718">
   <si>
     <t>Part Number</t>
   </si>
@@ -14179,6 +14179,27 @@
   </si>
   <si>
     <t>HEAD_254_2X4</t>
+  </si>
+  <si>
+    <t>WS2813B-B</t>
+  </si>
+  <si>
+    <t>WS2813_NC</t>
+  </si>
+  <si>
+    <t>WS2813_BO</t>
+  </si>
+  <si>
+    <t>WS2813_VCC</t>
+  </si>
+  <si>
+    <t>LEDM5050X165-7</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809261040_Worldsemi-WS2813B-B_C114592.pdf</t>
+  </si>
+  <si>
+    <t>C114592</t>
   </si>
 </sst>
 </file>
@@ -14877,13 +14898,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -14990,7 +15011,7 @@
         <v>4444</v>
       </c>
       <c r="I2" t="s">
-        <v>2696</v>
+        <v>4627</v>
       </c>
       <c r="J2" t="s">
         <v>4690</v>
@@ -15113,7 +15134,7 @@
         <v>2697</v>
       </c>
       <c r="G5" t="s">
-        <v>3584</v>
+        <v>4712</v>
       </c>
       <c r="H5" t="s">
         <v>3914</v>
@@ -15157,7 +15178,7 @@
         <v>2697</v>
       </c>
       <c r="G6" t="s">
-        <v>3911</v>
+        <v>4713</v>
       </c>
       <c r="H6" t="s">
         <v>3914</v>
@@ -15183,10 +15204,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>3903</v>
+        <v>4711</v>
       </c>
       <c r="B7" t="s">
-        <v>3903</v>
+        <v>4711</v>
       </c>
       <c r="C7" t="s">
         <v>3905</v>
@@ -15195,86 +15216,86 @@
         <v>3907</v>
       </c>
       <c r="E7" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="F7" t="s">
         <v>2697</v>
       </c>
       <c r="G7" t="s">
-        <v>3911</v>
+        <v>4714</v>
       </c>
       <c r="H7" t="s">
         <v>3914</v>
       </c>
       <c r="I7" t="s">
-        <v>4285</v>
+        <v>4715</v>
       </c>
       <c r="J7" t="s">
-        <v>4695</v>
+        <v>4716</v>
       </c>
       <c r="K7" t="s">
         <v>3907</v>
       </c>
       <c r="L7" t="s">
-        <v>4287</v>
+        <v>4711</v>
       </c>
       <c r="M7" t="s">
         <v>4633</v>
       </c>
       <c r="N7" t="s">
-        <v>4289</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>3912</v>
+        <v>3903</v>
       </c>
       <c r="B8" t="s">
-        <v>3912</v>
+        <v>3903</v>
       </c>
       <c r="C8" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="D8" t="s">
         <v>3907</v>
       </c>
       <c r="E8" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="F8" t="s">
         <v>2697</v>
       </c>
       <c r="G8" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="H8" t="s">
         <v>3914</v>
       </c>
       <c r="I8" t="s">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="J8" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="K8" t="s">
         <v>3907</v>
       </c>
       <c r="L8" t="s">
-        <v>4290</v>
+        <v>4287</v>
       </c>
       <c r="M8" t="s">
         <v>4633</v>
       </c>
       <c r="N8" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
       <c r="B9" t="s">
-        <v>3910</v>
+        <v>3912</v>
       </c>
       <c r="C9" t="s">
         <v>3904</v>
@@ -15298,27 +15319,27 @@
         <v>4283</v>
       </c>
       <c r="J9" t="s">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="K9" t="s">
         <v>3907</v>
       </c>
       <c r="L9" t="s">
-        <v>3910</v>
+        <v>4290</v>
       </c>
       <c r="M9" t="s">
         <v>4633</v>
       </c>
       <c r="N9" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="B10" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="C10" t="s">
         <v>3904</v>
@@ -15327,7 +15348,7 @@
         <v>3907</v>
       </c>
       <c r="E10" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="F10" t="s">
         <v>2697</v>
@@ -15339,177 +15360,165 @@
         <v>3914</v>
       </c>
       <c r="I10" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="J10" t="s">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="K10" t="s">
         <v>3907</v>
       </c>
       <c r="L10" t="s">
-        <v>4294</v>
+        <v>3910</v>
       </c>
       <c r="M10" t="s">
         <v>4633</v>
       </c>
       <c r="N10" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>4438</v>
+        <v>3906</v>
       </c>
       <c r="B11" t="s">
-        <v>4438</v>
+        <v>3906</v>
       </c>
       <c r="C11" t="s">
-        <v>4439</v>
+        <v>3904</v>
       </c>
       <c r="D11" t="s">
-        <v>4443</v>
+        <v>3907</v>
       </c>
       <c r="E11" t="s">
-        <v>4440</v>
+        <v>3909</v>
       </c>
       <c r="F11" t="s">
         <v>2697</v>
       </c>
       <c r="G11" t="s">
-        <v>4438</v>
+        <v>3913</v>
       </c>
       <c r="H11" t="s">
-        <v>4444</v>
+        <v>3914</v>
       </c>
       <c r="I11" t="s">
-        <v>2696</v>
+        <v>4284</v>
       </c>
       <c r="J11" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="K11" t="s">
-        <v>4443</v>
+        <v>3907</v>
       </c>
       <c r="L11" t="s">
-        <v>4441</v>
+        <v>4294</v>
       </c>
       <c r="M11" t="s">
         <v>4633</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>4442</v>
+      <c r="N11" t="s">
+        <v>4293</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>4446</v>
+        <v>4438</v>
       </c>
       <c r="B12" t="s">
-        <v>4446</v>
+        <v>4438</v>
       </c>
       <c r="C12" t="s">
-        <v>4448</v>
+        <v>4439</v>
       </c>
       <c r="D12" t="s">
-        <v>4447</v>
+        <v>4443</v>
       </c>
       <c r="E12" t="s">
-        <v>4449</v>
+        <v>4440</v>
       </c>
       <c r="F12" t="s">
         <v>2697</v>
       </c>
       <c r="G12" t="s">
-        <v>4451</v>
+        <v>4438</v>
       </c>
       <c r="H12" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="I12" t="s">
-        <v>4452</v>
+        <v>2696</v>
       </c>
       <c r="J12" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="K12" t="s">
-        <v>4447</v>
+        <v>4443</v>
       </c>
       <c r="L12" t="s">
-        <v>4446</v>
+        <v>4441</v>
       </c>
       <c r="M12" t="s">
         <v>4633</v>
       </c>
-      <c r="N12" t="s">
-        <v>4450</v>
+      <c r="N12" s="8" t="s">
+        <v>4442</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>4453</v>
+        <v>4446</v>
       </c>
       <c r="B13" t="s">
-        <v>4453</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>4454</v>
+        <v>4446</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4448</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>4447</v>
       </c>
       <c r="E13" t="s">
-        <v>4440</v>
+        <v>4449</v>
       </c>
       <c r="F13" t="s">
         <v>2697</v>
       </c>
       <c r="G13" t="s">
-        <v>4455</v>
+        <v>4451</v>
       </c>
       <c r="H13" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="I13" t="s">
-        <v>2696</v>
+        <v>4452</v>
       </c>
       <c r="J13" t="s">
-        <v>4458</v>
+        <v>4700</v>
       </c>
       <c r="K13" t="s">
-        <v>4457</v>
+        <v>4447</v>
       </c>
       <c r="L13" t="s">
-        <v>4453</v>
+        <v>4446</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>4633</v>
       </c>
       <c r="N13" t="s">
-        <v>4456</v>
-      </c>
-      <c r="O13" t="s">
-        <v>4459</v>
-      </c>
-      <c r="P13" t="s">
-        <v>4453</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>4633</v>
-      </c>
-      <c r="R13" t="s">
-        <v>4460</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>4461</v>
+        <v>4453</v>
       </c>
       <c r="B14" t="s">
-        <v>4461</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4466</v>
+        <v>4453</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>4454</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -15521,7 +15530,7 @@
         <v>2697</v>
       </c>
       <c r="G14" t="s">
-        <v>4465</v>
+        <v>4455</v>
       </c>
       <c r="H14" t="s">
         <v>4444</v>
@@ -15530,42 +15539,42 @@
         <v>2696</v>
       </c>
       <c r="J14" t="s">
-        <v>4464</v>
+        <v>4458</v>
       </c>
       <c r="K14" t="s">
-        <v>4463</v>
+        <v>4457</v>
       </c>
       <c r="L14" t="s">
-        <v>4461</v>
+        <v>4453</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>4462</v>
+        <v>4456</v>
       </c>
       <c r="O14" t="s">
-        <v>4467</v>
+        <v>4459</v>
       </c>
       <c r="P14" t="s">
-        <v>4461</v>
+        <v>4453</v>
       </c>
       <c r="Q14" t="s">
         <v>4633</v>
       </c>
       <c r="R14" t="s">
-        <v>4468</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>4469</v>
+        <v>4461</v>
       </c>
       <c r="B15" t="s">
-        <v>4469</v>
+        <v>4461</v>
       </c>
       <c r="C15" t="s">
-        <v>4470</v>
+        <v>4466</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -15577,7 +15586,7 @@
         <v>2697</v>
       </c>
       <c r="G15" t="s">
-        <v>4455</v>
+        <v>4465</v>
       </c>
       <c r="H15" t="s">
         <v>4444</v>
@@ -15586,30 +15595,42 @@
         <v>2696</v>
       </c>
       <c r="J15" t="s">
-        <v>4471</v>
+        <v>4464</v>
       </c>
       <c r="K15" t="s">
-        <v>4472</v>
+        <v>4463</v>
       </c>
       <c r="L15" t="s">
-        <v>4474</v>
+        <v>4461</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>4473</v>
+        <v>4462</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4467</v>
+      </c>
+      <c r="P15" t="s">
+        <v>4461</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R15" t="s">
+        <v>4468</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16">
-        <v>2302</v>
+      <c r="A16" t="s">
+        <v>4469</v>
       </c>
       <c r="B16" t="s">
-        <v>4495</v>
+        <v>4469</v>
       </c>
       <c r="C16" t="s">
-        <v>4476</v>
+        <v>4470</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -15627,45 +15648,33 @@
         <v>4444</v>
       </c>
       <c r="I16" t="s">
-        <v>4452</v>
+        <v>2696</v>
       </c>
       <c r="J16" t="s">
-        <v>4701</v>
+        <v>4471</v>
       </c>
       <c r="K16" t="s">
-        <v>4477</v>
+        <v>4472</v>
       </c>
       <c r="L16" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="M16" t="s">
-        <v>4633</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>4478</v>
-      </c>
-      <c r="O16" t="s">
-        <v>4480</v>
-      </c>
-      <c r="P16" t="s">
-        <v>4479</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>4633</v>
-      </c>
-      <c r="R16" t="s">
-        <v>4481</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>4496</v>
+      <c r="A17">
+        <v>2302</v>
       </c>
       <c r="B17" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="C17" t="s">
-        <v>4493</v>
+        <v>4476</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -15677,185 +15686,197 @@
         <v>2697</v>
       </c>
       <c r="G17" t="s">
-        <v>4465</v>
+        <v>4455</v>
       </c>
       <c r="H17" t="s">
         <v>4444</v>
       </c>
       <c r="I17" t="s">
-        <v>2696</v>
+        <v>4452</v>
       </c>
       <c r="J17" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="K17" t="s">
-        <v>4497</v>
+        <v>4477</v>
       </c>
       <c r="L17" t="s">
-        <v>4496</v>
+        <v>4475</v>
       </c>
       <c r="M17" t="s">
         <v>4633</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>4494</v>
+      <c r="N17" t="s">
+        <v>4478</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4480</v>
+      </c>
+      <c r="P17" t="s">
+        <v>4479</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R17" t="s">
+        <v>4481</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>4591</v>
+        <v>4496</v>
       </c>
       <c r="B18" t="s">
-        <v>4591</v>
+        <v>4496</v>
       </c>
       <c r="C18" t="s">
-        <v>4590</v>
+        <v>4493</v>
       </c>
       <c r="D18" t="s">
-        <v>4588</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>4594</v>
+        <v>4440</v>
       </c>
       <c r="F18" t="s">
         <v>2697</v>
       </c>
       <c r="G18" t="s">
-        <v>4591</v>
+        <v>4465</v>
       </c>
       <c r="H18" t="s">
         <v>4444</v>
       </c>
       <c r="I18" t="s">
-        <v>4595</v>
+        <v>2696</v>
       </c>
       <c r="J18" t="s">
-        <v>4593</v>
+        <v>4702</v>
       </c>
       <c r="K18" t="s">
+        <v>4497</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4496</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4633</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D19" t="s">
         <v>4588</v>
       </c>
-      <c r="L18" t="s">
-        <v>4591</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" t="s">
-        <v>4592</v>
-      </c>
-      <c r="O18" t="s">
-        <v>4588</v>
-      </c>
-      <c r="P18" t="s">
-        <v>4591</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>4633</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>4589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="8" t="s">
-        <v>4600</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>4600</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4601</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4598</v>
-      </c>
       <c r="E19" t="s">
-        <v>4626</v>
+        <v>4594</v>
       </c>
       <c r="F19" t="s">
         <v>2697</v>
       </c>
       <c r="G19" t="s">
-        <v>4600</v>
+        <v>4591</v>
       </c>
       <c r="H19" t="s">
         <v>4444</v>
       </c>
       <c r="I19" t="s">
-        <v>4599</v>
+        <v>4595</v>
       </c>
       <c r="J19" t="s">
-        <v>4703</v>
+        <v>4593</v>
       </c>
       <c r="K19" t="s">
-        <v>4598</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>4596</v>
+        <v>4588</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4591</v>
       </c>
       <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4592</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4588</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4591</v>
+      </c>
+      <c r="Q19" t="s">
         <v>4633</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>4597</v>
+      <c r="R19" s="8" t="s">
+        <v>4589</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="8" t="s">
-        <v>4624</v>
+        <v>4600</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>4624</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4625</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
+        <v>4600</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4598</v>
       </c>
       <c r="E20" t="s">
-        <v>4440</v>
+        <v>4626</v>
       </c>
       <c r="F20" t="s">
         <v>2697</v>
       </c>
       <c r="G20" t="s">
-        <v>4455</v>
+        <v>4600</v>
       </c>
       <c r="H20" t="s">
         <v>4444</v>
       </c>
       <c r="I20" t="s">
-        <v>2696</v>
+        <v>4599</v>
       </c>
       <c r="J20" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="K20" t="s">
-        <v>2709</v>
-      </c>
-      <c r="L20" t="s">
-        <v>2709</v>
+        <v>4598</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>4596</v>
       </c>
       <c r="M20" t="s">
         <v>4633</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>4623</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>4628</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4628</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4629</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="A21" s="8" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
@@ -15874,45 +15895,33 @@
         <v>2696</v>
       </c>
       <c r="J21" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="K21" t="s">
-        <v>4457</v>
+        <v>2709</v>
       </c>
       <c r="L21" t="s">
-        <v>4628</v>
+        <v>2709</v>
       </c>
       <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" t="s">
-        <v>4630</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4631</v>
-      </c>
-      <c r="P21" t="s">
-        <v>4628</v>
-      </c>
-      <c r="Q21" t="s">
         <v>4633</v>
       </c>
-      <c r="R21" t="s">
-        <v>4632</v>
+      <c r="N21" s="8" t="s">
+        <v>4623</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>4687</v>
+        <v>4628</v>
       </c>
       <c r="B22" t="s">
-        <v>4687</v>
+        <v>4628</v>
       </c>
       <c r="C22" t="s">
-        <v>4682</v>
+        <v>4629</v>
       </c>
       <c r="D22" t="s">
-        <v>4686</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>4440</v>
@@ -15921,7 +15930,7 @@
         <v>2697</v>
       </c>
       <c r="G22" t="s">
-        <v>4680</v>
+        <v>4455</v>
       </c>
       <c r="H22" t="s">
         <v>4444</v>
@@ -15930,25 +15939,82 @@
         <v>2696</v>
       </c>
       <c r="J22" t="s">
+        <v>4705</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4457</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4628</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4630</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4631</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4628</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4682</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4686</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4440</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4680</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4444</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2696</v>
+      </c>
+      <c r="J23" t="s">
         <v>4683</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>4684</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>4681</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>4633</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>4685</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N10" r:id="rId1" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Worldsemi-WS2812B-Mini_C527089.html" xr:uid="{7B3563B0-676F-492C-A346-E0B4B21DFE92}"/>
-    <hyperlink ref="P16" r:id="rId2" display="https://www.lcsc.com/product-detail/MOSFETs_FUXINSEMI-SI2302_C6807797.html" xr:uid="{88ED9DD7-51B2-4FF9-80DF-03856639A5E8}"/>
+    <hyperlink ref="N11" r:id="rId1" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Worldsemi-WS2812B-Mini_C527089.html" xr:uid="{7B3563B0-676F-492C-A346-E0B4B21DFE92}"/>
+    <hyperlink ref="P17" r:id="rId2" display="https://www.lcsc.com/product-detail/MOSFETs_FUXINSEMI-SI2302_C6807797.html" xr:uid="{88ED9DD7-51B2-4FF9-80DF-03856639A5E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -70278,7 +70344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05348336-C131-49E6-98A6-4A6B8B6DDA7F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3452D018-D06D-4094-A20C-66369F3A8F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D388B8-445E-4955-A071-522017124BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="1" activeTab="2" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="10" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16742" uniqueCount="4800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16746" uniqueCount="4800">
   <si>
     <t>Part Number</t>
   </si>
@@ -15155,10 +15155,10 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16394,10 +16394,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16422,7 +16422,7 @@
     <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16477,8 +16477,20 @@
       <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>4658</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4660</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4356</v>
       </c>
@@ -16504,7 +16516,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4372</v>
       </c>
@@ -16530,7 +16542,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4377</v>
       </c>
@@ -16556,7 +16568,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4380</v>
       </c>
@@ -16582,7 +16594,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4381</v>
       </c>
@@ -16608,7 +16620,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4382</v>
       </c>
@@ -16634,7 +16646,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4383</v>
       </c>
@@ -16660,7 +16672,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4367</v>
       </c>
@@ -16686,7 +16698,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4366</v>
       </c>
@@ -16712,7 +16724,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4672</v>
       </c>
@@ -16737,18 +16749,6 @@
       <c r="I11" t="s">
         <v>4365</v>
       </c>
-      <c r="K11" t="s">
-        <v>4392</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4393</v>
-      </c>
-      <c r="M11" t="s">
-        <v>4617</v>
-      </c>
-      <c r="N11" t="s">
-        <v>4394</v>
-      </c>
       <c r="O11" t="s">
         <v>4395</v>
       </c>
@@ -16761,8 +16761,20 @@
       <c r="R11" s="7" t="s">
         <v>4397</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>4392</v>
+      </c>
+      <c r="T11" t="s">
+        <v>4393</v>
+      </c>
+      <c r="U11" t="s">
+        <v>4617</v>
+      </c>
+      <c r="V11" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4407</v>
       </c>
@@ -16939,8 +16951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE72BB5-555B-4C95-9DE0-D4036F268B3F}">
   <dimension ref="A1:X345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P315" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S345" sqref="S345"/>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C486B2-656F-4F27-BC91-6F8CD5F9F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22325682-8430-4795-A7D9-1DF7502B67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" firstSheet="1" activeTab="2" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16817" uniqueCount="4806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16832" uniqueCount="4812">
   <si>
     <t>Part Number</t>
   </si>
@@ -14464,6 +14464,24 @@
   </si>
   <si>
     <t>C21189</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>0603WAF1002T5E</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>0603WAF1004T5E</t>
+  </si>
+  <si>
+    <t>C22935</t>
   </si>
 </sst>
 </file>
@@ -17045,10 +17063,10 @@
   <dimension ref="A1:Y345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="U148" sqref="U148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -20974,7 +20992,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.75">
+    <row r="65" spans="1:25" ht="15.75">
       <c r="A65" s="1" t="s">
         <v>141</v>
       </c>
@@ -21037,7 +21055,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.75">
+    <row r="66" spans="1:25" ht="15.75">
       <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
@@ -21100,7 +21118,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.75">
+    <row r="67" spans="1:25" ht="15.75">
       <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
@@ -21163,7 +21181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.75">
+    <row r="68" spans="1:25" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -21226,7 +21244,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.75">
+    <row r="69" spans="1:25" ht="15.75">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -21289,7 +21307,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.75">
+    <row r="70" spans="1:25" ht="15.75">
       <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
@@ -21352,7 +21370,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.75">
+    <row r="71" spans="1:25" ht="15.75">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -21415,7 +21433,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.75">
+    <row r="72" spans="1:25" ht="15.75">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -21478,7 +21496,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.75">
+    <row r="73" spans="1:25" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -21541,7 +21559,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.75">
+    <row r="74" spans="1:25" ht="15.75">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -21604,7 +21622,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.75">
+    <row r="75" spans="1:25" ht="15.75">
       <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
@@ -21666,8 +21684,23 @@
       <c r="T75" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="15.75">
+      <c r="U75" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V75" t="s">
+        <v>4806</v>
+      </c>
+      <c r="W75" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X75" t="s">
+        <v>4807</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -21730,7 +21763,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.75">
+    <row r="77" spans="1:25" ht="15.75">
       <c r="A77" s="1" t="s">
         <v>167</v>
       </c>
@@ -21793,7 +21826,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.75">
+    <row r="78" spans="1:25" ht="15.75">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -21856,7 +21889,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75">
+    <row r="79" spans="1:25" ht="15.75">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -21919,7 +21952,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.75">
+    <row r="80" spans="1:25" ht="15.75">
       <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
@@ -22990,7 +23023,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.75">
+    <row r="97" spans="1:25" ht="15.75">
       <c r="A97" s="1" t="s">
         <v>223</v>
       </c>
@@ -23053,7 +23086,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.75">
+    <row r="98" spans="1:25" ht="15.75">
       <c r="A98" s="1" t="s">
         <v>225</v>
       </c>
@@ -23116,7 +23149,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.75">
+    <row r="99" spans="1:25" ht="15.75">
       <c r="A99" s="1" t="s">
         <v>229</v>
       </c>
@@ -23178,8 +23211,23 @@
       <c r="T99" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" ht="15.75">
+      <c r="U99" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V99" t="s">
+        <v>4808</v>
+      </c>
+      <c r="W99" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X99" t="s">
+        <v>4809</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -23242,7 +23290,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.75">
+    <row r="101" spans="1:25" ht="15.75">
       <c r="A101" s="1" t="s">
         <v>235</v>
       </c>
@@ -23305,7 +23353,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.75">
+    <row r="102" spans="1:25" ht="15.75">
       <c r="A102" s="1" t="s">
         <v>239</v>
       </c>
@@ -23368,7 +23416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.75">
+    <row r="103" spans="1:25" ht="15.75">
       <c r="A103" s="1" t="s">
         <v>243</v>
       </c>
@@ -23431,7 +23479,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.75">
+    <row r="104" spans="1:25" ht="15.75">
       <c r="A104" s="1" t="s">
         <v>247</v>
       </c>
@@ -23494,7 +23542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.75">
+    <row r="105" spans="1:25" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>251</v>
       </c>
@@ -23557,7 +23605,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.75">
+    <row r="106" spans="1:25" ht="15.75">
       <c r="A106" s="1" t="s">
         <v>255</v>
       </c>
@@ -23620,7 +23668,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.75">
+    <row r="107" spans="1:25" ht="15.75">
       <c r="A107" s="1" t="s">
         <v>257</v>
       </c>
@@ -23683,7 +23731,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.75">
+    <row r="108" spans="1:25" ht="15.75">
       <c r="A108" s="1" t="s">
         <v>259</v>
       </c>
@@ -23746,7 +23794,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.75">
+    <row r="109" spans="1:25" ht="15.75">
       <c r="A109" s="1" t="s">
         <v>263</v>
       </c>
@@ -23809,7 +23857,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.75">
+    <row r="110" spans="1:25" ht="15.75">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -23872,7 +23920,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.75">
+    <row r="111" spans="1:25" ht="15.75">
       <c r="A111" s="1" t="s">
         <v>267</v>
       </c>
@@ -23935,7 +23983,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.75">
+    <row r="112" spans="1:25" ht="15.75">
       <c r="A112" s="1" t="s">
         <v>269</v>
       </c>
@@ -25998,7 +26046,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.75">
+    <row r="145" spans="1:25" ht="15.75">
       <c r="A145" s="1" t="s">
         <v>365</v>
       </c>
@@ -26061,7 +26109,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.75">
+    <row r="146" spans="1:25" ht="15.75">
       <c r="A146" s="1" t="s">
         <v>367</v>
       </c>
@@ -26116,7 +26164,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" ht="15.75">
+    <row r="147" spans="1:25" ht="15.75">
       <c r="A147" s="1" t="s">
         <v>369</v>
       </c>
@@ -26178,8 +26226,23 @@
       <c r="T147" s="1" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" ht="15.75">
+      <c r="U147" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V147" t="s">
+        <v>4810</v>
+      </c>
+      <c r="W147" t="s">
+        <v>4811</v>
+      </c>
+      <c r="X147" t="s">
+        <v>4617</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="15.75">
       <c r="A148" s="1" t="s">
         <v>371</v>
       </c>
@@ -26234,7 +26297,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" ht="15.75">
+    <row r="149" spans="1:25" ht="15.75">
       <c r="A149" s="1" t="s">
         <v>373</v>
       </c>
@@ -26297,7 +26360,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.75">
+    <row r="150" spans="1:25" ht="15.75">
       <c r="A150" s="1" t="s">
         <v>375</v>
       </c>
@@ -26352,7 +26415,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" ht="15.75">
+    <row r="151" spans="1:25" ht="15.75">
       <c r="A151" s="1" t="s">
         <v>377</v>
       </c>
@@ -26415,7 +26478,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.75">
+    <row r="152" spans="1:25" ht="15.75">
       <c r="A152" s="1" t="s">
         <v>379</v>
       </c>
@@ -26470,7 +26533,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" ht="15.75">
+    <row r="153" spans="1:25" ht="15.75">
       <c r="A153" s="1" t="s">
         <v>381</v>
       </c>
@@ -26525,7 +26588,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" ht="15.75">
+    <row r="154" spans="1:25" ht="15.75">
       <c r="A154" s="1" t="s">
         <v>383</v>
       </c>
@@ -26588,7 +26651,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.75">
+    <row r="155" spans="1:25" ht="15.75">
       <c r="A155" s="1" t="s">
         <v>385</v>
       </c>
@@ -26651,7 +26714,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.75">
+    <row r="156" spans="1:25" ht="15.75">
       <c r="A156" s="1" t="s">
         <v>387</v>
       </c>
@@ -26706,7 +26769,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" ht="15.75">
+    <row r="157" spans="1:25" ht="15.75">
       <c r="A157" s="1" t="s">
         <v>389</v>
       </c>
@@ -26761,7 +26824,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" ht="15.75">
+    <row r="158" spans="1:25" ht="15.75">
       <c r="A158" s="1" t="s">
         <v>391</v>
       </c>
@@ -26816,7 +26879,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" ht="15.75">
+    <row r="159" spans="1:25" ht="15.75">
       <c r="A159" s="1" t="s">
         <v>393</v>
       </c>
@@ -26871,7 +26934,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" ht="15.75">
+    <row r="160" spans="1:25" ht="15.75">
       <c r="A160" s="1" t="s">
         <v>395</v>
       </c>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22325682-8430-4795-A7D9-1DF7502B67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE9FBD-C5B4-4053-A72D-94451C9DAFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" firstSheet="1" activeTab="2" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16832" uniqueCount="4812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16862" uniqueCount="4824">
   <si>
     <t>Part Number</t>
   </si>
@@ -14482,6 +14482,42 @@
   </si>
   <si>
     <t>C22935</t>
+  </si>
+  <si>
+    <t>0603WAF2001T5E</t>
+  </si>
+  <si>
+    <t>C22975</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>0603WAF1005T5E</t>
+  </si>
+  <si>
+    <t>C7250</t>
+  </si>
+  <si>
+    <t>0603WAF1503T5E</t>
+  </si>
+  <si>
+    <t>C22807</t>
+  </si>
+  <si>
+    <t>0603WAF2200T5E</t>
+  </si>
+  <si>
+    <t>C22962</t>
+  </si>
+  <si>
+    <t>0603WAF3300T5E</t>
+  </si>
+  <si>
+    <t>C23138</t>
   </si>
 </sst>
 </file>
@@ -17063,10 +17099,10 @@
   <dimension ref="A1:Y345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U148" sqref="U148"/>
+      <selection pane="bottomRight" activeCell="U64" sqref="U64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -19992,7 +20028,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.75">
+    <row r="49" spans="1:25" ht="15.75">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -20055,7 +20091,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.75">
+    <row r="50" spans="1:25" ht="15.75">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -20118,7 +20154,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.75">
+    <row r="51" spans="1:25" ht="15.75">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -20181,7 +20217,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75">
+    <row r="52" spans="1:25" ht="15.75">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -20244,7 +20280,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75">
+    <row r="53" spans="1:25" ht="15.75">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -20307,7 +20343,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75">
+    <row r="54" spans="1:25" ht="15.75">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -20370,7 +20406,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75">
+    <row r="55" spans="1:25" ht="15.75">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -20433,7 +20469,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75">
+    <row r="56" spans="1:25" ht="15.75">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -20488,7 +20524,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75">
+    <row r="57" spans="1:25" ht="15.75">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
@@ -20551,7 +20587,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.75">
+    <row r="58" spans="1:25" ht="15.75">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -20614,7 +20650,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.75">
+    <row r="59" spans="1:25" ht="15.75">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
@@ -20676,8 +20712,23 @@
       <c r="T59" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75">
+      <c r="U59" s="12" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V59" t="s">
+        <v>4820</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X59" t="s">
+        <v>4821</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="15.75">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -20740,7 +20791,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.75">
+    <row r="61" spans="1:25" ht="15.75">
       <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
@@ -20803,7 +20854,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.75">
+    <row r="62" spans="1:25" ht="15.75">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -20866,7 +20917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.75">
+    <row r="63" spans="1:25" ht="15.75">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -20928,8 +20979,23 @@
       <c r="T63" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="15.75">
+      <c r="U63" s="12" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V63" t="s">
+        <v>4822</v>
+      </c>
+      <c r="W63" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X63" t="s">
+        <v>4823</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="15.75">
       <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
@@ -22015,7 +22081,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.75">
+    <row r="81" spans="1:25" ht="15.75">
       <c r="A81" s="1" t="s">
         <v>181</v>
       </c>
@@ -22078,7 +22144,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.75">
+    <row r="82" spans="1:25" ht="15.75">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -22140,8 +22206,23 @@
       <c r="T82" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" ht="15.75">
+      <c r="U82" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V82" t="s">
+        <v>4812</v>
+      </c>
+      <c r="W82" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X82" t="s">
+        <v>4813</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="15.75">
       <c r="A83" s="1" t="s">
         <v>187</v>
       </c>
@@ -22204,7 +22285,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.75">
+    <row r="84" spans="1:25" ht="15.75">
       <c r="A84" s="1" t="s">
         <v>191</v>
       </c>
@@ -22267,7 +22348,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.75">
+    <row r="85" spans="1:25" ht="15.75">
       <c r="A85" s="1" t="s">
         <v>193</v>
       </c>
@@ -22330,7 +22411,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.75">
+    <row r="86" spans="1:25" ht="15.75">
       <c r="A86" s="1" t="s">
         <v>197</v>
       </c>
@@ -22393,7 +22474,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.75">
+    <row r="87" spans="1:25" ht="15.75">
       <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
@@ -22456,7 +22537,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.75">
+    <row r="88" spans="1:25" ht="15.75">
       <c r="A88" s="1" t="s">
         <v>203</v>
       </c>
@@ -22519,7 +22600,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.75">
+    <row r="89" spans="1:25" ht="15.75">
       <c r="A89" s="1" t="s">
         <v>205</v>
       </c>
@@ -22582,7 +22663,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.75">
+    <row r="90" spans="1:25" ht="15.75">
       <c r="A90" s="1" t="s">
         <v>207</v>
       </c>
@@ -22645,7 +22726,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.75">
+    <row r="91" spans="1:25" ht="15.75">
       <c r="A91" s="1" t="s">
         <v>209</v>
       </c>
@@ -22708,7 +22789,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.75">
+    <row r="92" spans="1:25" ht="15.75">
       <c r="A92" s="1" t="s">
         <v>213</v>
       </c>
@@ -22770,8 +22851,23 @@
       <c r="T92" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" ht="15.75">
+      <c r="U92" s="12" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V92" t="s">
+        <v>4814</v>
+      </c>
+      <c r="W92" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X92" t="s">
+        <v>4815</v>
+      </c>
+      <c r="Y92" s="12" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="15.75">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -22834,7 +22930,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.75">
+    <row r="94" spans="1:25" ht="15.75">
       <c r="A94" s="1" t="s">
         <v>217</v>
       </c>
@@ -22897,7 +22993,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.75">
+    <row r="95" spans="1:25" ht="15.75">
       <c r="A95" s="1" t="s">
         <v>219</v>
       </c>
@@ -22960,7 +23056,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.75">
+    <row r="96" spans="1:25" ht="15.75">
       <c r="A96" s="1" t="s">
         <v>221</v>
       </c>
@@ -24046,7 +24142,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.75">
+    <row r="113" spans="1:25" ht="15.75">
       <c r="A113" s="1" t="s">
         <v>273</v>
       </c>
@@ -24109,7 +24205,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.75">
+    <row r="114" spans="1:25" ht="15.75">
       <c r="A114" s="1" t="s">
         <v>277</v>
       </c>
@@ -24172,7 +24268,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.75">
+    <row r="115" spans="1:25" ht="15.75">
       <c r="A115" s="1" t="s">
         <v>279</v>
       </c>
@@ -24235,7 +24331,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.75">
+    <row r="116" spans="1:25" ht="15.75">
       <c r="A116" s="1" t="s">
         <v>283</v>
       </c>
@@ -24298,7 +24394,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.75">
+    <row r="117" spans="1:25" ht="15.75">
       <c r="A117" s="1" t="s">
         <v>287</v>
       </c>
@@ -24361,7 +24457,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.75">
+    <row r="118" spans="1:25" ht="15.75">
       <c r="A118" s="1" t="s">
         <v>291</v>
       </c>
@@ -24424,7 +24520,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.75">
+    <row r="119" spans="1:25" ht="15.75">
       <c r="A119" s="1" t="s">
         <v>295</v>
       </c>
@@ -24487,7 +24583,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.75">
+    <row r="120" spans="1:25" ht="15.75">
       <c r="A120" s="1" t="s">
         <v>299</v>
       </c>
@@ -24550,7 +24646,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.75">
+    <row r="121" spans="1:25" ht="15.75">
       <c r="A121" s="1" t="s">
         <v>301</v>
       </c>
@@ -24613,7 +24709,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.75">
+    <row r="122" spans="1:25" ht="15.75">
       <c r="A122" s="1" t="s">
         <v>303</v>
       </c>
@@ -24676,7 +24772,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.75">
+    <row r="123" spans="1:25" ht="15.75">
       <c r="A123" s="1" t="s">
         <v>305</v>
       </c>
@@ -24739,7 +24835,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.75">
+    <row r="124" spans="1:25" ht="15.75">
       <c r="A124" s="1" t="s">
         <v>309</v>
       </c>
@@ -24802,7 +24898,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.75">
+    <row r="125" spans="1:25" ht="15.75">
       <c r="A125" s="1" t="s">
         <v>313</v>
       </c>
@@ -24865,7 +24961,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.75">
+    <row r="126" spans="1:25" ht="15.75">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -24920,7 +25016,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" ht="15.75">
+    <row r="127" spans="1:25" ht="15.75">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -24982,8 +25078,23 @@
       <c r="T127" s="1" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" ht="15.75">
+      <c r="U127" s="12" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V127" t="s">
+        <v>4818</v>
+      </c>
+      <c r="W127" s="12" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X127" t="s">
+        <v>4819</v>
+      </c>
+      <c r="Y127" s="12" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="15.75">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -26989,7 +27100,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" ht="15.75">
+    <row r="161" spans="1:25" ht="15.75">
       <c r="A161" s="1" t="s">
         <v>397</v>
       </c>
@@ -27044,7 +27155,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" ht="15.75">
+    <row r="162" spans="1:25" ht="15.75">
       <c r="A162" s="1" t="s">
         <v>399</v>
       </c>
@@ -27099,7 +27210,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" ht="15.75">
+    <row r="163" spans="1:25" ht="15.75">
       <c r="A163" s="1" t="s">
         <v>401</v>
       </c>
@@ -27162,7 +27273,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.75">
+    <row r="164" spans="1:25" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>403</v>
       </c>
@@ -27217,7 +27328,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" ht="15.75">
+    <row r="165" spans="1:25" ht="15.75">
       <c r="A165" s="1" t="s">
         <v>405</v>
       </c>
@@ -27272,7 +27383,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" ht="15.75">
+    <row r="166" spans="1:25" ht="15.75">
       <c r="A166" s="1" t="s">
         <v>407</v>
       </c>
@@ -27327,7 +27438,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" ht="15.75">
+    <row r="167" spans="1:25" ht="15.75">
       <c r="A167" s="1" t="s">
         <v>409</v>
       </c>
@@ -27382,7 +27493,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" ht="15.75">
+    <row r="168" spans="1:25" ht="15.75">
       <c r="A168" s="1" t="s">
         <v>411</v>
       </c>
@@ -27437,7 +27548,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -27488,7 +27599,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
         <v>415</v>
       </c>
@@ -27539,7 +27650,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
         <v>417</v>
       </c>
@@ -27601,8 +27712,23 @@
       <c r="T171" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="172" spans="1:20">
+      <c r="U171" t="s">
+        <v>4803</v>
+      </c>
+      <c r="V171" t="s">
+        <v>4816</v>
+      </c>
+      <c r="W171" t="s">
+        <v>4617</v>
+      </c>
+      <c r="X171" t="s">
+        <v>4817</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
         <v>419</v>
       </c>
@@ -27665,7 +27791,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
         <v>1790</v>
       </c>
@@ -27728,7 +27854,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
         <v>1797</v>
       </c>
@@ -27779,7 +27905,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
         <v>1801</v>
       </c>
@@ -27842,7 +27968,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
         <v>1807</v>
       </c>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD4A574-1D84-4767-803E-E77AEEB9EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6BFDC-F0FD-4280-9319-6CD4CA2FDBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="2" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16969" uniqueCount="4859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16984" uniqueCount="4862">
   <si>
     <t>Part Number</t>
   </si>
@@ -14142,9 +14142,6 @@
     <t>WS2813_VCC</t>
   </si>
   <si>
-    <t>LEDM5050X165-7</t>
-  </si>
-  <si>
     <t>https://datasheet.lcsc.com/lcsc/1809261040_Worldsemi-WS2813B-B_C114592.pdf</t>
   </si>
   <si>
@@ -14623,6 +14620,18 @@
   </si>
   <si>
     <t>C31850</t>
+  </si>
+  <si>
+    <t>WS2813C</t>
+  </si>
+  <si>
+    <t>LEDM5050C165-6</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/1809291530_Worldsemi-WS2813C_C194323.pdf</t>
+  </si>
+  <si>
+    <t>C194323</t>
   </si>
 </sst>
 </file>
@@ -14700,7 +14709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -14717,7 +14726,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15329,13 +15337,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15432,7 +15440,7 @@
         <v>4660</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -15476,10 +15484,10 @@
         <v>4616</v>
       </c>
       <c r="V2" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
       <c r="W2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -15526,7 +15534,7 @@
         <v>2704</v>
       </c>
       <c r="W3" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -15570,7 +15578,7 @@
         <v>2709</v>
       </c>
       <c r="W4" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -15617,7 +15625,7 @@
         <v>4285</v>
       </c>
       <c r="W5" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -15664,7 +15672,7 @@
         <v>4287</v>
       </c>
       <c r="W6" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -15693,10 +15701,10 @@
         <v>3913</v>
       </c>
       <c r="I7" t="s">
+        <v>4281</v>
+      </c>
+      <c r="J7" t="s">
         <v>4698</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4699</v>
       </c>
       <c r="S7" t="s">
         <v>3906</v>
@@ -15708,18 +15716,18 @@
         <v>4616</v>
       </c>
       <c r="V7" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="W7" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>3902</v>
+        <v>4858</v>
       </c>
       <c r="B8" t="s">
-        <v>3902</v>
+        <v>4858</v>
       </c>
       <c r="C8" t="s">
         <v>3904</v>
@@ -15728,92 +15736,92 @@
         <v>3906</v>
       </c>
       <c r="E8" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="F8" t="s">
         <v>2696</v>
       </c>
       <c r="G8" t="s">
-        <v>3910</v>
+        <v>4697</v>
       </c>
       <c r="H8" t="s">
         <v>3913</v>
       </c>
       <c r="I8" t="s">
-        <v>4284</v>
+        <v>4859</v>
       </c>
       <c r="J8" t="s">
-        <v>4678</v>
+        <v>4860</v>
       </c>
       <c r="S8" t="s">
         <v>3906</v>
       </c>
       <c r="T8" t="s">
-        <v>4286</v>
+        <v>4858</v>
       </c>
       <c r="U8" t="s">
         <v>4616</v>
       </c>
       <c r="V8" t="s">
-        <v>4288</v>
+        <v>4861</v>
       </c>
       <c r="W8" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>3911</v>
+        <v>3902</v>
       </c>
       <c r="B9" t="s">
-        <v>3911</v>
+        <v>3902</v>
       </c>
       <c r="C9" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="D9" t="s">
         <v>3906</v>
       </c>
       <c r="E9" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="F9" t="s">
         <v>2696</v>
       </c>
       <c r="G9" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="H9" t="s">
         <v>3913</v>
       </c>
       <c r="I9" t="s">
-        <v>4282</v>
+        <v>4284</v>
       </c>
       <c r="J9" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="S9" t="s">
         <v>3906</v>
       </c>
       <c r="T9" t="s">
-        <v>4289</v>
+        <v>4286</v>
       </c>
       <c r="U9" t="s">
         <v>4616</v>
       </c>
       <c r="V9" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="W9" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="B10" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
       <c r="C10" t="s">
         <v>3903</v>
@@ -15837,30 +15845,30 @@
         <v>4282</v>
       </c>
       <c r="J10" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="S10" t="s">
         <v>3906</v>
       </c>
       <c r="T10" t="s">
-        <v>3909</v>
+        <v>4289</v>
       </c>
       <c r="U10" t="s">
         <v>4616</v>
       </c>
       <c r="V10" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="W10" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>3905</v>
+        <v>3909</v>
       </c>
       <c r="B11" t="s">
-        <v>3905</v>
+        <v>3909</v>
       </c>
       <c r="C11" t="s">
         <v>3903</v>
@@ -15869,7 +15877,7 @@
         <v>3906</v>
       </c>
       <c r="E11" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="F11" t="s">
         <v>2696</v>
@@ -15881,189 +15889,177 @@
         <v>3913</v>
       </c>
       <c r="I11" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="J11" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="S11" t="s">
         <v>3906</v>
       </c>
       <c r="T11" t="s">
-        <v>4293</v>
+        <v>3909</v>
       </c>
       <c r="U11" t="s">
         <v>4616</v>
       </c>
       <c r="V11" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="W11" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>4421</v>
+        <v>3905</v>
       </c>
       <c r="B12" t="s">
-        <v>4421</v>
+        <v>3905</v>
       </c>
       <c r="C12" t="s">
-        <v>4422</v>
+        <v>3903</v>
       </c>
       <c r="D12" t="s">
-        <v>4426</v>
+        <v>3906</v>
       </c>
       <c r="E12" t="s">
-        <v>4423</v>
+        <v>3908</v>
       </c>
       <c r="F12" t="s">
         <v>2696</v>
       </c>
       <c r="G12" t="s">
-        <v>4421</v>
+        <v>3912</v>
       </c>
       <c r="H12" t="s">
-        <v>4427</v>
+        <v>3913</v>
       </c>
       <c r="I12" t="s">
-        <v>2695</v>
+        <v>4283</v>
       </c>
       <c r="J12" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="S12" t="s">
-        <v>4426</v>
+        <v>3906</v>
       </c>
       <c r="T12" t="s">
-        <v>4424</v>
+        <v>4293</v>
       </c>
       <c r="U12" t="s">
         <v>4616</v>
       </c>
-      <c r="V12" s="8" t="s">
-        <v>4425</v>
+      <c r="V12" t="s">
+        <v>4292</v>
       </c>
       <c r="W12" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>4429</v>
+        <v>4421</v>
       </c>
       <c r="B13" t="s">
-        <v>4429</v>
+        <v>4421</v>
       </c>
       <c r="C13" t="s">
-        <v>4431</v>
+        <v>4422</v>
       </c>
       <c r="D13" t="s">
-        <v>4430</v>
+        <v>4426</v>
       </c>
       <c r="E13" t="s">
-        <v>4432</v>
+        <v>4423</v>
       </c>
       <c r="F13" t="s">
         <v>2696</v>
       </c>
       <c r="G13" t="s">
-        <v>4434</v>
+        <v>4421</v>
       </c>
       <c r="H13" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="I13" t="s">
-        <v>4435</v>
+        <v>2695</v>
       </c>
       <c r="J13" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="S13" t="s">
-        <v>4430</v>
+        <v>4426</v>
       </c>
       <c r="T13" t="s">
-        <v>4429</v>
+        <v>4424</v>
       </c>
       <c r="U13" t="s">
         <v>4616</v>
       </c>
-      <c r="V13" t="s">
-        <v>4433</v>
+      <c r="V13" s="8" t="s">
+        <v>4425</v>
       </c>
       <c r="W13" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>4436</v>
+        <v>4429</v>
       </c>
       <c r="B14" t="s">
-        <v>4436</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>4437</v>
+        <v>4429</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4431</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>4430</v>
       </c>
       <c r="E14" t="s">
-        <v>4423</v>
+        <v>4432</v>
       </c>
       <c r="F14" t="s">
         <v>2696</v>
       </c>
       <c r="G14" t="s">
-        <v>4438</v>
+        <v>4434</v>
       </c>
       <c r="H14" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="I14" t="s">
-        <v>2695</v>
+        <v>4435</v>
       </c>
       <c r="J14" t="s">
-        <v>4441</v>
-      </c>
-      <c r="K14" t="s">
-        <v>4440</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4436</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>4439</v>
+        <v>4683</v>
       </c>
       <c r="S14" t="s">
-        <v>4442</v>
+        <v>4430</v>
       </c>
       <c r="T14" t="s">
-        <v>4436</v>
+        <v>4429</v>
       </c>
       <c r="U14" t="s">
         <v>4616</v>
       </c>
       <c r="V14" t="s">
-        <v>4443</v>
+        <v>4433</v>
       </c>
       <c r="W14" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>4444</v>
+        <v>4436</v>
       </c>
       <c r="B15" t="s">
-        <v>4444</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4449</v>
+        <v>4436</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>4437</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -16075,7 +16071,7 @@
         <v>2696</v>
       </c>
       <c r="G15" t="s">
-        <v>4448</v>
+        <v>4438</v>
       </c>
       <c r="H15" t="s">
         <v>4427</v>
@@ -16084,45 +16080,45 @@
         <v>2695</v>
       </c>
       <c r="J15" t="s">
-        <v>4447</v>
+        <v>4441</v>
       </c>
       <c r="K15" t="s">
-        <v>4446</v>
+        <v>4440</v>
       </c>
       <c r="L15" t="s">
-        <v>4444</v>
+        <v>4436</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>4445</v>
+        <v>4439</v>
       </c>
       <c r="S15" t="s">
-        <v>4450</v>
+        <v>4442</v>
       </c>
       <c r="T15" t="s">
-        <v>4444</v>
+        <v>4436</v>
       </c>
       <c r="U15" t="s">
         <v>4616</v>
       </c>
       <c r="V15" t="s">
-        <v>4451</v>
+        <v>4443</v>
       </c>
       <c r="W15" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>4452</v>
+        <v>4444</v>
       </c>
       <c r="B16" t="s">
-        <v>4452</v>
+        <v>4444</v>
       </c>
       <c r="C16" t="s">
-        <v>4453</v>
+        <v>4449</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -16134,7 +16130,7 @@
         <v>2696</v>
       </c>
       <c r="G16" t="s">
-        <v>4438</v>
+        <v>4448</v>
       </c>
       <c r="H16" t="s">
         <v>4427</v>
@@ -16143,45 +16139,45 @@
         <v>2695</v>
       </c>
       <c r="J16" t="s">
-        <v>4454</v>
+        <v>4447</v>
       </c>
       <c r="K16" t="s">
-        <v>4455</v>
+        <v>4446</v>
       </c>
       <c r="L16" t="s">
-        <v>4457</v>
+        <v>4444</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>4456</v>
+        <v>4445</v>
       </c>
       <c r="S16" t="s">
-        <v>4455</v>
+        <v>4450</v>
       </c>
       <c r="T16" t="s">
-        <v>4457</v>
+        <v>4444</v>
       </c>
       <c r="U16" t="s">
         <v>4616</v>
       </c>
       <c r="V16" t="s">
-        <v>4706</v>
+        <v>4451</v>
       </c>
       <c r="W16" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17">
-        <v>2302</v>
+      <c r="A17" t="s">
+        <v>4452</v>
       </c>
       <c r="B17" t="s">
-        <v>4478</v>
+        <v>4452</v>
       </c>
       <c r="C17" t="s">
-        <v>4459</v>
+        <v>4453</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -16199,48 +16195,48 @@
         <v>4427</v>
       </c>
       <c r="I17" t="s">
-        <v>4435</v>
+        <v>2695</v>
       </c>
       <c r="J17" t="s">
-        <v>4684</v>
-      </c>
-      <c r="O17" t="s">
-        <v>4463</v>
-      </c>
-      <c r="P17" t="s">
-        <v>4462</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>4616</v>
-      </c>
-      <c r="R17" t="s">
-        <v>4464</v>
+        <v>4454</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4455</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4457</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4456</v>
       </c>
       <c r="S17" t="s">
-        <v>4460</v>
+        <v>4455</v>
       </c>
       <c r="T17" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="U17" t="s">
         <v>4616</v>
       </c>
       <c r="V17" t="s">
-        <v>4461</v>
+        <v>4705</v>
       </c>
       <c r="W17" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>4479</v>
+      <c r="A18">
+        <v>2302</v>
       </c>
       <c r="B18" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="C18" t="s">
-        <v>4476</v>
+        <v>4459</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -16252,194 +16248,206 @@
         <v>2696</v>
       </c>
       <c r="G18" t="s">
-        <v>4448</v>
+        <v>4438</v>
       </c>
       <c r="H18" t="s">
         <v>4427</v>
       </c>
       <c r="I18" t="s">
-        <v>2695</v>
+        <v>4435</v>
       </c>
       <c r="J18" t="s">
-        <v>4685</v>
+        <v>4684</v>
+      </c>
+      <c r="O18" t="s">
+        <v>4463</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4462</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4616</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4464</v>
       </c>
       <c r="S18" t="s">
-        <v>4480</v>
+        <v>4460</v>
       </c>
       <c r="T18" t="s">
-        <v>4479</v>
+        <v>4458</v>
       </c>
       <c r="U18" t="s">
         <v>4616</v>
       </c>
-      <c r="V18" s="8" t="s">
-        <v>4477</v>
+      <c r="V18" t="s">
+        <v>4461</v>
+      </c>
+      <c r="W18" t="s">
+        <v>4799</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>4574</v>
+        <v>4479</v>
       </c>
       <c r="B19" t="s">
-        <v>4574</v>
+        <v>4479</v>
       </c>
       <c r="C19" t="s">
-        <v>4573</v>
+        <v>4476</v>
       </c>
       <c r="D19" t="s">
-        <v>4571</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>4577</v>
+        <v>4423</v>
       </c>
       <c r="F19" t="s">
         <v>2696</v>
       </c>
       <c r="G19" t="s">
-        <v>4574</v>
+        <v>4448</v>
       </c>
       <c r="H19" t="s">
         <v>4427</v>
       </c>
       <c r="I19" t="s">
-        <v>4578</v>
+        <v>2695</v>
       </c>
       <c r="J19" t="s">
-        <v>4576</v>
-      </c>
-      <c r="K19" t="s">
-        <v>4571</v>
-      </c>
-      <c r="L19" t="s">
-        <v>4574</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>4575</v>
+        <v>4685</v>
       </c>
       <c r="S19" t="s">
-        <v>4571</v>
+        <v>4480</v>
       </c>
       <c r="T19" t="s">
-        <v>4574</v>
+        <v>4479</v>
       </c>
       <c r="U19" t="s">
         <v>4616</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>4572</v>
-      </c>
-      <c r="W19" t="s">
-        <v>4800</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="8" t="s">
-        <v>4583</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>4583</v>
+      <c r="A20" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4574</v>
       </c>
       <c r="C20" t="s">
-        <v>4584</v>
+        <v>4573</v>
       </c>
       <c r="D20" t="s">
-        <v>4581</v>
+        <v>4571</v>
       </c>
       <c r="E20" t="s">
-        <v>4609</v>
+        <v>4577</v>
       </c>
       <c r="F20" t="s">
         <v>2696</v>
       </c>
       <c r="G20" t="s">
-        <v>4583</v>
+        <v>4574</v>
       </c>
       <c r="H20" t="s">
         <v>4427</v>
       </c>
       <c r="I20" t="s">
-        <v>4582</v>
+        <v>4578</v>
       </c>
       <c r="J20" t="s">
-        <v>4686</v>
+        <v>4576</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4571</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4574</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4575</v>
       </c>
       <c r="S20" t="s">
-        <v>4581</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>4579</v>
+        <v>4571</v>
+      </c>
+      <c r="T20" t="s">
+        <v>4574</v>
       </c>
       <c r="U20" t="s">
         <v>4616</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>4580</v>
+        <v>4572</v>
       </c>
       <c r="W20" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="8" t="s">
-        <v>4607</v>
+        <v>4583</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>4607</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>4608</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
+        <v>4583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4581</v>
       </c>
       <c r="E21" t="s">
-        <v>4423</v>
+        <v>4609</v>
       </c>
       <c r="F21" t="s">
         <v>2696</v>
       </c>
       <c r="G21" t="s">
-        <v>4438</v>
+        <v>4583</v>
       </c>
       <c r="H21" t="s">
         <v>4427</v>
       </c>
       <c r="I21" t="s">
-        <v>2695</v>
+        <v>4582</v>
       </c>
       <c r="J21" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="S21" t="s">
-        <v>2708</v>
-      </c>
-      <c r="T21" t="s">
-        <v>2708</v>
+        <v>4581</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>4579</v>
       </c>
       <c r="U21" t="s">
         <v>4616</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>4606</v>
+        <v>4580</v>
       </c>
       <c r="W21" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>4611</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4611</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4612</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="A22" s="8" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
@@ -16458,48 +16466,36 @@
         <v>2695</v>
       </c>
       <c r="J22" t="s">
-        <v>4688</v>
-      </c>
-      <c r="K22" t="s">
-        <v>4440</v>
-      </c>
-      <c r="L22" t="s">
-        <v>4611</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4613</v>
+        <v>4687</v>
       </c>
       <c r="S22" t="s">
-        <v>4614</v>
+        <v>2708</v>
       </c>
       <c r="T22" t="s">
-        <v>4611</v>
+        <v>2708</v>
       </c>
       <c r="U22" t="s">
         <v>4616</v>
       </c>
-      <c r="V22" t="s">
-        <v>4615</v>
+      <c r="V22" s="8" t="s">
+        <v>4606</v>
       </c>
       <c r="W22" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>4670</v>
+        <v>4611</v>
       </c>
       <c r="B23" t="s">
-        <v>4670</v>
+        <v>4611</v>
       </c>
       <c r="C23" t="s">
-        <v>4665</v>
+        <v>4612</v>
       </c>
       <c r="D23" t="s">
-        <v>4669</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>4423</v>
@@ -16508,7 +16504,7 @@
         <v>2696</v>
       </c>
       <c r="G23" t="s">
-        <v>4663</v>
+        <v>4438</v>
       </c>
       <c r="H23" t="s">
         <v>4427</v>
@@ -16517,37 +16513,48 @@
         <v>2695</v>
       </c>
       <c r="J23" t="s">
-        <v>4666</v>
-      </c>
-      <c r="N23" s="10"/>
+        <v>4688</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4440</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4611</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4613</v>
+      </c>
       <c r="S23" t="s">
-        <v>4667</v>
+        <v>4614</v>
       </c>
       <c r="T23" t="s">
-        <v>4664</v>
+        <v>4611</v>
       </c>
       <c r="U23" t="s">
         <v>4616</v>
       </c>
-      <c r="V23" s="10" t="s">
-        <v>4668</v>
+      <c r="V23" t="s">
+        <v>4615</v>
       </c>
       <c r="W23" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>4701</v>
+        <v>4670</v>
       </c>
       <c r="B24" t="s">
-        <v>4701</v>
+        <v>4670</v>
       </c>
       <c r="C24" t="s">
-        <v>4702</v>
+        <v>4665</v>
       </c>
       <c r="D24" t="s">
-        <v>4703</v>
+        <v>4669</v>
       </c>
       <c r="E24" t="s">
         <v>4423</v>
@@ -16556,7 +16563,7 @@
         <v>2696</v>
       </c>
       <c r="G24" t="s">
-        <v>4438</v>
+        <v>4663</v>
       </c>
       <c r="H24" t="s">
         <v>4427</v>
@@ -16565,38 +16572,39 @@
         <v>2695</v>
       </c>
       <c r="J24" t="s">
-        <v>4704</v>
-      </c>
+        <v>4666</v>
+      </c>
+      <c r="N24" s="10"/>
       <c r="S24" t="s">
-        <v>4703</v>
+        <v>4667</v>
       </c>
       <c r="T24" t="s">
-        <v>4701</v>
+        <v>4664</v>
       </c>
       <c r="U24" t="s">
         <v>4616</v>
       </c>
-      <c r="V24" t="s">
-        <v>4705</v>
+      <c r="V24" s="10" t="s">
+        <v>4668</v>
       </c>
       <c r="W24" t="s">
-        <v>4801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75">
-      <c r="A25" s="11" t="s">
-        <v>4607</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>4607</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>4776</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="11" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4701</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E25" t="s">
         <v>4423</v>
       </c>
       <c r="F25" t="s">
@@ -16612,29 +16620,76 @@
         <v>2695</v>
       </c>
       <c r="J25" t="s">
-        <v>4777</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>4450</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>4607</v>
+        <v>4703</v>
+      </c>
+      <c r="S25" t="s">
+        <v>4702</v>
+      </c>
+      <c r="T25" t="s">
+        <v>4700</v>
       </c>
       <c r="U25" t="s">
         <v>4616</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>4778</v>
+      <c r="V25" t="s">
+        <v>4704</v>
       </c>
       <c r="W25" t="s">
-        <v>4801</v>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75">
+      <c r="A26" s="11" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>4775</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>4423</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2696</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4438</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4427</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4776</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>4450</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>4607</v>
+      </c>
+      <c r="U26" t="s">
+        <v>4616</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>4777</v>
+      </c>
+      <c r="W26" t="s">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V11" r:id="rId1" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Worldsemi-WS2812B-Mini_C527089.html" xr:uid="{7B3563B0-676F-492C-A346-E0B4B21DFE92}"/>
-    <hyperlink ref="P17" r:id="rId2" display="https://www.lcsc.com/product-detail/MOSFETs_FUXINSEMI-SI2302_C6807797.html" xr:uid="{88ED9DD7-51B2-4FF9-80DF-03856639A5E8}"/>
+    <hyperlink ref="V12" r:id="rId1" display="https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Worldsemi-WS2812B-Mini_C527089.html" xr:uid="{7B3563B0-676F-492C-A346-E0B4B21DFE92}"/>
+    <hyperlink ref="P18" r:id="rId2" display="https://www.lcsc.com/product-detail/MOSFETs_FUXINSEMI-SI2302_C6807797.html" xr:uid="{88ED9DD7-51B2-4FF9-80DF-03856639A5E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -16739,7 +16794,7 @@
         <v>4660</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -17026,7 +17081,7 @@
         <v>4393</v>
       </c>
       <c r="W11" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -17206,7 +17261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE72BB5-555B-4C95-9DE0-D4036F268B3F}">
   <dimension ref="A1:Y345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -17301,7 +17356,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75">
@@ -17367,19 +17422,19 @@
         <v>28</v>
       </c>
       <c r="U2" t="s">
+        <v>4801</v>
+      </c>
+      <c r="V2" t="s">
         <v>4802</v>
-      </c>
-      <c r="V2" t="s">
-        <v>4803</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X2" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="Y2" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75">
@@ -19262,19 +19317,19 @@
         <v>1222</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V34" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X34" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75">
@@ -20836,19 +20891,19 @@
         <v>1335</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V59" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X59" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="15.75">
@@ -20977,19 +21032,19 @@
         <v>1345</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V61" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X61" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75">
@@ -21118,19 +21173,19 @@
         <v>1353</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V63" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X63" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75">
@@ -21889,19 +21944,19 @@
         <v>1411</v>
       </c>
       <c r="U75" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V75" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="W75" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X75" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="Y75" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="15.75">
@@ -22156,19 +22211,19 @@
         <v>174</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V79" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X79" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="15.75">
@@ -22360,19 +22415,19 @@
         <v>1438</v>
       </c>
       <c r="U82" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V82" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="W82" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X82" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="Y82" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75">
@@ -23005,19 +23060,19 @@
         <v>1480</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V92" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="W92" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X92" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15.75">
@@ -23461,19 +23516,19 @@
         <v>232</v>
       </c>
       <c r="U99" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V99" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
       <c r="W99" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X99" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
       <c r="Y99" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15.75">
@@ -23665,19 +23720,19 @@
         <v>242</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V102" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="W102" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75">
@@ -23994,20 +24049,20 @@
       <c r="T107" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="U107" s="12" t="s">
-        <v>4802</v>
+      <c r="U107" s="1" t="s">
+        <v>4801</v>
       </c>
       <c r="V107" t="s">
+        <v>4856</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="X107" s="1" t="s">
         <v>4857</v>
       </c>
-      <c r="W107" s="12" t="s">
-        <v>4616</v>
-      </c>
-      <c r="X107" s="12" t="s">
-        <v>4858</v>
-      </c>
-      <c r="Y107" s="12" t="s">
-        <v>4801</v>
+      <c r="Y107" s="1" t="s">
+        <v>4800</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75">
@@ -24514,19 +24569,19 @@
         <v>1573</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V115" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="W115" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X115" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="15.75">
@@ -25036,19 +25091,19 @@
         <v>308</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V123" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X123" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="15.75">
@@ -25295,19 +25350,19 @@
         <v>1615</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V127" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="W127" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X127" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="Y127" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="15.75">
@@ -25562,19 +25617,19 @@
         <v>1631</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V131" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="X131" s="1" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="132" spans="1:25" ht="15.75">
@@ -26569,19 +26624,19 @@
         <v>1703</v>
       </c>
       <c r="U147" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V147" t="s">
+        <v>4808</v>
+      </c>
+      <c r="W147" t="s">
         <v>4809</v>
-      </c>
-      <c r="W147" t="s">
-        <v>4810</v>
       </c>
       <c r="X147" t="s">
         <v>4616</v>
       </c>
       <c r="Y147" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="148" spans="1:25" ht="15.75">
@@ -27944,19 +27999,19 @@
         <v>1787</v>
       </c>
       <c r="U171" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V171" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="W171" t="s">
         <v>4616</v>
       </c>
       <c r="X171" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="Y171" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -28085,19 +28140,19 @@
         <v>1796</v>
       </c>
       <c r="U173" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="V173" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
       <c r="W173" t="s">
         <v>4616</v>
       </c>
       <c r="X173" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="Y173" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -38027,7 +38082,7 @@
         <v>4351</v>
       </c>
       <c r="Y342" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="343" spans="1:25">
@@ -38093,7 +38148,7 @@
         <v>4420</v>
       </c>
       <c r="Y343" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="344" spans="1:25" ht="15.75">
@@ -38321,7 +38376,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75">
@@ -43617,16 +43672,16 @@
         <v>482</v>
       </c>
       <c r="V85" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="W85" t="s">
         <v>4616</v>
       </c>
       <c r="X85" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="Y85" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -44090,18 +44145,18 @@
         <v>4655</v>
       </c>
       <c r="Y93" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4837</v>
+      </c>
+      <c r="C94" t="s">
         <v>4838</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4838</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4839</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -44131,16 +44186,16 @@
         <v>1071</v>
       </c>
       <c r="V94" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="W94" t="s">
         <v>4616</v>
       </c>
       <c r="X94" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="Y94" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -44181,27 +44236,27 @@
         <v>4656</v>
       </c>
       <c r="V95" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="W95" t="s">
         <v>4616</v>
       </c>
       <c r="X95" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="Y95" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4843</v>
+      </c>
+      <c r="C96" t="s">
         <v>4844</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4844</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4845</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -44228,30 +44283,30 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U96" t="s">
+        <v>4845</v>
+      </c>
+      <c r="V96" t="s">
         <v>4846</v>
-      </c>
-      <c r="V96" t="s">
-        <v>4847</v>
       </c>
       <c r="W96" t="s">
         <v>4616</v>
       </c>
       <c r="X96" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="Y96" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4848</v>
+      </c>
+      <c r="C97" t="s">
         <v>4849</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4849</v>
-      </c>
-      <c r="C97" t="s">
-        <v>4850</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -44281,16 +44336,16 @@
         <v>1071</v>
       </c>
       <c r="V97" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="W97" t="s">
         <v>4616</v>
       </c>
       <c r="X97" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="Y97" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
@@ -44393,7 +44448,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -44459,7 +44514,7 @@
         <v>4530</v>
       </c>
       <c r="Y2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -44525,7 +44580,7 @@
         <v>4535</v>
       </c>
       <c r="Y3" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -44591,7 +44646,7 @@
         <v>4537</v>
       </c>
       <c r="Y4" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -44657,7 +44712,7 @@
         <v>4539</v>
       </c>
       <c r="Y5" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -44849,7 +44904,7 @@
         <v>4563</v>
       </c>
       <c r="Y8" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -44915,7 +44970,7 @@
         <v>4566</v>
       </c>
       <c r="Y9" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -44981,7 +45036,7 @@
         <v>4567</v>
       </c>
       <c r="Y10" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -45047,7 +45102,7 @@
         <v>4568</v>
       </c>
       <c r="Y11" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -45113,7 +45168,7 @@
         <v>4569</v>
       </c>
       <c r="Y12" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -45242,7 +45297,7 @@
         <v>4565</v>
       </c>
       <c r="Y14" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
   </sheetData>
@@ -45344,7 +45399,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -45421,7 +45476,7 @@
         <v>4662</v>
       </c>
       <c r="Y2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -71104,7 +71159,7 @@
         <v>4672</v>
       </c>
       <c r="M488" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="N488" t="s">
         <v>4300</v>
@@ -71113,7 +71168,7 @@
         <v>26</v>
       </c>
       <c r="P488" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="Q488" t="s">
         <v>4299</v>
@@ -71140,7 +71195,7 @@
         <v>4297</v>
       </c>
       <c r="Y488" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="489" spans="1:25">
@@ -71181,7 +71236,7 @@
         <v>4672</v>
       </c>
       <c r="M489" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="N489" t="s">
         <v>4301</v>
@@ -71190,7 +71245,7 @@
         <v>26</v>
       </c>
       <c r="P489" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="Q489" t="s">
         <v>4304</v>
@@ -71216,13 +71271,13 @@
     </row>
     <row r="490" spans="1:25" ht="15.75">
       <c r="A490" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B490" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C490" t="s">
         <v>4787</v>
-      </c>
-      <c r="B490" t="s">
-        <v>4787</v>
-      </c>
-      <c r="C490" t="s">
-        <v>4788</v>
       </c>
       <c r="D490" t="s">
         <v>21</v>
@@ -71243,33 +71298,33 @@
         <v>3012</v>
       </c>
       <c r="L490" t="s">
+        <v>4788</v>
+      </c>
+      <c r="U490" s="11" t="s">
         <v>4789</v>
       </c>
-      <c r="U490" s="11" t="s">
-        <v>4790</v>
-      </c>
       <c r="V490" s="11" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="W490" t="s">
         <v>4616</v>
       </c>
       <c r="X490" s="11" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="Y490" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="491" spans="1:25" ht="15.75">
       <c r="A491" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="B491" t="s">
         <v>4305</v>
       </c>
       <c r="C491" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="D491" t="s">
         <v>21</v>
@@ -71311,30 +71366,30 @@
         <v>4336</v>
       </c>
       <c r="U491" s="11" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="V491" s="11" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="W491" t="s">
         <v>4616</v>
       </c>
       <c r="X491" s="11" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="Y491" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="492" spans="1:25" ht="15.75">
       <c r="A492" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="B492" t="s">
         <v>4306</v>
       </c>
       <c r="C492" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
       <c r="D492" t="s">
         <v>21</v>
@@ -71376,30 +71431,30 @@
         <v>4333</v>
       </c>
       <c r="U492" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="V492" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="W492" t="s">
         <v>4616</v>
       </c>
       <c r="X492" s="11" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="Y492" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="493" spans="1:25" ht="15.75">
       <c r="A493" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="B493" t="s">
         <v>4307</v>
       </c>
       <c r="C493" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D493" t="s">
         <v>21</v>
@@ -71441,30 +71496,30 @@
         <v>4330</v>
       </c>
       <c r="U493" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="V493" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="W493" t="s">
         <v>4616</v>
       </c>
       <c r="X493" s="11" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="Y493" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="494" spans="1:25" ht="15.75">
       <c r="A494" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B494" t="s">
         <v>4308</v>
       </c>
       <c r="C494" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
       <c r="D494" t="s">
         <v>21</v>
@@ -71506,30 +71561,30 @@
         <v>4327</v>
       </c>
       <c r="U494" s="11" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="V494" s="11" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="W494" t="s">
         <v>4616</v>
       </c>
       <c r="X494" s="11" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="Y494" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="495" spans="1:25" ht="15.75">
       <c r="A495" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="B495" t="s">
         <v>4309</v>
       </c>
       <c r="C495" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="D495" t="s">
         <v>21</v>
@@ -71571,19 +71626,19 @@
         <v>4338</v>
       </c>
       <c r="U495" s="11" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="V495" s="11" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="W495" t="s">
         <v>4616</v>
       </c>
       <c r="X495" s="11" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="Y495" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="496" spans="1:25">
@@ -71648,18 +71703,18 @@
         <v>4475</v>
       </c>
       <c r="Y496" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="497" spans="1:25">
       <c r="A497" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="B497" t="s">
         <v>4305</v>
       </c>
       <c r="C497" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="D497" t="s">
         <v>21</v>
@@ -71680,7 +71735,7 @@
         <v>3913</v>
       </c>
       <c r="J497" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="K497" t="s">
         <v>4310</v>
@@ -71692,39 +71747,39 @@
         <v>4326</v>
       </c>
       <c r="N497" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
       <c r="O497" t="s">
         <v>26</v>
       </c>
       <c r="P497" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
       <c r="U497" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="V497" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="W497" t="s">
         <v>4616</v>
       </c>
       <c r="X497" t="s">
-        <v>4746</v>
+        <v>4745</v>
       </c>
       <c r="Y497" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="498" spans="1:25" ht="15.75">
       <c r="A498" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="B498" t="s">
         <v>4306</v>
       </c>
       <c r="C498" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="D498" t="s">
         <v>21</v>
@@ -71745,7 +71800,7 @@
         <v>3913</v>
       </c>
       <c r="J498" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="K498" t="s">
         <v>4311</v>
@@ -71757,39 +71812,39 @@
         <v>4326</v>
       </c>
       <c r="N498" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
       <c r="O498" t="s">
         <v>26</v>
       </c>
       <c r="P498" t="s">
-        <v>4739</v>
+        <v>4738</v>
       </c>
       <c r="U498" s="11" t="s">
+        <v>4756</v>
+      </c>
+      <c r="V498" s="11" t="s">
         <v>4757</v>
-      </c>
-      <c r="V498" s="11" t="s">
-        <v>4758</v>
       </c>
       <c r="W498" t="s">
         <v>4616</v>
       </c>
       <c r="X498" s="11" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
       <c r="Y498" s="11" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="499" spans="1:25" ht="15.75">
       <c r="A499" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="B499" t="s">
         <v>4307</v>
       </c>
       <c r="C499" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="D499" t="s">
         <v>21</v>
@@ -71810,7 +71865,7 @@
         <v>3913</v>
       </c>
       <c r="J499" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="K499" t="s">
         <v>4312</v>
@@ -71822,39 +71877,39 @@
         <v>4326</v>
       </c>
       <c r="N499" t="s">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="O499" t="s">
         <v>26</v>
       </c>
       <c r="P499" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="U499" t="s">
+        <v>4750</v>
+      </c>
+      <c r="V499" s="11" t="s">
         <v>4751</v>
-      </c>
-      <c r="V499" s="11" t="s">
-        <v>4752</v>
       </c>
       <c r="W499" t="s">
         <v>4616</v>
       </c>
       <c r="X499" s="11" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="Y499" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="500" spans="1:25" ht="15.75">
       <c r="A500" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="B500" t="s">
         <v>4308</v>
       </c>
       <c r="C500" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="D500" t="s">
         <v>21</v>
@@ -71875,7 +71930,7 @@
         <v>3913</v>
       </c>
       <c r="J500" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="K500" t="s">
         <v>4313</v>
@@ -71887,39 +71942,39 @@
         <v>4326</v>
       </c>
       <c r="N500" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
       <c r="O500" t="s">
         <v>26</v>
       </c>
       <c r="P500" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
       <c r="U500" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="V500" s="11" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
       <c r="W500" t="s">
         <v>4616</v>
       </c>
       <c r="X500" s="11" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
       <c r="Y500" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="501" spans="1:25" ht="15.75">
       <c r="A501" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="B501" t="s">
         <v>4309</v>
       </c>
       <c r="C501" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="D501" t="s">
         <v>21</v>
@@ -71940,7 +71995,7 @@
         <v>3913</v>
       </c>
       <c r="J501" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="K501" t="s">
         <v>4314</v>
@@ -71949,51 +72004,51 @@
         <v>4341</v>
       </c>
       <c r="M501" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="N501" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="O501" t="s">
         <v>26</v>
       </c>
       <c r="P501" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="U501" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="V501" s="11" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
       <c r="W501" t="s">
         <v>4616</v>
       </c>
       <c r="X501" s="11" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="Y501" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="502" spans="1:25" ht="15.75">
       <c r="A502" s="11" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B502" s="11" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C502" s="11" t="s">
         <v>4770</v>
-      </c>
-      <c r="B502" s="11" t="s">
-        <v>4770</v>
-      </c>
-      <c r="C502" s="11" t="s">
-        <v>4771</v>
       </c>
       <c r="D502" t="s">
         <v>21</v>
       </c>
       <c r="E502" s="11" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="F502" s="11" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="G502" t="s">
         <v>2714</v>
@@ -72005,48 +72060,48 @@
         <v>2715</v>
       </c>
       <c r="J502" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="K502" t="s">
         <v>2916</v>
       </c>
       <c r="L502" t="s">
+        <v>4772</v>
+      </c>
+      <c r="U502" t="s">
         <v>4773</v>
       </c>
-      <c r="U502" t="s">
-        <v>4774</v>
-      </c>
       <c r="V502" s="11" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="W502" t="s">
         <v>4616</v>
       </c>
       <c r="X502" s="11" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="Y502" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="503" spans="1:25" ht="15.75">
       <c r="A503" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B503" t="s">
+        <v>4778</v>
+      </c>
+      <c r="C503" s="11" t="s">
         <v>4779</v>
       </c>
-      <c r="B503" t="s">
-        <v>4779</v>
-      </c>
-      <c r="C503" s="11" t="s">
+      <c r="D503" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E503" s="11" t="s">
         <v>4780</v>
       </c>
-      <c r="D503" t="s">
-        <v>2712</v>
-      </c>
-      <c r="E503" s="11" t="s">
-        <v>4781</v>
-      </c>
       <c r="F503" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="G503" t="s">
         <v>2714</v>
@@ -72061,45 +72116,45 @@
         <v>3302</v>
       </c>
       <c r="K503" t="s">
+        <v>4781</v>
+      </c>
+      <c r="L503" t="s">
         <v>4782</v>
       </c>
-      <c r="L503" t="s">
-        <v>4783</v>
-      </c>
       <c r="U503" s="11" t="s">
+        <v>4784</v>
+      </c>
+      <c r="V503" t="s">
         <v>4785</v>
-      </c>
-      <c r="V503" t="s">
-        <v>4786</v>
       </c>
       <c r="W503" t="s">
         <v>4616</v>
       </c>
       <c r="X503" s="11" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="Y503" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="504" spans="1:25" ht="15.75">
       <c r="A504" s="11" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B504" s="11" t="s">
+        <v>4791</v>
+      </c>
+      <c r="C504" s="11" t="s">
         <v>4792</v>
-      </c>
-      <c r="B504" s="11" t="s">
-        <v>4792</v>
-      </c>
-      <c r="C504" s="11" t="s">
-        <v>4793</v>
       </c>
       <c r="D504" t="s">
         <v>21</v>
       </c>
       <c r="E504" s="11" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="F504" s="11" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="G504" t="s">
         <v>2714</v>
@@ -72111,28 +72166,28 @@
         <v>2715</v>
       </c>
       <c r="J504" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="K504" t="s">
         <v>2916</v>
       </c>
       <c r="L504" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
       <c r="U504" t="s">
         <v>4450</v>
       </c>
       <c r="V504" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="W504" t="s">
         <v>4616</v>
       </c>
       <c r="X504" s="11" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="Y504" s="11" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
@@ -72231,7 +72286,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -72352,7 +72407,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -72397,7 +72452,7 @@
         <v>4491</v>
       </c>
       <c r="Y2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -72442,7 +72497,7 @@
         <v>4497</v>
       </c>
       <c r="Y3" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -72487,7 +72542,7 @@
         <v>4507</v>
       </c>
       <c r="Y4" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
   </sheetData>
@@ -72582,7 +72637,7 @@
         <v>4660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -72629,7 +72684,7 @@
         <v>4404</v>
       </c>
       <c r="Y2" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Temp\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6BFDC-F0FD-4280-9319-6CD4CA2FDBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808538DE-5EBA-402F-A020-AB7958410D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" firstSheet="1" activeTab="2" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16984" uniqueCount="4862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16994" uniqueCount="4866">
   <si>
     <t>Part Number</t>
   </si>
@@ -14632,13 +14632,25 @@
   </si>
   <si>
     <t>C194323</t>
+  </si>
+  <si>
+    <t>C126566</t>
+  </si>
+  <si>
+    <t>GCM1885C1H471JA16D</t>
+  </si>
+  <si>
+    <t>0603WAF4701T5E</t>
+  </si>
+  <si>
+    <t>C23162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14681,6 +14693,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -14709,7 +14727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -14726,9 +14744,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{EF57721B-36C4-46B1-A33C-AE929CF977C4}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14745,7 +14764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15047,28 +15066,28 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>460</v>
       </c>
@@ -15076,7 +15095,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>461</v>
       </c>
@@ -15084,7 +15103,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>420</v>
       </c>
@@ -15092,7 +15111,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>426</v>
       </c>
@@ -15100,7 +15119,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -15108,7 +15127,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>427</v>
       </c>
@@ -15116,7 +15135,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>428</v>
       </c>
@@ -15124,7 +15143,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>472</v>
       </c>
@@ -15132,7 +15151,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>473</v>
       </c>
@@ -15140,7 +15159,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>475</v>
       </c>
@@ -15148,7 +15167,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4352</v>
       </c>
@@ -15156,12 +15175,12 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -15169,7 +15188,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -15177,7 +15196,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -15185,7 +15204,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -15193,7 +15212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -15201,12 +15220,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -15214,7 +15233,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15222,7 +15241,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -15230,7 +15249,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -15238,12 +15257,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -15251,7 +15270,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -15259,7 +15278,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -15267,7 +15286,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -15275,7 +15294,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -15283,7 +15302,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -15291,7 +15310,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -15299,7 +15318,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -15307,7 +15326,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -15315,17 +15334,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2689</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2691</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2690</v>
       </c>
@@ -15339,14 +15358,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -15372,7 +15391,7 @@
     <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15443,7 +15462,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2692</v>
       </c>
@@ -15490,7 +15509,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2698</v>
       </c>
@@ -15537,7 +15556,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2706</v>
       </c>
@@ -15581,7 +15600,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3583</v>
       </c>
@@ -15628,7 +15647,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3910</v>
       </c>
@@ -15675,7 +15694,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4694</v>
       </c>
@@ -15722,7 +15741,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4858</v>
       </c>
@@ -15769,7 +15788,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3902</v>
       </c>
@@ -15816,7 +15835,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3911</v>
       </c>
@@ -15863,7 +15882,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3909</v>
       </c>
@@ -15910,7 +15929,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3905</v>
       </c>
@@ -15957,7 +15976,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4421</v>
       </c>
@@ -16004,7 +16023,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4429</v>
       </c>
@@ -16051,7 +16070,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4436</v>
       </c>
@@ -16110,7 +16129,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4444</v>
       </c>
@@ -16169,7 +16188,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4452</v>
       </c>
@@ -16228,7 +16247,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2302</v>
       </c>
@@ -16287,7 +16306,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4479</v>
       </c>
@@ -16331,7 +16350,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4574</v>
       </c>
@@ -16390,7 +16409,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>4583</v>
       </c>
@@ -16437,7 +16456,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>4607</v>
       </c>
@@ -16484,7 +16503,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4611</v>
       </c>
@@ -16543,7 +16562,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4670</v>
       </c>
@@ -16591,7 +16610,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4700</v>
       </c>
@@ -16638,7 +16657,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75">
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>4607</v>
       </c>
@@ -16704,7 +16723,7 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -16726,7 +16745,7 @@
     <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16797,7 +16816,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4355</v>
       </c>
@@ -16823,7 +16842,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4371</v>
       </c>
@@ -16849,7 +16868,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4376</v>
       </c>
@@ -16875,7 +16894,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4379</v>
       </c>
@@ -16901,7 +16920,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4380</v>
       </c>
@@ -16927,7 +16946,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4381</v>
       </c>
@@ -16953,7 +16972,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4382</v>
       </c>
@@ -16979,7 +16998,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4366</v>
       </c>
@@ -17005,7 +17024,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4365</v>
       </c>
@@ -17031,7 +17050,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4671</v>
       </c>
@@ -17084,7 +17103,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4406</v>
       </c>
@@ -17125,18 +17144,18 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -17144,7 +17163,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -17152,7 +17171,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>452</v>
       </c>
@@ -17160,7 +17179,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>459</v>
       </c>
@@ -17168,7 +17187,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>453</v>
       </c>
@@ -17176,12 +17195,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>454</v>
       </c>
@@ -17189,12 +17208,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -17202,12 +17221,12 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>4593</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>459</v>
       </c>
@@ -17215,17 +17234,17 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>4504</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>4505</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>468</v>
       </c>
@@ -17233,7 +17252,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>470</v>
       </c>
@@ -17261,14 +17280,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE72BB5-555B-4C95-9DE0-D4036F268B3F}">
   <dimension ref="A1:Y345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V107" sqref="V107"/>
+      <selection pane="bottomRight" activeCell="Y91" sqref="Y91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -17282,7 +17301,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17359,7 +17378,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -17437,7 +17456,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75">
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -17500,7 +17519,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75">
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1080</v>
       </c>
@@ -17563,7 +17582,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75">
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -17618,7 +17637,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1090</v>
       </c>
@@ -17673,7 +17692,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -17736,7 +17755,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1100</v>
       </c>
@@ -17791,7 +17810,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -17846,7 +17865,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75">
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1108</v>
       </c>
@@ -17901,7 +17920,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75">
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -17964,7 +17983,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75">
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1118</v>
       </c>
@@ -18019,7 +18038,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75">
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -18074,7 +18093,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="15.75">
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1126</v>
       </c>
@@ -18129,7 +18148,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75">
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -18192,7 +18211,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75">
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1136</v>
       </c>
@@ -18247,7 +18266,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -18302,7 +18321,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1144</v>
       </c>
@@ -18357,7 +18376,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -18420,7 +18439,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1154</v>
       </c>
@@ -18483,7 +18502,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -18546,7 +18565,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1166</v>
       </c>
@@ -18601,7 +18620,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -18664,7 +18683,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1176</v>
       </c>
@@ -18719,7 +18738,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -18782,7 +18801,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1186</v>
       </c>
@@ -18837,7 +18856,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75">
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -18900,7 +18919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75">
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -18955,7 +18974,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75">
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -19018,7 +19037,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75">
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -19073,7 +19092,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75">
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -19136,7 +19155,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75">
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -19191,7 +19210,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75">
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -19254,7 +19273,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75">
+    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -19332,7 +19351,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75">
+    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -19395,7 +19414,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75">
+    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -19458,7 +19477,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75">
+    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -19521,7 +19540,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75">
+    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -19584,7 +19603,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75">
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -19647,7 +19666,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75">
+    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -19702,7 +19721,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="15.75">
+    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -19765,7 +19784,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75">
+    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -19828,7 +19847,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75">
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -19891,7 +19910,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75">
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -19954,7 +19973,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.75">
+    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -20017,7 +20036,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15.75">
+    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -20080,7 +20099,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75">
+    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -20143,7 +20162,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15.75">
+    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -20206,7 +20225,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="15.75">
+    <row r="49" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>101</v>
       </c>
@@ -20269,7 +20288,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15.75">
+    <row r="50" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>103</v>
       </c>
@@ -20332,7 +20351,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="15.75">
+    <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -20395,7 +20414,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15.75">
+    <row r="52" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -20458,7 +20477,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15.75">
+    <row r="53" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -20521,7 +20540,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15.75">
+    <row r="54" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -20584,7 +20603,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15.75">
+    <row r="55" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -20647,7 +20666,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15.75">
+    <row r="56" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>117</v>
       </c>
@@ -20702,7 +20721,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75">
+    <row r="57" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
@@ -20765,7 +20784,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15.75">
+    <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>123</v>
       </c>
@@ -20828,7 +20847,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15.75">
+    <row r="59" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>125</v>
       </c>
@@ -20906,7 +20925,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15.75">
+    <row r="60" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -20969,7 +20988,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15.75">
+    <row r="61" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
@@ -21047,7 +21066,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15.75">
+    <row r="62" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -21110,7 +21129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15.75">
+    <row r="63" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
@@ -21188,7 +21207,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15.75">
+    <row r="64" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>139</v>
       </c>
@@ -21251,7 +21270,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75">
+    <row r="65" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>141</v>
       </c>
@@ -21314,7 +21333,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15.75">
+    <row r="66" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>143</v>
       </c>
@@ -21377,7 +21396,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15.75">
+    <row r="67" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
@@ -21440,7 +21459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15.75">
+    <row r="68" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -21503,7 +21522,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15.75">
+    <row r="69" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>151</v>
       </c>
@@ -21566,7 +21585,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15.75">
+    <row r="70" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>153</v>
       </c>
@@ -21629,7 +21648,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15.75">
+    <row r="71" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>155</v>
       </c>
@@ -21692,7 +21711,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15.75">
+    <row r="72" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>157</v>
       </c>
@@ -21755,7 +21774,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15.75">
+    <row r="73" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>159</v>
       </c>
@@ -21818,7 +21837,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15.75">
+    <row r="74" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -21881,7 +21900,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15.75">
+    <row r="75" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>163</v>
       </c>
@@ -21959,7 +21978,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15.75">
+    <row r="76" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -22022,7 +22041,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15.75">
+    <row r="77" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>167</v>
       </c>
@@ -22085,7 +22104,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15.75">
+    <row r="78" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>169</v>
       </c>
@@ -22148,7 +22167,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15.75">
+    <row r="79" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>171</v>
       </c>
@@ -22226,7 +22245,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75">
+    <row r="80" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
@@ -22289,7 +22308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15.75">
+    <row r="81" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>181</v>
       </c>
@@ -22352,7 +22371,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="15.75">
+    <row r="82" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -22430,7 +22449,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="15.75">
+    <row r="83" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>187</v>
       </c>
@@ -22493,7 +22512,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="15.75">
+    <row r="84" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>191</v>
       </c>
@@ -22556,7 +22575,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15.75">
+    <row r="85" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>193</v>
       </c>
@@ -22619,7 +22638,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15.75">
+    <row r="86" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>197</v>
       </c>
@@ -22682,7 +22701,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15.75">
+    <row r="87" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>201</v>
       </c>
@@ -22745,7 +22764,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15.75">
+    <row r="88" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>203</v>
       </c>
@@ -22808,7 +22827,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15.75">
+    <row r="89" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>205</v>
       </c>
@@ -22871,7 +22890,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15.75">
+    <row r="90" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>207</v>
       </c>
@@ -22934,7 +22953,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15.75">
+    <row r="91" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>209</v>
       </c>
@@ -22996,8 +23015,23 @@
       <c r="T91" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" ht="15.75">
+      <c r="U91" s="1" t="s">
+        <v>4801</v>
+      </c>
+      <c r="V91" t="s">
+        <v>4864</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="X91" t="s">
+        <v>4865</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>213</v>
       </c>
@@ -23075,7 +23109,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15.75">
+    <row r="93" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>215</v>
       </c>
@@ -23138,7 +23172,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15.75">
+    <row r="94" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>217</v>
       </c>
@@ -23201,7 +23235,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15.75">
+    <row r="95" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>219</v>
       </c>
@@ -23264,7 +23298,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15.75">
+    <row r="96" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>221</v>
       </c>
@@ -23327,7 +23361,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15.75">
+    <row r="97" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>223</v>
       </c>
@@ -23390,7 +23424,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="15.75">
+    <row r="98" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>225</v>
       </c>
@@ -23453,7 +23487,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="15.75">
+    <row r="99" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>229</v>
       </c>
@@ -23531,7 +23565,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="15.75">
+    <row r="100" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>233</v>
       </c>
@@ -23594,7 +23628,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="15.75">
+    <row r="101" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>235</v>
       </c>
@@ -23657,7 +23691,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15.75">
+    <row r="102" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>239</v>
       </c>
@@ -23735,7 +23769,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15.75">
+    <row r="103" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>243</v>
       </c>
@@ -23798,7 +23832,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15.75">
+    <row r="104" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>247</v>
       </c>
@@ -23861,7 +23895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15.75">
+    <row r="105" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>251</v>
       </c>
@@ -23924,7 +23958,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15.75">
+    <row r="106" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>255</v>
       </c>
@@ -23987,7 +24021,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15.75">
+    <row r="107" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>257</v>
       </c>
@@ -24065,7 +24099,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="15.75">
+    <row r="108" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>259</v>
       </c>
@@ -24128,7 +24162,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15.75">
+    <row r="109" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>263</v>
       </c>
@@ -24191,7 +24225,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15.75">
+    <row r="110" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>265</v>
       </c>
@@ -24254,7 +24288,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15.75">
+    <row r="111" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>267</v>
       </c>
@@ -24317,7 +24351,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15.75">
+    <row r="112" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>269</v>
       </c>
@@ -24380,7 +24414,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15.75">
+    <row r="113" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>273</v>
       </c>
@@ -24443,7 +24477,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="15.75">
+    <row r="114" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>277</v>
       </c>
@@ -24506,7 +24540,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15.75">
+    <row r="115" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>279</v>
       </c>
@@ -24584,7 +24618,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="15.75">
+    <row r="116" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>283</v>
       </c>
@@ -24650,7 +24684,7 @@
       <c r="W116" s="1"/>
       <c r="Y116" s="1"/>
     </row>
-    <row r="117" spans="1:25" ht="15.75">
+    <row r="117" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>287</v>
       </c>
@@ -24713,7 +24747,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15.75">
+    <row r="118" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>291</v>
       </c>
@@ -24776,7 +24810,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15.75">
+    <row r="119" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>295</v>
       </c>
@@ -24839,7 +24873,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="15.75">
+    <row r="120" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>299</v>
       </c>
@@ -24902,7 +24936,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15.75">
+    <row r="121" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>301</v>
       </c>
@@ -24965,7 +24999,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15.75">
+    <row r="122" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>303</v>
       </c>
@@ -25028,7 +25062,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15.75">
+    <row r="123" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>305</v>
       </c>
@@ -25106,7 +25140,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="15.75">
+    <row r="124" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>309</v>
       </c>
@@ -25169,7 +25203,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15.75">
+    <row r="125" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>313</v>
       </c>
@@ -25232,7 +25266,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15.75">
+    <row r="126" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -25287,7 +25321,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:25" ht="15.75">
+    <row r="127" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -25365,7 +25399,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75">
+    <row r="128" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -25428,7 +25462,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75">
+    <row r="129" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>327</v>
       </c>
@@ -25491,7 +25525,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75">
+    <row r="130" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>331</v>
       </c>
@@ -25554,7 +25588,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75">
+    <row r="131" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>333</v>
       </c>
@@ -25632,7 +25666,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="15.75">
+    <row r="132" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>335</v>
       </c>
@@ -25695,7 +25729,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75">
+    <row r="133" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>337</v>
       </c>
@@ -25758,7 +25792,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75">
+    <row r="134" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>339</v>
       </c>
@@ -25821,7 +25855,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75">
+    <row r="135" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>341</v>
       </c>
@@ -25884,7 +25918,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75">
+    <row r="136" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>345</v>
       </c>
@@ -25939,7 +25973,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75">
+    <row r="137" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>349</v>
       </c>
@@ -26002,7 +26036,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75">
+    <row r="138" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>351</v>
       </c>
@@ -26065,7 +26099,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75">
+    <row r="139" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -26128,7 +26162,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15.75">
+    <row r="140" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>355</v>
       </c>
@@ -26191,7 +26225,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15.75">
+    <row r="141" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -26254,7 +26288,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75">
+    <row r="142" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>359</v>
       </c>
@@ -26317,7 +26351,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15.75">
+    <row r="143" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>361</v>
       </c>
@@ -26380,7 +26414,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15.75">
+    <row r="144" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>363</v>
       </c>
@@ -26443,7 +26477,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="15.75">
+    <row r="145" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>365</v>
       </c>
@@ -26506,7 +26540,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15.75">
+    <row r="146" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>367</v>
       </c>
@@ -26561,7 +26595,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75">
+    <row r="147" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>369</v>
       </c>
@@ -26639,7 +26673,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15.75">
+    <row r="148" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>371</v>
       </c>
@@ -26694,7 +26728,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:25" ht="15.75">
+    <row r="149" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>373</v>
       </c>
@@ -26757,7 +26791,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75">
+    <row r="150" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>375</v>
       </c>
@@ -26812,7 +26846,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75">
+    <row r="151" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>377</v>
       </c>
@@ -26875,7 +26909,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75">
+    <row r="152" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>379</v>
       </c>
@@ -26930,7 +26964,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75">
+    <row r="153" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>381</v>
       </c>
@@ -26985,7 +27019,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75">
+    <row r="154" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>383</v>
       </c>
@@ -27048,7 +27082,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="15.75">
+    <row r="155" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>385</v>
       </c>
@@ -27111,7 +27145,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="15.75">
+    <row r="156" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>387</v>
       </c>
@@ -27166,7 +27200,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75">
+    <row r="157" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>389</v>
       </c>
@@ -27221,7 +27255,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:25" ht="15.75">
+    <row r="158" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>391</v>
       </c>
@@ -27276,7 +27310,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75">
+    <row r="159" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>393</v>
       </c>
@@ -27331,7 +27365,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75">
+    <row r="160" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>395</v>
       </c>
@@ -27386,7 +27420,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:25" ht="15.75">
+    <row r="161" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>397</v>
       </c>
@@ -27441,7 +27475,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75">
+    <row r="162" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>399</v>
       </c>
@@ -27496,7 +27530,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:25" ht="15.75">
+    <row r="163" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>401</v>
       </c>
@@ -27559,7 +27593,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="15.75">
+    <row r="164" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>403</v>
       </c>
@@ -27614,7 +27648,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:25" ht="15.75">
+    <row r="165" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>405</v>
       </c>
@@ -27669,7 +27703,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75">
+    <row r="166" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>407</v>
       </c>
@@ -27724,7 +27758,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:25" ht="15.75">
+    <row r="167" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>409</v>
       </c>
@@ -27779,7 +27813,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75">
+    <row r="168" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>411</v>
       </c>
@@ -27834,7 +27868,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -27885,7 +27919,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>415</v>
       </c>
@@ -27936,7 +27970,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>417</v>
       </c>
@@ -28014,7 +28048,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>419</v>
       </c>
@@ -28077,7 +28111,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1790</v>
       </c>
@@ -28155,7 +28189,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1797</v>
       </c>
@@ -28206,7 +28240,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1801</v>
       </c>
@@ -28269,7 +28303,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1807</v>
       </c>
@@ -28320,7 +28354,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1811</v>
       </c>
@@ -28383,7 +28417,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1817</v>
       </c>
@@ -28434,7 +28468,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1821</v>
       </c>
@@ -28485,7 +28519,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1825</v>
       </c>
@@ -28536,7 +28570,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1829</v>
       </c>
@@ -28599,7 +28633,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1835</v>
       </c>
@@ -28650,7 +28684,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1839</v>
       </c>
@@ -28701,7 +28735,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1843</v>
       </c>
@@ -28752,7 +28786,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1847</v>
       </c>
@@ -28815,7 +28849,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1853</v>
       </c>
@@ -28866,7 +28900,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1857</v>
       </c>
@@ -28917,7 +28951,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1861</v>
       </c>
@@ -28968,7 +29002,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1865</v>
       </c>
@@ -29031,7 +29065,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1871</v>
       </c>
@@ -29082,7 +29116,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1875</v>
       </c>
@@ -29133,7 +29167,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1879</v>
       </c>
@@ -29184,7 +29218,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1883</v>
       </c>
@@ -29235,7 +29269,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1887</v>
       </c>
@@ -29286,7 +29320,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1891</v>
       </c>
@@ -29349,7 +29383,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1897</v>
       </c>
@@ -29400,7 +29434,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1901</v>
       </c>
@@ -29463,7 +29497,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1907</v>
       </c>
@@ -29514,7 +29548,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1911</v>
       </c>
@@ -29577,7 +29611,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1917</v>
       </c>
@@ -29628,7 +29662,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1921</v>
       </c>
@@ -29691,7 +29725,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1927</v>
       </c>
@@ -29742,7 +29776,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1931</v>
       </c>
@@ -29793,7 +29827,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1935</v>
       </c>
@@ -29856,7 +29890,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1941</v>
       </c>
@@ -29919,7 +29953,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1947</v>
       </c>
@@ -29982,7 +30016,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1953</v>
       </c>
@@ -30045,7 +30079,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1959</v>
       </c>
@@ -30108,7 +30142,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1965</v>
       </c>
@@ -30171,7 +30205,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1971</v>
       </c>
@@ -30222,7 +30256,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1975</v>
       </c>
@@ -30285,7 +30319,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1981</v>
       </c>
@@ -30336,7 +30370,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1985</v>
       </c>
@@ -30399,7 +30433,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1991</v>
       </c>
@@ -30462,7 +30496,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1997</v>
       </c>
@@ -30525,7 +30559,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2003</v>
       </c>
@@ -30576,7 +30610,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2007</v>
       </c>
@@ -30639,7 +30673,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2013</v>
       </c>
@@ -30702,7 +30736,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2019</v>
       </c>
@@ -30765,7 +30799,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2025</v>
       </c>
@@ -30828,7 +30862,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2031</v>
       </c>
@@ -30891,7 +30925,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2037</v>
       </c>
@@ -30942,7 +30976,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2041</v>
       </c>
@@ -31005,7 +31039,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2047</v>
       </c>
@@ -31056,7 +31090,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2051</v>
       </c>
@@ -31119,7 +31153,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2057</v>
       </c>
@@ -31182,7 +31216,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2063</v>
       </c>
@@ -31245,7 +31279,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2069</v>
       </c>
@@ -31308,7 +31342,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2075</v>
       </c>
@@ -31371,7 +31405,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2081</v>
       </c>
@@ -31434,7 +31468,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2087</v>
       </c>
@@ -31497,7 +31531,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2093</v>
       </c>
@@ -31560,7 +31594,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2099</v>
       </c>
@@ -31623,7 +31657,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>2105</v>
       </c>
@@ -31686,7 +31720,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2111</v>
       </c>
@@ -31749,7 +31783,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2117</v>
       </c>
@@ -31812,7 +31846,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2123</v>
       </c>
@@ -31875,7 +31909,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2129</v>
       </c>
@@ -31938,7 +31972,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2135</v>
       </c>
@@ -32001,7 +32035,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2141</v>
       </c>
@@ -32064,7 +32098,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>2147</v>
       </c>
@@ -32127,7 +32161,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>2153</v>
       </c>
@@ -32190,7 +32224,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>2159</v>
       </c>
@@ -32253,7 +32287,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>2165</v>
       </c>
@@ -32304,7 +32338,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2169</v>
       </c>
@@ -32367,7 +32401,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2175</v>
       </c>
@@ -32430,7 +32464,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2181</v>
       </c>
@@ -32493,7 +32527,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2187</v>
       </c>
@@ -32556,7 +32590,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2193</v>
       </c>
@@ -32619,7 +32653,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2199</v>
       </c>
@@ -32682,7 +32716,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2205</v>
       </c>
@@ -32745,7 +32779,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2211</v>
       </c>
@@ -32808,7 +32842,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2217</v>
       </c>
@@ -32871,7 +32905,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2223</v>
       </c>
@@ -32934,7 +32968,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2229</v>
       </c>
@@ -32997,7 +33031,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2235</v>
       </c>
@@ -33060,7 +33094,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2241</v>
       </c>
@@ -33123,7 +33157,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2247</v>
       </c>
@@ -33186,7 +33220,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2253</v>
       </c>
@@ -33249,7 +33283,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2259</v>
       </c>
@@ -33312,7 +33346,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2265</v>
       </c>
@@ -33375,7 +33409,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2271</v>
       </c>
@@ -33438,7 +33472,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2277</v>
       </c>
@@ -33501,7 +33535,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2283</v>
       </c>
@@ -33564,7 +33598,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2289</v>
       </c>
@@ -33627,7 +33661,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2295</v>
       </c>
@@ -33690,7 +33724,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2301</v>
       </c>
@@ -33753,7 +33787,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2307</v>
       </c>
@@ -33804,7 +33838,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2311</v>
       </c>
@@ -33867,7 +33901,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>2317</v>
       </c>
@@ -33930,7 +33964,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2323</v>
       </c>
@@ -33993,7 +34027,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2329</v>
       </c>
@@ -34044,7 +34078,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2333</v>
       </c>
@@ -34107,7 +34141,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2339</v>
       </c>
@@ -34158,7 +34192,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2343</v>
       </c>
@@ -34221,7 +34255,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2349</v>
       </c>
@@ -34284,7 +34318,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2355</v>
       </c>
@@ -34347,7 +34381,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>2361</v>
       </c>
@@ -34410,7 +34444,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2367</v>
       </c>
@@ -34473,7 +34507,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2373</v>
       </c>
@@ -34536,7 +34570,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2379</v>
       </c>
@@ -34599,7 +34633,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2385</v>
       </c>
@@ -34662,7 +34696,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2391</v>
       </c>
@@ -34725,7 +34759,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2397</v>
       </c>
@@ -34776,7 +34810,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2401</v>
       </c>
@@ -34839,7 +34873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2407</v>
       </c>
@@ -34902,7 +34936,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>2413</v>
       </c>
@@ -34965,7 +34999,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>2419</v>
       </c>
@@ -35016,7 +35050,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>2423</v>
       </c>
@@ -35079,7 +35113,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2429</v>
       </c>
@@ -35142,7 +35176,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2435</v>
       </c>
@@ -35205,7 +35239,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>2441</v>
       </c>
@@ -35256,7 +35290,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>2445</v>
       </c>
@@ -35319,7 +35353,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2451</v>
       </c>
@@ -35370,7 +35404,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2455</v>
       </c>
@@ -35433,7 +35467,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2461</v>
       </c>
@@ -35496,7 +35530,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2467</v>
       </c>
@@ -35559,7 +35593,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2473</v>
       </c>
@@ -35610,7 +35644,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2477</v>
       </c>
@@ -35673,7 +35707,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2483</v>
       </c>
@@ -35736,7 +35770,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2489</v>
       </c>
@@ -35799,7 +35833,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2495</v>
       </c>
@@ -35862,7 +35896,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2501</v>
       </c>
@@ -35925,7 +35959,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2507</v>
       </c>
@@ -35976,7 +36010,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2511</v>
       </c>
@@ -36039,7 +36073,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2517</v>
       </c>
@@ -36102,7 +36136,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>2523</v>
       </c>
@@ -36165,7 +36199,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>2529</v>
       </c>
@@ -36228,7 +36262,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>2535</v>
       </c>
@@ -36291,7 +36325,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>2541</v>
       </c>
@@ -36354,7 +36388,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>2547</v>
       </c>
@@ -36405,7 +36439,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2551</v>
       </c>
@@ -36456,7 +36490,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>2555</v>
       </c>
@@ -36507,7 +36541,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>2559</v>
       </c>
@@ -36558,7 +36592,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>2563</v>
       </c>
@@ -36609,7 +36643,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>2567</v>
       </c>
@@ -36660,7 +36694,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>2571</v>
       </c>
@@ -36723,7 +36757,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2577</v>
       </c>
@@ -36774,7 +36808,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2581</v>
       </c>
@@ -36837,7 +36871,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>2587</v>
       </c>
@@ -36888,7 +36922,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>2591</v>
       </c>
@@ -36951,7 +36985,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>2597</v>
       </c>
@@ -37002,7 +37036,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>2601</v>
       </c>
@@ -37065,7 +37099,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>2607</v>
       </c>
@@ -37116,7 +37150,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>2611</v>
       </c>
@@ -37179,7 +37213,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>2617</v>
       </c>
@@ -37230,7 +37264,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>2621</v>
       </c>
@@ -37281,7 +37315,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2625</v>
       </c>
@@ -37332,7 +37366,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>2629</v>
       </c>
@@ -37383,7 +37417,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>2633</v>
       </c>
@@ -37434,7 +37468,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>2637</v>
       </c>
@@ -37485,7 +37519,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2641</v>
       </c>
@@ -37536,7 +37570,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2645</v>
       </c>
@@ -37599,7 +37633,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2651</v>
       </c>
@@ -37650,7 +37684,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2655</v>
       </c>
@@ -37701,7 +37735,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2659</v>
       </c>
@@ -37752,7 +37786,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="337" spans="1:25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2663</v>
       </c>
@@ -37803,7 +37837,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="338" spans="1:25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2667</v>
       </c>
@@ -37854,7 +37888,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2671</v>
       </c>
@@ -37905,7 +37939,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="340" spans="1:25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2675</v>
       </c>
@@ -37956,7 +37990,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="341" spans="1:25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2679</v>
       </c>
@@ -38019,7 +38053,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="14.45" customHeight="1">
+    <row r="342" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4348</v>
       </c>
@@ -38085,7 +38119,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="343" spans="1:25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4411</v>
       </c>
@@ -38151,7 +38185,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="15.75">
+    <row r="344" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>4594</v>
       </c>
@@ -38206,7 +38240,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
     </row>
-    <row r="345" spans="1:25" ht="15.75">
+    <row r="345" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>4604</v>
       </c>
@@ -38272,13 +38306,13 @@
   <dimension ref="A1:Y97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -38302,7 +38336,7 @@
     <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38379,7 +38413,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>477</v>
       </c>
@@ -38443,7 +38477,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>487</v>
       </c>
@@ -38507,7 +38541,7 @@
       </c>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>494</v>
       </c>
@@ -38571,7 +38605,7 @@
       </c>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>501</v>
       </c>
@@ -38635,7 +38669,7 @@
       </c>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -38699,7 +38733,7 @@
       </c>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>515</v>
       </c>
@@ -38763,7 +38797,7 @@
       </c>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>522</v>
       </c>
@@ -38827,7 +38861,7 @@
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -38891,7 +38925,7 @@
       </c>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>536</v>
       </c>
@@ -38955,7 +38989,7 @@
       </c>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -39019,7 +39053,7 @@
       </c>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -39083,7 +39117,7 @@
       </c>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>557</v>
       </c>
@@ -39147,7 +39181,7 @@
       </c>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>564</v>
       </c>
@@ -39211,7 +39245,7 @@
       </c>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>571</v>
       </c>
@@ -39275,7 +39309,7 @@
       </c>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>578</v>
       </c>
@@ -39339,7 +39373,7 @@
       </c>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>585</v>
       </c>
@@ -39403,7 +39437,7 @@
       </c>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>592</v>
       </c>
@@ -39467,7 +39501,7 @@
       </c>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>599</v>
       </c>
@@ -39531,7 +39565,7 @@
       </c>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>606</v>
       </c>
@@ -39595,7 +39629,7 @@
       </c>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>613</v>
       </c>
@@ -39659,7 +39693,7 @@
       </c>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>620</v>
       </c>
@@ -39723,7 +39757,7 @@
       </c>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>627</v>
       </c>
@@ -39787,7 +39821,7 @@
       </c>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>634</v>
       </c>
@@ -39851,7 +39885,7 @@
       </c>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>641</v>
       </c>
@@ -39915,7 +39949,7 @@
       </c>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>648</v>
       </c>
@@ -39979,7 +40013,7 @@
       </c>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>655</v>
       </c>
@@ -40043,7 +40077,7 @@
       </c>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>662</v>
       </c>
@@ -40107,7 +40141,7 @@
       </c>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>669</v>
       </c>
@@ -40171,7 +40205,7 @@
       </c>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>676</v>
       </c>
@@ -40235,7 +40269,7 @@
       </c>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>683</v>
       </c>
@@ -40299,7 +40333,7 @@
       </c>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>690</v>
       </c>
@@ -40363,7 +40397,7 @@
       </c>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>697</v>
       </c>
@@ -40427,7 +40461,7 @@
       </c>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>704</v>
       </c>
@@ -40489,9 +40523,23 @@
       <c r="T34" t="s">
         <v>710</v>
       </c>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="U34" s="12" t="s">
+        <v>4845</v>
+      </c>
+      <c r="V34" t="s">
+        <v>4863</v>
+      </c>
+      <c r="W34" t="s">
+        <v>4616</v>
+      </c>
+      <c r="X34" s="12" t="s">
+        <v>4862</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>711</v>
       </c>
@@ -40555,7 +40603,7 @@
       </c>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>718</v>
       </c>
@@ -40619,7 +40667,7 @@
       </c>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>725</v>
       </c>
@@ -40683,7 +40731,7 @@
       </c>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>732</v>
       </c>
@@ -40747,7 +40795,7 @@
       </c>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>739</v>
       </c>
@@ -40811,7 +40859,7 @@
       </c>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>746</v>
       </c>
@@ -40875,7 +40923,7 @@
       </c>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>753</v>
       </c>
@@ -40927,7 +40975,7 @@
       </c>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>758</v>
       </c>
@@ -40991,7 +41039,7 @@
       </c>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>765</v>
       </c>
@@ -41055,7 +41103,7 @@
       </c>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>772</v>
       </c>
@@ -41119,7 +41167,7 @@
       </c>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>779</v>
       </c>
@@ -41171,7 +41219,7 @@
       </c>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>784</v>
       </c>
@@ -41223,7 +41271,7 @@
       </c>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>789</v>
       </c>
@@ -41275,7 +41323,7 @@
       </c>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>794</v>
       </c>
@@ -41327,7 +41375,7 @@
       </c>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>799</v>
       </c>
@@ -41391,7 +41439,7 @@
       </c>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>807</v>
       </c>
@@ -41443,7 +41491,7 @@
       </c>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>811</v>
       </c>
@@ -41507,7 +41555,7 @@
       </c>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>817</v>
       </c>
@@ -41571,7 +41619,7 @@
       </c>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>823</v>
       </c>
@@ -41635,7 +41683,7 @@
       </c>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>829</v>
       </c>
@@ -41699,7 +41747,7 @@
       </c>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>835</v>
       </c>
@@ -41763,7 +41811,7 @@
       </c>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>841</v>
       </c>
@@ -41827,7 +41875,7 @@
       </c>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>847</v>
       </c>
@@ -41890,7 +41938,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>853</v>
       </c>
@@ -41954,7 +42002,7 @@
       </c>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>859</v>
       </c>
@@ -42018,7 +42066,7 @@
       </c>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>865</v>
       </c>
@@ -42082,7 +42130,7 @@
       </c>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>871</v>
       </c>
@@ -42146,7 +42194,7 @@
       </c>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>877</v>
       </c>
@@ -42210,7 +42258,7 @@
       </c>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>883</v>
       </c>
@@ -42274,7 +42322,7 @@
       </c>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>889</v>
       </c>
@@ -42338,7 +42386,7 @@
       </c>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>895</v>
       </c>
@@ -42402,7 +42450,7 @@
       </c>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>901</v>
       </c>
@@ -42466,7 +42514,7 @@
       </c>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>907</v>
       </c>
@@ -42530,7 +42578,7 @@
       </c>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>913</v>
       </c>
@@ -42594,7 +42642,7 @@
       </c>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>919</v>
       </c>
@@ -42658,7 +42706,7 @@
       </c>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>925</v>
       </c>
@@ -42722,7 +42770,7 @@
       </c>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>932</v>
       </c>
@@ -42786,7 +42834,7 @@
       </c>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>938</v>
       </c>
@@ -42850,7 +42898,7 @@
       </c>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>945</v>
       </c>
@@ -42914,7 +42962,7 @@
       </c>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>951</v>
       </c>
@@ -42978,7 +43026,7 @@
       </c>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>958</v>
       </c>
@@ -43042,7 +43090,7 @@
       </c>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>965</v>
       </c>
@@ -43106,7 +43154,7 @@
       </c>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>972</v>
       </c>
@@ -43170,7 +43218,7 @@
       </c>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>979</v>
       </c>
@@ -43234,7 +43282,7 @@
       </c>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>986</v>
       </c>
@@ -43298,7 +43346,7 @@
       </c>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>993</v>
       </c>
@@ -43362,7 +43410,7 @@
       </c>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1000</v>
       </c>
@@ -43426,7 +43474,7 @@
       </c>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1007</v>
       </c>
@@ -43478,7 +43526,7 @@
       </c>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1012</v>
       </c>
@@ -43542,7 +43590,7 @@
       </c>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1020</v>
       </c>
@@ -43606,7 +43654,7 @@
       </c>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1027</v>
       </c>
@@ -43684,7 +43732,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1034</v>
       </c>
@@ -43736,7 +43784,7 @@
       </c>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1039</v>
       </c>
@@ -43800,7 +43848,7 @@
       </c>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1046</v>
       </c>
@@ -43864,7 +43912,7 @@
       </c>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1053</v>
       </c>
@@ -43916,7 +43964,7 @@
       </c>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1058</v>
       </c>
@@ -43968,7 +44016,7 @@
       </c>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1063</v>
       </c>
@@ -44031,7 +44079,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4592</v>
       </c>
@@ -44094,7 +44142,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4651</v>
       </c>
@@ -44148,7 +44196,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4837</v>
       </c>
@@ -44198,7 +44246,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>847</v>
       </c>
@@ -44248,7 +44296,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4843</v>
       </c>
@@ -44298,7 +44346,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4848</v>
       </c>
@@ -44365,7 +44413,7 @@
       <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -44374,7 +44422,7 @@
     <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44451,7 +44499,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4617</v>
       </c>
@@ -44517,7 +44565,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4618</v>
       </c>
@@ -44583,7 +44631,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4619</v>
       </c>
@@ -44649,7 +44697,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4620</v>
       </c>
@@ -44715,7 +44763,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4621</v>
       </c>
@@ -44778,7 +44826,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4622</v>
       </c>
@@ -44841,7 +44889,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4623</v>
       </c>
@@ -44907,7 +44955,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4624</v>
       </c>
@@ -44973,7 +45021,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4625</v>
       </c>
@@ -45039,7 +45087,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4626</v>
       </c>
@@ -45105,7 +45153,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4627</v>
       </c>
@@ -45171,7 +45219,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4628</v>
       </c>
@@ -45234,7 +45282,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4629</v>
       </c>
@@ -45318,14 +45366,14 @@
       <selection pane="bottomRight" activeCell="X505" sqref="X505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -45402,7 +45450,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2710</v>
       </c>
@@ -45479,7 +45527,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2722</v>
       </c>
@@ -45529,7 +45577,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2725</v>
       </c>
@@ -45591,7 +45639,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2731</v>
       </c>
@@ -45641,7 +45689,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2734</v>
       </c>
@@ -45703,7 +45751,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2740</v>
       </c>
@@ -45753,7 +45801,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2744</v>
       </c>
@@ -45803,7 +45851,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2748</v>
       </c>
@@ -45865,7 +45913,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2754</v>
       </c>
@@ -45915,7 +45963,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2758</v>
       </c>
@@ -45965,7 +46013,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2761</v>
       </c>
@@ -46027,7 +46075,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2767</v>
       </c>
@@ -46077,7 +46125,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2770</v>
       </c>
@@ -46139,7 +46187,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2776</v>
       </c>
@@ -46189,7 +46237,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2779</v>
       </c>
@@ -46239,7 +46287,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2783</v>
       </c>
@@ -46301,7 +46349,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2789</v>
       </c>
@@ -46351,7 +46399,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2792</v>
       </c>
@@ -46413,7 +46461,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2798</v>
       </c>
@@ -46463,7 +46511,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2801</v>
       </c>
@@ -46525,7 +46573,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2807</v>
       </c>
@@ -46575,7 +46623,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2810</v>
       </c>
@@ -46637,7 +46685,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2816</v>
       </c>
@@ -46687,7 +46735,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2819</v>
       </c>
@@ -46749,7 +46797,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2825</v>
       </c>
@@ -46799,7 +46847,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2828</v>
       </c>
@@ -46849,7 +46897,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2832</v>
       </c>
@@ -46911,7 +46959,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2838</v>
       </c>
@@ -46961,7 +47009,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2841</v>
       </c>
@@ -47023,7 +47071,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2847</v>
       </c>
@@ -47073,7 +47121,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2850</v>
       </c>
@@ -47135,7 +47183,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2856</v>
       </c>
@@ -47185,7 +47233,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2859</v>
       </c>
@@ -47247,7 +47295,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2865</v>
       </c>
@@ -47297,7 +47345,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2868</v>
       </c>
@@ -47359,7 +47407,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2874</v>
       </c>
@@ -47409,7 +47457,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2877</v>
       </c>
@@ -47471,7 +47519,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2883</v>
       </c>
@@ -47521,7 +47569,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2886</v>
       </c>
@@ -47583,7 +47631,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2892</v>
       </c>
@@ -47633,7 +47681,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2895</v>
       </c>
@@ -47695,7 +47743,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2901</v>
       </c>
@@ -47745,7 +47793,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2904</v>
       </c>
@@ -47807,7 +47855,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2911</v>
       </c>
@@ -47857,7 +47905,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2914</v>
       </c>
@@ -47919,7 +47967,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2920</v>
       </c>
@@ -47969,7 +48017,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2923</v>
       </c>
@@ -48019,7 +48067,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2927</v>
       </c>
@@ -48069,7 +48117,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2930</v>
       </c>
@@ -48119,7 +48167,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2934</v>
       </c>
@@ -48181,7 +48229,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2940</v>
       </c>
@@ -48231,7 +48279,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2943</v>
       </c>
@@ -48281,7 +48329,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2947</v>
       </c>
@@ -48331,7 +48379,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2950</v>
       </c>
@@ -48381,7 +48429,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2954</v>
       </c>
@@ -48431,7 +48479,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2957</v>
       </c>
@@ -48481,7 +48529,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2961</v>
       </c>
@@ -48531,7 +48579,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2964</v>
       </c>
@@ -48581,7 +48629,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2968</v>
       </c>
@@ -48631,7 +48679,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2971</v>
       </c>
@@ -48681,7 +48729,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2975</v>
       </c>
@@ -48731,7 +48779,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2979</v>
       </c>
@@ -48781,7 +48829,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2983</v>
       </c>
@@ -48831,7 +48879,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2986</v>
       </c>
@@ -48881,7 +48929,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2990</v>
       </c>
@@ -48931,7 +48979,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2993</v>
       </c>
@@ -48981,7 +49029,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2997</v>
       </c>
@@ -49031,7 +49079,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3001</v>
       </c>
@@ -49081,7 +49129,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3005</v>
       </c>
@@ -49131,7 +49179,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3009</v>
       </c>
@@ -49181,7 +49229,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3015</v>
       </c>
@@ -49231,7 +49279,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3017</v>
       </c>
@@ -49281,7 +49329,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3020</v>
       </c>
@@ -49331,7 +49379,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3022</v>
       </c>
@@ -49381,7 +49429,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3025</v>
       </c>
@@ -49431,7 +49479,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3027</v>
       </c>
@@ -49481,7 +49529,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3030</v>
       </c>
@@ -49531,7 +49579,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3032</v>
       </c>
@@ -49581,7 +49629,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3035</v>
       </c>
@@ -49631,7 +49679,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3037</v>
       </c>
@@ -49681,7 +49729,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3040</v>
       </c>
@@ -49731,7 +49779,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3042</v>
       </c>
@@ -49781,7 +49829,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3045</v>
       </c>
@@ -49831,7 +49879,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3047</v>
       </c>
@@ -49881,7 +49929,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3050</v>
       </c>
@@ -49931,7 +49979,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3052</v>
       </c>
@@ -49981,7 +50029,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3055</v>
       </c>
@@ -50031,7 +50079,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3057</v>
       </c>
@@ -50081,7 +50129,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3060</v>
       </c>
@@ -50131,7 +50179,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3062</v>
       </c>
@@ -50181,7 +50229,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3065</v>
       </c>
@@ -50231,7 +50279,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3067</v>
       </c>
@@ -50281,7 +50329,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3070</v>
       </c>
@@ -50331,7 +50379,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3072</v>
       </c>
@@ -50381,7 +50429,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3075</v>
       </c>
@@ -50431,7 +50479,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3077</v>
       </c>
@@ -50481,7 +50529,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3080</v>
       </c>
@@ -50531,7 +50579,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3082</v>
       </c>
@@ -50581,7 +50629,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3085</v>
       </c>
@@ -50631,7 +50679,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3087</v>
       </c>
@@ -50681,7 +50729,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3090</v>
       </c>
@@ -50731,7 +50779,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3092</v>
       </c>
@@ -50781,7 +50829,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3095</v>
       </c>
@@ -50831,7 +50879,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3097</v>
       </c>
@@ -50881,7 +50929,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3100</v>
       </c>
@@ -50931,7 +50979,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3102</v>
       </c>
@@ -50981,7 +51029,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3105</v>
       </c>
@@ -51031,7 +51079,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3107</v>
       </c>
@@ -51081,7 +51129,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3110</v>
       </c>
@@ -51131,7 +51179,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3112</v>
       </c>
@@ -51181,7 +51229,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3115</v>
       </c>
@@ -51231,7 +51279,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3117</v>
       </c>
@@ -51281,7 +51329,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3120</v>
       </c>
@@ -51331,7 +51379,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3122</v>
       </c>
@@ -51381,7 +51429,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3125</v>
       </c>
@@ -51431,7 +51479,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3127</v>
       </c>
@@ -51481,7 +51529,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3130</v>
       </c>
@@ -51531,7 +51579,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3132</v>
       </c>
@@ -51581,7 +51629,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3135</v>
       </c>
@@ -51631,7 +51679,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3137</v>
       </c>
@@ -51681,7 +51729,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3140</v>
       </c>
@@ -51731,7 +51779,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>3142</v>
       </c>
@@ -51781,7 +51829,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3145</v>
       </c>
@@ -51831,7 +51879,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>3147</v>
       </c>
@@ -51881,7 +51929,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3150</v>
       </c>
@@ -51931,7 +51979,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>3152</v>
       </c>
@@ -51981,7 +52029,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>3155</v>
       </c>
@@ -52031,7 +52079,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>3157</v>
       </c>
@@ -52081,7 +52129,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3160</v>
       </c>
@@ -52131,7 +52179,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3162</v>
       </c>
@@ -52181,7 +52229,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3165</v>
       </c>
@@ -52231,7 +52279,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3167</v>
       </c>
@@ -52281,7 +52329,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>3170</v>
       </c>
@@ -52331,7 +52379,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3172</v>
       </c>
@@ -52381,7 +52429,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>3175</v>
       </c>
@@ -52431,7 +52479,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3177</v>
       </c>
@@ -52481,7 +52529,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>3180</v>
       </c>
@@ -52531,7 +52579,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>3182</v>
       </c>
@@ -52581,7 +52629,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3185</v>
       </c>
@@ -52631,7 +52679,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3187</v>
       </c>
@@ -52681,7 +52729,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>3190</v>
       </c>
@@ -52731,7 +52779,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>3192</v>
       </c>
@@ -52781,7 +52829,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3196</v>
       </c>
@@ -52831,7 +52879,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>3198</v>
       </c>
@@ -52881,7 +52929,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>3201</v>
       </c>
@@ -52931,7 +52979,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>3203</v>
       </c>
@@ -52981,7 +53029,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>3207</v>
       </c>
@@ -53031,7 +53079,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3209</v>
       </c>
@@ -53081,7 +53129,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>3213</v>
       </c>
@@ -53131,7 +53179,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>3215</v>
       </c>
@@ -53181,7 +53229,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>3219</v>
       </c>
@@ -53231,7 +53279,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>3221</v>
       </c>
@@ -53281,7 +53329,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>3225</v>
       </c>
@@ -53331,7 +53379,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>3227</v>
       </c>
@@ -53381,7 +53429,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3231</v>
       </c>
@@ -53431,7 +53479,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>3233</v>
       </c>
@@ -53481,7 +53529,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>3236</v>
       </c>
@@ -53531,7 +53579,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>3238</v>
       </c>
@@ -53581,7 +53629,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3242</v>
       </c>
@@ -53631,7 +53679,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3244</v>
       </c>
@@ -53681,7 +53729,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>3248</v>
       </c>
@@ -53731,7 +53779,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>3250</v>
       </c>
@@ -53781,7 +53829,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>3253</v>
       </c>
@@ -53831,7 +53879,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>3257</v>
       </c>
@@ -53881,7 +53929,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>3259</v>
       </c>
@@ -53931,7 +53979,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>3262</v>
       </c>
@@ -53981,7 +54029,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>3264</v>
       </c>
@@ -54031,7 +54079,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>3267</v>
       </c>
@@ -54081,7 +54129,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>3269</v>
       </c>
@@ -54131,7 +54179,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>3273</v>
       </c>
@@ -54181,7 +54229,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>3275</v>
       </c>
@@ -54231,7 +54279,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>3279</v>
       </c>
@@ -54281,7 +54329,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>3281</v>
       </c>
@@ -54331,7 +54379,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3285</v>
       </c>
@@ -54381,7 +54429,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3287</v>
       </c>
@@ -54431,7 +54479,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>3291</v>
       </c>
@@ -54481,7 +54529,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>3293</v>
       </c>
@@ -54531,7 +54579,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>3297</v>
       </c>
@@ -54581,7 +54629,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>3299</v>
       </c>
@@ -54631,7 +54679,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>3305</v>
       </c>
@@ -54693,7 +54741,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>3309</v>
       </c>
@@ -54743,7 +54791,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>3312</v>
       </c>
@@ -54793,7 +54841,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>3314</v>
       </c>
@@ -54843,7 +54891,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>3317</v>
       </c>
@@ -54893,7 +54941,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>3319</v>
       </c>
@@ -54943,7 +54991,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>3322</v>
       </c>
@@ -54993,7 +55041,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>3324</v>
       </c>
@@ -55043,7 +55091,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>3327</v>
       </c>
@@ -55093,7 +55141,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>3329</v>
       </c>
@@ -55143,7 +55191,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>3332</v>
       </c>
@@ -55193,7 +55241,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3334</v>
       </c>
@@ -55243,7 +55291,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3337</v>
       </c>
@@ -55293,7 +55341,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3339</v>
       </c>
@@ -55343,7 +55391,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3342</v>
       </c>
@@ -55393,7 +55441,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3344</v>
       </c>
@@ -55443,7 +55491,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3347</v>
       </c>
@@ -55493,7 +55541,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3349</v>
       </c>
@@ -55543,7 +55591,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3352</v>
       </c>
@@ -55593,7 +55641,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3354</v>
       </c>
@@ -55643,7 +55691,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3357</v>
       </c>
@@ -55693,7 +55741,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3359</v>
       </c>
@@ -55743,7 +55791,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3362</v>
       </c>
@@ -55793,7 +55841,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3364</v>
       </c>
@@ -55843,7 +55891,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3367</v>
       </c>
@@ -55893,7 +55941,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3369</v>
       </c>
@@ -55943,7 +55991,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3372</v>
       </c>
@@ -55993,7 +56041,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3374</v>
       </c>
@@ -56043,7 +56091,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>3377</v>
       </c>
@@ -56093,7 +56141,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3379</v>
       </c>
@@ -56143,7 +56191,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3382</v>
       </c>
@@ -56193,7 +56241,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3384</v>
       </c>
@@ -56243,7 +56291,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>3387</v>
       </c>
@@ -56293,7 +56341,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3389</v>
       </c>
@@ -56343,7 +56391,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3392</v>
       </c>
@@ -56393,7 +56441,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3394</v>
       </c>
@@ -56443,7 +56491,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3397</v>
       </c>
@@ -56493,7 +56541,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3399</v>
       </c>
@@ -56543,7 +56591,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3402</v>
       </c>
@@ -56593,7 +56641,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3404</v>
       </c>
@@ -56643,7 +56691,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3407</v>
       </c>
@@ -56693,7 +56741,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3409</v>
       </c>
@@ -56743,7 +56791,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3412</v>
       </c>
@@ -56793,7 +56841,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3414</v>
       </c>
@@ -56843,7 +56891,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>3417</v>
       </c>
@@ -56893,7 +56941,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3419</v>
       </c>
@@ -56943,7 +56991,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3422</v>
       </c>
@@ -56993,7 +57041,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3424</v>
       </c>
@@ -57043,7 +57091,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3427</v>
       </c>
@@ -57093,7 +57141,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3429</v>
       </c>
@@ -57143,7 +57191,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3432</v>
       </c>
@@ -57193,7 +57241,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3434</v>
       </c>
@@ -57243,7 +57291,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3437</v>
       </c>
@@ -57293,7 +57341,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3439</v>
       </c>
@@ -57343,7 +57391,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3442</v>
       </c>
@@ -57393,7 +57441,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3444</v>
       </c>
@@ -57443,7 +57491,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3447</v>
       </c>
@@ -57493,7 +57541,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3449</v>
       </c>
@@ -57543,7 +57591,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3452</v>
       </c>
@@ -57593,7 +57641,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3454</v>
       </c>
@@ -57643,7 +57691,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3457</v>
       </c>
@@ -57693,7 +57741,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3459</v>
       </c>
@@ -57743,7 +57791,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3462</v>
       </c>
@@ -57793,7 +57841,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3464</v>
       </c>
@@ -57843,7 +57891,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3467</v>
       </c>
@@ -57893,7 +57941,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3469</v>
       </c>
@@ -57943,7 +57991,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3472</v>
       </c>
@@ -57993,7 +58041,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3474</v>
       </c>
@@ -58043,7 +58091,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3477</v>
       </c>
@@ -58093,7 +58141,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3479</v>
       </c>
@@ -58143,7 +58191,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3482</v>
       </c>
@@ -58193,7 +58241,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3484</v>
       </c>
@@ -58243,7 +58291,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3487</v>
       </c>
@@ -58293,7 +58341,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3489</v>
       </c>
@@ -58355,7 +58403,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3494</v>
       </c>
@@ -58405,7 +58453,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3496</v>
       </c>
@@ -58455,7 +58503,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3499</v>
       </c>
@@ -58505,7 +58553,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3501</v>
       </c>
@@ -58555,7 +58603,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3504</v>
       </c>
@@ -58605,7 +58653,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3506</v>
       </c>
@@ -58655,7 +58703,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>3509</v>
       </c>
@@ -58705,7 +58753,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>3511</v>
       </c>
@@ -58755,7 +58803,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>3514</v>
       </c>
@@ -58805,7 +58853,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>3516</v>
       </c>
@@ -58855,7 +58903,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>3519</v>
       </c>
@@ -58905,7 +58953,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>3521</v>
       </c>
@@ -58955,7 +59003,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3524</v>
       </c>
@@ -59005,7 +59053,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>3526</v>
       </c>
@@ -59055,7 +59103,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3529</v>
       </c>
@@ -59105,7 +59153,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3531</v>
       </c>
@@ -59155,7 +59203,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3534</v>
       </c>
@@ -59217,7 +59265,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>3538</v>
       </c>
@@ -59267,7 +59315,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>3541</v>
       </c>
@@ -59317,7 +59365,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>3543</v>
       </c>
@@ -59367,7 +59415,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>3546</v>
       </c>
@@ -59417,7 +59465,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>3548</v>
       </c>
@@ -59467,7 +59515,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>3551</v>
       </c>
@@ -59517,7 +59565,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>3553</v>
       </c>
@@ -59567,7 +59615,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>3556</v>
       </c>
@@ -59617,7 +59665,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3558</v>
       </c>
@@ -59667,7 +59715,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3561</v>
       </c>
@@ -59717,7 +59765,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>3563</v>
       </c>
@@ -59767,7 +59815,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>3566</v>
       </c>
@@ -59817,7 +59865,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>3568</v>
       </c>
@@ -59867,7 +59915,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3571</v>
       </c>
@@ -59917,7 +59965,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3573</v>
       </c>
@@ -59967,7 +60015,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>3576</v>
       </c>
@@ -60017,7 +60065,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3578</v>
       </c>
@@ -60067,7 +60115,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3581</v>
       </c>
@@ -60117,7 +60165,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="290" spans="1:20">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>3584</v>
       </c>
@@ -60167,7 +60215,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="291" spans="1:20">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3590</v>
       </c>
@@ -60229,7 +60277,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3594</v>
       </c>
@@ -60279,7 +60327,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>3597</v>
       </c>
@@ -60329,7 +60377,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="294" spans="1:20">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3599</v>
       </c>
@@ -60379,7 +60427,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3602</v>
       </c>
@@ -60429,7 +60477,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3604</v>
       </c>
@@ -60479,7 +60527,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>3607</v>
       </c>
@@ -60529,7 +60577,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="298" spans="1:20">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>3609</v>
       </c>
@@ -60579,7 +60627,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>3612</v>
       </c>
@@ -60629,7 +60677,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="300" spans="1:20">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>3614</v>
       </c>
@@ -60679,7 +60727,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3617</v>
       </c>
@@ -60729,7 +60777,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>3619</v>
       </c>
@@ -60779,7 +60827,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3622</v>
       </c>
@@ -60829,7 +60877,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3627</v>
       </c>
@@ -60879,7 +60927,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>3630</v>
       </c>
@@ -60929,7 +60977,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>3632</v>
       </c>
@@ -60979,7 +61027,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3635</v>
       </c>
@@ -61029,7 +61077,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3637</v>
       </c>
@@ -61079,7 +61127,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>3640</v>
       </c>
@@ -61129,7 +61177,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>3642</v>
       </c>
@@ -61191,7 +61239,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>3647</v>
       </c>
@@ -61253,7 +61301,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>3651</v>
       </c>
@@ -61315,7 +61363,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>3656</v>
       </c>
@@ -61365,7 +61413,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>3658</v>
       </c>
@@ -61415,7 +61463,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>3661</v>
       </c>
@@ -61477,7 +61525,7 @@
         <v>3664</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>3665</v>
       </c>
@@ -61539,7 +61587,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>3670</v>
       </c>
@@ -61589,7 +61637,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>3672</v>
       </c>
@@ -61651,7 +61699,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>3677</v>
       </c>
@@ -61701,7 +61749,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>3679</v>
       </c>
@@ -61751,7 +61799,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>3682</v>
       </c>
@@ -61801,7 +61849,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>3684</v>
       </c>
@@ -61851,7 +61899,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>3687</v>
       </c>
@@ -61901,7 +61949,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>3689</v>
       </c>
@@ -61963,7 +62011,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>3694</v>
       </c>
@@ -62013,7 +62061,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>3696</v>
       </c>
@@ -62063,7 +62111,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>3699</v>
       </c>
@@ -62113,7 +62161,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>3701</v>
       </c>
@@ -62163,7 +62211,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>3704</v>
       </c>
@@ -62225,7 +62273,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>3708</v>
       </c>
@@ -62275,7 +62323,7 @@
         <v>3710</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>3711</v>
       </c>
@@ -62325,7 +62373,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>3713</v>
       </c>
@@ -62387,7 +62435,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>3718</v>
       </c>
@@ -62449,7 +62497,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>3722</v>
       </c>
@@ -62511,7 +62559,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>3727</v>
       </c>
@@ -62573,7 +62621,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>3731</v>
       </c>
@@ -62623,7 +62671,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="337" spans="1:20">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>3734</v>
       </c>
@@ -62685,7 +62733,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="338" spans="1:20">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>3738</v>
       </c>
@@ -62747,7 +62795,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>3743</v>
       </c>
@@ -62809,7 +62857,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>3747</v>
       </c>
@@ -62871,7 +62919,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>3752</v>
       </c>
@@ -62933,7 +62981,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>3756</v>
       </c>
@@ -62983,7 +63031,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>3759</v>
       </c>
@@ -63033,7 +63081,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>3761</v>
       </c>
@@ -63083,7 +63131,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>3764</v>
       </c>
@@ -63133,7 +63181,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>3766</v>
       </c>
@@ -63183,7 +63231,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>3769</v>
       </c>
@@ -63245,7 +63293,7 @@
         <v>3772</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>3773</v>
       </c>
@@ -63295,7 +63343,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>3776</v>
       </c>
@@ -63357,7 +63405,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="350" spans="1:20">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>3780</v>
       </c>
@@ -63407,7 +63455,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>3783</v>
       </c>
@@ -63457,7 +63505,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="352" spans="1:20">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>3785</v>
       </c>
@@ -63507,7 +63555,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="353" spans="1:20">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>3788</v>
       </c>
@@ -63569,7 +63617,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="354" spans="1:20">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>3792</v>
       </c>
@@ -63619,7 +63667,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="355" spans="1:20">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>3795</v>
       </c>
@@ -63669,7 +63717,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>3797</v>
       </c>
@@ -63719,7 +63767,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="357" spans="1:20">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>3800</v>
       </c>
@@ -63769,7 +63817,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>3802</v>
       </c>
@@ -63819,7 +63867,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="359" spans="1:20">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>3805</v>
       </c>
@@ -63869,7 +63917,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="360" spans="1:20">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>3807</v>
       </c>
@@ -63919,7 +63967,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="361" spans="1:20">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>3810</v>
       </c>
@@ -63969,7 +64017,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="362" spans="1:20">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>3812</v>
       </c>
@@ -64019,7 +64067,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="363" spans="1:20">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>3815</v>
       </c>
@@ -64069,7 +64117,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="364" spans="1:20">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>3817</v>
       </c>
@@ -64119,7 +64167,7 @@
         <v>3819</v>
       </c>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>3820</v>
       </c>
@@ -64169,7 +64217,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="366" spans="1:20">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3822</v>
       </c>
@@ -64219,7 +64267,7 @@
         <v>3824</v>
       </c>
     </row>
-    <row r="367" spans="1:20">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>3825</v>
       </c>
@@ -64269,7 +64317,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="368" spans="1:20">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>3827</v>
       </c>
@@ -64319,7 +64367,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="369" spans="1:16">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>3830</v>
       </c>
@@ -64369,7 +64417,7 @@
         <v>3831</v>
       </c>
     </row>
-    <row r="370" spans="1:16">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>3832</v>
       </c>
@@ -64419,7 +64467,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="371" spans="1:16">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>3835</v>
       </c>
@@ -64469,7 +64517,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="372" spans="1:16">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>3837</v>
       </c>
@@ -64519,7 +64567,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="373" spans="1:16">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>3840</v>
       </c>
@@ -64569,7 +64617,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="374" spans="1:16">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>3842</v>
       </c>
@@ -64619,7 +64667,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="375" spans="1:16">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>3845</v>
       </c>
@@ -64669,7 +64717,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="376" spans="1:16">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>3847</v>
       </c>
@@ -64719,7 +64767,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="377" spans="1:16">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>3850</v>
       </c>
@@ -64769,7 +64817,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="378" spans="1:16">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>3852</v>
       </c>
@@ -64819,7 +64867,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="379" spans="1:16">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>3855</v>
       </c>
@@ -64869,7 +64917,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="380" spans="1:16">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>3857</v>
       </c>
@@ -64919,7 +64967,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="381" spans="1:16">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>3860</v>
       </c>
@@ -64969,7 +65017,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="382" spans="1:16">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>3862</v>
       </c>
@@ -65019,7 +65067,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="383" spans="1:16">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>3865</v>
       </c>
@@ -65069,7 +65117,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="384" spans="1:16">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>3867</v>
       </c>
@@ -65119,7 +65167,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="385" spans="1:16">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>3870</v>
       </c>
@@ -65169,7 +65217,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="386" spans="1:16">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>3872</v>
       </c>
@@ -65219,7 +65267,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="387" spans="1:16">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>3875</v>
       </c>
@@ -65269,7 +65317,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="388" spans="1:16">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>3877</v>
       </c>
@@ -65319,7 +65367,7 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="389" spans="1:16">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>3880</v>
       </c>
@@ -65369,7 +65417,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="390" spans="1:16">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3882</v>
       </c>
@@ -65419,7 +65467,7 @@
         <v>3884</v>
       </c>
     </row>
-    <row r="391" spans="1:16">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>3885</v>
       </c>
@@ -65469,7 +65517,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="392" spans="1:16">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>3887</v>
       </c>
@@ -65519,7 +65567,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="393" spans="1:16">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>3890</v>
       </c>
@@ -65569,7 +65617,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="394" spans="1:16">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>3892</v>
       </c>
@@ -65619,7 +65667,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="395" spans="1:16">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>3895</v>
       </c>
@@ -65669,7 +65717,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="396" spans="1:16">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>3897</v>
       </c>
@@ -65719,7 +65767,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="397" spans="1:16">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>3900</v>
       </c>
@@ -65769,7 +65817,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>3914</v>
       </c>
@@ -65819,7 +65867,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="399" spans="1:16">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>3919</v>
       </c>
@@ -65869,7 +65917,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="400" spans="1:16">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>3922</v>
       </c>
@@ -65919,7 +65967,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="401" spans="1:20">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>3926</v>
       </c>
@@ -65969,7 +66017,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="402" spans="1:20">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>3929</v>
       </c>
@@ -66019,7 +66067,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="403" spans="1:20">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>3933</v>
       </c>
@@ -66069,7 +66117,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="404" spans="1:20">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>3936</v>
       </c>
@@ -66119,7 +66167,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="405" spans="1:20">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>3940</v>
       </c>
@@ -66169,7 +66217,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="406" spans="1:20">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>3943</v>
       </c>
@@ -66219,7 +66267,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="407" spans="1:20">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>3947</v>
       </c>
@@ -66269,7 +66317,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="408" spans="1:20">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>3950</v>
       </c>
@@ -66319,7 +66367,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="409" spans="1:20">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>3954</v>
       </c>
@@ -66369,7 +66417,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="410" spans="1:20">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>3957</v>
       </c>
@@ -66419,7 +66467,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="411" spans="1:20">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>3961</v>
       </c>
@@ -66469,7 +66517,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="412" spans="1:20">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>3964</v>
       </c>
@@ -66519,7 +66567,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="413" spans="1:20">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>3968</v>
       </c>
@@ -66569,7 +66617,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="414" spans="1:20">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>3971</v>
       </c>
@@ -66619,7 +66667,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="415" spans="1:20">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>3975</v>
       </c>
@@ -66669,7 +66717,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="416" spans="1:20">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>3978</v>
       </c>
@@ -66731,7 +66779,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="417" spans="1:20">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>3983</v>
       </c>
@@ -66793,7 +66841,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="418" spans="1:20">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>3987</v>
       </c>
@@ -66855,7 +66903,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="419" spans="1:20">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>3992</v>
       </c>
@@ -66917,7 +66965,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="420" spans="1:20">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>3996</v>
       </c>
@@ -66979,7 +67027,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>4001</v>
       </c>
@@ -67041,7 +67089,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="422" spans="1:20">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4005</v>
       </c>
@@ -67103,7 +67151,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="423" spans="1:20">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4010</v>
       </c>
@@ -67165,7 +67213,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>4014</v>
       </c>
@@ -67215,7 +67263,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4017</v>
       </c>
@@ -67277,7 +67325,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4022</v>
       </c>
@@ -67339,7 +67387,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4027</v>
       </c>
@@ -67401,7 +67449,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="428" spans="1:20">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4031</v>
       </c>
@@ -67463,7 +67511,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="429" spans="1:20">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4036</v>
       </c>
@@ -67525,7 +67573,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="430" spans="1:20">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4040</v>
       </c>
@@ -67587,7 +67635,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="431" spans="1:20">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>4045</v>
       </c>
@@ -67649,7 +67697,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="432" spans="1:20">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>4049</v>
       </c>
@@ -67711,7 +67759,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="433" spans="1:20">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>4054</v>
       </c>
@@ -67773,7 +67821,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="434" spans="1:20">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>4058</v>
       </c>
@@ -67835,7 +67883,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="435" spans="1:20">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>4063</v>
       </c>
@@ -67897,7 +67945,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="436" spans="1:20">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4067</v>
       </c>
@@ -67959,7 +68007,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="437" spans="1:20">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4072</v>
       </c>
@@ -68021,7 +68069,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="438" spans="1:20">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>4076</v>
       </c>
@@ -68083,7 +68131,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="439" spans="1:20">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4081</v>
       </c>
@@ -68145,7 +68193,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="440" spans="1:20">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>4085</v>
       </c>
@@ -68207,7 +68255,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="441" spans="1:20">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4090</v>
       </c>
@@ -68269,7 +68317,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="442" spans="1:20">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>4094</v>
       </c>
@@ -68331,7 +68379,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="443" spans="1:20">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>4098</v>
       </c>
@@ -68393,7 +68441,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="444" spans="1:20">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>4102</v>
       </c>
@@ -68455,7 +68503,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="445" spans="1:20">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4106</v>
       </c>
@@ -68517,7 +68565,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="446" spans="1:20">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4110</v>
       </c>
@@ -68579,7 +68627,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="447" spans="1:20">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>4114</v>
       </c>
@@ -68641,7 +68689,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="448" spans="1:20">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>4118</v>
       </c>
@@ -68703,7 +68751,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="449" spans="1:20">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>4122</v>
       </c>
@@ -68765,7 +68813,7 @@
         <v>4125</v>
       </c>
     </row>
-    <row r="450" spans="1:20">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>4126</v>
       </c>
@@ -68827,7 +68875,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="451" spans="1:20">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>4130</v>
       </c>
@@ -68889,7 +68937,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="452" spans="1:20">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>4134</v>
       </c>
@@ -68951,7 +68999,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="453" spans="1:20">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4138</v>
       </c>
@@ -69013,7 +69061,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="454" spans="1:20">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>4143</v>
       </c>
@@ -69075,7 +69123,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="455" spans="1:20">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4147</v>
       </c>
@@ -69137,7 +69185,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="456" spans="1:20">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4151</v>
       </c>
@@ -69199,7 +69247,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="457" spans="1:20">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>4155</v>
       </c>
@@ -69261,7 +69309,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="458" spans="1:20">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>4159</v>
       </c>
@@ -69323,7 +69371,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="459" spans="1:20">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>4163</v>
       </c>
@@ -69385,7 +69433,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="460" spans="1:20">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>4167</v>
       </c>
@@ -69447,7 +69495,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="461" spans="1:20">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>4172</v>
       </c>
@@ -69509,7 +69557,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="462" spans="1:20">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>4176</v>
       </c>
@@ -69571,7 +69619,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="463" spans="1:20">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>4180</v>
       </c>
@@ -69633,7 +69681,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="464" spans="1:20">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>4184</v>
       </c>
@@ -69695,7 +69743,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="465" spans="1:20">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>4188</v>
       </c>
@@ -69757,7 +69805,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="466" spans="1:20">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>4192</v>
       </c>
@@ -69819,7 +69867,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="467" spans="1:20">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>4196</v>
       </c>
@@ -69881,7 +69929,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="468" spans="1:20">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>4200</v>
       </c>
@@ -69943,7 +69991,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="469" spans="1:20">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>4204</v>
       </c>
@@ -70005,7 +70053,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="470" spans="1:20">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>4208</v>
       </c>
@@ -70067,7 +70115,7 @@
         <v>4211</v>
       </c>
     </row>
-    <row r="471" spans="1:20">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>4212</v>
       </c>
@@ -70129,7 +70177,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="472" spans="1:20">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>4216</v>
       </c>
@@ -70191,7 +70239,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="473" spans="1:20">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>4220</v>
       </c>
@@ -70253,7 +70301,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="474" spans="1:20">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>4224</v>
       </c>
@@ -70315,7 +70363,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="475" spans="1:20">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>4228</v>
       </c>
@@ -70377,7 +70425,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="476" spans="1:20">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>4232</v>
       </c>
@@ -70439,7 +70487,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="477" spans="1:20">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>4236</v>
       </c>
@@ -70501,7 +70549,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="478" spans="1:20">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>4240</v>
       </c>
@@ -70563,7 +70611,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="479" spans="1:20">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>4244</v>
       </c>
@@ -70625,7 +70673,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="480" spans="1:20">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>4248</v>
       </c>
@@ -70687,7 +70735,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="481" spans="1:25">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>4252</v>
       </c>
@@ -70749,7 +70797,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="482" spans="1:25">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>4256</v>
       </c>
@@ -70811,7 +70859,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="483" spans="1:25">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>4260</v>
       </c>
@@ -70873,7 +70921,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="484" spans="1:25">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>4264</v>
       </c>
@@ -70935,7 +70983,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="485" spans="1:25">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>4268</v>
       </c>
@@ -70997,7 +71045,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="486" spans="1:25">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>4272</v>
       </c>
@@ -71059,7 +71107,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="487" spans="1:25">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>4276</v>
       </c>
@@ -71121,7 +71169,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="488" spans="1:25">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>4300</v>
       </c>
@@ -71198,7 +71246,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="489" spans="1:25">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>4301</v>
       </c>
@@ -71269,7 +71317,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="15.75">
+    <row r="490" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>4786</v>
       </c>
@@ -71316,7 +71364,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="15.75">
+    <row r="491" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>4709</v>
       </c>
@@ -71381,7 +71429,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="15.75">
+    <row r="492" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>4710</v>
       </c>
@@ -71446,7 +71494,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="15.75">
+    <row r="493" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>4711</v>
       </c>
@@ -71511,7 +71559,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="15.75">
+    <row r="494" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>4712</v>
       </c>
@@ -71576,7 +71624,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="15.75">
+    <row r="495" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>4713</v>
       </c>
@@ -71641,7 +71689,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="496" spans="1:25">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>4465</v>
       </c>
@@ -71706,7 +71754,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="497" spans="1:25">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>4719</v>
       </c>
@@ -71771,7 +71819,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="15.75">
+    <row r="498" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>4720</v>
       </c>
@@ -71836,7 +71884,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="15.75">
+    <row r="499" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>4721</v>
       </c>
@@ -71901,7 +71949,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="15.75">
+    <row r="500" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>4722</v>
       </c>
@@ -71966,7 +72014,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="15.75">
+    <row r="501" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>4723</v>
       </c>
@@ -72031,7 +72079,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="502" spans="1:25" ht="15.75">
+    <row r="502" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A502" s="11" t="s">
         <v>4769</v>
       </c>
@@ -72084,7 +72132,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="503" spans="1:25" ht="15.75">
+    <row r="503" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>4778</v>
       </c>
@@ -72137,7 +72185,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="504" spans="1:25" ht="15.75">
+    <row r="504" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A504" s="11" t="s">
         <v>4791</v>
       </c>
@@ -72210,9 +72258,9 @@
       <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -72289,7 +72337,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4481</v>
       </c>
@@ -72331,9 +72379,9 @@
       <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -72410,7 +72458,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4486</v>
       </c>
@@ -72455,7 +72503,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4492</v>
       </c>
@@ -72500,7 +72548,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4499</v>
       </c>
@@ -72561,9 +72609,9 @@
       <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -72640,7 +72688,7 @@
         <v>4798</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4398</v>
       </c>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564A8672-3C6D-488A-9411-DA4E3D56EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCCF81-9A35-41A5-A331-F27E399268A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="8" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="10" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17008" uniqueCount="4871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="4875">
   <si>
     <t>Part Number</t>
   </si>
@@ -13248,12 +13248,6 @@
     <t>Ai-Thinker</t>
   </si>
   <si>
-    <t>Battery_18650_night_cone</t>
-  </si>
-  <si>
-    <t>18650 Footprint with Hole for 18650 Battery</t>
-  </si>
-  <si>
     <t>SCH/Bat.SchLib</t>
   </si>
   <si>
@@ -14659,6 +14653,24 @@
   </si>
   <si>
     <t>C82891</t>
+  </si>
+  <si>
+    <t>BAT-21700-NC</t>
+  </si>
+  <si>
+    <t>BAT-18650-NC</t>
+  </si>
+  <si>
+    <t>18650 Battery cell for FSCH nightcone project</t>
+  </si>
+  <si>
+    <t>BAT_18650_NightCone</t>
+  </si>
+  <si>
+    <t>BAT_21700_NightCone</t>
+  </si>
+  <si>
+    <t>21700 Battery cell for FSCH nightcone project</t>
   </si>
 </sst>
 </file>
@@ -15462,19 +15474,19 @@
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -15500,13 +15512,13 @@
         <v>2692</v>
       </c>
       <c r="H2" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I2" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="J2" t="s">
-        <v>4663</v>
+        <v>4661</v>
       </c>
       <c r="S2" t="s">
         <v>2694</v>
@@ -15515,13 +15527,13 @@
         <v>2692</v>
       </c>
       <c r="U2" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V2" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="W2" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -15547,13 +15559,13 @@
         <v>2701</v>
       </c>
       <c r="H3" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="I3" t="s">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="J3" t="s">
-        <v>4664</v>
+        <v>4662</v>
       </c>
       <c r="S3" t="s">
         <v>2699</v>
@@ -15562,13 +15574,13 @@
         <v>2697</v>
       </c>
       <c r="U3" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V3" t="s">
         <v>2702</v>
       </c>
       <c r="W3" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -15591,13 +15603,13 @@
         <v>2703</v>
       </c>
       <c r="H4" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I4" t="s">
-        <v>4852</v>
+        <v>4850</v>
       </c>
       <c r="J4" t="s">
-        <v>4665</v>
+        <v>4663</v>
       </c>
       <c r="S4" t="s">
         <v>2706</v>
@@ -15606,13 +15618,13 @@
         <v>2704</v>
       </c>
       <c r="U4" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V4" t="s">
         <v>2707</v>
       </c>
       <c r="W4" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -15635,16 +15647,16 @@
         <v>2695</v>
       </c>
       <c r="G5" t="s">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="H5" t="s">
         <v>3911</v>
       </c>
       <c r="I5" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="J5" t="s">
-        <v>4666</v>
+        <v>4664</v>
       </c>
       <c r="S5" t="s">
         <v>3904</v>
@@ -15653,13 +15665,13 @@
         <v>3581</v>
       </c>
       <c r="U5" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V5" t="s">
         <v>4279</v>
       </c>
       <c r="W5" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -15682,16 +15694,16 @@
         <v>2695</v>
       </c>
       <c r="G6" t="s">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="H6" t="s">
         <v>3911</v>
       </c>
       <c r="I6" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="J6" t="s">
-        <v>4667</v>
+        <v>4665</v>
       </c>
       <c r="S6" t="s">
         <v>3904</v>
@@ -15700,21 +15712,21 @@
         <v>3908</v>
       </c>
       <c r="U6" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V6" t="s">
         <v>4281</v>
       </c>
       <c r="W6" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="B7" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="C7" t="s">
         <v>3902</v>
@@ -15729,39 +15741,39 @@
         <v>2695</v>
       </c>
       <c r="G7" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="H7" t="s">
         <v>3911</v>
       </c>
       <c r="I7" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="J7" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="S7" t="s">
         <v>3904</v>
       </c>
       <c r="T7" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="U7" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V7" t="s">
-        <v>4686</v>
+        <v>4684</v>
       </c>
       <c r="W7" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="B8" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="C8" t="s">
         <v>3902</v>
@@ -15776,31 +15788,31 @@
         <v>2695</v>
       </c>
       <c r="G8" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="H8" t="s">
         <v>3911</v>
       </c>
       <c r="I8" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="J8" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="S8" t="s">
         <v>3904</v>
       </c>
       <c r="T8" t="s">
+        <v>4843</v>
+      </c>
+      <c r="U8" t="s">
+        <v>4604</v>
+      </c>
+      <c r="V8" t="s">
         <v>4845</v>
       </c>
-      <c r="U8" t="s">
-        <v>4606</v>
-      </c>
-      <c r="V8" t="s">
-        <v>4847</v>
-      </c>
       <c r="W8" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -15829,10 +15841,10 @@
         <v>3911</v>
       </c>
       <c r="I9" t="s">
-        <v>4854</v>
+        <v>4852</v>
       </c>
       <c r="J9" t="s">
-        <v>4668</v>
+        <v>4666</v>
       </c>
       <c r="S9" t="s">
         <v>3904</v>
@@ -15841,13 +15853,13 @@
         <v>4280</v>
       </c>
       <c r="U9" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V9" t="s">
         <v>4282</v>
       </c>
       <c r="W9" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -15876,10 +15888,10 @@
         <v>3911</v>
       </c>
       <c r="I10" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="J10" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="S10" t="s">
         <v>3904</v>
@@ -15888,13 +15900,13 @@
         <v>4283</v>
       </c>
       <c r="U10" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V10" t="s">
         <v>4284</v>
       </c>
       <c r="W10" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -15923,10 +15935,10 @@
         <v>3911</v>
       </c>
       <c r="I11" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="J11" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="S11" t="s">
         <v>3904</v>
@@ -15935,13 +15947,13 @@
         <v>3907</v>
       </c>
       <c r="U11" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V11" t="s">
         <v>4285</v>
       </c>
       <c r="W11" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -15970,10 +15982,10 @@
         <v>3911</v>
       </c>
       <c r="I12" t="s">
-        <v>4856</v>
+        <v>4854</v>
       </c>
       <c r="J12" t="s">
-        <v>4671</v>
+        <v>4669</v>
       </c>
       <c r="S12" t="s">
         <v>3904</v>
@@ -15982,284 +15994,284 @@
         <v>4287</v>
       </c>
       <c r="U12" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V12" t="s">
         <v>4286</v>
       </c>
       <c r="W12" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E13" t="s">
         <v>4415</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4415</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4416</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4420</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4417</v>
       </c>
       <c r="F13" t="s">
         <v>2695</v>
       </c>
       <c r="G13" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="H13" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I13" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J13" t="s">
-        <v>4672</v>
+        <v>4670</v>
       </c>
       <c r="S13" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="T13" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="U13" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="W13" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C14" t="s">
         <v>4423</v>
       </c>
-      <c r="B14" t="s">
-        <v>4423</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4425</v>
-      </c>
       <c r="D14" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E14" t="s">
         <v>4424</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4426</v>
       </c>
       <c r="F14" t="s">
         <v>2695</v>
       </c>
       <c r="G14" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
       <c r="H14" t="s">
+        <v>4420</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4856</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4671</v>
+      </c>
+      <c r="S14" t="s">
         <v>4422</v>
       </c>
-      <c r="I14" t="s">
-        <v>4858</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4673</v>
-      </c>
-      <c r="S14" t="s">
-        <v>4424</v>
-      </c>
       <c r="T14" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="U14" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V14" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="W14" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="B15" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F15" t="s">
         <v>2695</v>
       </c>
       <c r="G15" t="s">
+        <v>4429</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4860</v>
+      </c>
+      <c r="J15" t="s">
+        <v>4432</v>
+      </c>
+      <c r="K15" t="s">
         <v>4431</v>
       </c>
-      <c r="H15" t="s">
-        <v>4421</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4862</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>4427</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4430</v>
+      </c>
+      <c r="S15" t="s">
+        <v>4433</v>
+      </c>
+      <c r="T15" t="s">
+        <v>4427</v>
+      </c>
+      <c r="U15" t="s">
+        <v>4604</v>
+      </c>
+      <c r="V15" t="s">
         <v>4434</v>
       </c>
-      <c r="K15" t="s">
-        <v>4433</v>
-      </c>
-      <c r="L15" t="s">
-        <v>4429</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>4432</v>
-      </c>
-      <c r="S15" t="s">
-        <v>4435</v>
-      </c>
-      <c r="T15" t="s">
-        <v>4429</v>
-      </c>
-      <c r="U15" t="s">
-        <v>4606</v>
-      </c>
-      <c r="V15" t="s">
-        <v>4436</v>
-      </c>
       <c r="W15" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="B16" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="C16" t="s">
-        <v>4442</v>
+        <v>4440</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F16" t="s">
         <v>2695</v>
       </c>
       <c r="G16" t="s">
+        <v>4439</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4860</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4438</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4437</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4435</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4436</v>
+      </c>
+      <c r="S16" t="s">
         <v>4441</v>
       </c>
-      <c r="H16" t="s">
-        <v>4421</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4862</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4440</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4439</v>
-      </c>
-      <c r="L16" t="s">
-        <v>4437</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>4438</v>
-      </c>
-      <c r="S16" t="s">
-        <v>4443</v>
-      </c>
       <c r="T16" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="U16" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V16" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="W16" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="B17" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="C17" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F17" t="s">
         <v>2695</v>
       </c>
       <c r="G17" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="H17" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I17" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J17" t="s">
+        <v>4445</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4446</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4448</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
         <v>4447</v>
       </c>
-      <c r="K17" t="s">
+      <c r="S17" t="s">
+        <v>4446</v>
+      </c>
+      <c r="T17" t="s">
         <v>4448</v>
       </c>
-      <c r="L17" t="s">
-        <v>4450</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>4449</v>
-      </c>
-      <c r="S17" t="s">
-        <v>4448</v>
-      </c>
-      <c r="T17" t="s">
-        <v>4450</v>
-      </c>
       <c r="U17" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V17" t="s">
-        <v>4692</v>
+        <v>4690</v>
       </c>
       <c r="W17" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -16267,240 +16279,240 @@
         <v>2302</v>
       </c>
       <c r="B18" t="s">
-        <v>4471</v>
+        <v>4469</v>
       </c>
       <c r="C18" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F18" t="s">
         <v>2695</v>
       </c>
       <c r="G18" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="H18" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I18" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="J18" t="s">
-        <v>4674</v>
+        <v>4672</v>
       </c>
       <c r="O18" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="P18" t="s">
+        <v>4453</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4604</v>
+      </c>
+      <c r="R18" t="s">
         <v>4455</v>
       </c>
-      <c r="Q18" t="s">
-        <v>4606</v>
-      </c>
-      <c r="R18" t="s">
-        <v>4457</v>
-      </c>
       <c r="S18" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="T18" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="U18" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V18" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="W18" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="B19" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="C19" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F19" t="s">
         <v>2695</v>
       </c>
       <c r="G19" t="s">
-        <v>4441</v>
+        <v>4439</v>
       </c>
       <c r="H19" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I19" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J19" t="s">
-        <v>4675</v>
+        <v>4673</v>
       </c>
       <c r="S19" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="T19" t="s">
-        <v>4472</v>
+        <v>4470</v>
       </c>
       <c r="U19" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="B20" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="C20" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="D20" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="E20" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="F20" t="s">
         <v>2695</v>
       </c>
       <c r="G20" t="s">
+        <v>4565</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4862</v>
+      </c>
+      <c r="J20" t="s">
         <v>4567</v>
       </c>
-      <c r="H20" t="s">
-        <v>4421</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4864</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4569</v>
-      </c>
       <c r="K20" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="L20" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="S20" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="T20" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="U20" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="W20" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="8" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="C21" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="D21" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="E21" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="F21" t="s">
         <v>2695</v>
       </c>
       <c r="G21" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="H21" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I21" t="s">
-        <v>4863</v>
+        <v>4861</v>
       </c>
       <c r="J21" t="s">
-        <v>4676</v>
+        <v>4674</v>
       </c>
       <c r="S21" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="U21" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="W21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="8" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F22" t="s">
         <v>2695</v>
       </c>
       <c r="G22" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="H22" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I22" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J22" t="s">
-        <v>4677</v>
+        <v>4675</v>
       </c>
       <c r="S22" t="s">
         <v>2706</v>
@@ -16509,214 +16521,214 @@
         <v>2706</v>
       </c>
       <c r="U22" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="W22" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="B23" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="C23" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F23" t="s">
         <v>2695</v>
       </c>
       <c r="G23" t="s">
+        <v>4429</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4419</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4860</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4676</v>
+      </c>
+      <c r="K23" t="s">
         <v>4431</v>
       </c>
-      <c r="H23" t="s">
-        <v>4421</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4862</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4678</v>
-      </c>
-      <c r="K23" t="s">
-        <v>4433</v>
-      </c>
       <c r="L23" t="s">
+        <v>4599</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
         <v>4601</v>
       </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="S23" t="s">
+        <v>4602</v>
+      </c>
+      <c r="T23" t="s">
+        <v>4599</v>
+      </c>
+      <c r="U23" t="s">
+        <v>4604</v>
+      </c>
+      <c r="V23" t="s">
         <v>4603</v>
       </c>
-      <c r="S23" t="s">
-        <v>4604</v>
-      </c>
-      <c r="T23" t="s">
-        <v>4601</v>
-      </c>
-      <c r="U23" t="s">
-        <v>4606</v>
-      </c>
-      <c r="V23" t="s">
-        <v>4605</v>
-      </c>
       <c r="W23" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="B24" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="C24" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
       <c r="D24" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="E24" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F24" t="s">
         <v>2695</v>
       </c>
       <c r="G24" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="H24" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I24" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J24" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="N24" s="10"/>
       <c r="S24" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="T24" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="U24" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="W24" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4686</v>
+      </c>
+      <c r="D25" t="s">
         <v>4687</v>
       </c>
-      <c r="B25" t="s">
-        <v>4687</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4688</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4689</v>
-      </c>
       <c r="E25" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F25" t="s">
         <v>2695</v>
       </c>
       <c r="G25" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="H25" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I25" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J25" t="s">
-        <v>4690</v>
+        <v>4688</v>
       </c>
       <c r="S25" t="s">
+        <v>4687</v>
+      </c>
+      <c r="T25" t="s">
+        <v>4685</v>
+      </c>
+      <c r="U25" t="s">
+        <v>4604</v>
+      </c>
+      <c r="V25" t="s">
         <v>4689</v>
       </c>
-      <c r="T25" t="s">
-        <v>4687</v>
-      </c>
-      <c r="U25" t="s">
-        <v>4606</v>
-      </c>
-      <c r="V25" t="s">
-        <v>4691</v>
-      </c>
       <c r="W25" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75">
       <c r="A26" s="11" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>4762</v>
+        <v>4760</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="F26" t="s">
         <v>2695</v>
       </c>
       <c r="G26" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="H26" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="I26" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J26" t="s">
-        <v>4763</v>
+        <v>4761</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="U26" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>4764</v>
+        <v>4762</v>
       </c>
       <c r="W26" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
   </sheetData>
@@ -16732,10 +16744,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16816,19 +16828,19 @@
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -16845,7 +16857,7 @@
         <v>4351</v>
       </c>
       <c r="F2" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G2" t="s">
         <v>4352</v>
@@ -16871,7 +16883,7 @@
         <v>4351</v>
       </c>
       <c r="F3" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G3" t="s">
         <v>4352</v>
@@ -16897,7 +16909,7 @@
         <v>4351</v>
       </c>
       <c r="F4" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G4" t="s">
         <v>4352</v>
@@ -16923,7 +16935,7 @@
         <v>4351</v>
       </c>
       <c r="F5" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G5" t="s">
         <v>4368</v>
@@ -16949,7 +16961,7 @@
         <v>4351</v>
       </c>
       <c r="F6" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G6" t="s">
         <v>4368</v>
@@ -16975,7 +16987,7 @@
         <v>4351</v>
       </c>
       <c r="F7" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G7" t="s">
         <v>4369</v>
@@ -17001,7 +17013,7 @@
         <v>4351</v>
       </c>
       <c r="F8" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G8" t="s">
         <v>4369</v>
@@ -17027,7 +17039,7 @@
         <v>4351</v>
       </c>
       <c r="F9" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G9" t="s">
         <v>4363</v>
@@ -17053,7 +17065,7 @@
         <v>4351</v>
       </c>
       <c r="F10" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G10" t="s">
         <v>4363</v>
@@ -17067,10 +17079,10 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="B11" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="C11" t="s">
         <v>4354</v>
@@ -17079,7 +17091,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="G11" t="s">
         <v>4355</v>
@@ -17109,39 +17121,65 @@
         <v>4386</v>
       </c>
       <c r="U11" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="V11" t="s">
         <v>4387</v>
       </c>
       <c r="W11" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>4400</v>
+        <v>4872</v>
       </c>
       <c r="B12" t="s">
-        <v>4400</v>
+        <v>4872</v>
       </c>
       <c r="C12" t="s">
-        <v>4401</v>
+        <v>4871</v>
       </c>
       <c r="D12" t="s">
         <v>4351</v>
       </c>
       <c r="F12" t="s">
+        <v>4400</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4401</v>
+      </c>
+      <c r="H12" t="s">
         <v>4402</v>
       </c>
-      <c r="G12" t="s">
-        <v>4403</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4404</v>
-      </c>
       <c r="I12" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4873</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4874</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F13" t="s">
         <v>4400</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4401</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4402</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4869</v>
       </c>
     </row>
   </sheetData>
@@ -17191,7 +17229,7 @@
         <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -17199,7 +17237,7 @@
         <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -17233,12 +17271,12 @@
         <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="B121" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -17246,17 +17284,17 @@
         <v>459</v>
       </c>
       <c r="B130" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="B131" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="B132" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -17378,19 +17416,19 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75">
@@ -17456,19 +17494,19 @@
         <v>28</v>
       </c>
       <c r="U2" t="s">
+        <v>4786</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4787</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X2" t="s">
         <v>4788</v>
       </c>
-      <c r="V2" t="s">
-        <v>4789</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X2" t="s">
-        <v>4790</v>
-      </c>
       <c r="Y2" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75">
@@ -19351,19 +19389,19 @@
         <v>1222</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V34" t="s">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X34" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75">
@@ -20925,19 +20963,19 @@
         <v>1335</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V59" t="s">
-        <v>4805</v>
+        <v>4803</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X59" t="s">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="15.75">
@@ -21066,19 +21104,19 @@
         <v>1345</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V61" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X61" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="15.75">
@@ -21207,19 +21245,19 @@
         <v>1353</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V63" t="s">
-        <v>4807</v>
+        <v>4805</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X63" t="s">
-        <v>4808</v>
+        <v>4806</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="15.75">
@@ -21978,19 +22016,19 @@
         <v>1411</v>
       </c>
       <c r="U75" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V75" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X75" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="Y75" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="15.75">
@@ -22245,19 +22283,19 @@
         <v>174</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V79" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X79" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="15.75">
@@ -22449,19 +22487,19 @@
         <v>1438</v>
       </c>
       <c r="U82" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V82" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X82" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="Y82" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="15.75">
@@ -23031,19 +23069,19 @@
         <v>1475</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V91" t="s">
-        <v>4850</v>
+        <v>4848</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X91" t="s">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="15.75">
@@ -23109,19 +23147,19 @@
         <v>1480</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V92" t="s">
-        <v>4799</v>
+        <v>4797</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X92" t="s">
-        <v>4800</v>
+        <v>4798</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="15.75">
@@ -23565,19 +23603,19 @@
         <v>232</v>
       </c>
       <c r="U99" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V99" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X99" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="Y99" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="15.75">
@@ -23769,19 +23807,19 @@
         <v>242</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V102" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="15.75">
@@ -24099,19 +24137,19 @@
         <v>1541</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V107" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="15.75">
@@ -24618,19 +24656,19 @@
         <v>1573</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V115" t="s">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="W115" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X115" t="s">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="15.75">
@@ -25140,19 +25178,19 @@
         <v>308</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V123" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="W123" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X123" t="s">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="15.75">
@@ -25399,19 +25437,19 @@
         <v>1615</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V127" t="s">
-        <v>4803</v>
+        <v>4801</v>
       </c>
       <c r="W127" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X127" t="s">
-        <v>4804</v>
+        <v>4802</v>
       </c>
       <c r="Y127" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="128" spans="1:25" ht="15.75">
@@ -25666,19 +25704,19 @@
         <v>1631</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V131" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="W131" s="1" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X131" s="1" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="132" spans="1:25" ht="15.75">
@@ -26673,19 +26711,19 @@
         <v>1703</v>
       </c>
       <c r="U147" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V147" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="W147" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="X147" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="Y147" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="148" spans="1:25" ht="15.75">
@@ -28048,19 +28086,19 @@
         <v>1787</v>
       </c>
       <c r="U171" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V171" t="s">
-        <v>4801</v>
+        <v>4799</v>
       </c>
       <c r="W171" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X171" t="s">
-        <v>4802</v>
+        <v>4800</v>
       </c>
       <c r="Y171" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -28189,19 +28227,19 @@
         <v>1796</v>
       </c>
       <c r="U173" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="V173" t="s">
-        <v>4815</v>
+        <v>4813</v>
       </c>
       <c r="W173" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X173" t="s">
-        <v>4816</v>
+        <v>4814</v>
       </c>
       <c r="Y173" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -38125,24 +38163,24 @@
         <v>4343</v>
       </c>
       <c r="W342" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X342" t="s">
         <v>4345</v>
       </c>
       <c r="Y342" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="343" spans="1:25">
       <c r="A343" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B343" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="C343" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="D343" t="s">
         <v>21</v>
@@ -38151,64 +38189,64 @@
         <v>1206</v>
       </c>
       <c r="F343" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="G343" t="str">
         <f>Config!$B$3</f>
         <v>SCH/R_IEC.SchLib</v>
       </c>
       <c r="H343" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="I343" t="s">
         <v>464</v>
       </c>
       <c r="J343" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="K343" s="4">
         <v>1.5</v>
       </c>
       <c r="L343" t="s">
+        <v>4410</v>
+      </c>
+      <c r="M343" t="s">
+        <v>4411</v>
+      </c>
+      <c r="N343" t="s">
+        <v>4409</v>
+      </c>
+      <c r="O343" t="s">
+        <v>26</v>
+      </c>
+      <c r="P343" t="s">
+        <v>4408</v>
+      </c>
+      <c r="U343" t="s">
+        <v>4411</v>
+      </c>
+      <c r="V343" t="s">
+        <v>4409</v>
+      </c>
+      <c r="W343" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X343" s="8" t="s">
         <v>4412</v>
       </c>
-      <c r="M343" t="s">
-        <v>4413</v>
-      </c>
-      <c r="N343" t="s">
-        <v>4411</v>
-      </c>
-      <c r="O343" t="s">
-        <v>26</v>
-      </c>
-      <c r="P343" t="s">
-        <v>4410</v>
-      </c>
-      <c r="U343" t="s">
-        <v>4413</v>
-      </c>
-      <c r="V343" t="s">
-        <v>4411</v>
-      </c>
-      <c r="W343" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X343" s="8" t="s">
-        <v>4414</v>
-      </c>
       <c r="Y343" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="344" spans="1:25" ht="15.75">
       <c r="A344" s="1" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>4586</v>
+        <v>4584</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>21</v>
@@ -38217,7 +38255,7 @@
         <v>22</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>4587</v>
+        <v>4585</v>
       </c>
       <c r="G344" t="str">
         <f>Config!$B$3</f>
@@ -38242,13 +38280,13 @@
         <v>482</v>
       </c>
       <c r="N344" s="1" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="O344" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P344" s="1" t="s">
-        <v>4588</v>
+        <v>4586</v>
       </c>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
@@ -38257,13 +38295,13 @@
     </row>
     <row r="345" spans="1:25" ht="15.75">
       <c r="A345" s="1" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>21</v>
@@ -38272,7 +38310,7 @@
         <v>22</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="G345" t="str">
         <f>Config!$B$3</f>
@@ -38291,19 +38329,19 @@
         <v>499000</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="N345" s="1" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="O345" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P345" s="1" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
@@ -38413,19 +38451,19 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75">
@@ -40539,19 +40577,19 @@
         <v>710</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="V34" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="W34" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="Y34" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -43735,16 +43773,16 @@
         <v>482</v>
       </c>
       <c r="V85" t="s">
-        <v>4828</v>
+        <v>4826</v>
       </c>
       <c r="W85" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X85" t="s">
-        <v>4829</v>
+        <v>4827</v>
       </c>
       <c r="Y85" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -44096,13 +44134,13 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="B92" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="C92" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
@@ -44111,7 +44149,7 @@
         <v>805</v>
       </c>
       <c r="F92" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="G92" t="str">
         <f>Config!$B$4</f>
@@ -44130,42 +44168,42 @@
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="L92" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="M92" t="s">
         <v>4339</v>
       </c>
       <c r="N92" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="O92" t="s">
         <v>26</v>
       </c>
       <c r="P92" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="Q92" t="s">
         <v>4339</v>
       </c>
       <c r="R92" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="S92" t="s">
         <v>26</v>
       </c>
       <c r="T92" t="s">
-        <v>4579</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="B93" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="C93" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
@@ -44193,33 +44231,33 @@
         <v>1.0000000000000002E-6</v>
       </c>
       <c r="L93" t="s">
+        <v>4642</v>
+      </c>
+      <c r="U93" t="s">
         <v>4644</v>
       </c>
-      <c r="U93" t="s">
-        <v>4646</v>
-      </c>
       <c r="V93" t="s">
+        <v>4641</v>
+      </c>
+      <c r="W93" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X93" t="s">
         <v>4643</v>
       </c>
-      <c r="W93" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X93" t="s">
-        <v>4645</v>
-      </c>
       <c r="Y93" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="B94" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="C94" t="s">
-        <v>4825</v>
+        <v>4823</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
@@ -44249,16 +44287,16 @@
         <v>1071</v>
       </c>
       <c r="V94" t="s">
-        <v>4826</v>
+        <v>4824</v>
       </c>
       <c r="W94" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X94" t="s">
-        <v>4827</v>
+        <v>4825</v>
       </c>
       <c r="Y94" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -44296,30 +44334,30 @@
         <v>4.7000000000000003E-10</v>
       </c>
       <c r="U95" s="4" t="s">
-        <v>4646</v>
+        <v>4644</v>
       </c>
       <c r="V95" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="W95" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X95" t="s">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="Y95" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="B96" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="C96" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
@@ -44346,30 +44384,30 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="U96" t="s">
+        <v>4830</v>
+      </c>
+      <c r="V96" t="s">
+        <v>4831</v>
+      </c>
+      <c r="W96" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X96" t="s">
         <v>4832</v>
       </c>
-      <c r="V96" t="s">
-        <v>4833</v>
-      </c>
-      <c r="W96" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X96" t="s">
-        <v>4834</v>
-      </c>
       <c r="Y96" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="B97" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="C97" t="s">
-        <v>4836</v>
+        <v>4834</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
@@ -44378,7 +44416,7 @@
         <v>805</v>
       </c>
       <c r="F97" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="G97" t="s">
         <v>456</v>
@@ -44399,16 +44437,16 @@
         <v>1071</v>
       </c>
       <c r="V97" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="W97" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X97" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="Y97" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
   </sheetData>
@@ -44499,39 +44537,39 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="B2" t="s">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="C2" t="s">
-        <v>4620</v>
+        <v>4618</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F2" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$5</f>
@@ -44544,60 +44582,60 @@
         <v>464</v>
       </c>
       <c r="J2" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K2" s="4">
         <v>4.7E-7</v>
       </c>
       <c r="L2" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="M2" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N2" t="s">
-        <v>4508</v>
+        <v>4506</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>4509</v>
+        <v>4507</v>
       </c>
       <c r="U2" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V2" t="s">
-        <v>4519</v>
+        <v>4517</v>
       </c>
       <c r="W2" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X2" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="Y2" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="B3" t="s">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="C3" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F3" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="G3" t="str">
         <f>Config!$B$5</f>
@@ -44610,60 +44648,60 @@
         <v>464</v>
       </c>
       <c r="J3" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K3" s="4">
         <v>6.7999999999999995E-7</v>
       </c>
       <c r="L3" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="M3" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N3" t="s">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>4510</v>
+        <v>4508</v>
       </c>
       <c r="U3" t="s">
+        <v>4524</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4525</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X3" t="s">
         <v>4526</v>
       </c>
-      <c r="V3" t="s">
-        <v>4527</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X3" t="s">
-        <v>4528</v>
-      </c>
       <c r="Y3" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="B4" t="s">
-        <v>4609</v>
+        <v>4607</v>
       </c>
       <c r="C4" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F4" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="G4" t="str">
         <f>Config!$B$5</f>
@@ -44676,60 +44714,60 @@
         <v>464</v>
       </c>
       <c r="J4" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K4" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L4" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="M4" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N4" t="s">
-        <v>4513</v>
+        <v>4511</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>4512</v>
+        <v>4510</v>
       </c>
       <c r="U4" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V4" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="W4" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X4" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="Y4" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="B5" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="C5" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F5" t="s">
-        <v>4636</v>
+        <v>4634</v>
       </c>
       <c r="G5" t="str">
         <f>Config!$B$5</f>
@@ -44742,60 +44780,60 @@
         <v>464</v>
       </c>
       <c r="J5" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K5" s="4">
         <v>1.5E-6</v>
       </c>
       <c r="L5" t="s">
+        <v>4503</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4516</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4504</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
         <v>4505</v>
       </c>
-      <c r="M5" t="s">
-        <v>4518</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4506</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>4507</v>
-      </c>
       <c r="U5" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V5" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="W5" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X5" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="Y5" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="B6" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="C6" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F6" t="s">
-        <v>4637</v>
+        <v>4635</v>
       </c>
       <c r="G6" t="str">
         <f>Config!$B$5</f>
@@ -44808,57 +44846,57 @@
         <v>464</v>
       </c>
       <c r="J6" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K6" s="4">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="L6" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="M6" t="s">
+        <v>4516</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4512</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4513</v>
+      </c>
+      <c r="U6" t="s">
+        <v>4520</v>
+      </c>
+      <c r="V6" t="s">
         <v>4518</v>
       </c>
-      <c r="N6" t="s">
-        <v>4514</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>4515</v>
-      </c>
-      <c r="U6" t="s">
-        <v>4522</v>
-      </c>
-      <c r="V6" t="s">
-        <v>4520</v>
-      </c>
       <c r="W6" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X6" t="s">
-        <v>4525</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="B7" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="C7" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="F7" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="G7" t="str">
         <f>Config!$B$5</f>
@@ -44871,57 +44909,57 @@
         <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="K7" s="4">
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="L7" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="M7" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N7" t="s">
-        <v>4516</v>
+        <v>4514</v>
       </c>
       <c r="O7" t="s">
         <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="U7" t="s">
+        <v>4520</v>
+      </c>
+      <c r="V7" t="s">
+        <v>4519</v>
+      </c>
+      <c r="W7" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X7" t="s">
         <v>4522</v>
-      </c>
-      <c r="V7" t="s">
-        <v>4521</v>
-      </c>
-      <c r="W7" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X7" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="B8" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="C8" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F8" t="s">
-        <v>4639</v>
+        <v>4637</v>
       </c>
       <c r="G8" t="str">
         <f>Config!$B$5</f>
@@ -44934,60 +44972,60 @@
         <v>464</v>
       </c>
       <c r="J8" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K8" s="4">
         <v>2.3999999999999998E-7</v>
       </c>
       <c r="L8" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M8" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N8" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="U8" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V8" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
       <c r="W8" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X8" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="Y8" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="B9" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="C9" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F9" t="s">
-        <v>4638</v>
+        <v>4636</v>
       </c>
       <c r="G9" t="str">
         <f>Config!$B$5</f>
@@ -45000,60 +45038,60 @@
         <v>464</v>
       </c>
       <c r="J9" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K9" s="4">
         <v>3.3000000000000002E-7</v>
       </c>
       <c r="L9" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M9" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N9" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="O9" t="s">
         <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="U9" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V9" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="W9" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X9" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="Y9" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="B10" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="C10" t="s">
-        <v>4628</v>
+        <v>4626</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F10" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="G10" t="str">
         <f>Config!$B$5</f>
@@ -45066,60 +45104,60 @@
         <v>464</v>
       </c>
       <c r="J10" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K10" s="4">
         <v>4.7E-7</v>
       </c>
       <c r="L10" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M10" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N10" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="O10" t="s">
         <v>26</v>
       </c>
       <c r="P10" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="U10" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V10" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="W10" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X10" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="Y10" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="B11" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="C11" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F11" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="G11" t="str">
         <f>Config!$B$5</f>
@@ -45132,60 +45170,60 @@
         <v>464</v>
       </c>
       <c r="J11" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K11" s="4">
         <v>6.7999999999999995E-7</v>
       </c>
       <c r="L11" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M11" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N11" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="O11" t="s">
         <v>26</v>
       </c>
       <c r="P11" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="U11" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V11" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="W11" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X11" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="Y11" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="B12" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="C12" t="s">
-        <v>4630</v>
+        <v>4628</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F12" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="G12" t="str">
         <f>Config!$B$5</f>
@@ -45198,60 +45236,60 @@
         <v>464</v>
       </c>
       <c r="J12" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K12" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L12" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M12" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N12" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="O12" t="s">
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="U12" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V12" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="W12" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X12" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="Y12" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="B13" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="C13" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F13" t="s">
-        <v>4636</v>
+        <v>4634</v>
       </c>
       <c r="G13" t="str">
         <f>Config!$B$5</f>
@@ -45264,57 +45302,57 @@
         <v>464</v>
       </c>
       <c r="J13" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K13" s="4">
         <v>1.5E-6</v>
       </c>
       <c r="L13" t="s">
+        <v>4553</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4516</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4545</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4551</v>
+      </c>
+      <c r="U13" t="s">
+        <v>4520</v>
+      </c>
+      <c r="V13" t="s">
+        <v>4536</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X13" t="s">
         <v>4555</v>
-      </c>
-      <c r="M13" t="s">
-        <v>4518</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4547</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>4553</v>
-      </c>
-      <c r="U13" t="s">
-        <v>4522</v>
-      </c>
-      <c r="V13" t="s">
-        <v>4538</v>
-      </c>
-      <c r="W13" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X13" t="s">
-        <v>4557</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="B14" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="C14" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="F14" t="s">
-        <v>4637</v>
+        <v>4635</v>
       </c>
       <c r="G14" t="str">
         <f>Config!$B$5</f>
@@ -45327,40 +45365,40 @@
         <v>464</v>
       </c>
       <c r="J14" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="K14" s="4">
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="L14" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="M14" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="N14" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="O14" t="s">
         <v>26</v>
       </c>
       <c r="P14" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="U14" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="V14" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="W14" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X14" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="Y14" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
   </sheetData>
@@ -45450,19 +45488,19 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -45527,19 +45565,19 @@
         <v>2719</v>
       </c>
       <c r="U2" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="V2" t="s">
         <v>2708</v>
       </c>
       <c r="W2" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X2" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
       <c r="Y2" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -71219,10 +71257,10 @@
         <v>2914</v>
       </c>
       <c r="L488" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="M488" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="N488" t="s">
         <v>4294</v>
@@ -71231,7 +71269,7 @@
         <v>26</v>
       </c>
       <c r="P488" t="s">
-        <v>4693</v>
+        <v>4691</v>
       </c>
       <c r="Q488" t="s">
         <v>4293</v>
@@ -71240,7 +71278,7 @@
         <v>4294</v>
       </c>
       <c r="S488" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="T488" t="s">
         <v>4292</v>
@@ -71252,13 +71290,13 @@
         <v>4289</v>
       </c>
       <c r="W488" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X488" t="s">
         <v>4291</v>
       </c>
       <c r="Y488" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="489" spans="1:25">
@@ -71296,10 +71334,10 @@
         <v>2964</v>
       </c>
       <c r="L489" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="M489" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="N489" t="s">
         <v>4295</v>
@@ -71308,7 +71346,7 @@
         <v>26</v>
       </c>
       <c r="P489" t="s">
-        <v>4695</v>
+        <v>4693</v>
       </c>
       <c r="Q489" t="s">
         <v>4298</v>
@@ -71317,7 +71355,7 @@
         <v>4295</v>
       </c>
       <c r="S489" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="T489" t="s">
         <v>4297</v>
@@ -71326,7 +71364,7 @@
         <v>4293</v>
       </c>
       <c r="W489" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X489" t="s">
         <v>4296</v>
@@ -71334,13 +71372,13 @@
     </row>
     <row r="490" spans="1:25" ht="15.75">
       <c r="A490" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="B490" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="C490" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="D490" t="s">
         <v>21</v>
@@ -71361,33 +71399,33 @@
         <v>3010</v>
       </c>
       <c r="L490" t="s">
+        <v>4773</v>
+      </c>
+      <c r="U490" s="11" t="s">
+        <v>4774</v>
+      </c>
+      <c r="V490" s="11" t="s">
+        <v>4771</v>
+      </c>
+      <c r="W490" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X490" s="11" t="s">
         <v>4775</v>
       </c>
-      <c r="U490" s="11" t="s">
-        <v>4776</v>
-      </c>
-      <c r="V490" s="11" t="s">
-        <v>4773</v>
-      </c>
-      <c r="W490" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X490" s="11" t="s">
-        <v>4777</v>
-      </c>
       <c r="Y490" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="491" spans="1:25" ht="15.75">
       <c r="A491" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="B491" t="s">
         <v>4299</v>
       </c>
       <c r="C491" t="s">
-        <v>4701</v>
+        <v>4699</v>
       </c>
       <c r="D491" t="s">
         <v>21</v>
@@ -71429,30 +71467,30 @@
         <v>4330</v>
       </c>
       <c r="U491" s="11" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="V491" s="11" t="s">
-        <v>4745</v>
+        <v>4743</v>
       </c>
       <c r="W491" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X491" s="11" t="s">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="Y491" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="492" spans="1:25" ht="15.75">
       <c r="A492" t="s">
-        <v>4697</v>
+        <v>4695</v>
       </c>
       <c r="B492" t="s">
         <v>4300</v>
       </c>
       <c r="C492" t="s">
-        <v>4702</v>
+        <v>4700</v>
       </c>
       <c r="D492" t="s">
         <v>21</v>
@@ -71494,30 +71532,30 @@
         <v>4327</v>
       </c>
       <c r="U492" t="s">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="V492" t="s">
+        <v>4745</v>
+      </c>
+      <c r="W492" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X492" s="11" t="s">
         <v>4747</v>
       </c>
-      <c r="W492" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X492" s="11" t="s">
-        <v>4749</v>
-      </c>
       <c r="Y492" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="493" spans="1:25" ht="15.75">
       <c r="A493" t="s">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="B493" t="s">
         <v>4301</v>
       </c>
       <c r="C493" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="D493" t="s">
         <v>21</v>
@@ -71559,30 +71597,30 @@
         <v>4324</v>
       </c>
       <c r="U493" t="s">
+        <v>4746</v>
+      </c>
+      <c r="V493" t="s">
         <v>4748</v>
       </c>
-      <c r="V493" t="s">
-        <v>4750</v>
-      </c>
       <c r="W493" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X493" s="11" t="s">
-        <v>4751</v>
+        <v>4749</v>
       </c>
       <c r="Y493" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="494" spans="1:25" ht="15.75">
       <c r="A494" t="s">
-        <v>4699</v>
+        <v>4697</v>
       </c>
       <c r="B494" t="s">
         <v>4302</v>
       </c>
       <c r="C494" t="s">
-        <v>4704</v>
+        <v>4702</v>
       </c>
       <c r="D494" t="s">
         <v>21</v>
@@ -71624,30 +71662,30 @@
         <v>4321</v>
       </c>
       <c r="U494" s="11" t="s">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="V494" s="11" t="s">
-        <v>4754</v>
+        <v>4752</v>
       </c>
       <c r="W494" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X494" s="11" t="s">
-        <v>4755</v>
+        <v>4753</v>
       </c>
       <c r="Y494" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="495" spans="1:25" ht="15.75">
       <c r="A495" t="s">
-        <v>4700</v>
+        <v>4698</v>
       </c>
       <c r="B495" t="s">
         <v>4303</v>
       </c>
       <c r="C495" t="s">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="D495" t="s">
         <v>21</v>
@@ -71689,39 +71727,39 @@
         <v>4332</v>
       </c>
       <c r="U495" s="11" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="V495" s="11" t="s">
-        <v>4752</v>
+        <v>4750</v>
       </c>
       <c r="W495" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X495" s="11" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="Y495" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="496" spans="1:25">
       <c r="A496" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C496" t="s">
         <v>4458</v>
       </c>
-      <c r="B496" t="s">
-        <v>4458</v>
-      </c>
-      <c r="C496" t="s">
+      <c r="D496" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E496" t="s">
         <v>4460</v>
       </c>
-      <c r="D496" t="s">
+      <c r="F496" t="s">
         <v>4461</v>
-      </c>
-      <c r="E496" t="s">
-        <v>4462</v>
-      </c>
-      <c r="F496" t="s">
-        <v>4463</v>
       </c>
       <c r="G496" t="s">
         <v>2712</v>
@@ -71733,51 +71771,51 @@
         <v>2713</v>
       </c>
       <c r="J496" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="K496" t="s">
         <v>2975</v>
       </c>
       <c r="L496" t="s">
+        <v>4462</v>
+      </c>
+      <c r="M496" t="s">
+        <v>4463</v>
+      </c>
+      <c r="N496" t="s">
+        <v>4456</v>
+      </c>
+      <c r="O496" t="s">
+        <v>26</v>
+      </c>
+      <c r="P496" t="s">
         <v>4464</v>
       </c>
-      <c r="M496" t="s">
+      <c r="U496" t="s">
         <v>4465</v>
       </c>
-      <c r="N496" t="s">
-        <v>4458</v>
-      </c>
-      <c r="O496" t="s">
-        <v>26</v>
-      </c>
-      <c r="P496" t="s">
+      <c r="V496" t="s">
+        <v>4456</v>
+      </c>
+      <c r="W496" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X496" t="s">
         <v>4466</v>
       </c>
-      <c r="U496" t="s">
-        <v>4467</v>
-      </c>
-      <c r="V496" t="s">
-        <v>4458</v>
-      </c>
-      <c r="W496" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X496" t="s">
-        <v>4468</v>
-      </c>
       <c r="Y496" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="497" spans="1:25">
       <c r="A497" t="s">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="B497" t="s">
         <v>4299</v>
       </c>
       <c r="C497" t="s">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="D497" t="s">
         <v>21</v>
@@ -71798,7 +71836,7 @@
         <v>3911</v>
       </c>
       <c r="J497" t="s">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="K497" t="s">
         <v>4304</v>
@@ -71810,39 +71848,39 @@
         <v>4320</v>
       </c>
       <c r="N497" t="s">
-        <v>4722</v>
+        <v>4720</v>
       </c>
       <c r="O497" t="s">
         <v>26</v>
       </c>
       <c r="P497" t="s">
-        <v>4726</v>
+        <v>4724</v>
       </c>
       <c r="U497" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="V497" t="s">
-        <v>4733</v>
+        <v>4731</v>
       </c>
       <c r="W497" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X497" t="s">
-        <v>4732</v>
+        <v>4730</v>
       </c>
       <c r="Y497" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="498" spans="1:25" ht="15.75">
       <c r="A498" t="s">
-        <v>4707</v>
+        <v>4705</v>
       </c>
       <c r="B498" t="s">
         <v>4300</v>
       </c>
       <c r="C498" t="s">
-        <v>4712</v>
+        <v>4710</v>
       </c>
       <c r="D498" t="s">
         <v>21</v>
@@ -71863,7 +71901,7 @@
         <v>3911</v>
       </c>
       <c r="J498" t="s">
-        <v>4717</v>
+        <v>4715</v>
       </c>
       <c r="K498" t="s">
         <v>4305</v>
@@ -71875,39 +71913,39 @@
         <v>4320</v>
       </c>
       <c r="N498" t="s">
-        <v>4721</v>
+        <v>4719</v>
       </c>
       <c r="O498" t="s">
         <v>26</v>
       </c>
       <c r="P498" t="s">
-        <v>4725</v>
+        <v>4723</v>
       </c>
       <c r="U498" s="11" t="s">
-        <v>4743</v>
+        <v>4741</v>
       </c>
       <c r="V498" s="11" t="s">
-        <v>4744</v>
+        <v>4742</v>
       </c>
       <c r="W498" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X498" s="11" t="s">
-        <v>4742</v>
+        <v>4740</v>
       </c>
       <c r="Y498" s="11" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="499" spans="1:25" ht="15.75">
       <c r="A499" t="s">
-        <v>4708</v>
+        <v>4706</v>
       </c>
       <c r="B499" t="s">
         <v>4301</v>
       </c>
       <c r="C499" t="s">
-        <v>4713</v>
+        <v>4711</v>
       </c>
       <c r="D499" t="s">
         <v>21</v>
@@ -71928,7 +71966,7 @@
         <v>3911</v>
       </c>
       <c r="J499" t="s">
-        <v>4718</v>
+        <v>4716</v>
       </c>
       <c r="K499" t="s">
         <v>4306</v>
@@ -71940,39 +71978,39 @@
         <v>4320</v>
       </c>
       <c r="N499" t="s">
-        <v>4723</v>
+        <v>4721</v>
       </c>
       <c r="O499" t="s">
         <v>26</v>
       </c>
       <c r="P499" t="s">
-        <v>4727</v>
+        <v>4725</v>
       </c>
       <c r="U499" t="s">
+        <v>4735</v>
+      </c>
+      <c r="V499" s="11" t="s">
+        <v>4736</v>
+      </c>
+      <c r="W499" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X499" s="11" t="s">
         <v>4737</v>
       </c>
-      <c r="V499" s="11" t="s">
-        <v>4738</v>
-      </c>
-      <c r="W499" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X499" s="11" t="s">
-        <v>4739</v>
-      </c>
       <c r="Y499" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="500" spans="1:25" ht="15.75">
       <c r="A500" t="s">
-        <v>4709</v>
+        <v>4707</v>
       </c>
       <c r="B500" t="s">
         <v>4302</v>
       </c>
       <c r="C500" t="s">
-        <v>4715</v>
+        <v>4713</v>
       </c>
       <c r="D500" t="s">
         <v>21</v>
@@ -71993,7 +72031,7 @@
         <v>3911</v>
       </c>
       <c r="J500" t="s">
-        <v>4719</v>
+        <v>4717</v>
       </c>
       <c r="K500" t="s">
         <v>4307</v>
@@ -72005,39 +72043,39 @@
         <v>4320</v>
       </c>
       <c r="N500" t="s">
-        <v>4724</v>
+        <v>4722</v>
       </c>
       <c r="O500" t="s">
         <v>26</v>
       </c>
       <c r="P500" t="s">
-        <v>4728</v>
+        <v>4726</v>
       </c>
       <c r="U500" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="V500" s="11" t="s">
-        <v>4736</v>
+        <v>4734</v>
       </c>
       <c r="W500" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X500" s="11" t="s">
-        <v>4735</v>
+        <v>4733</v>
       </c>
       <c r="Y500" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="501" spans="1:25" ht="15.75">
       <c r="A501" t="s">
-        <v>4710</v>
+        <v>4708</v>
       </c>
       <c r="B501" t="s">
         <v>4303</v>
       </c>
       <c r="C501" t="s">
-        <v>4714</v>
+        <v>4712</v>
       </c>
       <c r="D501" t="s">
         <v>21</v>
@@ -72058,7 +72096,7 @@
         <v>3911</v>
       </c>
       <c r="J501" t="s">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="K501" t="s">
         <v>4308</v>
@@ -72067,51 +72105,51 @@
         <v>4335</v>
       </c>
       <c r="M501" t="s">
-        <v>4731</v>
+        <v>4729</v>
       </c>
       <c r="N501" t="s">
-        <v>4730</v>
+        <v>4728</v>
       </c>
       <c r="O501" t="s">
         <v>26</v>
       </c>
       <c r="P501" t="s">
-        <v>4729</v>
+        <v>4727</v>
       </c>
       <c r="U501" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="V501" s="11" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="W501" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X501" s="11" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
       <c r="Y501" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="502" spans="1:25" ht="15.75">
       <c r="A502" s="11" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="B502" s="11" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>4757</v>
+        <v>4755</v>
       </c>
       <c r="D502" t="s">
         <v>21</v>
       </c>
       <c r="E502" s="11" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
       <c r="F502" s="11" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="G502" t="s">
         <v>2712</v>
@@ -72123,48 +72161,48 @@
         <v>2713</v>
       </c>
       <c r="J502" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="K502" t="s">
         <v>2914</v>
       </c>
       <c r="L502" t="s">
+        <v>4757</v>
+      </c>
+      <c r="U502" t="s">
+        <v>4758</v>
+      </c>
+      <c r="V502" s="11" t="s">
+        <v>4754</v>
+      </c>
+      <c r="W502" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X502" s="11" t="s">
         <v>4759</v>
       </c>
-      <c r="U502" t="s">
-        <v>4760</v>
-      </c>
-      <c r="V502" s="11" t="s">
-        <v>4756</v>
-      </c>
-      <c r="W502" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X502" s="11" t="s">
-        <v>4761</v>
-      </c>
       <c r="Y502" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="503" spans="1:25" ht="15.75">
       <c r="A503" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B503" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E503" s="11" t="s">
         <v>4765</v>
       </c>
-      <c r="B503" t="s">
-        <v>4765</v>
-      </c>
-      <c r="C503" s="11" t="s">
-        <v>4766</v>
-      </c>
-      <c r="D503" t="s">
-        <v>2710</v>
-      </c>
-      <c r="E503" s="11" t="s">
-        <v>4767</v>
-      </c>
       <c r="F503" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
       <c r="G503" t="s">
         <v>2712</v>
@@ -72179,45 +72217,45 @@
         <v>3300</v>
       </c>
       <c r="K503" t="s">
+        <v>4766</v>
+      </c>
+      <c r="L503" t="s">
+        <v>4767</v>
+      </c>
+      <c r="U503" s="11" t="s">
+        <v>4769</v>
+      </c>
+      <c r="V503" t="s">
+        <v>4770</v>
+      </c>
+      <c r="W503" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X503" s="11" t="s">
         <v>4768</v>
       </c>
-      <c r="L503" t="s">
-        <v>4769</v>
-      </c>
-      <c r="U503" s="11" t="s">
-        <v>4771</v>
-      </c>
-      <c r="V503" t="s">
-        <v>4772</v>
-      </c>
-      <c r="W503" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X503" s="11" t="s">
-        <v>4770</v>
-      </c>
       <c r="Y503" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="504" spans="1:25" ht="15.75">
       <c r="A504" s="11" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B504" s="11" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D504" t="s">
         <v>21</v>
       </c>
       <c r="E504" s="11" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="F504" s="11" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="G504" t="s">
         <v>2712</v>
@@ -72229,28 +72267,28 @@
         <v>2713</v>
       </c>
       <c r="J504" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="K504" t="s">
         <v>2914</v>
       </c>
       <c r="L504" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="U504" t="s">
-        <v>4443</v>
+        <v>4441</v>
       </c>
       <c r="V504" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="W504" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X504" s="11" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="Y504" s="11" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
     </row>
   </sheetData>
@@ -72337,45 +72375,45 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="B2" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="C2" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="H2" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="I2" t="s">
-        <v>4679</v>
+        <v>4677</v>
       </c>
       <c r="J2" t="s">
-        <v>4680</v>
+        <v>4678</v>
       </c>
     </row>
   </sheetData>
@@ -72458,154 +72496,154 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D2" t="s">
         <v>4479</v>
       </c>
-      <c r="B2" t="s">
-        <v>4479</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4480</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4481</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4482</v>
       </c>
       <c r="G2" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H2" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
       <c r="I2" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="J2" t="s">
-        <v>4861</v>
+        <v>4859</v>
       </c>
       <c r="U2" t="s">
+        <v>4479</v>
+      </c>
+      <c r="V2" t="s">
         <v>4481</v>
       </c>
-      <c r="V2" t="s">
-        <v>4483</v>
-      </c>
       <c r="W2" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X2" t="s">
-        <v>4484</v>
+        <v>4482</v>
       </c>
       <c r="Y2" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E3" t="s">
         <v>4485</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4485</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4486</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4448</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4487</v>
       </c>
       <c r="G3" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H3" t="s">
+        <v>4486</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4419</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4857</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4446</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4487</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4604</v>
+      </c>
+      <c r="X3" t="s">
         <v>4488</v>
       </c>
-      <c r="I3" t="s">
-        <v>4421</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4859</v>
-      </c>
-      <c r="U3" t="s">
-        <v>4448</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4489</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4606</v>
-      </c>
-      <c r="X3" t="s">
-        <v>4490</v>
-      </c>
       <c r="Y3" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D4" t="s">
         <v>4492</v>
       </c>
-      <c r="B4" t="s">
-        <v>4492</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>4493</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4494</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4495</v>
       </c>
       <c r="G4" t="str">
         <f>Config!$B$6</f>
         <v>SCH/Logic_IEC.SchLib</v>
       </c>
       <c r="H4" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="I4" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="J4" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="U4" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="V4" t="s">
-        <v>4491</v>
+        <v>4489</v>
       </c>
       <c r="W4" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X4" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="Y4" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
   </sheetData>
@@ -72617,7 +72655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A8F6A-F5E5-42B9-9631-24C8A730FB17}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -72688,19 +72726,19 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>4648</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>4649</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>4650</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -72726,7 +72764,7 @@
         <v>4392</v>
       </c>
       <c r="I2" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="J2" t="s">
         <v>4392</v>
@@ -72741,24 +72779,24 @@
         <v>4392</v>
       </c>
       <c r="W2" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X2" t="s">
         <v>4398</v>
       </c>
       <c r="Y2" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="B3" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="C3" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="D3" t="s">
         <v>4394</v>
@@ -72770,28 +72808,28 @@
         <v>4396</v>
       </c>
       <c r="H3" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="I3" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="J3" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="U3" t="s">
         <v>4399</v>
       </c>
       <c r="V3" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
       <c r="W3" t="s">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="X3" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
       <c r="Y3" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
     </row>
   </sheetData>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCCF81-9A35-41A5-A331-F27E399268A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328C65E-A561-4490-889C-4CFECB90ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="10" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="4875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="4876">
   <si>
     <t>Part Number</t>
   </si>
@@ -14671,6 +14671,9 @@
   </si>
   <si>
     <t>21700 Battery cell for FSCH nightcone project</t>
+  </si>
+  <si>
+    <t>LEDM5050X165-6-NE</t>
   </si>
 </sst>
 </file>
@@ -15385,11 +15388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15653,7 +15656,7 @@
         <v>3911</v>
       </c>
       <c r="I5" t="s">
-        <v>4864</v>
+        <v>4875</v>
       </c>
       <c r="J5" t="s">
         <v>4664</v>
@@ -16746,7 +16749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328C65E-A561-4490-889C-4CFECB90ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FA932-091F-4674-AB9D-E06BEB694BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="3" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="4876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="4877">
   <si>
     <t>Part Number</t>
   </si>
@@ -14586,12 +14586,6 @@
     <t>C194323</t>
   </si>
   <si>
-    <t>C126566</t>
-  </si>
-  <si>
-    <t>GCM1885C1H471JA16D</t>
-  </si>
-  <si>
     <t>0603WAF4701T5E</t>
   </si>
   <si>
@@ -14674,6 +14668,15 @@
   </si>
   <si>
     <t>LEDM5050X165-6-NE</t>
+  </si>
+  <si>
+    <t>Walsin Tech Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT18N471J500CT </t>
+  </si>
+  <si>
+    <t>c458969</t>
   </si>
 </sst>
 </file>
@@ -15388,7 +15391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15518,7 +15521,7 @@
         <v>4419</v>
       </c>
       <c r="I2" t="s">
-        <v>4863</v>
+        <v>4861</v>
       </c>
       <c r="J2" t="s">
         <v>4661</v>
@@ -15565,7 +15568,7 @@
         <v>4420</v>
       </c>
       <c r="I3" t="s">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="J3" t="s">
         <v>4662</v>
@@ -15609,7 +15612,7 @@
         <v>4419</v>
       </c>
       <c r="I4" t="s">
-        <v>4850</v>
+        <v>4848</v>
       </c>
       <c r="J4" t="s">
         <v>4663</v>
@@ -15656,7 +15659,7 @@
         <v>3911</v>
       </c>
       <c r="I5" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="J5" t="s">
         <v>4664</v>
@@ -15703,7 +15706,7 @@
         <v>3911</v>
       </c>
       <c r="I6" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="J6" t="s">
         <v>4665</v>
@@ -15750,7 +15753,7 @@
         <v>3911</v>
       </c>
       <c r="I7" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="J7" t="s">
         <v>4683</v>
@@ -15797,7 +15800,7 @@
         <v>3911</v>
       </c>
       <c r="I8" t="s">
-        <v>4864</v>
+        <v>4862</v>
       </c>
       <c r="J8" t="s">
         <v>4844</v>
@@ -15844,7 +15847,7 @@
         <v>3911</v>
       </c>
       <c r="I9" t="s">
-        <v>4852</v>
+        <v>4850</v>
       </c>
       <c r="J9" t="s">
         <v>4666</v>
@@ -15891,7 +15894,7 @@
         <v>3911</v>
       </c>
       <c r="I10" t="s">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="J10" t="s">
         <v>4667</v>
@@ -15938,7 +15941,7 @@
         <v>3911</v>
       </c>
       <c r="I11" t="s">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="J11" t="s">
         <v>4668</v>
@@ -15985,7 +15988,7 @@
         <v>3911</v>
       </c>
       <c r="I12" t="s">
-        <v>4854</v>
+        <v>4852</v>
       </c>
       <c r="J12" t="s">
         <v>4669</v>
@@ -16032,7 +16035,7 @@
         <v>4419</v>
       </c>
       <c r="I13" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J13" t="s">
         <v>4670</v>
@@ -16079,7 +16082,7 @@
         <v>4420</v>
       </c>
       <c r="I14" t="s">
-        <v>4856</v>
+        <v>4854</v>
       </c>
       <c r="J14" t="s">
         <v>4671</v>
@@ -16126,7 +16129,7 @@
         <v>4419</v>
       </c>
       <c r="I15" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J15" t="s">
         <v>4432</v>
@@ -16185,7 +16188,7 @@
         <v>4419</v>
       </c>
       <c r="I16" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J16" t="s">
         <v>4438</v>
@@ -16244,7 +16247,7 @@
         <v>4419</v>
       </c>
       <c r="I17" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J17" t="s">
         <v>4445</v>
@@ -16303,7 +16306,7 @@
         <v>4419</v>
       </c>
       <c r="I18" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="J18" t="s">
         <v>4672</v>
@@ -16362,7 +16365,7 @@
         <v>4419</v>
       </c>
       <c r="I19" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J19" t="s">
         <v>4673</v>
@@ -16406,7 +16409,7 @@
         <v>4419</v>
       </c>
       <c r="I20" t="s">
-        <v>4862</v>
+        <v>4860</v>
       </c>
       <c r="J20" t="s">
         <v>4567</v>
@@ -16465,7 +16468,7 @@
         <v>4419</v>
       </c>
       <c r="I21" t="s">
-        <v>4861</v>
+        <v>4859</v>
       </c>
       <c r="J21" t="s">
         <v>4674</v>
@@ -16512,7 +16515,7 @@
         <v>4419</v>
       </c>
       <c r="I22" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J22" t="s">
         <v>4675</v>
@@ -16559,7 +16562,7 @@
         <v>4419</v>
       </c>
       <c r="I23" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J23" t="s">
         <v>4676</v>
@@ -16618,7 +16621,7 @@
         <v>4419</v>
       </c>
       <c r="I24" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J24" t="s">
         <v>4654</v>
@@ -16666,7 +16669,7 @@
         <v>4419</v>
       </c>
       <c r="I25" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J25" t="s">
         <v>4688</v>
@@ -16713,7 +16716,7 @@
         <v>4419</v>
       </c>
       <c r="I26" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="J26" t="s">
         <v>4761</v>
@@ -17135,13 +17138,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>4872</v>
+        <v>4870</v>
       </c>
       <c r="B12" t="s">
-        <v>4872</v>
+        <v>4870</v>
       </c>
       <c r="C12" t="s">
-        <v>4871</v>
+        <v>4869</v>
       </c>
       <c r="D12" t="s">
         <v>4351</v>
@@ -17156,18 +17159,18 @@
         <v>4402</v>
       </c>
       <c r="I12" t="s">
-        <v>4870</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="B13" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="C13" t="s">
-        <v>4874</v>
+        <v>4872</v>
       </c>
       <c r="D13" t="s">
         <v>4351</v>
@@ -17182,7 +17185,7 @@
         <v>4402</v>
       </c>
       <c r="I13" t="s">
-        <v>4869</v>
+        <v>4867</v>
       </c>
     </row>
   </sheetData>
@@ -23075,13 +23078,13 @@
         <v>4786</v>
       </c>
       <c r="V91" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>4604</v>
       </c>
       <c r="X91" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="Y91" s="1" t="s">
         <v>4785</v>
@@ -38361,11 +38364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8A1AAB-C407-4ADB-8694-9A4B002D9EDF}">
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="R13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -40580,16 +40583,16 @@
         <v>710</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>4830</v>
+        <v>4874</v>
       </c>
       <c r="V34" t="s">
-        <v>4847</v>
+        <v>4875</v>
       </c>
       <c r="W34" t="s">
         <v>4604</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>4846</v>
+        <v>4876</v>
       </c>
       <c r="Y34" t="s">
         <v>4784</v>
@@ -72541,7 +72544,7 @@
         <v>4420</v>
       </c>
       <c r="J2" t="s">
-        <v>4859</v>
+        <v>4857</v>
       </c>
       <c r="U2" t="s">
         <v>4479</v>
@@ -72586,7 +72589,7 @@
         <v>4419</v>
       </c>
       <c r="J3" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="U3" t="s">
         <v>4446</v>
@@ -72631,7 +72634,7 @@
         <v>4420</v>
       </c>
       <c r="J4" t="s">
-        <v>4858</v>
+        <v>4856</v>
       </c>
       <c r="U4" t="s">
         <v>4492</v>
@@ -72793,13 +72796,13 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="B3" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="C3" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="D3" t="s">
         <v>4394</v>
@@ -72811,25 +72814,25 @@
         <v>4396</v>
       </c>
       <c r="H3" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="I3" t="s">
         <v>4476</v>
       </c>
       <c r="J3" t="s">
-        <v>4865</v>
+        <v>4863</v>
       </c>
       <c r="U3" t="s">
         <v>4399</v>
       </c>
       <c r="V3" t="s">
-        <v>4867</v>
+        <v>4865</v>
       </c>
       <c r="W3" t="s">
         <v>4604</v>
       </c>
       <c r="X3" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="Y3" t="s">
         <v>4784</v>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D79B01-7ED6-4C7B-B52E-654DD0087E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCD1D7-94F7-4F7F-9670-B3510AF7E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="10" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22282" uniqueCount="6701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22297" uniqueCount="6707">
   <si>
     <t>Part Number</t>
   </si>
@@ -20149,6 +20149,24 @@
   </si>
   <si>
     <t>TC2070-NL</t>
+  </si>
+  <si>
+    <t>ZD24C02B</t>
+  </si>
+  <si>
+    <t>I2C-Compatible (2-wire) Serial EEPROM 2K bits</t>
+  </si>
+  <si>
+    <t>EEPROM_I2C_WP_3ADDR</t>
+  </si>
+  <si>
+    <t>https://datasheet.lcsc.com/lcsc/2402020955_Zetta-ZD24C02B-SSGMB_C5374786.pdf</t>
+  </si>
+  <si>
+    <t>ZD24C02B-SSGMB</t>
+  </si>
+  <si>
+    <t>C5374786</t>
   </si>
 </sst>
 </file>
@@ -20942,13 +20960,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -22599,7 +22617,7 @@
         <v>6365</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>6420</v>
       </c>
@@ -22655,7 +22673,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>6425</v>
       </c>
@@ -22711,7 +22729,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>6434</v>
       </c>
@@ -22765,6 +22783,53 @@
       </c>
       <c r="V35" s="5" t="s">
         <v>6440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>6701</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6701</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6702</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6328</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6703</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4417</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4849</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6704</v>
+      </c>
+      <c r="S36" t="s">
+        <v>4568</v>
+      </c>
+      <c r="T36" t="s">
+        <v>6705</v>
+      </c>
+      <c r="U36" t="s">
+        <v>4601</v>
+      </c>
+      <c r="V36" t="s">
+        <v>6706</v>
+      </c>
+      <c r="W36" t="s">
+        <v>4780</v>
       </c>
     </row>
   </sheetData>
@@ -22782,8 +22847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/daniw_altium_lib.xlsx
+++ b/daniw_altium_lib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Daniel\ele\daniw_altium_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCD1D7-94F7-4F7F-9670-B3510AF7E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0629A6E9-DE63-4719-AD7D-D75A80BF6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="9" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" firstSheet="1" activeTab="10" xr2:uid="{3DF4F140-3850-4A89-8CCA-7C160BF9B667}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -20079,9 +20079,6 @@
     <t>CON6</t>
   </si>
   <si>
-    <t>PCB/TAG-CONECT.PcbLib</t>
-  </si>
-  <si>
     <t>TC2030</t>
   </si>
   <si>
@@ -20167,6 +20164,9 @@
   </si>
   <si>
     <t>C5374786</t>
+  </si>
+  <si>
+    <t>PCB/TAG_CONNECT.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -20962,7 +20962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8992C59-F5E3-466D-8132-19915B114D9C}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22787,13 +22787,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
+        <v>6700</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6700</v>
+      </c>
+      <c r="C36" t="s">
         <v>6701</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6701</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6702</v>
       </c>
       <c r="D36" t="s">
         <v>4568</v>
@@ -22805,7 +22805,7 @@
         <v>2693</v>
       </c>
       <c r="G36" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="H36" t="s">
         <v>4417</v>
@@ -22814,19 +22814,19 @@
         <v>4849</v>
       </c>
       <c r="J36" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="S36" t="s">
         <v>4568</v>
       </c>
       <c r="T36" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="U36" t="s">
         <v>4601</v>
       </c>
       <c r="V36" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="W36" t="s">
         <v>4780</v>
@@ -22847,8 +22847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CA65D6-1BE4-4CF1-A255-E1F9C8CC291A}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -23419,7 +23419,7 @@
         <v>6674</v>
       </c>
       <c r="C18" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="D18" t="s">
         <v>6675</v>
@@ -23431,24 +23431,24 @@
         <v>6676</v>
       </c>
       <c r="H18" t="s">
+        <v>6706</v>
+      </c>
+      <c r="I18" t="s">
         <v>6677</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>6678</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6679</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="B19" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C19" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="D19" t="s">
         <v>6675</v>
@@ -23460,24 +23460,24 @@
         <v>6676</v>
       </c>
       <c r="H19" t="s">
-        <v>6677</v>
+        <v>6706</v>
       </c>
       <c r="I19" t="s">
+        <v>6680</v>
+      </c>
+      <c r="J19" t="s">
         <v>6681</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6682</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="B20" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="C20" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="D20" t="s">
         <v>6675</v>
@@ -23486,27 +23486,27 @@
         <v>4472</v>
       </c>
       <c r="G20" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="H20" t="s">
-        <v>6677</v>
+        <v>6706</v>
       </c>
       <c r="I20" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="J20" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="B21" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="C21" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="D21" t="s">
         <v>6675</v>
@@ -23515,24 +23515,24 @@
         <v>4472</v>
       </c>
       <c r="G21" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="H21" t="s">
-        <v>6677</v>
+        <v>6706</v>
       </c>
       <c r="I21" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="B22" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="C22" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="D22" t="s">
         <v>6675</v>
@@ -23541,27 +23541,27 @@
         <v>4472</v>
       </c>
       <c r="G22" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="H22" t="s">
-        <v>6677</v>
+        <v>6706</v>
       </c>
       <c r="I22" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="J22" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="B23" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="C23" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="D23" t="s">
         <v>6675</v>
@@ -23570,13 +23570,13 @@
         <v>4472</v>
       </c>
       <c r="G23" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="H23" t="s">
-        <v>6677</v>
+        <v>6706</v>
       </c>
       <c r="I23" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
     </row>
   </sheetData>
